--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>Colour coding:</t>
   </si>
@@ -573,15 +573,24 @@
     <t>Guess box</t>
   </si>
   <si>
+    <t>Chongqi,Haixin</t>
+  </si>
+  <si>
+    <t>Counting score</t>
+  </si>
+  <si>
     <t>Chongqi</t>
   </si>
   <si>
-    <t>Counting score</t>
-  </si>
-  <si>
     <t>Jump page from level 1 to level 2</t>
   </si>
   <si>
+    <t>Click button rearrenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game logic </t>
+  </si>
+  <si>
     <t>Database</t>
   </si>
   <si>
@@ -589,6 +598,12 @@
   </si>
   <si>
     <t>Use firebase to store game score</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Code comments</t>
   </si>
 </sst>
 </file>
@@ -769,15 +784,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -791,7 +806,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +864,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1531,10 +1552,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1543,16 +1564,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,10 +1585,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1594,22 +1615,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1618,19 +1639,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1642,38 +1660,41 @@
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1945,7 +1966,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1963,8 +1987,41 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2300,14 +2357,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV60"/>
+  <dimension ref="A1:IV63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="EM15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="GY35" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CO29" sqref="CO29"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.33333333333333" defaultRowHeight="14.25"/>
@@ -2848,7 +2905,7 @@
       <c r="GC3" s="10"/>
       <c r="GD3" s="10"/>
       <c r="GE3" s="26"/>
-      <c r="GF3" s="97" t="s">
+      <c r="GF3" s="102" t="s">
         <v>40</v>
       </c>
       <c r="GG3" s="15"/>
@@ -2902,7 +2959,7 @@
       <c r="HS3" s="2"/>
       <c r="HT3" s="2"/>
       <c r="HU3" s="12"/>
-      <c r="HV3" s="98" t="s">
+      <c r="HV3" s="110" t="s">
         <v>46</v>
       </c>
       <c r="IC3" s="72" t="s">
@@ -2914,14 +2971,14 @@
       <c r="IG3" s="73"/>
       <c r="IH3" s="73"/>
       <c r="II3" s="83"/>
-      <c r="IJ3" s="99" t="s">
+      <c r="IJ3" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="IK3" s="100"/>
-      <c r="IL3" s="100"/>
-      <c r="IM3" s="100"/>
-      <c r="IN3" s="100"/>
-      <c r="IO3" s="102"/>
+      <c r="IK3" s="112"/>
+      <c r="IL3" s="112"/>
+      <c r="IM3" s="112"/>
+      <c r="IN3" s="112"/>
+      <c r="IO3" s="114"/>
       <c r="IP3" s="72" t="s">
         <v>49</v>
       </c>
@@ -3646,7 +3703,7 @@
       <c r="IH4" s="8">
         <v>20</v>
       </c>
-      <c r="II4" s="101">
+      <c r="II4" s="113">
         <v>21</v>
       </c>
       <c r="IJ4" s="74">
@@ -5423,7 +5480,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="36"/>
@@ -5595,7 +5652,7 @@
       <c r="EO22" s="31"/>
       <c r="EP22" s="36"/>
       <c r="ER22" s="33"/>
-      <c r="ET22" s="92"/>
+      <c r="ET22" s="93"/>
       <c r="EV22" s="31"/>
       <c r="EW22" s="36"/>
       <c r="FC22" s="31"/>
@@ -5703,7 +5760,7 @@
       <c r="EO23" s="31"/>
       <c r="EP23" s="36"/>
       <c r="ER23" s="33"/>
-      <c r="ES23" s="92"/>
+      <c r="ES23" s="93"/>
       <c r="EV23" s="31"/>
       <c r="EW23" s="36"/>
       <c r="FC23" s="31"/>
@@ -6993,7 +7050,7 @@
         <v>95</v>
       </c>
       <c r="E35" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="36"/>
@@ -7039,7 +7096,7 @@
       <c r="ER35" s="33"/>
       <c r="EV35" s="45"/>
       <c r="EW35" s="36"/>
-      <c r="FC35" s="93"/>
+      <c r="FC35" s="94"/>
       <c r="FD35" s="57"/>
       <c r="FE35" s="57"/>
       <c r="FF35" s="57"/>
@@ -7162,14 +7219,14 @@
       <c r="EY36" s="90"/>
       <c r="EZ36" s="90"/>
       <c r="FA36" s="90"/>
-      <c r="FB36" s="94"/>
+      <c r="FB36" s="95"/>
       <c r="FC36" s="31"/>
       <c r="FD36" s="36"/>
       <c r="FJ36" s="31"/>
       <c r="FK36" s="89"/>
       <c r="FL36" s="90"/>
       <c r="FM36" s="90"/>
-      <c r="FN36" s="94"/>
+      <c r="FN36" s="95"/>
       <c r="FQ36" s="31"/>
       <c r="FR36" s="59"/>
       <c r="FS36" s="33"/>
@@ -7221,7 +7278,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L37" s="31"/>
       <c r="O37" s="33"/>
@@ -7276,7 +7333,7 @@
       <c r="ET37" s="90"/>
       <c r="EU37" s="90"/>
       <c r="EV37" s="90"/>
-      <c r="EW37" s="95"/>
+      <c r="EW37" s="96"/>
       <c r="FC37" s="31"/>
       <c r="FD37" s="36"/>
       <c r="FJ37" s="31"/>
@@ -7387,12 +7444,12 @@
       <c r="FC38" s="31"/>
       <c r="FD38" s="36"/>
       <c r="FI38" s="89"/>
-      <c r="FJ38" s="94"/>
+      <c r="FJ38" s="95"/>
       <c r="FK38" s="90"/>
       <c r="FL38" s="90"/>
       <c r="FM38" s="90"/>
       <c r="FN38" s="90"/>
-      <c r="FO38" s="94"/>
+      <c r="FO38" s="95"/>
       <c r="FR38" s="59"/>
       <c r="FS38" s="33"/>
       <c r="FT38" s="33"/>
@@ -7502,7 +7559,7 @@
       <c r="FA39" s="90"/>
       <c r="FB39" s="90"/>
       <c r="FC39" s="90"/>
-      <c r="FD39" s="95"/>
+      <c r="FD39" s="96"/>
       <c r="FJ39" s="31"/>
       <c r="FQ39" s="31"/>
       <c r="FR39" s="59"/>
@@ -7555,7 +7612,7 @@
         <v>103</v>
       </c>
       <c r="E40" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="36"/>
@@ -7610,13 +7667,13 @@
       <c r="FC40" s="31"/>
       <c r="FD40" s="36"/>
       <c r="FJ40" s="31"/>
-      <c r="FK40" s="96"/>
-      <c r="FL40" s="96"/>
-      <c r="FM40" s="96"/>
-      <c r="FN40" s="96"/>
-      <c r="FO40" s="96"/>
-      <c r="FP40" s="96"/>
-      <c r="FQ40" s="96"/>
+      <c r="FK40" s="97"/>
+      <c r="FL40" s="97"/>
+      <c r="FM40" s="97"/>
+      <c r="FN40" s="97"/>
+      <c r="FO40" s="97"/>
+      <c r="FP40" s="97"/>
+      <c r="FQ40" s="97"/>
       <c r="FR40" s="59"/>
       <c r="FS40" s="33"/>
       <c r="FT40" s="33"/>
@@ -7664,10 +7721,10 @@
         <v>104</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E41" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="36"/>
@@ -7722,13 +7779,13 @@
       <c r="FC41" s="31"/>
       <c r="FD41" s="36"/>
       <c r="FJ41" s="31"/>
-      <c r="FK41" s="96"/>
-      <c r="FL41" s="96"/>
-      <c r="FM41" s="96"/>
-      <c r="FN41" s="96"/>
-      <c r="FO41" s="96"/>
-      <c r="FP41" s="96"/>
-      <c r="FQ41" s="96"/>
+      <c r="FK41" s="97"/>
+      <c r="FL41" s="97"/>
+      <c r="FM41" s="97"/>
+      <c r="FN41" s="97"/>
+      <c r="FO41" s="97"/>
+      <c r="FP41" s="97"/>
+      <c r="FQ41" s="97"/>
       <c r="FR41" s="59"/>
       <c r="FS41" s="33"/>
       <c r="FT41" s="33"/>
@@ -7773,10 +7830,14 @@
         <v>96</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+        <v>106</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="22">
+        <v>1</v>
+      </c>
       <c r="L42" s="31"/>
       <c r="M42" s="36"/>
       <c r="O42" s="33"/>
@@ -7836,10 +7897,10 @@
       <c r="FS42" s="33"/>
       <c r="FT42" s="33"/>
       <c r="FU42" s="33"/>
-      <c r="FV42" s="33"/>
-      <c r="FW42" s="33"/>
-      <c r="FX42" s="65"/>
-      <c r="FY42" s="59"/>
+      <c r="FV42" s="98"/>
+      <c r="FW42" s="99"/>
+      <c r="FX42" s="99"/>
+      <c r="FY42" s="96"/>
       <c r="FZ42" s="33"/>
       <c r="GA42" s="33"/>
       <c r="GB42" s="33"/>
@@ -7868,18 +7929,18 @@
       <c r="IP42" s="76"/>
       <c r="IV42" s="86"/>
     </row>
-    <row r="43" ht="28.5" spans="1:256">
+    <row r="43" spans="1:256">
       <c r="A43" s="19">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>107</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="E43" s="22">
         <v>1</v>
@@ -7929,8 +7990,6 @@
       <c r="EB43" s="36"/>
       <c r="EH43" s="31"/>
       <c r="EI43" s="36"/>
-      <c r="EK43" s="91"/>
-      <c r="EL43" s="91"/>
       <c r="EO43" s="31"/>
       <c r="EP43" s="36"/>
       <c r="ER43" s="33"/>
@@ -7960,10 +8019,21 @@
       <c r="GM43" s="36"/>
       <c r="GS43" s="31"/>
       <c r="GT43" s="36"/>
-      <c r="GZ43" s="31"/>
-      <c r="HA43" s="36"/>
-      <c r="HG43" s="31"/>
-      <c r="HH43" s="36"/>
+      <c r="GW43" s="104"/>
+      <c r="GX43" s="105"/>
+      <c r="GY43" s="105"/>
+      <c r="GZ43" s="105"/>
+      <c r="HA43" s="104"/>
+      <c r="HB43" s="105"/>
+      <c r="HC43" s="105"/>
+      <c r="HD43" s="105"/>
+      <c r="HE43" s="105"/>
+      <c r="HF43" s="105"/>
+      <c r="HG43" s="105"/>
+      <c r="HH43" s="104"/>
+      <c r="HI43" s="105"/>
+      <c r="HJ43" s="105"/>
+      <c r="HK43" s="105"/>
       <c r="HN43" s="31"/>
       <c r="HO43" s="59"/>
       <c r="HR43" s="66"/>
@@ -7979,16 +8049,20 @@
     </row>
     <row r="44" spans="1:256">
       <c r="A44" s="19">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="22">
+        <v>1</v>
+      </c>
       <c r="L44" s="31"/>
       <c r="M44" s="36"/>
       <c r="O44" s="33"/>
@@ -8054,19 +8128,42 @@
       <c r="FY44" s="59"/>
       <c r="FZ44" s="33"/>
       <c r="GA44" s="33"/>
-      <c r="GB44" s="33"/>
-      <c r="GC44" s="33"/>
-      <c r="GD44" s="33"/>
-      <c r="GE44" s="65"/>
-      <c r="GF44" s="36"/>
-      <c r="GL44" s="31"/>
-      <c r="GM44" s="36"/>
-      <c r="GS44" s="31"/>
-      <c r="GT44" s="36"/>
-      <c r="GZ44" s="31"/>
-      <c r="HA44" s="36"/>
-      <c r="HG44" s="31"/>
-      <c r="HH44" s="36"/>
+      <c r="GB44" s="100"/>
+      <c r="GC44" s="100"/>
+      <c r="GD44" s="100"/>
+      <c r="GE44" s="103"/>
+      <c r="GF44" s="100"/>
+      <c r="GG44" s="100"/>
+      <c r="GH44" s="100"/>
+      <c r="GI44" s="100"/>
+      <c r="GJ44" s="100"/>
+      <c r="GK44" s="100"/>
+      <c r="GL44" s="103"/>
+      <c r="GM44" s="98"/>
+      <c r="GN44" s="99"/>
+      <c r="GO44" s="99"/>
+      <c r="GP44" s="99"/>
+      <c r="GQ44" s="99"/>
+      <c r="GR44" s="99"/>
+      <c r="GS44" s="99"/>
+      <c r="GT44" s="98"/>
+      <c r="GU44" s="99"/>
+      <c r="GV44" s="99"/>
+      <c r="GW44" s="99"/>
+      <c r="GX44" s="99"/>
+      <c r="GY44" s="99"/>
+      <c r="GZ44" s="99"/>
+      <c r="HA44" s="98"/>
+      <c r="HB44" s="99"/>
+      <c r="HC44" s="99"/>
+      <c r="HD44" s="99"/>
+      <c r="HE44" s="99"/>
+      <c r="HF44" s="99"/>
+      <c r="HG44" s="99"/>
+      <c r="HH44" s="98"/>
+      <c r="HI44" s="99"/>
+      <c r="HJ44" s="99"/>
+      <c r="HK44" s="106"/>
       <c r="HN44" s="31"/>
       <c r="HO44" s="59"/>
       <c r="HR44" s="66"/>
@@ -8080,12 +8177,22 @@
       <c r="IP44" s="76"/>
       <c r="IV44" s="86"/>
     </row>
-    <row r="45" spans="1:256">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+    <row r="45" ht="28.5" spans="1:256">
+      <c r="A45" s="19">
+        <v>7.1</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="22">
+        <v>1</v>
+      </c>
       <c r="L45" s="31"/>
       <c r="M45" s="36"/>
       <c r="O45" s="33"/>
@@ -8131,6 +8238,8 @@
       <c r="EB45" s="36"/>
       <c r="EH45" s="31"/>
       <c r="EI45" s="36"/>
+      <c r="EK45" s="91"/>
+      <c r="EL45" s="92"/>
       <c r="EO45" s="31"/>
       <c r="EP45" s="36"/>
       <c r="ER45" s="33"/>
@@ -8178,11 +8287,21 @@
       <c r="IV45" s="86"/>
     </row>
     <row r="46" spans="1:256">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="A46" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
       <c r="L46" s="31"/>
       <c r="M46" s="36"/>
       <c r="O46" s="33"/>
@@ -8242,25 +8361,49 @@
       <c r="FS46" s="33"/>
       <c r="FT46" s="33"/>
       <c r="FU46" s="33"/>
-      <c r="FV46" s="33"/>
-      <c r="FW46" s="33"/>
-      <c r="FX46" s="65"/>
-      <c r="FY46" s="59"/>
-      <c r="FZ46" s="33"/>
-      <c r="GA46" s="33"/>
-      <c r="GB46" s="33"/>
-      <c r="GC46" s="33"/>
-      <c r="GD46" s="33"/>
-      <c r="GE46" s="65"/>
-      <c r="GF46" s="36"/>
-      <c r="GL46" s="31"/>
-      <c r="GM46" s="36"/>
-      <c r="GS46" s="31"/>
-      <c r="GT46" s="36"/>
-      <c r="GZ46" s="31"/>
-      <c r="HA46" s="36"/>
-      <c r="HG46" s="31"/>
-      <c r="HH46" s="36"/>
+      <c r="FV46" s="91"/>
+      <c r="FW46" s="101"/>
+      <c r="FX46" s="92"/>
+      <c r="FY46" s="101"/>
+      <c r="FZ46" s="101"/>
+      <c r="GA46" s="101"/>
+      <c r="GB46" s="101"/>
+      <c r="GC46" s="101"/>
+      <c r="GD46" s="101"/>
+      <c r="GE46" s="92"/>
+      <c r="GF46" s="101"/>
+      <c r="GG46" s="101"/>
+      <c r="GH46" s="101"/>
+      <c r="GI46" s="101"/>
+      <c r="GJ46" s="101"/>
+      <c r="GK46" s="101"/>
+      <c r="GL46" s="92"/>
+      <c r="GM46" s="101"/>
+      <c r="GN46" s="101"/>
+      <c r="GO46" s="101"/>
+      <c r="GP46" s="101"/>
+      <c r="GQ46" s="101"/>
+      <c r="GR46" s="101"/>
+      <c r="GS46" s="92"/>
+      <c r="GT46" s="101"/>
+      <c r="GU46" s="101"/>
+      <c r="GV46" s="101"/>
+      <c r="GW46" s="101"/>
+      <c r="GX46" s="101"/>
+      <c r="GY46" s="101"/>
+      <c r="GZ46" s="92"/>
+      <c r="HA46" s="101"/>
+      <c r="HB46" s="101"/>
+      <c r="HC46" s="101"/>
+      <c r="HD46" s="101"/>
+      <c r="HE46" s="101"/>
+      <c r="HF46" s="101"/>
+      <c r="HG46" s="92"/>
+      <c r="HH46" s="91"/>
+      <c r="HI46" s="101"/>
+      <c r="HJ46" s="101"/>
+      <c r="HK46" s="101"/>
+      <c r="HL46" s="107"/>
       <c r="HN46" s="31"/>
       <c r="HO46" s="59"/>
       <c r="HR46" s="66"/>
@@ -8275,11 +8418,21 @@
       <c r="IV46" s="86"/>
     </row>
     <row r="47" spans="1:256">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="A47" s="19">
+        <v>8.1</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="22">
+        <v>1</v>
+      </c>
       <c r="L47" s="31"/>
       <c r="M47" s="36"/>
       <c r="O47" s="33"/>
@@ -8358,7 +8511,9 @@
       <c r="HA47" s="36"/>
       <c r="HG47" s="31"/>
       <c r="HH47" s="36"/>
-      <c r="HN47" s="31"/>
+      <c r="HL47" s="108"/>
+      <c r="HM47" s="109"/>
+      <c r="HN47" s="109"/>
       <c r="HO47" s="59"/>
       <c r="HR47" s="66"/>
       <c r="HT47" s="66"/>
@@ -9438,269 +9593,560 @@
       <c r="IP58" s="76"/>
       <c r="IV58" s="86"/>
     </row>
-    <row r="59" ht="15" spans="1:256">
+    <row r="59" spans="1:256">
       <c r="A59" s="19"/>
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="46"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="24"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="24"/>
-      <c r="AE59" s="24"/>
-      <c r="AF59" s="24"/>
-      <c r="AG59" s="46"/>
-      <c r="AH59" s="23"/>
-      <c r="AI59" s="24"/>
-      <c r="AJ59" s="24"/>
-      <c r="AK59" s="24"/>
-      <c r="AL59" s="24"/>
-      <c r="AM59" s="24"/>
-      <c r="AN59" s="46"/>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="24"/>
-      <c r="AQ59" s="24"/>
-      <c r="AR59" s="24"/>
-      <c r="AS59" s="24"/>
-      <c r="AT59" s="24"/>
-      <c r="AU59" s="46"/>
-      <c r="AV59" s="23"/>
-      <c r="AW59" s="24"/>
-      <c r="AX59" s="24"/>
-      <c r="AY59" s="24"/>
-      <c r="AZ59" s="24"/>
-      <c r="BA59" s="24"/>
-      <c r="BB59" s="46"/>
-      <c r="BC59" s="23"/>
-      <c r="BD59" s="24"/>
-      <c r="BE59" s="24"/>
-      <c r="BF59" s="24"/>
-      <c r="BG59" s="24"/>
-      <c r="BH59" s="24"/>
-      <c r="BI59" s="46"/>
-      <c r="BJ59" s="60"/>
-      <c r="BK59" s="47"/>
-      <c r="BL59" s="47"/>
-      <c r="BM59" s="47"/>
-      <c r="BN59" s="47"/>
-      <c r="BO59" s="47"/>
-      <c r="BP59" s="68"/>
-      <c r="BQ59" s="60"/>
-      <c r="BR59" s="47"/>
-      <c r="BS59" s="47"/>
-      <c r="BT59" s="69"/>
-      <c r="BU59" s="24"/>
-      <c r="BV59" s="24"/>
-      <c r="BW59" s="46"/>
-      <c r="BX59" s="60"/>
-      <c r="BY59" s="24"/>
-      <c r="BZ59" s="24"/>
-      <c r="CA59" s="24"/>
-      <c r="CB59" s="24"/>
-      <c r="CC59" s="24"/>
-      <c r="CD59" s="46"/>
-      <c r="CE59" s="23"/>
-      <c r="CF59" s="24"/>
-      <c r="CG59" s="24"/>
-      <c r="CH59" s="24"/>
-      <c r="CI59" s="24"/>
-      <c r="CJ59" s="24"/>
-      <c r="CK59" s="46"/>
-      <c r="CL59" s="23"/>
-      <c r="CM59" s="24"/>
-      <c r="CN59" s="24"/>
-      <c r="CO59" s="24"/>
-      <c r="CP59" s="24"/>
-      <c r="CQ59" s="24"/>
-      <c r="CR59" s="46"/>
-      <c r="CS59" s="23"/>
-      <c r="CT59" s="24"/>
-      <c r="CU59" s="24"/>
-      <c r="CV59" s="24"/>
-      <c r="CW59" s="24"/>
-      <c r="CX59" s="24"/>
-      <c r="CY59" s="46"/>
-      <c r="CZ59" s="23"/>
-      <c r="DA59" s="24"/>
-      <c r="DB59" s="24"/>
-      <c r="DC59" s="24"/>
-      <c r="DD59" s="24"/>
-      <c r="DE59" s="24"/>
-      <c r="DF59" s="24"/>
-      <c r="DG59" s="77"/>
-      <c r="DH59" s="78"/>
-      <c r="DI59" s="78"/>
-      <c r="DJ59" s="78"/>
-      <c r="DK59" s="78"/>
-      <c r="DL59" s="78"/>
-      <c r="DM59" s="81"/>
-      <c r="DN59" s="82"/>
-      <c r="DO59" s="78"/>
-      <c r="DP59" s="78"/>
-      <c r="DQ59" s="78"/>
-      <c r="DR59" s="78"/>
-      <c r="DS59" s="78"/>
-      <c r="DT59" s="87"/>
-      <c r="DU59" s="24"/>
-      <c r="DV59" s="24"/>
-      <c r="DW59" s="24"/>
-      <c r="DX59" s="24"/>
-      <c r="DY59" s="24"/>
-      <c r="DZ59" s="24"/>
-      <c r="EA59" s="46"/>
-      <c r="EB59" s="23"/>
-      <c r="EC59" s="24"/>
-      <c r="ED59" s="24"/>
-      <c r="EE59" s="24"/>
-      <c r="EF59" s="24"/>
-      <c r="EG59" s="24"/>
-      <c r="EH59" s="46"/>
-      <c r="EI59" s="23"/>
-      <c r="EJ59" s="24"/>
-      <c r="EK59" s="24"/>
-      <c r="EL59" s="24"/>
-      <c r="EM59" s="24"/>
-      <c r="EN59" s="24"/>
-      <c r="EO59" s="46"/>
-      <c r="EP59" s="23"/>
-      <c r="EQ59" s="24"/>
-      <c r="ER59" s="47"/>
-      <c r="ES59" s="24"/>
-      <c r="ET59" s="24"/>
-      <c r="EU59" s="24"/>
-      <c r="EV59" s="46"/>
-      <c r="EW59" s="23"/>
-      <c r="EX59" s="24"/>
-      <c r="EY59" s="24"/>
-      <c r="EZ59" s="24"/>
-      <c r="FA59" s="24"/>
-      <c r="FB59" s="24"/>
-      <c r="FC59" s="46"/>
-      <c r="FD59" s="23"/>
-      <c r="FE59" s="24"/>
-      <c r="FF59" s="24"/>
-      <c r="FG59" s="24"/>
-      <c r="FH59" s="24"/>
-      <c r="FI59" s="24"/>
-      <c r="FJ59" s="46"/>
-      <c r="FK59" s="23"/>
-      <c r="FL59" s="24"/>
-      <c r="FM59" s="24"/>
-      <c r="FN59" s="24"/>
-      <c r="FO59" s="24"/>
-      <c r="FP59" s="24"/>
-      <c r="FQ59" s="46"/>
-      <c r="FR59" s="60"/>
-      <c r="FS59" s="47"/>
-      <c r="FT59" s="47"/>
-      <c r="FU59" s="47"/>
-      <c r="FV59" s="47"/>
-      <c r="FW59" s="47"/>
-      <c r="FX59" s="68"/>
-      <c r="FY59" s="60"/>
-      <c r="FZ59" s="47"/>
-      <c r="GA59" s="47"/>
-      <c r="GB59" s="47"/>
-      <c r="GC59" s="47"/>
-      <c r="GD59" s="47"/>
-      <c r="GE59" s="68"/>
-      <c r="GF59" s="23"/>
-      <c r="GG59" s="24"/>
-      <c r="GH59" s="24"/>
-      <c r="GI59" s="24"/>
-      <c r="GJ59" s="24"/>
-      <c r="GK59" s="24"/>
-      <c r="GL59" s="46"/>
-      <c r="GM59" s="23"/>
-      <c r="GN59" s="24"/>
-      <c r="GO59" s="24"/>
-      <c r="GP59" s="24"/>
-      <c r="GQ59" s="24"/>
-      <c r="GR59" s="24"/>
-      <c r="GS59" s="46"/>
-      <c r="GT59" s="23"/>
-      <c r="GU59" s="24"/>
-      <c r="GV59" s="24"/>
-      <c r="GW59" s="24"/>
-      <c r="GX59" s="24"/>
-      <c r="GY59" s="24"/>
-      <c r="GZ59" s="46"/>
-      <c r="HA59" s="23"/>
-      <c r="HB59" s="24"/>
-      <c r="HC59" s="24"/>
-      <c r="HD59" s="24"/>
-      <c r="HE59" s="24"/>
-      <c r="HF59" s="24"/>
-      <c r="HG59" s="46"/>
-      <c r="HH59" s="23"/>
-      <c r="HI59" s="24"/>
-      <c r="HJ59" s="24"/>
-      <c r="HK59" s="24"/>
-      <c r="HL59" s="24"/>
-      <c r="HM59" s="24"/>
-      <c r="HN59" s="46"/>
-      <c r="HO59" s="60"/>
-      <c r="HP59" s="24"/>
-      <c r="HQ59" s="24"/>
-      <c r="HR59" s="69"/>
-      <c r="HS59" s="24"/>
-      <c r="HT59" s="69"/>
-      <c r="HU59" s="46"/>
-      <c r="HV59" s="23"/>
-      <c r="HW59" s="24"/>
-      <c r="HX59" s="24"/>
-      <c r="HY59" s="24"/>
-      <c r="HZ59" s="24"/>
-      <c r="IA59" s="24"/>
-      <c r="IB59" s="24"/>
-      <c r="IC59" s="77"/>
-      <c r="ID59" s="78"/>
-      <c r="IE59" s="78"/>
-      <c r="IF59" s="78"/>
-      <c r="IG59" s="78"/>
-      <c r="IH59" s="78"/>
-      <c r="II59" s="87"/>
-      <c r="IJ59" s="77"/>
-      <c r="IK59" s="78"/>
-      <c r="IL59" s="78"/>
-      <c r="IM59" s="78"/>
-      <c r="IN59" s="78"/>
-      <c r="IO59" s="87"/>
-      <c r="IP59" s="77"/>
-      <c r="IQ59" s="78"/>
-      <c r="IR59" s="78"/>
-      <c r="IS59" s="78"/>
-      <c r="IT59" s="78"/>
-      <c r="IU59" s="78"/>
-      <c r="IV59" s="87"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="36"/>
+      <c r="O59" s="33"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="36"/>
+      <c r="Z59" s="31"/>
+      <c r="AA59" s="36"/>
+      <c r="AG59" s="31"/>
+      <c r="AH59" s="36"/>
+      <c r="AN59" s="31"/>
+      <c r="AO59" s="36"/>
+      <c r="AU59" s="31"/>
+      <c r="AV59" s="36"/>
+      <c r="BB59" s="31"/>
+      <c r="BC59" s="36"/>
+      <c r="BI59" s="31"/>
+      <c r="BJ59" s="59"/>
+      <c r="BK59" s="33"/>
+      <c r="BL59" s="33"/>
+      <c r="BM59" s="33"/>
+      <c r="BN59" s="33"/>
+      <c r="BO59" s="33"/>
+      <c r="BP59" s="65"/>
+      <c r="BQ59" s="59"/>
+      <c r="BR59" s="33"/>
+      <c r="BS59" s="33"/>
+      <c r="BT59" s="66"/>
+      <c r="BW59" s="31"/>
+      <c r="BX59" s="59"/>
+      <c r="CD59" s="31"/>
+      <c r="CE59" s="36"/>
+      <c r="CK59" s="31"/>
+      <c r="CL59" s="36"/>
+      <c r="CR59" s="31"/>
+      <c r="CS59" s="36"/>
+      <c r="CY59" s="31"/>
+      <c r="CZ59" s="36"/>
+      <c r="DG59" s="76"/>
+      <c r="DM59" s="31"/>
+      <c r="DN59" s="36"/>
+      <c r="DT59" s="86"/>
+      <c r="EA59" s="31"/>
+      <c r="EB59" s="36"/>
+      <c r="EH59" s="31"/>
+      <c r="EI59" s="36"/>
+      <c r="EO59" s="31"/>
+      <c r="EP59" s="36"/>
+      <c r="ER59" s="33"/>
+      <c r="EV59" s="31"/>
+      <c r="EW59" s="36"/>
+      <c r="FC59" s="31"/>
+      <c r="FD59" s="36"/>
+      <c r="FJ59" s="31"/>
+      <c r="FK59" s="36"/>
+      <c r="FQ59" s="31"/>
+      <c r="FR59" s="59"/>
+      <c r="FS59" s="33"/>
+      <c r="FT59" s="33"/>
+      <c r="FU59" s="33"/>
+      <c r="FV59" s="33"/>
+      <c r="FW59" s="33"/>
+      <c r="FX59" s="65"/>
+      <c r="FY59" s="59"/>
+      <c r="FZ59" s="33"/>
+      <c r="GA59" s="33"/>
+      <c r="GB59" s="33"/>
+      <c r="GC59" s="33"/>
+      <c r="GD59" s="33"/>
+      <c r="GE59" s="65"/>
+      <c r="GF59" s="36"/>
+      <c r="GL59" s="31"/>
+      <c r="GM59" s="36"/>
+      <c r="GS59" s="31"/>
+      <c r="GT59" s="36"/>
+      <c r="GZ59" s="31"/>
+      <c r="HA59" s="36"/>
+      <c r="HG59" s="31"/>
+      <c r="HH59" s="36"/>
+      <c r="HN59" s="31"/>
+      <c r="HO59" s="59"/>
+      <c r="HR59" s="66"/>
+      <c r="HT59" s="66"/>
+      <c r="HU59" s="31"/>
+      <c r="HV59" s="36"/>
+      <c r="IC59" s="76"/>
+      <c r="II59" s="86"/>
+      <c r="IJ59" s="76"/>
+      <c r="IO59" s="86"/>
+      <c r="IP59" s="76"/>
+      <c r="IV59" s="86"/>
     </row>
-    <row r="60" ht="15" spans="1:1">
+    <row r="60" spans="1:256">
       <c r="A60" s="19"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="36"/>
+      <c r="O60" s="33"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="36"/>
+      <c r="Z60" s="31"/>
+      <c r="AA60" s="36"/>
+      <c r="AG60" s="31"/>
+      <c r="AH60" s="36"/>
+      <c r="AN60" s="31"/>
+      <c r="AO60" s="36"/>
+      <c r="AU60" s="31"/>
+      <c r="AV60" s="36"/>
+      <c r="BB60" s="31"/>
+      <c r="BC60" s="36"/>
+      <c r="BI60" s="31"/>
+      <c r="BJ60" s="59"/>
+      <c r="BK60" s="33"/>
+      <c r="BL60" s="33"/>
+      <c r="BM60" s="33"/>
+      <c r="BN60" s="33"/>
+      <c r="BO60" s="33"/>
+      <c r="BP60" s="65"/>
+      <c r="BQ60" s="59"/>
+      <c r="BR60" s="33"/>
+      <c r="BS60" s="33"/>
+      <c r="BT60" s="66"/>
+      <c r="BW60" s="31"/>
+      <c r="BX60" s="59"/>
+      <c r="CD60" s="31"/>
+      <c r="CE60" s="36"/>
+      <c r="CK60" s="31"/>
+      <c r="CL60" s="36"/>
+      <c r="CR60" s="31"/>
+      <c r="CS60" s="36"/>
+      <c r="CY60" s="31"/>
+      <c r="CZ60" s="36"/>
+      <c r="DG60" s="76"/>
+      <c r="DM60" s="31"/>
+      <c r="DN60" s="36"/>
+      <c r="DT60" s="86"/>
+      <c r="EA60" s="31"/>
+      <c r="EB60" s="36"/>
+      <c r="EH60" s="31"/>
+      <c r="EI60" s="36"/>
+      <c r="EO60" s="31"/>
+      <c r="EP60" s="36"/>
+      <c r="ER60" s="33"/>
+      <c r="EV60" s="31"/>
+      <c r="EW60" s="36"/>
+      <c r="FC60" s="31"/>
+      <c r="FD60" s="36"/>
+      <c r="FJ60" s="31"/>
+      <c r="FK60" s="36"/>
+      <c r="FQ60" s="31"/>
+      <c r="FR60" s="59"/>
+      <c r="FS60" s="33"/>
+      <c r="FT60" s="33"/>
+      <c r="FU60" s="33"/>
+      <c r="FV60" s="33"/>
+      <c r="FW60" s="33"/>
+      <c r="FX60" s="65"/>
+      <c r="FY60" s="59"/>
+      <c r="FZ60" s="33"/>
+      <c r="GA60" s="33"/>
+      <c r="GB60" s="33"/>
+      <c r="GC60" s="33"/>
+      <c r="GD60" s="33"/>
+      <c r="GE60" s="65"/>
+      <c r="GF60" s="36"/>
+      <c r="GL60" s="31"/>
+      <c r="GM60" s="36"/>
+      <c r="GS60" s="31"/>
+      <c r="GT60" s="36"/>
+      <c r="GZ60" s="31"/>
+      <c r="HA60" s="36"/>
+      <c r="HG60" s="31"/>
+      <c r="HH60" s="36"/>
+      <c r="HN60" s="31"/>
+      <c r="HO60" s="59"/>
+      <c r="HR60" s="66"/>
+      <c r="HT60" s="66"/>
+      <c r="HU60" s="31"/>
+      <c r="HV60" s="36"/>
+      <c r="IC60" s="76"/>
+      <c r="II60" s="86"/>
+      <c r="IJ60" s="76"/>
+      <c r="IO60" s="86"/>
+      <c r="IP60" s="76"/>
+      <c r="IV60" s="86"/>
+    </row>
+    <row r="61" spans="1:256">
+      <c r="A61" s="19"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="36"/>
+      <c r="O61" s="33"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="36"/>
+      <c r="Z61" s="31"/>
+      <c r="AA61" s="36"/>
+      <c r="AG61" s="31"/>
+      <c r="AH61" s="36"/>
+      <c r="AN61" s="31"/>
+      <c r="AO61" s="36"/>
+      <c r="AU61" s="31"/>
+      <c r="AV61" s="36"/>
+      <c r="BB61" s="31"/>
+      <c r="BC61" s="36"/>
+      <c r="BI61" s="31"/>
+      <c r="BJ61" s="59"/>
+      <c r="BK61" s="33"/>
+      <c r="BL61" s="33"/>
+      <c r="BM61" s="33"/>
+      <c r="BN61" s="33"/>
+      <c r="BO61" s="33"/>
+      <c r="BP61" s="65"/>
+      <c r="BQ61" s="59"/>
+      <c r="BR61" s="33"/>
+      <c r="BS61" s="33"/>
+      <c r="BT61" s="66"/>
+      <c r="BW61" s="31"/>
+      <c r="BX61" s="59"/>
+      <c r="CD61" s="31"/>
+      <c r="CE61" s="36"/>
+      <c r="CK61" s="31"/>
+      <c r="CL61" s="36"/>
+      <c r="CR61" s="31"/>
+      <c r="CS61" s="36"/>
+      <c r="CY61" s="31"/>
+      <c r="CZ61" s="36"/>
+      <c r="DG61" s="76"/>
+      <c r="DM61" s="31"/>
+      <c r="DN61" s="36"/>
+      <c r="DT61" s="86"/>
+      <c r="EA61" s="31"/>
+      <c r="EB61" s="36"/>
+      <c r="EH61" s="31"/>
+      <c r="EI61" s="36"/>
+      <c r="EO61" s="31"/>
+      <c r="EP61" s="36"/>
+      <c r="ER61" s="33"/>
+      <c r="EV61" s="31"/>
+      <c r="EW61" s="36"/>
+      <c r="FC61" s="31"/>
+      <c r="FD61" s="36"/>
+      <c r="FJ61" s="31"/>
+      <c r="FK61" s="36"/>
+      <c r="FQ61" s="31"/>
+      <c r="FR61" s="59"/>
+      <c r="FS61" s="33"/>
+      <c r="FT61" s="33"/>
+      <c r="FU61" s="33"/>
+      <c r="FV61" s="33"/>
+      <c r="FW61" s="33"/>
+      <c r="FX61" s="65"/>
+      <c r="FY61" s="59"/>
+      <c r="FZ61" s="33"/>
+      <c r="GA61" s="33"/>
+      <c r="GB61" s="33"/>
+      <c r="GC61" s="33"/>
+      <c r="GD61" s="33"/>
+      <c r="GE61" s="65"/>
+      <c r="GF61" s="36"/>
+      <c r="GL61" s="31"/>
+      <c r="GM61" s="36"/>
+      <c r="GS61" s="31"/>
+      <c r="GT61" s="36"/>
+      <c r="GZ61" s="31"/>
+      <c r="HA61" s="36"/>
+      <c r="HG61" s="31"/>
+      <c r="HH61" s="36"/>
+      <c r="HN61" s="31"/>
+      <c r="HO61" s="59"/>
+      <c r="HR61" s="66"/>
+      <c r="HT61" s="66"/>
+      <c r="HU61" s="31"/>
+      <c r="HV61" s="36"/>
+      <c r="IC61" s="76"/>
+      <c r="II61" s="86"/>
+      <c r="IJ61" s="76"/>
+      <c r="IO61" s="86"/>
+      <c r="IP61" s="76"/>
+      <c r="IV61" s="86"/>
+    </row>
+    <row r="62" ht="15" spans="1:256">
+      <c r="A62" s="19"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="23"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+      <c r="AF62" s="24"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="23"/>
+      <c r="AI62" s="24"/>
+      <c r="AJ62" s="24"/>
+      <c r="AK62" s="24"/>
+      <c r="AL62" s="24"/>
+      <c r="AM62" s="24"/>
+      <c r="AN62" s="46"/>
+      <c r="AO62" s="23"/>
+      <c r="AP62" s="24"/>
+      <c r="AQ62" s="24"/>
+      <c r="AR62" s="24"/>
+      <c r="AS62" s="24"/>
+      <c r="AT62" s="24"/>
+      <c r="AU62" s="46"/>
+      <c r="AV62" s="23"/>
+      <c r="AW62" s="24"/>
+      <c r="AX62" s="24"/>
+      <c r="AY62" s="24"/>
+      <c r="AZ62" s="24"/>
+      <c r="BA62" s="24"/>
+      <c r="BB62" s="46"/>
+      <c r="BC62" s="23"/>
+      <c r="BD62" s="24"/>
+      <c r="BE62" s="24"/>
+      <c r="BF62" s="24"/>
+      <c r="BG62" s="24"/>
+      <c r="BH62" s="24"/>
+      <c r="BI62" s="46"/>
+      <c r="BJ62" s="60"/>
+      <c r="BK62" s="47"/>
+      <c r="BL62" s="47"/>
+      <c r="BM62" s="47"/>
+      <c r="BN62" s="47"/>
+      <c r="BO62" s="47"/>
+      <c r="BP62" s="68"/>
+      <c r="BQ62" s="60"/>
+      <c r="BR62" s="47"/>
+      <c r="BS62" s="47"/>
+      <c r="BT62" s="69"/>
+      <c r="BU62" s="24"/>
+      <c r="BV62" s="24"/>
+      <c r="BW62" s="46"/>
+      <c r="BX62" s="60"/>
+      <c r="BY62" s="24"/>
+      <c r="BZ62" s="24"/>
+      <c r="CA62" s="24"/>
+      <c r="CB62" s="24"/>
+      <c r="CC62" s="24"/>
+      <c r="CD62" s="46"/>
+      <c r="CE62" s="23"/>
+      <c r="CF62" s="24"/>
+      <c r="CG62" s="24"/>
+      <c r="CH62" s="24"/>
+      <c r="CI62" s="24"/>
+      <c r="CJ62" s="24"/>
+      <c r="CK62" s="46"/>
+      <c r="CL62" s="23"/>
+      <c r="CM62" s="24"/>
+      <c r="CN62" s="24"/>
+      <c r="CO62" s="24"/>
+      <c r="CP62" s="24"/>
+      <c r="CQ62" s="24"/>
+      <c r="CR62" s="46"/>
+      <c r="CS62" s="23"/>
+      <c r="CT62" s="24"/>
+      <c r="CU62" s="24"/>
+      <c r="CV62" s="24"/>
+      <c r="CW62" s="24"/>
+      <c r="CX62" s="24"/>
+      <c r="CY62" s="46"/>
+      <c r="CZ62" s="23"/>
+      <c r="DA62" s="24"/>
+      <c r="DB62" s="24"/>
+      <c r="DC62" s="24"/>
+      <c r="DD62" s="24"/>
+      <c r="DE62" s="24"/>
+      <c r="DF62" s="24"/>
+      <c r="DG62" s="77"/>
+      <c r="DH62" s="78"/>
+      <c r="DI62" s="78"/>
+      <c r="DJ62" s="78"/>
+      <c r="DK62" s="78"/>
+      <c r="DL62" s="78"/>
+      <c r="DM62" s="81"/>
+      <c r="DN62" s="82"/>
+      <c r="DO62" s="78"/>
+      <c r="DP62" s="78"/>
+      <c r="DQ62" s="78"/>
+      <c r="DR62" s="78"/>
+      <c r="DS62" s="78"/>
+      <c r="DT62" s="87"/>
+      <c r="DU62" s="24"/>
+      <c r="DV62" s="24"/>
+      <c r="DW62" s="24"/>
+      <c r="DX62" s="24"/>
+      <c r="DY62" s="24"/>
+      <c r="DZ62" s="24"/>
+      <c r="EA62" s="46"/>
+      <c r="EB62" s="23"/>
+      <c r="EC62" s="24"/>
+      <c r="ED62" s="24"/>
+      <c r="EE62" s="24"/>
+      <c r="EF62" s="24"/>
+      <c r="EG62" s="24"/>
+      <c r="EH62" s="46"/>
+      <c r="EI62" s="23"/>
+      <c r="EJ62" s="24"/>
+      <c r="EK62" s="24"/>
+      <c r="EL62" s="24"/>
+      <c r="EM62" s="24"/>
+      <c r="EN62" s="24"/>
+      <c r="EO62" s="46"/>
+      <c r="EP62" s="23"/>
+      <c r="EQ62" s="24"/>
+      <c r="ER62" s="47"/>
+      <c r="ES62" s="24"/>
+      <c r="ET62" s="24"/>
+      <c r="EU62" s="24"/>
+      <c r="EV62" s="46"/>
+      <c r="EW62" s="23"/>
+      <c r="EX62" s="24"/>
+      <c r="EY62" s="24"/>
+      <c r="EZ62" s="24"/>
+      <c r="FA62" s="24"/>
+      <c r="FB62" s="24"/>
+      <c r="FC62" s="46"/>
+      <c r="FD62" s="23"/>
+      <c r="FE62" s="24"/>
+      <c r="FF62" s="24"/>
+      <c r="FG62" s="24"/>
+      <c r="FH62" s="24"/>
+      <c r="FI62" s="24"/>
+      <c r="FJ62" s="46"/>
+      <c r="FK62" s="23"/>
+      <c r="FL62" s="24"/>
+      <c r="FM62" s="24"/>
+      <c r="FN62" s="24"/>
+      <c r="FO62" s="24"/>
+      <c r="FP62" s="24"/>
+      <c r="FQ62" s="46"/>
+      <c r="FR62" s="60"/>
+      <c r="FS62" s="47"/>
+      <c r="FT62" s="47"/>
+      <c r="FU62" s="47"/>
+      <c r="FV62" s="47"/>
+      <c r="FW62" s="47"/>
+      <c r="FX62" s="68"/>
+      <c r="FY62" s="60"/>
+      <c r="FZ62" s="47"/>
+      <c r="GA62" s="47"/>
+      <c r="GB62" s="47"/>
+      <c r="GC62" s="47"/>
+      <c r="GD62" s="47"/>
+      <c r="GE62" s="68"/>
+      <c r="GF62" s="23"/>
+      <c r="GG62" s="24"/>
+      <c r="GH62" s="24"/>
+      <c r="GI62" s="24"/>
+      <c r="GJ62" s="24"/>
+      <c r="GK62" s="24"/>
+      <c r="GL62" s="46"/>
+      <c r="GM62" s="23"/>
+      <c r="GN62" s="24"/>
+      <c r="GO62" s="24"/>
+      <c r="GP62" s="24"/>
+      <c r="GQ62" s="24"/>
+      <c r="GR62" s="24"/>
+      <c r="GS62" s="46"/>
+      <c r="GT62" s="23"/>
+      <c r="GU62" s="24"/>
+      <c r="GV62" s="24"/>
+      <c r="GW62" s="24"/>
+      <c r="GX62" s="24"/>
+      <c r="GY62" s="24"/>
+      <c r="GZ62" s="46"/>
+      <c r="HA62" s="23"/>
+      <c r="HB62" s="24"/>
+      <c r="HC62" s="24"/>
+      <c r="HD62" s="24"/>
+      <c r="HE62" s="24"/>
+      <c r="HF62" s="24"/>
+      <c r="HG62" s="46"/>
+      <c r="HH62" s="23"/>
+      <c r="HI62" s="24"/>
+      <c r="HJ62" s="24"/>
+      <c r="HK62" s="24"/>
+      <c r="HL62" s="24"/>
+      <c r="HM62" s="24"/>
+      <c r="HN62" s="46"/>
+      <c r="HO62" s="60"/>
+      <c r="HP62" s="24"/>
+      <c r="HQ62" s="24"/>
+      <c r="HR62" s="69"/>
+      <c r="HS62" s="24"/>
+      <c r="HT62" s="69"/>
+      <c r="HU62" s="46"/>
+      <c r="HV62" s="23"/>
+      <c r="HW62" s="24"/>
+      <c r="HX62" s="24"/>
+      <c r="HY62" s="24"/>
+      <c r="HZ62" s="24"/>
+      <c r="IA62" s="24"/>
+      <c r="IB62" s="24"/>
+      <c r="IC62" s="77"/>
+      <c r="ID62" s="78"/>
+      <c r="IE62" s="78"/>
+      <c r="IF62" s="78"/>
+      <c r="IG62" s="78"/>
+      <c r="IH62" s="78"/>
+      <c r="II62" s="87"/>
+      <c r="IJ62" s="77"/>
+      <c r="IK62" s="78"/>
+      <c r="IL62" s="78"/>
+      <c r="IM62" s="78"/>
+      <c r="IN62" s="78"/>
+      <c r="IO62" s="87"/>
+      <c r="IP62" s="77"/>
+      <c r="IQ62" s="78"/>
+      <c r="IR62" s="78"/>
+      <c r="IS62" s="78"/>
+      <c r="IT62" s="78"/>
+      <c r="IU62" s="78"/>
+      <c r="IV62" s="87"/>
+    </row>
+    <row r="63" ht="15" spans="1:1">
+      <c r="A63" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="108">
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:AO2"/>
     <mergeCell ref="AP2:BS2"/>
@@ -9790,6 +10236,25 @@
     <mergeCell ref="EW39:FC39"/>
     <mergeCell ref="FK40:FQ40"/>
     <mergeCell ref="FK41:FQ41"/>
+    <mergeCell ref="FV42:FX42"/>
+    <mergeCell ref="GW43:GZ43"/>
+    <mergeCell ref="HA43:HG43"/>
+    <mergeCell ref="HH43:HK43"/>
+    <mergeCell ref="GB44:GE44"/>
+    <mergeCell ref="GF44:GL44"/>
+    <mergeCell ref="GM44:GS44"/>
+    <mergeCell ref="GT44:GZ44"/>
+    <mergeCell ref="HA44:HG44"/>
+    <mergeCell ref="HH44:HK44"/>
+    <mergeCell ref="EK45:EL45"/>
+    <mergeCell ref="FV46:FX46"/>
+    <mergeCell ref="FY46:GE46"/>
+    <mergeCell ref="GF46:GL46"/>
+    <mergeCell ref="GM46:GS46"/>
+    <mergeCell ref="GT46:GZ46"/>
+    <mergeCell ref="HA46:HG46"/>
+    <mergeCell ref="HH46:HL46"/>
+    <mergeCell ref="HL47:HN47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihaixin/Desktop/code/2022-RewardProcessingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFB336F-9EFF-1A4D-883F-B87BBF5488D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948287E8-2673-514E-89D5-CF26FDB6CB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP Gantt chart" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -39,6 +40,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Some time in the 2 week assessment period:  exams for Algorithms II, Computer Systems A and Programming Languages &amp; Computation
@@ -53,6 +55,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -60,6 +63,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Connolly:Sometime in the 3 week Assessment period:  exams for Data-Driven Computer Science and Computer Systems B</t>
@@ -73,6 +77,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -80,6 +85,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 First client meeting
@@ -95,7 +101,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -103,7 +109,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Project presentations in these 2 weeks
@@ -118,6 +124,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -125,6 +132,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Computer Systems A coursework due date</t>
@@ -137,7 +145,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Minimum Viable Product Release
 </t>
@@ -151,6 +159,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -158,6 +167,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Deploy Beta version</t>
@@ -171,7 +181,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -179,7 +189,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Porject Presentations to staff in this fortnight
@@ -194,6 +204,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -201,6 +212,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Deploy Final Version release</t>
@@ -214,6 +226,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -221,6 +234,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 SEP Project Presentation and Demo</t>
@@ -234,6 +248,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Sarah Connolly:</t>
         </r>
@@ -241,6 +256,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Interaction &amp; Society Coursework due date</t>
@@ -536,9 +552,6 @@
     <t>Progress bar and slide button</t>
   </si>
   <si>
-    <t>Finished Questions and exit page</t>
-  </si>
-  <si>
     <t>Haixin,Yichen</t>
   </si>
   <si>
@@ -579,70 +592,74 @@
   </si>
   <si>
     <t>Haixin,Yichen,Chongqi</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Database</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Wren</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Guess box</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Pacman movement and direction chage</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Use firebase to store the game data</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Wren,Haixin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Chongqi,Haixin,Wren</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>User ID validation check</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>6.1.0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Game</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>message pops up each level</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Questionnaire</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Text box input restrictions</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Haixin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finished Questions and Finish Page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +672,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -662,28 +680,20 @@
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1173,7 +1183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1406,6 +1416,150 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1415,19 +1569,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1435,150 +1583,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1858,10 +1862,10 @@
   <dimension ref="A1:IV65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="HV54" sqref="HV54"/>
+      <selection pane="bottomRight" activeCell="BO40" sqref="BO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -1890,277 +1894,277 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="126"/>
+      <c r="I2" s="126"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="80" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="78"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="80" t="s">
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="126"/>
+      <c r="AS2" s="126"/>
+      <c r="AT2" s="126"/>
+      <c r="AU2" s="126"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
+      <c r="AZ2" s="126"/>
+      <c r="BA2" s="126"/>
+      <c r="BB2" s="126"/>
+      <c r="BC2" s="126"/>
+      <c r="BD2" s="126"/>
+      <c r="BE2" s="126"/>
+      <c r="BF2" s="126"/>
+      <c r="BG2" s="126"/>
+      <c r="BH2" s="126"/>
+      <c r="BI2" s="126"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="126"/>
+      <c r="BN2" s="126"/>
+      <c r="BO2" s="126"/>
+      <c r="BP2" s="126"/>
+      <c r="BQ2" s="126"/>
+      <c r="BR2" s="126"/>
+      <c r="BS2" s="127"/>
+      <c r="BT2" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="78"/>
-      <c r="CE2" s="78"/>
-      <c r="CF2" s="78"/>
-      <c r="CG2" s="78"/>
-      <c r="CH2" s="78"/>
-      <c r="CI2" s="78"/>
-      <c r="CJ2" s="78"/>
-      <c r="CK2" s="78"/>
-      <c r="CL2" s="78"/>
-      <c r="CM2" s="78"/>
-      <c r="CN2" s="78"/>
-      <c r="CO2" s="78"/>
-      <c r="CP2" s="78"/>
-      <c r="CQ2" s="78"/>
-      <c r="CR2" s="78"/>
-      <c r="CS2" s="78"/>
-      <c r="CT2" s="78"/>
-      <c r="CU2" s="78"/>
-      <c r="CV2" s="78"/>
-      <c r="CW2" s="78"/>
-      <c r="CX2" s="79"/>
-      <c r="CY2" s="80" t="s">
+      <c r="BU2" s="126"/>
+      <c r="BV2" s="126"/>
+      <c r="BW2" s="126"/>
+      <c r="BX2" s="126"/>
+      <c r="BY2" s="126"/>
+      <c r="BZ2" s="126"/>
+      <c r="CA2" s="126"/>
+      <c r="CB2" s="126"/>
+      <c r="CC2" s="126"/>
+      <c r="CD2" s="126"/>
+      <c r="CE2" s="126"/>
+      <c r="CF2" s="126"/>
+      <c r="CG2" s="126"/>
+      <c r="CH2" s="126"/>
+      <c r="CI2" s="126"/>
+      <c r="CJ2" s="126"/>
+      <c r="CK2" s="126"/>
+      <c r="CL2" s="126"/>
+      <c r="CM2" s="126"/>
+      <c r="CN2" s="126"/>
+      <c r="CO2" s="126"/>
+      <c r="CP2" s="126"/>
+      <c r="CQ2" s="126"/>
+      <c r="CR2" s="126"/>
+      <c r="CS2" s="126"/>
+      <c r="CT2" s="126"/>
+      <c r="CU2" s="126"/>
+      <c r="CV2" s="126"/>
+      <c r="CW2" s="126"/>
+      <c r="CX2" s="127"/>
+      <c r="CY2" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="CZ2" s="78"/>
-      <c r="DA2" s="78"/>
-      <c r="DB2" s="78"/>
-      <c r="DC2" s="78"/>
-      <c r="DD2" s="78"/>
-      <c r="DE2" s="78"/>
-      <c r="DF2" s="78"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="81"/>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="81"/>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="81"/>
-      <c r="DN2" s="81"/>
-      <c r="DO2" s="81"/>
-      <c r="DP2" s="81"/>
-      <c r="DQ2" s="81"/>
-      <c r="DR2" s="81"/>
-      <c r="DS2" s="81"/>
-      <c r="DT2" s="81"/>
-      <c r="DU2" s="78"/>
-      <c r="DV2" s="78"/>
-      <c r="DW2" s="78"/>
-      <c r="DX2" s="78"/>
-      <c r="DY2" s="78"/>
-      <c r="DZ2" s="78"/>
-      <c r="EA2" s="78"/>
-      <c r="EB2" s="78"/>
-      <c r="EC2" s="79"/>
-      <c r="ED2" s="82" t="s">
+      <c r="CZ2" s="126"/>
+      <c r="DA2" s="126"/>
+      <c r="DB2" s="126"/>
+      <c r="DC2" s="126"/>
+      <c r="DD2" s="126"/>
+      <c r="DE2" s="126"/>
+      <c r="DF2" s="126"/>
+      <c r="DG2" s="122"/>
+      <c r="DH2" s="122"/>
+      <c r="DI2" s="122"/>
+      <c r="DJ2" s="122"/>
+      <c r="DK2" s="122"/>
+      <c r="DL2" s="122"/>
+      <c r="DM2" s="122"/>
+      <c r="DN2" s="122"/>
+      <c r="DO2" s="122"/>
+      <c r="DP2" s="122"/>
+      <c r="DQ2" s="122"/>
+      <c r="DR2" s="122"/>
+      <c r="DS2" s="122"/>
+      <c r="DT2" s="122"/>
+      <c r="DU2" s="126"/>
+      <c r="DV2" s="126"/>
+      <c r="DW2" s="126"/>
+      <c r="DX2" s="126"/>
+      <c r="DY2" s="126"/>
+      <c r="DZ2" s="126"/>
+      <c r="EA2" s="126"/>
+      <c r="EB2" s="126"/>
+      <c r="EC2" s="127"/>
+      <c r="ED2" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="EE2" s="81"/>
-      <c r="EF2" s="81"/>
-      <c r="EG2" s="81"/>
-      <c r="EH2" s="81"/>
-      <c r="EI2" s="78"/>
-      <c r="EJ2" s="78"/>
-      <c r="EK2" s="78"/>
-      <c r="EL2" s="78"/>
-      <c r="EM2" s="78"/>
-      <c r="EN2" s="78"/>
-      <c r="EO2" s="78"/>
-      <c r="EP2" s="78"/>
-      <c r="EQ2" s="78"/>
-      <c r="ER2" s="78"/>
-      <c r="ES2" s="78"/>
-      <c r="ET2" s="78"/>
-      <c r="EU2" s="78"/>
-      <c r="EV2" s="78"/>
-      <c r="EW2" s="78"/>
-      <c r="EX2" s="78"/>
-      <c r="EY2" s="78"/>
-      <c r="EZ2" s="78"/>
-      <c r="FA2" s="78"/>
-      <c r="FB2" s="78"/>
-      <c r="FC2" s="78"/>
-      <c r="FD2" s="78"/>
-      <c r="FE2" s="79"/>
-      <c r="FF2" s="82" t="s">
+      <c r="EE2" s="122"/>
+      <c r="EF2" s="122"/>
+      <c r="EG2" s="122"/>
+      <c r="EH2" s="122"/>
+      <c r="EI2" s="126"/>
+      <c r="EJ2" s="126"/>
+      <c r="EK2" s="126"/>
+      <c r="EL2" s="126"/>
+      <c r="EM2" s="126"/>
+      <c r="EN2" s="126"/>
+      <c r="EO2" s="126"/>
+      <c r="EP2" s="126"/>
+      <c r="EQ2" s="126"/>
+      <c r="ER2" s="126"/>
+      <c r="ES2" s="126"/>
+      <c r="ET2" s="126"/>
+      <c r="EU2" s="126"/>
+      <c r="EV2" s="126"/>
+      <c r="EW2" s="126"/>
+      <c r="EX2" s="126"/>
+      <c r="EY2" s="126"/>
+      <c r="EZ2" s="126"/>
+      <c r="FA2" s="126"/>
+      <c r="FB2" s="126"/>
+      <c r="FC2" s="126"/>
+      <c r="FD2" s="126"/>
+      <c r="FE2" s="127"/>
+      <c r="FF2" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="FG2" s="81"/>
-      <c r="FH2" s="81"/>
-      <c r="FI2" s="81"/>
-      <c r="FJ2" s="81"/>
-      <c r="FK2" s="78"/>
-      <c r="FL2" s="78"/>
-      <c r="FM2" s="78"/>
-      <c r="FN2" s="78"/>
-      <c r="FO2" s="78"/>
-      <c r="FP2" s="78"/>
-      <c r="FQ2" s="78"/>
-      <c r="FR2" s="78"/>
-      <c r="FS2" s="78"/>
-      <c r="FT2" s="78"/>
-      <c r="FU2" s="78"/>
-      <c r="FV2" s="78"/>
-      <c r="FW2" s="78"/>
-      <c r="FX2" s="78"/>
-      <c r="FY2" s="78"/>
-      <c r="FZ2" s="78"/>
-      <c r="GA2" s="78"/>
-      <c r="GB2" s="78"/>
-      <c r="GC2" s="78"/>
-      <c r="GD2" s="78"/>
-      <c r="GE2" s="78"/>
-      <c r="GF2" s="78"/>
-      <c r="GG2" s="78"/>
-      <c r="GH2" s="78"/>
-      <c r="GI2" s="78"/>
-      <c r="GJ2" s="79"/>
-      <c r="GK2" s="80" t="s">
+      <c r="FG2" s="122"/>
+      <c r="FH2" s="122"/>
+      <c r="FI2" s="122"/>
+      <c r="FJ2" s="122"/>
+      <c r="FK2" s="126"/>
+      <c r="FL2" s="126"/>
+      <c r="FM2" s="126"/>
+      <c r="FN2" s="126"/>
+      <c r="FO2" s="126"/>
+      <c r="FP2" s="126"/>
+      <c r="FQ2" s="126"/>
+      <c r="FR2" s="126"/>
+      <c r="FS2" s="126"/>
+      <c r="FT2" s="126"/>
+      <c r="FU2" s="126"/>
+      <c r="FV2" s="126"/>
+      <c r="FW2" s="126"/>
+      <c r="FX2" s="126"/>
+      <c r="FY2" s="126"/>
+      <c r="FZ2" s="126"/>
+      <c r="GA2" s="126"/>
+      <c r="GB2" s="126"/>
+      <c r="GC2" s="126"/>
+      <c r="GD2" s="126"/>
+      <c r="GE2" s="126"/>
+      <c r="GF2" s="126"/>
+      <c r="GG2" s="126"/>
+      <c r="GH2" s="126"/>
+      <c r="GI2" s="126"/>
+      <c r="GJ2" s="127"/>
+      <c r="GK2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="GL2" s="78"/>
-      <c r="GM2" s="78"/>
-      <c r="GN2" s="78"/>
-      <c r="GO2" s="78"/>
-      <c r="GP2" s="78"/>
-      <c r="GQ2" s="78"/>
-      <c r="GR2" s="78"/>
-      <c r="GS2" s="78"/>
-      <c r="GT2" s="78"/>
-      <c r="GU2" s="78"/>
-      <c r="GV2" s="78"/>
-      <c r="GW2" s="78"/>
-      <c r="GX2" s="78"/>
-      <c r="GY2" s="78"/>
-      <c r="GZ2" s="78"/>
-      <c r="HA2" s="78"/>
-      <c r="HB2" s="78"/>
-      <c r="HC2" s="78"/>
-      <c r="HD2" s="78"/>
-      <c r="HE2" s="78"/>
-      <c r="HF2" s="78"/>
-      <c r="HG2" s="78"/>
-      <c r="HH2" s="78"/>
-      <c r="HI2" s="78"/>
-      <c r="HJ2" s="78"/>
-      <c r="HK2" s="78"/>
-      <c r="HL2" s="78"/>
-      <c r="HM2" s="78"/>
-      <c r="HN2" s="79"/>
-      <c r="HO2" s="80" t="s">
+      <c r="GL2" s="126"/>
+      <c r="GM2" s="126"/>
+      <c r="GN2" s="126"/>
+      <c r="GO2" s="126"/>
+      <c r="GP2" s="126"/>
+      <c r="GQ2" s="126"/>
+      <c r="GR2" s="126"/>
+      <c r="GS2" s="126"/>
+      <c r="GT2" s="126"/>
+      <c r="GU2" s="126"/>
+      <c r="GV2" s="126"/>
+      <c r="GW2" s="126"/>
+      <c r="GX2" s="126"/>
+      <c r="GY2" s="126"/>
+      <c r="GZ2" s="126"/>
+      <c r="HA2" s="126"/>
+      <c r="HB2" s="126"/>
+      <c r="HC2" s="126"/>
+      <c r="HD2" s="126"/>
+      <c r="HE2" s="126"/>
+      <c r="HF2" s="126"/>
+      <c r="HG2" s="126"/>
+      <c r="HH2" s="126"/>
+      <c r="HI2" s="126"/>
+      <c r="HJ2" s="126"/>
+      <c r="HK2" s="126"/>
+      <c r="HL2" s="126"/>
+      <c r="HM2" s="126"/>
+      <c r="HN2" s="127"/>
+      <c r="HO2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="HP2" s="78"/>
-      <c r="HQ2" s="78"/>
-      <c r="HR2" s="78"/>
-      <c r="HS2" s="78"/>
-      <c r="HT2" s="78"/>
-      <c r="HU2" s="78"/>
-      <c r="HV2" s="78"/>
-      <c r="HW2" s="78"/>
-      <c r="HX2" s="78"/>
-      <c r="HY2" s="78"/>
-      <c r="HZ2" s="78"/>
-      <c r="IA2" s="78"/>
-      <c r="IB2" s="78"/>
-      <c r="IC2" s="81"/>
-      <c r="ID2" s="81"/>
-      <c r="IE2" s="81"/>
-      <c r="IF2" s="81"/>
-      <c r="IG2" s="81"/>
-      <c r="IH2" s="81"/>
-      <c r="II2" s="81"/>
-      <c r="IJ2" s="81"/>
-      <c r="IK2" s="81"/>
-      <c r="IL2" s="81"/>
-      <c r="IM2" s="81"/>
-      <c r="IN2" s="81"/>
-      <c r="IO2" s="81"/>
-      <c r="IP2" s="81"/>
-      <c r="IQ2" s="81"/>
-      <c r="IR2" s="81"/>
-      <c r="IS2" s="83"/>
-      <c r="IT2" s="82" t="s">
+      <c r="HP2" s="126"/>
+      <c r="HQ2" s="126"/>
+      <c r="HR2" s="126"/>
+      <c r="HS2" s="126"/>
+      <c r="HT2" s="126"/>
+      <c r="HU2" s="126"/>
+      <c r="HV2" s="126"/>
+      <c r="HW2" s="126"/>
+      <c r="HX2" s="126"/>
+      <c r="HY2" s="126"/>
+      <c r="HZ2" s="126"/>
+      <c r="IA2" s="126"/>
+      <c r="IB2" s="126"/>
+      <c r="IC2" s="122"/>
+      <c r="ID2" s="122"/>
+      <c r="IE2" s="122"/>
+      <c r="IF2" s="122"/>
+      <c r="IG2" s="122"/>
+      <c r="IH2" s="122"/>
+      <c r="II2" s="122"/>
+      <c r="IJ2" s="122"/>
+      <c r="IK2" s="122"/>
+      <c r="IL2" s="122"/>
+      <c r="IM2" s="122"/>
+      <c r="IN2" s="122"/>
+      <c r="IO2" s="122"/>
+      <c r="IP2" s="122"/>
+      <c r="IQ2" s="122"/>
+      <c r="IR2" s="122"/>
+      <c r="IS2" s="123"/>
+      <c r="IT2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="IU2" s="81"/>
-      <c r="IV2" s="83"/>
+      <c r="IU2" s="122"/>
+      <c r="IV2" s="123"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1">
       <c r="B3" s="2"/>
@@ -2168,306 +2172,306 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="82" t="s">
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82" t="s">
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="82" t="s">
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="82" t="s">
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="123"/>
+      <c r="AH3" s="121" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="82" t="s">
+      <c r="AI3" s="122"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="122"/>
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AP3" s="122"/>
+      <c r="AQ3" s="122"/>
+      <c r="AR3" s="122"/>
+      <c r="AS3" s="122"/>
+      <c r="AT3" s="122"/>
+      <c r="AU3" s="123"/>
+      <c r="AV3" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="82" t="s">
+      <c r="AW3" s="122"/>
+      <c r="AX3" s="122"/>
+      <c r="AY3" s="122"/>
+      <c r="AZ3" s="122"/>
+      <c r="BA3" s="122"/>
+      <c r="BB3" s="123"/>
+      <c r="BC3" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="82" t="s">
+      <c r="BD3" s="122"/>
+      <c r="BE3" s="122"/>
+      <c r="BF3" s="122"/>
+      <c r="BG3" s="122"/>
+      <c r="BH3" s="122"/>
+      <c r="BI3" s="123"/>
+      <c r="BJ3" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="81"/>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="81"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="82" t="s">
+      <c r="BK3" s="122"/>
+      <c r="BL3" s="122"/>
+      <c r="BM3" s="122"/>
+      <c r="BN3" s="122"/>
+      <c r="BO3" s="122"/>
+      <c r="BP3" s="123"/>
+      <c r="BQ3" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="81"/>
-      <c r="BS3" s="81"/>
-      <c r="BT3" s="81"/>
-      <c r="BU3" s="81"/>
-      <c r="BV3" s="81"/>
-      <c r="BW3" s="83"/>
-      <c r="BX3" s="82" t="s">
+      <c r="BR3" s="122"/>
+      <c r="BS3" s="122"/>
+      <c r="BT3" s="122"/>
+      <c r="BU3" s="122"/>
+      <c r="BV3" s="122"/>
+      <c r="BW3" s="123"/>
+      <c r="BX3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="BY3" s="81"/>
-      <c r="BZ3" s="81"/>
-      <c r="CA3" s="81"/>
-      <c r="CB3" s="81"/>
-      <c r="CC3" s="81"/>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="82" t="s">
+      <c r="BY3" s="122"/>
+      <c r="BZ3" s="122"/>
+      <c r="CA3" s="122"/>
+      <c r="CB3" s="122"/>
+      <c r="CC3" s="122"/>
+      <c r="CD3" s="123"/>
+      <c r="CE3" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="CF3" s="81"/>
-      <c r="CG3" s="81"/>
-      <c r="CH3" s="81"/>
-      <c r="CI3" s="81"/>
-      <c r="CJ3" s="81"/>
-      <c r="CK3" s="83"/>
-      <c r="CL3" s="80" t="s">
+      <c r="CF3" s="122"/>
+      <c r="CG3" s="122"/>
+      <c r="CH3" s="122"/>
+      <c r="CI3" s="122"/>
+      <c r="CJ3" s="122"/>
+      <c r="CK3" s="123"/>
+      <c r="CL3" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="78"/>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="80" t="s">
+      <c r="CM3" s="126"/>
+      <c r="CN3" s="126"/>
+      <c r="CO3" s="126"/>
+      <c r="CP3" s="126"/>
+      <c r="CQ3" s="126"/>
+      <c r="CR3" s="127"/>
+      <c r="CS3" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="78"/>
-      <c r="CV3" s="78"/>
-      <c r="CW3" s="78"/>
-      <c r="CX3" s="78"/>
-      <c r="CY3" s="79"/>
-      <c r="CZ3" s="80" t="s">
+      <c r="CT3" s="126"/>
+      <c r="CU3" s="126"/>
+      <c r="CV3" s="126"/>
+      <c r="CW3" s="126"/>
+      <c r="CX3" s="126"/>
+      <c r="CY3" s="127"/>
+      <c r="CZ3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="78"/>
-      <c r="DB3" s="78"/>
-      <c r="DC3" s="78"/>
-      <c r="DD3" s="78"/>
-      <c r="DE3" s="78"/>
-      <c r="DF3" s="78"/>
-      <c r="DG3" s="84" t="s">
+      <c r="DA3" s="126"/>
+      <c r="DB3" s="126"/>
+      <c r="DC3" s="126"/>
+      <c r="DD3" s="126"/>
+      <c r="DE3" s="126"/>
+      <c r="DF3" s="126"/>
+      <c r="DG3" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="DH3" s="85"/>
-      <c r="DI3" s="85"/>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="85"/>
-      <c r="DM3" s="86"/>
-      <c r="DN3" s="87" t="s">
+      <c r="DH3" s="109"/>
+      <c r="DI3" s="109"/>
+      <c r="DJ3" s="109"/>
+      <c r="DK3" s="109"/>
+      <c r="DL3" s="109"/>
+      <c r="DM3" s="132"/>
+      <c r="DN3" s="133" t="s">
         <v>30</v>
       </c>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="85"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="85"/>
-      <c r="DS3" s="85"/>
-      <c r="DT3" s="88"/>
-      <c r="DU3" s="78" t="s">
+      <c r="DO3" s="109"/>
+      <c r="DP3" s="109"/>
+      <c r="DQ3" s="109"/>
+      <c r="DR3" s="109"/>
+      <c r="DS3" s="109"/>
+      <c r="DT3" s="110"/>
+      <c r="DU3" s="126" t="s">
         <v>31</v>
       </c>
-      <c r="DV3" s="78"/>
-      <c r="DW3" s="78"/>
-      <c r="DX3" s="78"/>
-      <c r="DY3" s="78"/>
-      <c r="DZ3" s="78"/>
-      <c r="EA3" s="79"/>
-      <c r="EB3" s="80" t="s">
+      <c r="DV3" s="126"/>
+      <c r="DW3" s="126"/>
+      <c r="DX3" s="126"/>
+      <c r="DY3" s="126"/>
+      <c r="DZ3" s="126"/>
+      <c r="EA3" s="127"/>
+      <c r="EB3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="EC3" s="78"/>
-      <c r="ED3" s="78"/>
-      <c r="EE3" s="78"/>
-      <c r="EF3" s="78"/>
-      <c r="EG3" s="78"/>
-      <c r="EH3" s="79"/>
-      <c r="EI3" s="80" t="s">
+      <c r="EC3" s="126"/>
+      <c r="ED3" s="126"/>
+      <c r="EE3" s="126"/>
+      <c r="EF3" s="126"/>
+      <c r="EG3" s="126"/>
+      <c r="EH3" s="127"/>
+      <c r="EI3" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="EJ3" s="78"/>
-      <c r="EK3" s="78"/>
-      <c r="EL3" s="78"/>
-      <c r="EM3" s="78"/>
-      <c r="EN3" s="78"/>
-      <c r="EO3" s="79"/>
-      <c r="EP3" s="80" t="s">
+      <c r="EJ3" s="126"/>
+      <c r="EK3" s="126"/>
+      <c r="EL3" s="126"/>
+      <c r="EM3" s="126"/>
+      <c r="EN3" s="126"/>
+      <c r="EO3" s="127"/>
+      <c r="EP3" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="EQ3" s="78"/>
-      <c r="ER3" s="78"/>
-      <c r="ES3" s="78"/>
-      <c r="ET3" s="78"/>
-      <c r="EU3" s="78"/>
-      <c r="EV3" s="79"/>
-      <c r="EW3" s="80" t="s">
+      <c r="EQ3" s="126"/>
+      <c r="ER3" s="126"/>
+      <c r="ES3" s="126"/>
+      <c r="ET3" s="126"/>
+      <c r="EU3" s="126"/>
+      <c r="EV3" s="127"/>
+      <c r="EW3" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="EX3" s="78"/>
-      <c r="EY3" s="78"/>
-      <c r="EZ3" s="78"/>
-      <c r="FA3" s="78"/>
-      <c r="FB3" s="78"/>
-      <c r="FC3" s="79"/>
-      <c r="FD3" s="89" t="s">
+      <c r="EX3" s="126"/>
+      <c r="EY3" s="126"/>
+      <c r="EZ3" s="126"/>
+      <c r="FA3" s="126"/>
+      <c r="FB3" s="126"/>
+      <c r="FC3" s="127"/>
+      <c r="FD3" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="FE3" s="90"/>
-      <c r="FF3" s="81"/>
-      <c r="FG3" s="81"/>
-      <c r="FH3" s="81"/>
-      <c r="FI3" s="81"/>
-      <c r="FJ3" s="83"/>
-      <c r="FK3" s="82" t="s">
+      <c r="FE3" s="130"/>
+      <c r="FF3" s="122"/>
+      <c r="FG3" s="122"/>
+      <c r="FH3" s="122"/>
+      <c r="FI3" s="122"/>
+      <c r="FJ3" s="123"/>
+      <c r="FK3" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="FL3" s="81"/>
-      <c r="FM3" s="81"/>
-      <c r="FN3" s="81"/>
-      <c r="FO3" s="81"/>
-      <c r="FP3" s="81"/>
-      <c r="FQ3" s="83"/>
-      <c r="FR3" s="82" t="s">
+      <c r="FL3" s="122"/>
+      <c r="FM3" s="122"/>
+      <c r="FN3" s="122"/>
+      <c r="FO3" s="122"/>
+      <c r="FP3" s="122"/>
+      <c r="FQ3" s="123"/>
+      <c r="FR3" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="FS3" s="81"/>
-      <c r="FT3" s="81"/>
-      <c r="FU3" s="81"/>
-      <c r="FV3" s="81"/>
-      <c r="FW3" s="81"/>
-      <c r="FX3" s="83"/>
-      <c r="FY3" s="82" t="s">
+      <c r="FS3" s="122"/>
+      <c r="FT3" s="122"/>
+      <c r="FU3" s="122"/>
+      <c r="FV3" s="122"/>
+      <c r="FW3" s="122"/>
+      <c r="FX3" s="123"/>
+      <c r="FY3" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="FZ3" s="81"/>
-      <c r="GA3" s="81"/>
-      <c r="GB3" s="81"/>
-      <c r="GC3" s="81"/>
-      <c r="GD3" s="81"/>
-      <c r="GE3" s="83"/>
-      <c r="GF3" s="91" t="s">
+      <c r="FZ3" s="122"/>
+      <c r="GA3" s="122"/>
+      <c r="GB3" s="122"/>
+      <c r="GC3" s="122"/>
+      <c r="GD3" s="122"/>
+      <c r="GE3" s="123"/>
+      <c r="GF3" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="GG3" s="92"/>
-      <c r="GH3" s="92"/>
-      <c r="GI3" s="92"/>
-      <c r="GJ3" s="92"/>
-      <c r="GK3" s="78"/>
-      <c r="GL3" s="79"/>
-      <c r="GM3" s="80" t="s">
+      <c r="GG3" s="125"/>
+      <c r="GH3" s="125"/>
+      <c r="GI3" s="125"/>
+      <c r="GJ3" s="125"/>
+      <c r="GK3" s="126"/>
+      <c r="GL3" s="127"/>
+      <c r="GM3" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="GN3" s="78"/>
-      <c r="GO3" s="78"/>
-      <c r="GP3" s="78"/>
-      <c r="GQ3" s="78"/>
-      <c r="GR3" s="78"/>
-      <c r="GS3" s="79"/>
-      <c r="GT3" s="80" t="s">
+      <c r="GN3" s="126"/>
+      <c r="GO3" s="126"/>
+      <c r="GP3" s="126"/>
+      <c r="GQ3" s="126"/>
+      <c r="GR3" s="126"/>
+      <c r="GS3" s="127"/>
+      <c r="GT3" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="GU3" s="78"/>
-      <c r="GV3" s="78"/>
-      <c r="GW3" s="78"/>
-      <c r="GX3" s="78"/>
-      <c r="GY3" s="78"/>
-      <c r="GZ3" s="79"/>
-      <c r="HA3" s="82" t="s">
+      <c r="GU3" s="126"/>
+      <c r="GV3" s="126"/>
+      <c r="GW3" s="126"/>
+      <c r="GX3" s="126"/>
+      <c r="GY3" s="126"/>
+      <c r="GZ3" s="127"/>
+      <c r="HA3" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="HB3" s="81"/>
-      <c r="HC3" s="81"/>
-      <c r="HD3" s="81"/>
-      <c r="HE3" s="81"/>
-      <c r="HF3" s="81"/>
-      <c r="HG3" s="83"/>
-      <c r="HH3" s="82" t="s">
+      <c r="HB3" s="122"/>
+      <c r="HC3" s="122"/>
+      <c r="HD3" s="122"/>
+      <c r="HE3" s="122"/>
+      <c r="HF3" s="122"/>
+      <c r="HG3" s="123"/>
+      <c r="HH3" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="HI3" s="81"/>
-      <c r="HJ3" s="81"/>
-      <c r="HK3" s="81"/>
-      <c r="HL3" s="81"/>
-      <c r="HM3" s="81"/>
-      <c r="HN3" s="83"/>
-      <c r="HO3" s="89" t="s">
+      <c r="HI3" s="122"/>
+      <c r="HJ3" s="122"/>
+      <c r="HK3" s="122"/>
+      <c r="HL3" s="122"/>
+      <c r="HM3" s="122"/>
+      <c r="HN3" s="123"/>
+      <c r="HO3" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="HP3" s="90"/>
-      <c r="HQ3" s="90"/>
-      <c r="HR3" s="90"/>
-      <c r="HS3" s="90"/>
-      <c r="HT3" s="90"/>
-      <c r="HU3" s="93"/>
+      <c r="HP3" s="130"/>
+      <c r="HQ3" s="130"/>
+      <c r="HR3" s="130"/>
+      <c r="HS3" s="130"/>
+      <c r="HT3" s="130"/>
+      <c r="HU3" s="131"/>
       <c r="HV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="IC3" s="84" t="s">
+      <c r="IC3" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="ID3" s="85"/>
-      <c r="IE3" s="85"/>
-      <c r="IF3" s="85"/>
-      <c r="IG3" s="85"/>
-      <c r="IH3" s="85"/>
-      <c r="II3" s="88"/>
+      <c r="ID3" s="109"/>
+      <c r="IE3" s="109"/>
+      <c r="IF3" s="109"/>
+      <c r="IG3" s="109"/>
+      <c r="IH3" s="109"/>
+      <c r="II3" s="110"/>
       <c r="IJ3" s="74" t="s">
         <v>48</v>
       </c>
@@ -2476,15 +2480,15 @@
       <c r="IM3" s="75"/>
       <c r="IN3" s="75"/>
       <c r="IO3" s="77"/>
-      <c r="IP3" s="84" t="s">
+      <c r="IP3" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="IQ3" s="85"/>
-      <c r="IR3" s="85"/>
-      <c r="IS3" s="85"/>
-      <c r="IT3" s="85"/>
-      <c r="IU3" s="85"/>
-      <c r="IV3" s="88"/>
+      <c r="IQ3" s="109"/>
+      <c r="IR3" s="109"/>
+      <c r="IS3" s="109"/>
+      <c r="IT3" s="109"/>
+      <c r="IU3" s="109"/>
+      <c r="IV3" s="110"/>
     </row>
     <row r="4" spans="1:256" s="2" customFormat="1">
       <c r="C4" s="10"/>
@@ -3679,8 +3683,8 @@
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="95"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="112"/>
       <c r="O9" s="30"/>
       <c r="S9" s="28"/>
       <c r="T9" s="33"/>
@@ -4540,13 +4544,13 @@
       <c r="M17" s="33"/>
       <c r="O17" s="30"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
+      <c r="W17" s="114"/>
+      <c r="X17" s="114"/>
+      <c r="Y17" s="114"/>
+      <c r="Z17" s="114"/>
       <c r="AA17" s="33"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="33"/>
@@ -4650,11 +4654,11 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="33"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="116"/>
+      <c r="Q18" s="116"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="117"/>
       <c r="T18" s="33"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="33"/>
@@ -4884,11 +4888,11 @@
       <c r="AO20" s="33"/>
       <c r="AU20" s="28"/>
       <c r="AV20" s="33"/>
-      <c r="AX20" s="101"/>
-      <c r="AY20" s="101"/>
-      <c r="AZ20" s="101"/>
-      <c r="BA20" s="101"/>
-      <c r="BB20" s="102"/>
+      <c r="AX20" s="118"/>
+      <c r="AY20" s="118"/>
+      <c r="AZ20" s="118"/>
+      <c r="BA20" s="118"/>
+      <c r="BB20" s="119"/>
       <c r="BC20" s="33"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="47"/>
@@ -5019,41 +5023,41 @@
       <c r="EH21" s="28"/>
       <c r="EI21" s="33"/>
       <c r="EO21" s="28"/>
-      <c r="EP21" s="103"/>
-      <c r="EQ21" s="101"/>
-      <c r="ER21" s="101"/>
-      <c r="ES21" s="101"/>
-      <c r="ET21" s="101"/>
-      <c r="EU21" s="101"/>
-      <c r="EV21" s="101"/>
-      <c r="EW21" s="103"/>
-      <c r="EX21" s="101"/>
-      <c r="EY21" s="101"/>
-      <c r="EZ21" s="101"/>
-      <c r="FA21" s="101"/>
-      <c r="FB21" s="101"/>
-      <c r="FC21" s="101"/>
-      <c r="FD21" s="103"/>
-      <c r="FE21" s="101"/>
-      <c r="FF21" s="101"/>
-      <c r="FG21" s="101"/>
-      <c r="FH21" s="101"/>
-      <c r="FI21" s="101"/>
-      <c r="FJ21" s="101"/>
-      <c r="FK21" s="103"/>
-      <c r="FL21" s="101"/>
-      <c r="FM21" s="101"/>
-      <c r="FN21" s="101"/>
-      <c r="FO21" s="101"/>
-      <c r="FP21" s="101"/>
-      <c r="FQ21" s="101"/>
-      <c r="FR21" s="103"/>
-      <c r="FS21" s="101"/>
-      <c r="FT21" s="101"/>
-      <c r="FU21" s="101"/>
-      <c r="FV21" s="101"/>
-      <c r="FW21" s="101"/>
-      <c r="FX21" s="101"/>
+      <c r="EP21" s="120"/>
+      <c r="EQ21" s="118"/>
+      <c r="ER21" s="118"/>
+      <c r="ES21" s="118"/>
+      <c r="ET21" s="118"/>
+      <c r="EU21" s="118"/>
+      <c r="EV21" s="118"/>
+      <c r="EW21" s="120"/>
+      <c r="EX21" s="118"/>
+      <c r="EY21" s="118"/>
+      <c r="EZ21" s="118"/>
+      <c r="FA21" s="118"/>
+      <c r="FB21" s="118"/>
+      <c r="FC21" s="118"/>
+      <c r="FD21" s="120"/>
+      <c r="FE21" s="118"/>
+      <c r="FF21" s="118"/>
+      <c r="FG21" s="118"/>
+      <c r="FH21" s="118"/>
+      <c r="FI21" s="118"/>
+      <c r="FJ21" s="118"/>
+      <c r="FK21" s="120"/>
+      <c r="FL21" s="118"/>
+      <c r="FM21" s="118"/>
+      <c r="FN21" s="118"/>
+      <c r="FO21" s="118"/>
+      <c r="FP21" s="118"/>
+      <c r="FQ21" s="118"/>
+      <c r="FR21" s="120"/>
+      <c r="FS21" s="118"/>
+      <c r="FT21" s="118"/>
+      <c r="FU21" s="118"/>
+      <c r="FV21" s="118"/>
+      <c r="FW21" s="118"/>
+      <c r="FX21" s="118"/>
       <c r="FY21" s="47"/>
       <c r="FZ21" s="30"/>
       <c r="GA21" s="30"/>
@@ -5319,20 +5323,20 @@
       <c r="M24" s="33"/>
       <c r="O24" s="30"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="105"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="103"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="103"/>
+      <c r="X24" s="103"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="103"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="103"/>
+      <c r="AC24" s="103"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="103"/>
+      <c r="AG24" s="103"/>
       <c r="AH24" s="33"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="33"/>
@@ -5440,20 +5444,20 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="33"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="103"/>
+      <c r="AJ25" s="103"/>
+      <c r="AK25" s="103"/>
+      <c r="AL25" s="103"/>
+      <c r="AM25" s="103"/>
+      <c r="AN25" s="103"/>
+      <c r="AO25" s="102"/>
+      <c r="AP25" s="103"/>
+      <c r="AQ25" s="103"/>
+      <c r="AR25" s="103"/>
+      <c r="AS25" s="103"/>
+      <c r="AT25" s="103"/>
+      <c r="AU25" s="103"/>
       <c r="AV25" s="33"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="33"/>
@@ -5561,20 +5565,20 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="33"/>
       <c r="AU26" s="28"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
-      <c r="AZ26" s="105"/>
-      <c r="BA26" s="105"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="104"/>
-      <c r="BD26" s="105"/>
-      <c r="BE26" s="105"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="105"/>
-      <c r="BH26" s="105"/>
-      <c r="BI26" s="105"/>
+      <c r="AV26" s="102"/>
+      <c r="AW26" s="103"/>
+      <c r="AX26" s="103"/>
+      <c r="AY26" s="103"/>
+      <c r="AZ26" s="103"/>
+      <c r="BA26" s="103"/>
+      <c r="BB26" s="103"/>
+      <c r="BC26" s="102"/>
+      <c r="BD26" s="103"/>
+      <c r="BE26" s="103"/>
+      <c r="BF26" s="103"/>
+      <c r="BG26" s="103"/>
+      <c r="BH26" s="103"/>
+      <c r="BI26" s="103"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
@@ -5692,10 +5696,10 @@
       <c r="BQ27" s="47"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="104"/>
-      <c r="BU27" s="105"/>
-      <c r="BV27" s="105"/>
-      <c r="BW27" s="105"/>
+      <c r="BT27" s="102"/>
+      <c r="BU27" s="103"/>
+      <c r="BV27" s="103"/>
+      <c r="BW27" s="103"/>
       <c r="BX27" s="47"/>
       <c r="CD27" s="28"/>
       <c r="CE27" s="33"/>
@@ -5817,17 +5821,17 @@
       <c r="DM28" s="28"/>
       <c r="DN28" s="33"/>
       <c r="DT28" s="68"/>
-      <c r="DY28" s="104"/>
-      <c r="DZ28" s="106"/>
+      <c r="DY28" s="102"/>
+      <c r="DZ28" s="104"/>
       <c r="EA28" s="28"/>
       <c r="EB28" s="33"/>
-      <c r="EF28" s="104"/>
-      <c r="EG28" s="105"/>
-      <c r="EH28" s="106"/>
-      <c r="EI28" s="104"/>
-      <c r="EJ28" s="105"/>
-      <c r="EK28" s="105"/>
-      <c r="EL28" s="106"/>
+      <c r="EF28" s="102"/>
+      <c r="EG28" s="103"/>
+      <c r="EH28" s="104"/>
+      <c r="EI28" s="102"/>
+      <c r="EJ28" s="103"/>
+      <c r="EK28" s="103"/>
+      <c r="EL28" s="104"/>
       <c r="EO28" s="28"/>
       <c r="EP28" s="33"/>
       <c r="ER28" s="30"/>
@@ -5903,8 +5907,8 @@
       <c r="AO29" s="33"/>
       <c r="AU29" s="28"/>
       <c r="AV29" s="33"/>
-      <c r="AY29" s="107"/>
-      <c r="AZ29" s="108"/>
+      <c r="AY29" s="99"/>
+      <c r="AZ29" s="101"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="33"/>
       <c r="BI29" s="28"/>
@@ -6042,13 +6046,13 @@
       <c r="EA30" s="28"/>
       <c r="EB30" s="33"/>
       <c r="EH30" s="44"/>
-      <c r="EI30" s="107"/>
-      <c r="EJ30" s="109"/>
-      <c r="EK30" s="109"/>
-      <c r="EL30" s="109"/>
-      <c r="EM30" s="109"/>
-      <c r="EN30" s="109"/>
-      <c r="EO30" s="109"/>
+      <c r="EI30" s="99"/>
+      <c r="EJ30" s="100"/>
+      <c r="EK30" s="100"/>
+      <c r="EL30" s="100"/>
+      <c r="EM30" s="100"/>
+      <c r="EN30" s="100"/>
+      <c r="EO30" s="100"/>
       <c r="EP30" s="33"/>
       <c r="ER30" s="30"/>
       <c r="EV30" s="28"/>
@@ -6123,30 +6127,30 @@
       <c r="AO31" s="33"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="33"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="109"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="109"/>
-      <c r="BD31" s="109"/>
-      <c r="BE31" s="109"/>
-      <c r="BF31" s="109"/>
-      <c r="BG31" s="109"/>
-      <c r="BH31" s="109"/>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="109"/>
-      <c r="BK31" s="109"/>
-      <c r="BL31" s="109"/>
-      <c r="BM31" s="109"/>
-      <c r="BN31" s="109"/>
-      <c r="BO31" s="109"/>
-      <c r="BP31" s="108"/>
-      <c r="BQ31" s="109"/>
-      <c r="BR31" s="109"/>
-      <c r="BS31" s="109"/>
-      <c r="BT31" s="109"/>
-      <c r="BU31" s="109"/>
-      <c r="BV31" s="109"/>
-      <c r="BW31" s="108"/>
+      <c r="AZ31" s="99"/>
+      <c r="BA31" s="100"/>
+      <c r="BB31" s="101"/>
+      <c r="BC31" s="100"/>
+      <c r="BD31" s="100"/>
+      <c r="BE31" s="100"/>
+      <c r="BF31" s="100"/>
+      <c r="BG31" s="100"/>
+      <c r="BH31" s="100"/>
+      <c r="BI31" s="101"/>
+      <c r="BJ31" s="100"/>
+      <c r="BK31" s="100"/>
+      <c r="BL31" s="100"/>
+      <c r="BM31" s="100"/>
+      <c r="BN31" s="100"/>
+      <c r="BO31" s="100"/>
+      <c r="BP31" s="101"/>
+      <c r="BQ31" s="100"/>
+      <c r="BR31" s="100"/>
+      <c r="BS31" s="100"/>
+      <c r="BT31" s="100"/>
+      <c r="BU31" s="100"/>
+      <c r="BV31" s="100"/>
+      <c r="BW31" s="101"/>
       <c r="BX31" s="45"/>
       <c r="CD31" s="28"/>
       <c r="CK31" s="28"/>
@@ -6161,9 +6165,9 @@
       <c r="DT31" s="68"/>
       <c r="EA31" s="28"/>
       <c r="EI31" s="33"/>
-      <c r="EM31" s="110"/>
-      <c r="EN31" s="111"/>
-      <c r="EO31" s="111"/>
+      <c r="EM31" s="105"/>
+      <c r="EN31" s="106"/>
+      <c r="EO31" s="106"/>
       <c r="EP31" s="33"/>
       <c r="ER31" s="30"/>
       <c r="EV31" s="28"/>
@@ -6213,14 +6217,14 @@
       <c r="A32" s="18">
         <v>5.4</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="84" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="D32" s="78" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>122</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -6235,29 +6239,28 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="33"/>
       <c r="AN32" s="28"/>
-      <c r="AO32" s="127"/>
       <c r="AU32" s="28"/>
       <c r="AV32" s="33"/>
-      <c r="AZ32" s="134"/>
-      <c r="BA32" s="134"/>
-      <c r="BB32" s="135"/>
-      <c r="BC32" s="134"/>
-      <c r="BD32" s="134"/>
-      <c r="BE32" s="134"/>
-      <c r="BF32" s="134"/>
-      <c r="BG32" s="134"/>
-      <c r="BH32" s="134"/>
-      <c r="BI32" s="135"/>
-      <c r="BJ32" s="134"/>
-      <c r="BK32" s="134"/>
-      <c r="BL32" s="134"/>
-      <c r="BM32" s="134"/>
-      <c r="BN32" s="134"/>
-      <c r="BO32" s="134"/>
-      <c r="BP32" s="135"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="134"/>
-      <c r="BS32" s="134"/>
+      <c r="AZ32" s="86"/>
+      <c r="BA32" s="86"/>
+      <c r="BB32" s="87"/>
+      <c r="BC32" s="86"/>
+      <c r="BD32" s="86"/>
+      <c r="BE32" s="86"/>
+      <c r="BF32" s="86"/>
+      <c r="BG32" s="86"/>
+      <c r="BH32" s="86"/>
+      <c r="BI32" s="87"/>
+      <c r="BJ32" s="47"/>
+      <c r="BK32" s="30"/>
+      <c r="BL32" s="30"/>
+      <c r="BM32" s="30"/>
+      <c r="BN32" s="30"/>
+      <c r="BO32" s="30"/>
+      <c r="BP32" s="53"/>
+      <c r="BQ32" s="47"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
       <c r="BT32" s="57"/>
       <c r="BU32" s="57"/>
       <c r="BV32" s="57"/>
@@ -6276,9 +6279,9 @@
       <c r="DT32" s="68"/>
       <c r="EA32" s="28"/>
       <c r="EI32" s="33"/>
-      <c r="EM32" s="134"/>
-      <c r="EN32" s="134"/>
-      <c r="EO32" s="134"/>
+      <c r="EM32" s="86"/>
+      <c r="EN32" s="86"/>
+      <c r="EO32" s="86"/>
       <c r="EP32" s="33"/>
       <c r="ER32" s="30"/>
       <c r="EV32" s="28"/>
@@ -6365,10 +6368,10 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="110"/>
-      <c r="BU33" s="111"/>
-      <c r="BV33" s="111"/>
-      <c r="BW33" s="112"/>
+      <c r="BT33" s="105"/>
+      <c r="BU33" s="106"/>
+      <c r="BV33" s="106"/>
+      <c r="BW33" s="107"/>
       <c r="BX33" s="58"/>
       <c r="CD33" s="28"/>
       <c r="CK33" s="28"/>
@@ -6441,8 +6444,8 @@
       <c r="C34" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="124" t="s">
-        <v>114</v>
+      <c r="D34" s="78" t="s">
+        <v>113</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -6587,22 +6590,22 @@
       <c r="DM35" s="28"/>
       <c r="DN35" s="33"/>
       <c r="DT35" s="68"/>
-      <c r="DY35" s="107"/>
-      <c r="DZ35" s="109"/>
-      <c r="EA35" s="108"/>
-      <c r="EB35" s="107"/>
-      <c r="EC35" s="109"/>
-      <c r="ED35" s="109"/>
-      <c r="EE35" s="108"/>
+      <c r="DY35" s="99"/>
+      <c r="DZ35" s="100"/>
+      <c r="EA35" s="101"/>
+      <c r="EB35" s="99"/>
+      <c r="EC35" s="100"/>
+      <c r="ED35" s="100"/>
+      <c r="EE35" s="101"/>
       <c r="EH35" s="28"/>
       <c r="EI35" s="33"/>
-      <c r="EM35" s="107"/>
-      <c r="EN35" s="109"/>
-      <c r="EO35" s="108"/>
-      <c r="EP35" s="109"/>
-      <c r="EQ35" s="109"/>
-      <c r="ER35" s="109"/>
-      <c r="ES35" s="108"/>
+      <c r="EM35" s="99"/>
+      <c r="EN35" s="100"/>
+      <c r="EO35" s="101"/>
+      <c r="EP35" s="100"/>
+      <c r="EQ35" s="100"/>
+      <c r="ER35" s="100"/>
+      <c r="ES35" s="101"/>
       <c r="EV35" s="28"/>
       <c r="EW35" s="33"/>
       <c r="FC35" s="28"/>
@@ -6653,11 +6656,11 @@
       <c r="B36" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="E36" s="21">
         <v>1</v>
@@ -6705,20 +6708,20 @@
       <c r="ER36" s="30"/>
       <c r="EW36" s="33"/>
       <c r="FC36" s="71"/>
-      <c r="FD36" s="109"/>
-      <c r="FE36" s="109"/>
-      <c r="FF36" s="109"/>
-      <c r="FG36" s="109"/>
-      <c r="FH36" s="109"/>
-      <c r="FI36" s="109"/>
-      <c r="FJ36" s="108"/>
-      <c r="FK36" s="109"/>
-      <c r="FL36" s="109"/>
-      <c r="FM36" s="109"/>
-      <c r="FN36" s="109"/>
-      <c r="FO36" s="109"/>
-      <c r="FP36" s="109"/>
-      <c r="FQ36" s="108"/>
+      <c r="FD36" s="100"/>
+      <c r="FE36" s="100"/>
+      <c r="FF36" s="100"/>
+      <c r="FG36" s="100"/>
+      <c r="FH36" s="100"/>
+      <c r="FI36" s="100"/>
+      <c r="FJ36" s="101"/>
+      <c r="FK36" s="100"/>
+      <c r="FL36" s="100"/>
+      <c r="FM36" s="100"/>
+      <c r="FN36" s="100"/>
+      <c r="FO36" s="100"/>
+      <c r="FP36" s="100"/>
+      <c r="FQ36" s="101"/>
       <c r="FR36" s="45"/>
       <c r="FS36" s="30"/>
       <c r="FT36" s="30"/>
@@ -6760,13 +6763,13 @@
         <v>6.1</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="124" t="s">
-        <v>108</v>
+      <c r="D37" s="78" t="s">
+        <v>107</v>
       </c>
       <c r="E37" s="21">
         <v>1</v>
@@ -6812,29 +6815,29 @@
       <c r="DT37" s="68"/>
       <c r="EA37" s="28"/>
       <c r="EH37" s="28"/>
-      <c r="EM37" s="113"/>
-      <c r="EN37" s="114"/>
-      <c r="EO37" s="114"/>
-      <c r="EP37" s="113"/>
-      <c r="EQ37" s="114"/>
-      <c r="ER37" s="114"/>
-      <c r="ES37" s="114"/>
-      <c r="ET37" s="114"/>
-      <c r="EU37" s="114"/>
-      <c r="EV37" s="114"/>
-      <c r="EW37" s="113"/>
-      <c r="EX37" s="114"/>
-      <c r="EY37" s="114"/>
-      <c r="EZ37" s="114"/>
-      <c r="FA37" s="114"/>
-      <c r="FB37" s="115"/>
+      <c r="EM37" s="95"/>
+      <c r="EN37" s="96"/>
+      <c r="EO37" s="96"/>
+      <c r="EP37" s="95"/>
+      <c r="EQ37" s="96"/>
+      <c r="ER37" s="96"/>
+      <c r="ES37" s="96"/>
+      <c r="ET37" s="96"/>
+      <c r="EU37" s="96"/>
+      <c r="EV37" s="96"/>
+      <c r="EW37" s="95"/>
+      <c r="EX37" s="96"/>
+      <c r="EY37" s="96"/>
+      <c r="EZ37" s="96"/>
+      <c r="FA37" s="96"/>
+      <c r="FB37" s="97"/>
       <c r="FC37" s="28"/>
       <c r="FD37" s="33"/>
       <c r="FJ37" s="28"/>
-      <c r="FK37" s="113"/>
-      <c r="FL37" s="114"/>
-      <c r="FM37" s="114"/>
-      <c r="FN37" s="115"/>
+      <c r="FK37" s="95"/>
+      <c r="FL37" s="96"/>
+      <c r="FM37" s="96"/>
+      <c r="FN37" s="97"/>
       <c r="FQ37" s="28"/>
       <c r="FR37" s="47"/>
       <c r="FS37" s="30"/>
@@ -6877,10 +6880,10 @@
         <v>6.2</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>78</v>
@@ -6931,16 +6934,16 @@
       <c r="EA38" s="28"/>
       <c r="EB38" s="33"/>
       <c r="EI38" s="33"/>
-      <c r="EM38" s="113"/>
-      <c r="EN38" s="114"/>
-      <c r="EO38" s="114"/>
-      <c r="EP38" s="113"/>
-      <c r="EQ38" s="114"/>
-      <c r="ER38" s="114"/>
-      <c r="ES38" s="114"/>
-      <c r="ET38" s="114"/>
-      <c r="EU38" s="114"/>
-      <c r="EV38" s="114"/>
+      <c r="EM38" s="95"/>
+      <c r="EN38" s="96"/>
+      <c r="EO38" s="96"/>
+      <c r="EP38" s="95"/>
+      <c r="EQ38" s="96"/>
+      <c r="ER38" s="96"/>
+      <c r="ES38" s="96"/>
+      <c r="ET38" s="96"/>
+      <c r="EU38" s="96"/>
+      <c r="EV38" s="96"/>
       <c r="EW38" s="72"/>
       <c r="FC38" s="28"/>
       <c r="FD38" s="33"/>
@@ -6988,10 +6991,10 @@
         <v>6.3</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>78</v>
@@ -7051,13 +7054,13 @@
       <c r="EW39" s="33"/>
       <c r="FC39" s="28"/>
       <c r="FD39" s="33"/>
-      <c r="FI39" s="113"/>
-      <c r="FJ39" s="115"/>
-      <c r="FK39" s="114"/>
-      <c r="FL39" s="114"/>
-      <c r="FM39" s="114"/>
-      <c r="FN39" s="114"/>
-      <c r="FO39" s="115"/>
+      <c r="FI39" s="95"/>
+      <c r="FJ39" s="97"/>
+      <c r="FK39" s="96"/>
+      <c r="FL39" s="96"/>
+      <c r="FM39" s="96"/>
+      <c r="FN39" s="96"/>
+      <c r="FO39" s="97"/>
       <c r="FR39" s="47"/>
       <c r="FS39" s="30"/>
       <c r="FT39" s="30"/>
@@ -7099,10 +7102,10 @@
         <v>6.4</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="132" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="C40" s="84" t="s">
+        <v>111</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>78</v>
@@ -7158,15 +7161,15 @@
       <c r="EO40" s="28"/>
       <c r="EP40" s="33"/>
       <c r="ER40" s="30"/>
-      <c r="EU40" s="113"/>
-      <c r="EV40" s="114"/>
-      <c r="EW40" s="113"/>
-      <c r="EX40" s="114"/>
-      <c r="EY40" s="114"/>
-      <c r="EZ40" s="114"/>
-      <c r="FA40" s="114"/>
-      <c r="FB40" s="114"/>
-      <c r="FC40" s="114"/>
+      <c r="EU40" s="95"/>
+      <c r="EV40" s="96"/>
+      <c r="EW40" s="95"/>
+      <c r="EX40" s="96"/>
+      <c r="EY40" s="96"/>
+      <c r="EZ40" s="96"/>
+      <c r="FA40" s="96"/>
+      <c r="FB40" s="96"/>
+      <c r="FC40" s="96"/>
       <c r="FD40" s="72"/>
       <c r="FJ40" s="28"/>
       <c r="FQ40" s="28"/>
@@ -7211,13 +7214,13 @@
         <v>6.5</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="132" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>110</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -7275,13 +7278,13 @@
       <c r="FC41" s="28"/>
       <c r="FD41" s="33"/>
       <c r="FJ41" s="28"/>
-      <c r="FK41" s="116"/>
-      <c r="FL41" s="116"/>
-      <c r="FM41" s="116"/>
-      <c r="FN41" s="116"/>
-      <c r="FO41" s="116"/>
-      <c r="FP41" s="116"/>
-      <c r="FQ41" s="116"/>
+      <c r="FK41" s="98"/>
+      <c r="FL41" s="98"/>
+      <c r="FM41" s="98"/>
+      <c r="FN41" s="98"/>
+      <c r="FO41" s="98"/>
+      <c r="FP41" s="98"/>
+      <c r="FQ41" s="98"/>
       <c r="FR41" s="47"/>
       <c r="FS41" s="30"/>
       <c r="FT41" s="30"/>
@@ -7323,13 +7326,13 @@
         <v>6.6</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="124" t="s">
-        <v>115</v>
+        <v>100</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>114</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -7387,13 +7390,13 @@
       <c r="FC42" s="28"/>
       <c r="FD42" s="33"/>
       <c r="FJ42" s="28"/>
-      <c r="FK42" s="116"/>
-      <c r="FL42" s="116"/>
-      <c r="FM42" s="116"/>
-      <c r="FN42" s="116"/>
-      <c r="FO42" s="116"/>
-      <c r="FP42" s="116"/>
-      <c r="FQ42" s="116"/>
+      <c r="FK42" s="98"/>
+      <c r="FL42" s="98"/>
+      <c r="FM42" s="98"/>
+      <c r="FN42" s="98"/>
+      <c r="FO42" s="98"/>
+      <c r="FP42" s="98"/>
+      <c r="FQ42" s="98"/>
       <c r="FR42" s="47"/>
       <c r="FS42" s="30"/>
       <c r="FT42" s="30"/>
@@ -7434,14 +7437,14 @@
       <c r="A43" s="18">
         <v>6.7</v>
       </c>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="124" t="s">
-        <v>110</v>
+      <c r="D43" s="78" t="s">
+        <v>109</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -7499,20 +7502,20 @@
       <c r="FC43" s="28"/>
       <c r="FD43" s="33"/>
       <c r="FJ43" s="28"/>
-      <c r="FK43" s="133"/>
-      <c r="FL43" s="133"/>
-      <c r="FM43" s="133"/>
-      <c r="FN43" s="133"/>
-      <c r="FO43" s="133"/>
-      <c r="FP43" s="133"/>
-      <c r="FQ43" s="133"/>
+      <c r="FK43" s="85"/>
+      <c r="FL43" s="85"/>
+      <c r="FM43" s="85"/>
+      <c r="FN43" s="85"/>
+      <c r="FO43" s="85"/>
+      <c r="FP43" s="85"/>
+      <c r="FQ43" s="85"/>
       <c r="FR43" s="47"/>
       <c r="FS43" s="30"/>
       <c r="FT43" s="30"/>
       <c r="FU43" s="30"/>
       <c r="FV43" s="30"/>
       <c r="FW43" s="30"/>
-      <c r="FX43" s="126"/>
+      <c r="FX43" s="30"/>
       <c r="FY43" s="47"/>
       <c r="FZ43" s="30"/>
       <c r="GA43" s="30"/>
@@ -7547,10 +7550,10 @@
         <v>6.8</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>78</v>
@@ -7617,9 +7620,9 @@
       <c r="FS44" s="30"/>
       <c r="FT44" s="30"/>
       <c r="FU44" s="30"/>
-      <c r="FV44" s="113"/>
-      <c r="FW44" s="114"/>
-      <c r="FX44" s="114"/>
+      <c r="FV44" s="95"/>
+      <c r="FW44" s="96"/>
+      <c r="FX44" s="96"/>
       <c r="FY44" s="72"/>
       <c r="FZ44" s="30"/>
       <c r="GA44" s="30"/>
@@ -7654,13 +7657,13 @@
         <v>6.9</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -7734,26 +7737,21 @@
       <c r="GC45" s="30"/>
       <c r="GD45" s="30"/>
       <c r="GE45" s="53"/>
-      <c r="GF45" s="33"/>
-      <c r="GL45" s="28"/>
-      <c r="GM45" s="33"/>
-      <c r="GS45" s="28"/>
-      <c r="GT45" s="33"/>
-      <c r="GW45" s="117"/>
-      <c r="GX45" s="118"/>
-      <c r="GY45" s="118"/>
-      <c r="GZ45" s="118"/>
-      <c r="HA45" s="117"/>
-      <c r="HB45" s="118"/>
-      <c r="HC45" s="118"/>
-      <c r="HD45" s="118"/>
-      <c r="HE45" s="118"/>
-      <c r="HF45" s="118"/>
-      <c r="HG45" s="118"/>
-      <c r="HH45" s="117"/>
-      <c r="HI45" s="118"/>
-      <c r="HJ45" s="118"/>
-      <c r="HK45" s="118"/>
+      <c r="GF45" s="92"/>
+      <c r="GG45" s="93"/>
+      <c r="GH45" s="93"/>
+      <c r="GI45" s="93"/>
+      <c r="GJ45" s="92"/>
+      <c r="GK45" s="93"/>
+      <c r="GL45" s="93"/>
+      <c r="GM45" s="93"/>
+      <c r="GN45" s="93"/>
+      <c r="GO45" s="93"/>
+      <c r="GP45" s="93"/>
+      <c r="GQ45" s="92"/>
+      <c r="GR45" s="93"/>
+      <c r="GS45" s="93"/>
+      <c r="GT45" s="93"/>
       <c r="HN45" s="28"/>
       <c r="HO45" s="47"/>
       <c r="HR45" s="54"/>
@@ -7768,14 +7766,14 @@
       <c r="IV45" s="68"/>
     </row>
     <row r="46" spans="1:256" ht="16">
-      <c r="A46" s="124" t="s">
-        <v>117</v>
+      <c r="A46" s="78" t="s">
+        <v>116</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>78</v>
@@ -7848,42 +7846,42 @@
       <c r="FY46" s="47"/>
       <c r="FZ46" s="30"/>
       <c r="GA46" s="30"/>
-      <c r="GB46" s="119"/>
-      <c r="GC46" s="119"/>
-      <c r="GD46" s="119"/>
-      <c r="GE46" s="113"/>
-      <c r="GF46" s="119"/>
-      <c r="GG46" s="119"/>
-      <c r="GH46" s="119"/>
-      <c r="GI46" s="119"/>
-      <c r="GJ46" s="119"/>
-      <c r="GK46" s="119"/>
-      <c r="GL46" s="113"/>
-      <c r="GM46" s="113"/>
-      <c r="GN46" s="114"/>
-      <c r="GO46" s="114"/>
-      <c r="GP46" s="114"/>
-      <c r="GQ46" s="114"/>
-      <c r="GR46" s="114"/>
-      <c r="GS46" s="114"/>
-      <c r="GT46" s="113"/>
-      <c r="GU46" s="114"/>
-      <c r="GV46" s="114"/>
-      <c r="GW46" s="114"/>
-      <c r="GX46" s="114"/>
-      <c r="GY46" s="114"/>
-      <c r="GZ46" s="114"/>
-      <c r="HA46" s="113"/>
-      <c r="HB46" s="114"/>
-      <c r="HC46" s="114"/>
-      <c r="HD46" s="114"/>
-      <c r="HE46" s="114"/>
-      <c r="HF46" s="114"/>
-      <c r="HG46" s="114"/>
-      <c r="HH46" s="113"/>
-      <c r="HI46" s="114"/>
-      <c r="HJ46" s="114"/>
-      <c r="HK46" s="115"/>
+      <c r="GB46" s="94"/>
+      <c r="GC46" s="94"/>
+      <c r="GD46" s="94"/>
+      <c r="GE46" s="95"/>
+      <c r="GF46" s="94"/>
+      <c r="GG46" s="94"/>
+      <c r="GH46" s="94"/>
+      <c r="GI46" s="94"/>
+      <c r="GJ46" s="94"/>
+      <c r="GK46" s="94"/>
+      <c r="GL46" s="95"/>
+      <c r="GM46" s="95"/>
+      <c r="GN46" s="96"/>
+      <c r="GO46" s="96"/>
+      <c r="GP46" s="96"/>
+      <c r="GQ46" s="96"/>
+      <c r="GR46" s="96"/>
+      <c r="GS46" s="96"/>
+      <c r="GT46" s="95"/>
+      <c r="GU46" s="96"/>
+      <c r="GV46" s="96"/>
+      <c r="GW46" s="96"/>
+      <c r="GX46" s="96"/>
+      <c r="GY46" s="96"/>
+      <c r="GZ46" s="96"/>
+      <c r="HA46" s="95"/>
+      <c r="HB46" s="96"/>
+      <c r="HC46" s="96"/>
+      <c r="HD46" s="96"/>
+      <c r="HE46" s="96"/>
+      <c r="HF46" s="96"/>
+      <c r="HG46" s="96"/>
+      <c r="HH46" s="95"/>
+      <c r="HI46" s="96"/>
+      <c r="HJ46" s="96"/>
+      <c r="HK46" s="97"/>
       <c r="HN46" s="28"/>
       <c r="HO46" s="47"/>
       <c r="HR46" s="54"/>
@@ -7902,10 +7900,10 @@
         <v>7.1</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>106</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>107</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>62</v>
@@ -7958,8 +7956,8 @@
       <c r="EB47" s="33"/>
       <c r="EH47" s="28"/>
       <c r="EI47" s="33"/>
-      <c r="EK47" s="120"/>
-      <c r="EL47" s="121"/>
+      <c r="EK47" s="88"/>
+      <c r="EL47" s="89"/>
       <c r="EO47" s="28"/>
       <c r="EP47" s="33"/>
       <c r="ER47" s="30"/>
@@ -8011,10 +8009,10 @@
         <v>7.2</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="132" t="s">
-        <v>113</v>
+        <v>105</v>
+      </c>
+      <c r="C48" s="84" t="s">
+        <v>112</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>62</v>
@@ -8081,49 +8079,49 @@
       <c r="FS48" s="30"/>
       <c r="FT48" s="30"/>
       <c r="FU48" s="30"/>
-      <c r="FV48" s="120"/>
-      <c r="FW48" s="122"/>
-      <c r="FX48" s="121"/>
-      <c r="FY48" s="122"/>
-      <c r="FZ48" s="122"/>
-      <c r="GA48" s="122"/>
-      <c r="GB48" s="122"/>
-      <c r="GC48" s="122"/>
-      <c r="GD48" s="122"/>
-      <c r="GE48" s="121"/>
-      <c r="GF48" s="122"/>
-      <c r="GG48" s="122"/>
-      <c r="GH48" s="122"/>
-      <c r="GI48" s="122"/>
-      <c r="GJ48" s="122"/>
-      <c r="GK48" s="122"/>
-      <c r="GL48" s="121"/>
-      <c r="GM48" s="122"/>
-      <c r="GN48" s="122"/>
-      <c r="GO48" s="122"/>
-      <c r="GP48" s="122"/>
-      <c r="GQ48" s="122"/>
-      <c r="GR48" s="122"/>
-      <c r="GS48" s="121"/>
-      <c r="GT48" s="122"/>
-      <c r="GU48" s="122"/>
-      <c r="GV48" s="122"/>
-      <c r="GW48" s="122"/>
-      <c r="GX48" s="122"/>
-      <c r="GY48" s="122"/>
-      <c r="GZ48" s="121"/>
-      <c r="HA48" s="122"/>
-      <c r="HB48" s="122"/>
-      <c r="HC48" s="122"/>
-      <c r="HD48" s="122"/>
-      <c r="HE48" s="122"/>
-      <c r="HF48" s="122"/>
-      <c r="HG48" s="121"/>
-      <c r="HH48" s="120"/>
-      <c r="HI48" s="122"/>
-      <c r="HJ48" s="122"/>
-      <c r="HK48" s="122"/>
-      <c r="HL48" s="123"/>
+      <c r="FV48" s="88"/>
+      <c r="FW48" s="90"/>
+      <c r="FX48" s="89"/>
+      <c r="FY48" s="90"/>
+      <c r="FZ48" s="90"/>
+      <c r="GA48" s="90"/>
+      <c r="GB48" s="90"/>
+      <c r="GC48" s="90"/>
+      <c r="GD48" s="90"/>
+      <c r="GE48" s="89"/>
+      <c r="GF48" s="90"/>
+      <c r="GG48" s="90"/>
+      <c r="GH48" s="90"/>
+      <c r="GI48" s="90"/>
+      <c r="GJ48" s="90"/>
+      <c r="GK48" s="90"/>
+      <c r="GL48" s="89"/>
+      <c r="GM48" s="90"/>
+      <c r="GN48" s="90"/>
+      <c r="GO48" s="90"/>
+      <c r="GP48" s="90"/>
+      <c r="GQ48" s="90"/>
+      <c r="GR48" s="90"/>
+      <c r="GS48" s="89"/>
+      <c r="GT48" s="90"/>
+      <c r="GU48" s="90"/>
+      <c r="GV48" s="90"/>
+      <c r="GW48" s="90"/>
+      <c r="GX48" s="90"/>
+      <c r="GY48" s="90"/>
+      <c r="GZ48" s="89"/>
+      <c r="HA48" s="90"/>
+      <c r="HB48" s="90"/>
+      <c r="HC48" s="90"/>
+      <c r="HD48" s="90"/>
+      <c r="HE48" s="90"/>
+      <c r="HF48" s="90"/>
+      <c r="HG48" s="89"/>
+      <c r="HH48" s="88"/>
+      <c r="HI48" s="90"/>
+      <c r="HJ48" s="90"/>
+      <c r="HK48" s="90"/>
+      <c r="HL48" s="91"/>
       <c r="HN48" s="28"/>
       <c r="HO48" s="47"/>
       <c r="HR48" s="54"/>
@@ -8141,14 +8139,14 @@
       <c r="A49" s="18">
         <v>7.3</v>
       </c>
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="84" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="78" t="s">
         <v>109</v>
-      </c>
-      <c r="C49" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>110</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
@@ -8212,50 +8210,49 @@
       <c r="FS49" s="30"/>
       <c r="FT49" s="30"/>
       <c r="FU49" s="30"/>
-      <c r="FV49" s="125"/>
-      <c r="FW49" s="125"/>
-      <c r="FX49" s="128"/>
-      <c r="FY49" s="125"/>
-      <c r="FZ49" s="125"/>
-      <c r="GA49" s="125"/>
-      <c r="GB49" s="125"/>
-      <c r="GC49" s="125"/>
-      <c r="GD49" s="125"/>
-      <c r="GE49" s="128"/>
-      <c r="GF49" s="125"/>
-      <c r="GG49" s="125"/>
-      <c r="GH49" s="125"/>
-      <c r="GI49" s="125"/>
-      <c r="GJ49" s="125"/>
-      <c r="GK49" s="125"/>
-      <c r="GL49" s="128"/>
-      <c r="GM49" s="125"/>
-      <c r="GN49" s="125"/>
-      <c r="GO49" s="125"/>
-      <c r="GP49" s="125"/>
-      <c r="GQ49" s="125"/>
-      <c r="GR49" s="125"/>
-      <c r="GS49" s="128"/>
-      <c r="GT49" s="125"/>
-      <c r="GU49" s="125"/>
-      <c r="GV49" s="125"/>
-      <c r="GW49" s="125"/>
-      <c r="GX49" s="125"/>
-      <c r="GY49" s="125"/>
-      <c r="GZ49" s="128"/>
-      <c r="HA49" s="125"/>
-      <c r="HB49" s="125"/>
-      <c r="HC49" s="125"/>
-      <c r="HD49" s="125"/>
-      <c r="HE49" s="125"/>
-      <c r="HF49" s="125"/>
-      <c r="HG49" s="128"/>
-      <c r="HH49" s="129"/>
-      <c r="HI49" s="125"/>
-      <c r="HJ49" s="125"/>
-      <c r="HK49" s="125"/>
-      <c r="HL49" s="130"/>
-      <c r="HN49" s="127"/>
+      <c r="FV49" s="79"/>
+      <c r="FW49" s="79"/>
+      <c r="FX49" s="80"/>
+      <c r="FY49" s="79"/>
+      <c r="FZ49" s="79"/>
+      <c r="GA49" s="79"/>
+      <c r="GB49" s="79"/>
+      <c r="GC49" s="79"/>
+      <c r="GD49" s="79"/>
+      <c r="GE49" s="80"/>
+      <c r="GF49" s="79"/>
+      <c r="GG49" s="79"/>
+      <c r="GH49" s="79"/>
+      <c r="GI49" s="79"/>
+      <c r="GJ49" s="79"/>
+      <c r="GK49" s="79"/>
+      <c r="GL49" s="80"/>
+      <c r="GM49" s="79"/>
+      <c r="GN49" s="79"/>
+      <c r="GO49" s="79"/>
+      <c r="GP49" s="79"/>
+      <c r="GQ49" s="79"/>
+      <c r="GR49" s="79"/>
+      <c r="GS49" s="80"/>
+      <c r="GT49" s="79"/>
+      <c r="GU49" s="79"/>
+      <c r="GV49" s="79"/>
+      <c r="GW49" s="79"/>
+      <c r="GX49" s="79"/>
+      <c r="GY49" s="79"/>
+      <c r="GZ49" s="80"/>
+      <c r="HA49" s="79"/>
+      <c r="HB49" s="79"/>
+      <c r="HC49" s="79"/>
+      <c r="HD49" s="79"/>
+      <c r="HE49" s="79"/>
+      <c r="HF49" s="79"/>
+      <c r="HG49" s="80"/>
+      <c r="HH49" s="81"/>
+      <c r="HI49" s="79"/>
+      <c r="HJ49" s="79"/>
+      <c r="HK49" s="79"/>
+      <c r="HL49" s="82"/>
       <c r="HO49" s="47"/>
       <c r="HR49" s="54"/>
       <c r="HT49" s="54"/>
@@ -9889,80 +9886,15 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="EK47:EL47"/>
-    <mergeCell ref="FV48:FX48"/>
-    <mergeCell ref="FY48:GE48"/>
-    <mergeCell ref="GF48:GL48"/>
-    <mergeCell ref="GM48:GS48"/>
-    <mergeCell ref="GT48:GZ48"/>
-    <mergeCell ref="HA48:HG48"/>
-    <mergeCell ref="HH48:HL48"/>
-    <mergeCell ref="GW45:GZ45"/>
-    <mergeCell ref="HA45:HG45"/>
-    <mergeCell ref="HH45:HK45"/>
-    <mergeCell ref="GB46:GE46"/>
-    <mergeCell ref="GF46:GL46"/>
-    <mergeCell ref="GM46:GS46"/>
-    <mergeCell ref="GT46:GZ46"/>
-    <mergeCell ref="HA46:HG46"/>
-    <mergeCell ref="HH46:HK46"/>
-    <mergeCell ref="EM38:EO38"/>
-    <mergeCell ref="EP38:EV38"/>
-    <mergeCell ref="FI39:FJ39"/>
-    <mergeCell ref="FK39:FO39"/>
-    <mergeCell ref="EU40:EV40"/>
-    <mergeCell ref="EW40:FC40"/>
-    <mergeCell ref="FK41:FQ41"/>
-    <mergeCell ref="FK42:FQ42"/>
-    <mergeCell ref="FV44:FX44"/>
-    <mergeCell ref="DY35:EA35"/>
-    <mergeCell ref="EB35:EE35"/>
-    <mergeCell ref="EM35:EO35"/>
-    <mergeCell ref="EP35:ES35"/>
-    <mergeCell ref="FD36:FJ36"/>
-    <mergeCell ref="FK36:FQ36"/>
-    <mergeCell ref="EM37:EO37"/>
-    <mergeCell ref="EP37:EV37"/>
-    <mergeCell ref="EW37:FB37"/>
-    <mergeCell ref="FK37:FN37"/>
-    <mergeCell ref="EI28:EL28"/>
-    <mergeCell ref="AY29:AZ29"/>
-    <mergeCell ref="EI30:EO30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BC31:BI31"/>
-    <mergeCell ref="BJ31:BP31"/>
-    <mergeCell ref="BQ31:BW31"/>
-    <mergeCell ref="EM31:EO31"/>
-    <mergeCell ref="BT33:BW33"/>
-    <mergeCell ref="T24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="AO25:AU25"/>
-    <mergeCell ref="AV26:BB26"/>
-    <mergeCell ref="BC26:BI26"/>
-    <mergeCell ref="BT27:BW27"/>
-    <mergeCell ref="DY28:DZ28"/>
-    <mergeCell ref="EF28:EH28"/>
-    <mergeCell ref="IC3:II3"/>
-    <mergeCell ref="IP3:IV3"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="EP21:EV21"/>
-    <mergeCell ref="EW21:FC21"/>
-    <mergeCell ref="FD21:FJ21"/>
-    <mergeCell ref="FK21:FQ21"/>
-    <mergeCell ref="FR21:FX21"/>
-    <mergeCell ref="FK3:FQ3"/>
-    <mergeCell ref="FR3:FX3"/>
-    <mergeCell ref="FY3:GE3"/>
-    <mergeCell ref="GF3:GL3"/>
-    <mergeCell ref="GM3:GS3"/>
-    <mergeCell ref="GT3:GZ3"/>
-    <mergeCell ref="HA3:HG3"/>
-    <mergeCell ref="HH3:HN3"/>
-    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:AO2"/>
+    <mergeCell ref="AP2:BS2"/>
+    <mergeCell ref="BT2:CX2"/>
+    <mergeCell ref="CY2:EC2"/>
+    <mergeCell ref="ED2:FE2"/>
+    <mergeCell ref="FF2:GJ2"/>
+    <mergeCell ref="GK2:HN2"/>
+    <mergeCell ref="HO2:IS2"/>
     <mergeCell ref="IT2:IV2"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:S3"/>
@@ -9987,17 +9919,82 @@
     <mergeCell ref="EP3:EV3"/>
     <mergeCell ref="EW3:FC3"/>
     <mergeCell ref="FD3:FJ3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:AO2"/>
-    <mergeCell ref="AP2:BS2"/>
-    <mergeCell ref="BT2:CX2"/>
-    <mergeCell ref="CY2:EC2"/>
-    <mergeCell ref="ED2:FE2"/>
-    <mergeCell ref="FF2:GJ2"/>
-    <mergeCell ref="GK2:HN2"/>
-    <mergeCell ref="HO2:IS2"/>
+    <mergeCell ref="IC3:II3"/>
+    <mergeCell ref="IP3:IV3"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="EP21:EV21"/>
+    <mergeCell ref="EW21:FC21"/>
+    <mergeCell ref="FD21:FJ21"/>
+    <mergeCell ref="FK21:FQ21"/>
+    <mergeCell ref="FR21:FX21"/>
+    <mergeCell ref="FK3:FQ3"/>
+    <mergeCell ref="FR3:FX3"/>
+    <mergeCell ref="FY3:GE3"/>
+    <mergeCell ref="GF3:GL3"/>
+    <mergeCell ref="GM3:GS3"/>
+    <mergeCell ref="GT3:GZ3"/>
+    <mergeCell ref="HA3:HG3"/>
+    <mergeCell ref="HH3:HN3"/>
+    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="T24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="AO25:AU25"/>
+    <mergeCell ref="AV26:BB26"/>
+    <mergeCell ref="BC26:BI26"/>
+    <mergeCell ref="BT27:BW27"/>
+    <mergeCell ref="DY28:DZ28"/>
+    <mergeCell ref="EF28:EH28"/>
+    <mergeCell ref="EI28:EL28"/>
+    <mergeCell ref="AY29:AZ29"/>
+    <mergeCell ref="EI30:EO30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BC31:BI31"/>
+    <mergeCell ref="BJ31:BP31"/>
+    <mergeCell ref="BQ31:BW31"/>
+    <mergeCell ref="EM31:EO31"/>
+    <mergeCell ref="BT33:BW33"/>
+    <mergeCell ref="DY35:EA35"/>
+    <mergeCell ref="EB35:EE35"/>
+    <mergeCell ref="EM35:EO35"/>
+    <mergeCell ref="EP35:ES35"/>
+    <mergeCell ref="FD36:FJ36"/>
+    <mergeCell ref="FK36:FQ36"/>
+    <mergeCell ref="EM37:EO37"/>
+    <mergeCell ref="EP37:EV37"/>
+    <mergeCell ref="EW37:FB37"/>
+    <mergeCell ref="FK37:FN37"/>
+    <mergeCell ref="EM38:EO38"/>
+    <mergeCell ref="EP38:EV38"/>
+    <mergeCell ref="FI39:FJ39"/>
+    <mergeCell ref="FK39:FO39"/>
+    <mergeCell ref="EU40:EV40"/>
+    <mergeCell ref="EW40:FC40"/>
+    <mergeCell ref="FK41:FQ41"/>
+    <mergeCell ref="FK42:FQ42"/>
+    <mergeCell ref="FV44:FX44"/>
+    <mergeCell ref="EK47:EL47"/>
+    <mergeCell ref="FV48:FX48"/>
+    <mergeCell ref="FY48:GE48"/>
+    <mergeCell ref="GF48:GL48"/>
+    <mergeCell ref="GM48:GS48"/>
+    <mergeCell ref="GT48:GZ48"/>
+    <mergeCell ref="HA48:HG48"/>
+    <mergeCell ref="HH48:HL48"/>
+    <mergeCell ref="GF45:GI45"/>
+    <mergeCell ref="GJ45:GP45"/>
+    <mergeCell ref="GQ45:GT45"/>
+    <mergeCell ref="GB46:GE46"/>
+    <mergeCell ref="GF46:GL46"/>
+    <mergeCell ref="GM46:GS46"/>
+    <mergeCell ref="GT46:GZ46"/>
+    <mergeCell ref="HA46:HG46"/>
+    <mergeCell ref="HH46:HK46"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>

--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihaixin/Desktop/code/2022-RewardProcessingApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrix/zzzioadwhidab/2022-RewardProcessingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFB336F-9EFF-1A4D-883F-B87BBF5488D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDF4034-0954-F84C-9300-313AB98B8235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="760" windowWidth="20500" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP Gantt chart" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="132">
   <si>
     <t>Colour coding:</t>
   </si>
@@ -602,10 +602,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Wren,Haixin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Chongqi,Haixin,Wren</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -635,6 +631,46 @@
   </si>
   <si>
     <t>Haixin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi,Haixin</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi,Yichen</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity-Pacman</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game grid</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wren,Haixin,Chongqi</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barriers</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1173,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1406,6 +1442,162 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1415,19 +1607,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,148 +1622,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1855,13 +1903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV65"/>
+  <dimension ref="A1:IV68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="HV54" sqref="HV54"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -1890,277 +1938,277 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80" t="s">
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="80" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="78"/>
-      <c r="AU2" s="78"/>
-      <c r="AV2" s="78"/>
-      <c r="AW2" s="78"/>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="78"/>
-      <c r="BM2" s="78"/>
-      <c r="BN2" s="78"/>
-      <c r="BO2" s="78"/>
-      <c r="BP2" s="78"/>
-      <c r="BQ2" s="78"/>
-      <c r="BR2" s="78"/>
-      <c r="BS2" s="79"/>
-      <c r="BT2" s="80" t="s">
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
+      <c r="BR2" s="130"/>
+      <c r="BS2" s="131"/>
+      <c r="BT2" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="78"/>
-      <c r="BV2" s="78"/>
-      <c r="BW2" s="78"/>
-      <c r="BX2" s="78"/>
-      <c r="BY2" s="78"/>
-      <c r="BZ2" s="78"/>
-      <c r="CA2" s="78"/>
-      <c r="CB2" s="78"/>
-      <c r="CC2" s="78"/>
-      <c r="CD2" s="78"/>
-      <c r="CE2" s="78"/>
-      <c r="CF2" s="78"/>
-      <c r="CG2" s="78"/>
-      <c r="CH2" s="78"/>
-      <c r="CI2" s="78"/>
-      <c r="CJ2" s="78"/>
-      <c r="CK2" s="78"/>
-      <c r="CL2" s="78"/>
-      <c r="CM2" s="78"/>
-      <c r="CN2" s="78"/>
-      <c r="CO2" s="78"/>
-      <c r="CP2" s="78"/>
-      <c r="CQ2" s="78"/>
-      <c r="CR2" s="78"/>
-      <c r="CS2" s="78"/>
-      <c r="CT2" s="78"/>
-      <c r="CU2" s="78"/>
-      <c r="CV2" s="78"/>
-      <c r="CW2" s="78"/>
-      <c r="CX2" s="79"/>
-      <c r="CY2" s="80" t="s">
+      <c r="BU2" s="130"/>
+      <c r="BV2" s="130"/>
+      <c r="BW2" s="130"/>
+      <c r="BX2" s="130"/>
+      <c r="BY2" s="130"/>
+      <c r="BZ2" s="130"/>
+      <c r="CA2" s="130"/>
+      <c r="CB2" s="130"/>
+      <c r="CC2" s="130"/>
+      <c r="CD2" s="130"/>
+      <c r="CE2" s="130"/>
+      <c r="CF2" s="130"/>
+      <c r="CG2" s="130"/>
+      <c r="CH2" s="130"/>
+      <c r="CI2" s="130"/>
+      <c r="CJ2" s="130"/>
+      <c r="CK2" s="130"/>
+      <c r="CL2" s="130"/>
+      <c r="CM2" s="130"/>
+      <c r="CN2" s="130"/>
+      <c r="CO2" s="130"/>
+      <c r="CP2" s="130"/>
+      <c r="CQ2" s="130"/>
+      <c r="CR2" s="130"/>
+      <c r="CS2" s="130"/>
+      <c r="CT2" s="130"/>
+      <c r="CU2" s="130"/>
+      <c r="CV2" s="130"/>
+      <c r="CW2" s="130"/>
+      <c r="CX2" s="131"/>
+      <c r="CY2" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="CZ2" s="78"/>
-      <c r="DA2" s="78"/>
-      <c r="DB2" s="78"/>
-      <c r="DC2" s="78"/>
-      <c r="DD2" s="78"/>
-      <c r="DE2" s="78"/>
-      <c r="DF2" s="78"/>
-      <c r="DG2" s="81"/>
-      <c r="DH2" s="81"/>
-      <c r="DI2" s="81"/>
-      <c r="DJ2" s="81"/>
-      <c r="DK2" s="81"/>
-      <c r="DL2" s="81"/>
-      <c r="DM2" s="81"/>
-      <c r="DN2" s="81"/>
-      <c r="DO2" s="81"/>
-      <c r="DP2" s="81"/>
-      <c r="DQ2" s="81"/>
-      <c r="DR2" s="81"/>
-      <c r="DS2" s="81"/>
-      <c r="DT2" s="81"/>
-      <c r="DU2" s="78"/>
-      <c r="DV2" s="78"/>
-      <c r="DW2" s="78"/>
-      <c r="DX2" s="78"/>
-      <c r="DY2" s="78"/>
-      <c r="DZ2" s="78"/>
-      <c r="EA2" s="78"/>
-      <c r="EB2" s="78"/>
-      <c r="EC2" s="79"/>
-      <c r="ED2" s="82" t="s">
+      <c r="CZ2" s="130"/>
+      <c r="DA2" s="130"/>
+      <c r="DB2" s="130"/>
+      <c r="DC2" s="130"/>
+      <c r="DD2" s="130"/>
+      <c r="DE2" s="130"/>
+      <c r="DF2" s="130"/>
+      <c r="DG2" s="126"/>
+      <c r="DH2" s="126"/>
+      <c r="DI2" s="126"/>
+      <c r="DJ2" s="126"/>
+      <c r="DK2" s="126"/>
+      <c r="DL2" s="126"/>
+      <c r="DM2" s="126"/>
+      <c r="DN2" s="126"/>
+      <c r="DO2" s="126"/>
+      <c r="DP2" s="126"/>
+      <c r="DQ2" s="126"/>
+      <c r="DR2" s="126"/>
+      <c r="DS2" s="126"/>
+      <c r="DT2" s="126"/>
+      <c r="DU2" s="130"/>
+      <c r="DV2" s="130"/>
+      <c r="DW2" s="130"/>
+      <c r="DX2" s="130"/>
+      <c r="DY2" s="130"/>
+      <c r="DZ2" s="130"/>
+      <c r="EA2" s="130"/>
+      <c r="EB2" s="130"/>
+      <c r="EC2" s="131"/>
+      <c r="ED2" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="EE2" s="81"/>
-      <c r="EF2" s="81"/>
-      <c r="EG2" s="81"/>
-      <c r="EH2" s="81"/>
-      <c r="EI2" s="78"/>
-      <c r="EJ2" s="78"/>
-      <c r="EK2" s="78"/>
-      <c r="EL2" s="78"/>
-      <c r="EM2" s="78"/>
-      <c r="EN2" s="78"/>
-      <c r="EO2" s="78"/>
-      <c r="EP2" s="78"/>
-      <c r="EQ2" s="78"/>
-      <c r="ER2" s="78"/>
-      <c r="ES2" s="78"/>
-      <c r="ET2" s="78"/>
-      <c r="EU2" s="78"/>
-      <c r="EV2" s="78"/>
-      <c r="EW2" s="78"/>
-      <c r="EX2" s="78"/>
-      <c r="EY2" s="78"/>
-      <c r="EZ2" s="78"/>
-      <c r="FA2" s="78"/>
-      <c r="FB2" s="78"/>
-      <c r="FC2" s="78"/>
-      <c r="FD2" s="78"/>
-      <c r="FE2" s="79"/>
-      <c r="FF2" s="82" t="s">
+      <c r="EE2" s="126"/>
+      <c r="EF2" s="126"/>
+      <c r="EG2" s="126"/>
+      <c r="EH2" s="126"/>
+      <c r="EI2" s="130"/>
+      <c r="EJ2" s="130"/>
+      <c r="EK2" s="130"/>
+      <c r="EL2" s="130"/>
+      <c r="EM2" s="130"/>
+      <c r="EN2" s="130"/>
+      <c r="EO2" s="130"/>
+      <c r="EP2" s="130"/>
+      <c r="EQ2" s="130"/>
+      <c r="ER2" s="130"/>
+      <c r="ES2" s="130"/>
+      <c r="ET2" s="130"/>
+      <c r="EU2" s="130"/>
+      <c r="EV2" s="130"/>
+      <c r="EW2" s="130"/>
+      <c r="EX2" s="130"/>
+      <c r="EY2" s="130"/>
+      <c r="EZ2" s="130"/>
+      <c r="FA2" s="130"/>
+      <c r="FB2" s="130"/>
+      <c r="FC2" s="130"/>
+      <c r="FD2" s="130"/>
+      <c r="FE2" s="131"/>
+      <c r="FF2" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="FG2" s="81"/>
-      <c r="FH2" s="81"/>
-      <c r="FI2" s="81"/>
-      <c r="FJ2" s="81"/>
-      <c r="FK2" s="78"/>
-      <c r="FL2" s="78"/>
-      <c r="FM2" s="78"/>
-      <c r="FN2" s="78"/>
-      <c r="FO2" s="78"/>
-      <c r="FP2" s="78"/>
-      <c r="FQ2" s="78"/>
-      <c r="FR2" s="78"/>
-      <c r="FS2" s="78"/>
-      <c r="FT2" s="78"/>
-      <c r="FU2" s="78"/>
-      <c r="FV2" s="78"/>
-      <c r="FW2" s="78"/>
-      <c r="FX2" s="78"/>
-      <c r="FY2" s="78"/>
-      <c r="FZ2" s="78"/>
-      <c r="GA2" s="78"/>
-      <c r="GB2" s="78"/>
-      <c r="GC2" s="78"/>
-      <c r="GD2" s="78"/>
-      <c r="GE2" s="78"/>
-      <c r="GF2" s="78"/>
-      <c r="GG2" s="78"/>
-      <c r="GH2" s="78"/>
-      <c r="GI2" s="78"/>
-      <c r="GJ2" s="79"/>
-      <c r="GK2" s="80" t="s">
+      <c r="FG2" s="126"/>
+      <c r="FH2" s="126"/>
+      <c r="FI2" s="126"/>
+      <c r="FJ2" s="126"/>
+      <c r="FK2" s="130"/>
+      <c r="FL2" s="130"/>
+      <c r="FM2" s="130"/>
+      <c r="FN2" s="130"/>
+      <c r="FO2" s="130"/>
+      <c r="FP2" s="130"/>
+      <c r="FQ2" s="130"/>
+      <c r="FR2" s="130"/>
+      <c r="FS2" s="130"/>
+      <c r="FT2" s="130"/>
+      <c r="FU2" s="130"/>
+      <c r="FV2" s="130"/>
+      <c r="FW2" s="130"/>
+      <c r="FX2" s="130"/>
+      <c r="FY2" s="130"/>
+      <c r="FZ2" s="130"/>
+      <c r="GA2" s="130"/>
+      <c r="GB2" s="130"/>
+      <c r="GC2" s="130"/>
+      <c r="GD2" s="130"/>
+      <c r="GE2" s="130"/>
+      <c r="GF2" s="130"/>
+      <c r="GG2" s="130"/>
+      <c r="GH2" s="130"/>
+      <c r="GI2" s="130"/>
+      <c r="GJ2" s="131"/>
+      <c r="GK2" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="GL2" s="78"/>
-      <c r="GM2" s="78"/>
-      <c r="GN2" s="78"/>
-      <c r="GO2" s="78"/>
-      <c r="GP2" s="78"/>
-      <c r="GQ2" s="78"/>
-      <c r="GR2" s="78"/>
-      <c r="GS2" s="78"/>
-      <c r="GT2" s="78"/>
-      <c r="GU2" s="78"/>
-      <c r="GV2" s="78"/>
-      <c r="GW2" s="78"/>
-      <c r="GX2" s="78"/>
-      <c r="GY2" s="78"/>
-      <c r="GZ2" s="78"/>
-      <c r="HA2" s="78"/>
-      <c r="HB2" s="78"/>
-      <c r="HC2" s="78"/>
-      <c r="HD2" s="78"/>
-      <c r="HE2" s="78"/>
-      <c r="HF2" s="78"/>
-      <c r="HG2" s="78"/>
-      <c r="HH2" s="78"/>
-      <c r="HI2" s="78"/>
-      <c r="HJ2" s="78"/>
-      <c r="HK2" s="78"/>
-      <c r="HL2" s="78"/>
-      <c r="HM2" s="78"/>
-      <c r="HN2" s="79"/>
-      <c r="HO2" s="80" t="s">
+      <c r="GL2" s="130"/>
+      <c r="GM2" s="130"/>
+      <c r="GN2" s="130"/>
+      <c r="GO2" s="130"/>
+      <c r="GP2" s="130"/>
+      <c r="GQ2" s="130"/>
+      <c r="GR2" s="130"/>
+      <c r="GS2" s="130"/>
+      <c r="GT2" s="130"/>
+      <c r="GU2" s="130"/>
+      <c r="GV2" s="130"/>
+      <c r="GW2" s="130"/>
+      <c r="GX2" s="130"/>
+      <c r="GY2" s="130"/>
+      <c r="GZ2" s="130"/>
+      <c r="HA2" s="130"/>
+      <c r="HB2" s="130"/>
+      <c r="HC2" s="130"/>
+      <c r="HD2" s="130"/>
+      <c r="HE2" s="130"/>
+      <c r="HF2" s="130"/>
+      <c r="HG2" s="130"/>
+      <c r="HH2" s="130"/>
+      <c r="HI2" s="130"/>
+      <c r="HJ2" s="130"/>
+      <c r="HK2" s="130"/>
+      <c r="HL2" s="130"/>
+      <c r="HM2" s="130"/>
+      <c r="HN2" s="131"/>
+      <c r="HO2" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="HP2" s="78"/>
-      <c r="HQ2" s="78"/>
-      <c r="HR2" s="78"/>
-      <c r="HS2" s="78"/>
-      <c r="HT2" s="78"/>
-      <c r="HU2" s="78"/>
-      <c r="HV2" s="78"/>
-      <c r="HW2" s="78"/>
-      <c r="HX2" s="78"/>
-      <c r="HY2" s="78"/>
-      <c r="HZ2" s="78"/>
-      <c r="IA2" s="78"/>
-      <c r="IB2" s="78"/>
-      <c r="IC2" s="81"/>
-      <c r="ID2" s="81"/>
-      <c r="IE2" s="81"/>
-      <c r="IF2" s="81"/>
-      <c r="IG2" s="81"/>
-      <c r="IH2" s="81"/>
-      <c r="II2" s="81"/>
-      <c r="IJ2" s="81"/>
-      <c r="IK2" s="81"/>
-      <c r="IL2" s="81"/>
-      <c r="IM2" s="81"/>
-      <c r="IN2" s="81"/>
-      <c r="IO2" s="81"/>
-      <c r="IP2" s="81"/>
-      <c r="IQ2" s="81"/>
-      <c r="IR2" s="81"/>
-      <c r="IS2" s="83"/>
-      <c r="IT2" s="82" t="s">
+      <c r="HP2" s="130"/>
+      <c r="HQ2" s="130"/>
+      <c r="HR2" s="130"/>
+      <c r="HS2" s="130"/>
+      <c r="HT2" s="130"/>
+      <c r="HU2" s="130"/>
+      <c r="HV2" s="130"/>
+      <c r="HW2" s="130"/>
+      <c r="HX2" s="130"/>
+      <c r="HY2" s="130"/>
+      <c r="HZ2" s="130"/>
+      <c r="IA2" s="130"/>
+      <c r="IB2" s="130"/>
+      <c r="IC2" s="126"/>
+      <c r="ID2" s="126"/>
+      <c r="IE2" s="126"/>
+      <c r="IF2" s="126"/>
+      <c r="IG2" s="126"/>
+      <c r="IH2" s="126"/>
+      <c r="II2" s="126"/>
+      <c r="IJ2" s="126"/>
+      <c r="IK2" s="126"/>
+      <c r="IL2" s="126"/>
+      <c r="IM2" s="126"/>
+      <c r="IN2" s="126"/>
+      <c r="IO2" s="126"/>
+      <c r="IP2" s="126"/>
+      <c r="IQ2" s="126"/>
+      <c r="IR2" s="126"/>
+      <c r="IS2" s="127"/>
+      <c r="IT2" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="IU2" s="81"/>
-      <c r="IV2" s="83"/>
+      <c r="IU2" s="126"/>
+      <c r="IV2" s="127"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1">
       <c r="B3" s="2"/>
@@ -2168,306 +2216,306 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="82" t="s">
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82" t="s">
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
-      <c r="X3" s="81"/>
-      <c r="Y3" s="81"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="82" t="s">
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="127"/>
+      <c r="AA3" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="81"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="81"/>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="81"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="82" t="s">
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="81"/>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="81"/>
-      <c r="AL3" s="81"/>
-      <c r="AM3" s="81"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="82" t="s">
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="127"/>
+      <c r="AO3" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="81"/>
-      <c r="AR3" s="81"/>
-      <c r="AS3" s="81"/>
-      <c r="AT3" s="81"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="127"/>
+      <c r="AV3" s="125" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="81"/>
-      <c r="AX3" s="81"/>
-      <c r="AY3" s="81"/>
-      <c r="AZ3" s="81"/>
-      <c r="BA3" s="81"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="82" t="s">
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="126"/>
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="81"/>
-      <c r="BE3" s="81"/>
-      <c r="BF3" s="81"/>
-      <c r="BG3" s="81"/>
-      <c r="BH3" s="81"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="82" t="s">
+      <c r="BD3" s="126"/>
+      <c r="BE3" s="126"/>
+      <c r="BF3" s="126"/>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="127"/>
+      <c r="BJ3" s="125" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="81"/>
-      <c r="BL3" s="81"/>
-      <c r="BM3" s="81"/>
-      <c r="BN3" s="81"/>
-      <c r="BO3" s="81"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="82" t="s">
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="126"/>
+      <c r="BM3" s="126"/>
+      <c r="BN3" s="126"/>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="127"/>
+      <c r="BQ3" s="125" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="81"/>
-      <c r="BS3" s="81"/>
-      <c r="BT3" s="81"/>
-      <c r="BU3" s="81"/>
-      <c r="BV3" s="81"/>
-      <c r="BW3" s="83"/>
-      <c r="BX3" s="82" t="s">
+      <c r="BR3" s="126"/>
+      <c r="BS3" s="126"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="126"/>
+      <c r="BV3" s="126"/>
+      <c r="BW3" s="127"/>
+      <c r="BX3" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="BY3" s="81"/>
-      <c r="BZ3" s="81"/>
-      <c r="CA3" s="81"/>
-      <c r="CB3" s="81"/>
-      <c r="CC3" s="81"/>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="82" t="s">
+      <c r="BY3" s="126"/>
+      <c r="BZ3" s="126"/>
+      <c r="CA3" s="126"/>
+      <c r="CB3" s="126"/>
+      <c r="CC3" s="126"/>
+      <c r="CD3" s="127"/>
+      <c r="CE3" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="CF3" s="81"/>
-      <c r="CG3" s="81"/>
-      <c r="CH3" s="81"/>
-      <c r="CI3" s="81"/>
-      <c r="CJ3" s="81"/>
-      <c r="CK3" s="83"/>
-      <c r="CL3" s="80" t="s">
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="126"/>
+      <c r="CH3" s="126"/>
+      <c r="CI3" s="126"/>
+      <c r="CJ3" s="126"/>
+      <c r="CK3" s="127"/>
+      <c r="CL3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="CM3" s="78"/>
-      <c r="CN3" s="78"/>
-      <c r="CO3" s="78"/>
-      <c r="CP3" s="78"/>
-      <c r="CQ3" s="78"/>
-      <c r="CR3" s="79"/>
-      <c r="CS3" s="80" t="s">
+      <c r="CM3" s="130"/>
+      <c r="CN3" s="130"/>
+      <c r="CO3" s="130"/>
+      <c r="CP3" s="130"/>
+      <c r="CQ3" s="130"/>
+      <c r="CR3" s="131"/>
+      <c r="CS3" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="78"/>
-      <c r="CU3" s="78"/>
-      <c r="CV3" s="78"/>
-      <c r="CW3" s="78"/>
-      <c r="CX3" s="78"/>
-      <c r="CY3" s="79"/>
-      <c r="CZ3" s="80" t="s">
+      <c r="CT3" s="130"/>
+      <c r="CU3" s="130"/>
+      <c r="CV3" s="130"/>
+      <c r="CW3" s="130"/>
+      <c r="CX3" s="130"/>
+      <c r="CY3" s="131"/>
+      <c r="CZ3" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="78"/>
-      <c r="DB3" s="78"/>
-      <c r="DC3" s="78"/>
-      <c r="DD3" s="78"/>
-      <c r="DE3" s="78"/>
-      <c r="DF3" s="78"/>
-      <c r="DG3" s="84" t="s">
+      <c r="DA3" s="130"/>
+      <c r="DB3" s="130"/>
+      <c r="DC3" s="130"/>
+      <c r="DD3" s="130"/>
+      <c r="DE3" s="130"/>
+      <c r="DF3" s="130"/>
+      <c r="DG3" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="DH3" s="85"/>
-      <c r="DI3" s="85"/>
-      <c r="DJ3" s="85"/>
-      <c r="DK3" s="85"/>
-      <c r="DL3" s="85"/>
-      <c r="DM3" s="86"/>
-      <c r="DN3" s="87" t="s">
+      <c r="DH3" s="113"/>
+      <c r="DI3" s="113"/>
+      <c r="DJ3" s="113"/>
+      <c r="DK3" s="113"/>
+      <c r="DL3" s="113"/>
+      <c r="DM3" s="136"/>
+      <c r="DN3" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="DO3" s="85"/>
-      <c r="DP3" s="85"/>
-      <c r="DQ3" s="85"/>
-      <c r="DR3" s="85"/>
-      <c r="DS3" s="85"/>
-      <c r="DT3" s="88"/>
-      <c r="DU3" s="78" t="s">
+      <c r="DO3" s="113"/>
+      <c r="DP3" s="113"/>
+      <c r="DQ3" s="113"/>
+      <c r="DR3" s="113"/>
+      <c r="DS3" s="113"/>
+      <c r="DT3" s="114"/>
+      <c r="DU3" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="DV3" s="78"/>
-      <c r="DW3" s="78"/>
-      <c r="DX3" s="78"/>
-      <c r="DY3" s="78"/>
-      <c r="DZ3" s="78"/>
-      <c r="EA3" s="79"/>
-      <c r="EB3" s="80" t="s">
+      <c r="DV3" s="130"/>
+      <c r="DW3" s="130"/>
+      <c r="DX3" s="130"/>
+      <c r="DY3" s="130"/>
+      <c r="DZ3" s="130"/>
+      <c r="EA3" s="131"/>
+      <c r="EB3" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="EC3" s="78"/>
-      <c r="ED3" s="78"/>
-      <c r="EE3" s="78"/>
-      <c r="EF3" s="78"/>
-      <c r="EG3" s="78"/>
-      <c r="EH3" s="79"/>
-      <c r="EI3" s="80" t="s">
+      <c r="EC3" s="130"/>
+      <c r="ED3" s="130"/>
+      <c r="EE3" s="130"/>
+      <c r="EF3" s="130"/>
+      <c r="EG3" s="130"/>
+      <c r="EH3" s="131"/>
+      <c r="EI3" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="EJ3" s="78"/>
-      <c r="EK3" s="78"/>
-      <c r="EL3" s="78"/>
-      <c r="EM3" s="78"/>
-      <c r="EN3" s="78"/>
-      <c r="EO3" s="79"/>
-      <c r="EP3" s="80" t="s">
+      <c r="EJ3" s="130"/>
+      <c r="EK3" s="130"/>
+      <c r="EL3" s="130"/>
+      <c r="EM3" s="130"/>
+      <c r="EN3" s="130"/>
+      <c r="EO3" s="131"/>
+      <c r="EP3" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="EQ3" s="78"/>
-      <c r="ER3" s="78"/>
-      <c r="ES3" s="78"/>
-      <c r="ET3" s="78"/>
-      <c r="EU3" s="78"/>
-      <c r="EV3" s="79"/>
-      <c r="EW3" s="80" t="s">
+      <c r="EQ3" s="130"/>
+      <c r="ER3" s="130"/>
+      <c r="ES3" s="130"/>
+      <c r="ET3" s="130"/>
+      <c r="EU3" s="130"/>
+      <c r="EV3" s="131"/>
+      <c r="EW3" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="EX3" s="78"/>
-      <c r="EY3" s="78"/>
-      <c r="EZ3" s="78"/>
-      <c r="FA3" s="78"/>
-      <c r="FB3" s="78"/>
-      <c r="FC3" s="79"/>
-      <c r="FD3" s="89" t="s">
+      <c r="EX3" s="130"/>
+      <c r="EY3" s="130"/>
+      <c r="EZ3" s="130"/>
+      <c r="FA3" s="130"/>
+      <c r="FB3" s="130"/>
+      <c r="FC3" s="131"/>
+      <c r="FD3" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="FE3" s="90"/>
-      <c r="FF3" s="81"/>
-      <c r="FG3" s="81"/>
-      <c r="FH3" s="81"/>
-      <c r="FI3" s="81"/>
-      <c r="FJ3" s="83"/>
-      <c r="FK3" s="82" t="s">
+      <c r="FE3" s="134"/>
+      <c r="FF3" s="126"/>
+      <c r="FG3" s="126"/>
+      <c r="FH3" s="126"/>
+      <c r="FI3" s="126"/>
+      <c r="FJ3" s="127"/>
+      <c r="FK3" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="FL3" s="81"/>
-      <c r="FM3" s="81"/>
-      <c r="FN3" s="81"/>
-      <c r="FO3" s="81"/>
-      <c r="FP3" s="81"/>
-      <c r="FQ3" s="83"/>
-      <c r="FR3" s="82" t="s">
+      <c r="FL3" s="126"/>
+      <c r="FM3" s="126"/>
+      <c r="FN3" s="126"/>
+      <c r="FO3" s="126"/>
+      <c r="FP3" s="126"/>
+      <c r="FQ3" s="127"/>
+      <c r="FR3" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="FS3" s="81"/>
-      <c r="FT3" s="81"/>
-      <c r="FU3" s="81"/>
-      <c r="FV3" s="81"/>
-      <c r="FW3" s="81"/>
-      <c r="FX3" s="83"/>
-      <c r="FY3" s="82" t="s">
+      <c r="FS3" s="126"/>
+      <c r="FT3" s="126"/>
+      <c r="FU3" s="126"/>
+      <c r="FV3" s="126"/>
+      <c r="FW3" s="126"/>
+      <c r="FX3" s="127"/>
+      <c r="FY3" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="FZ3" s="81"/>
-      <c r="GA3" s="81"/>
-      <c r="GB3" s="81"/>
-      <c r="GC3" s="81"/>
-      <c r="GD3" s="81"/>
-      <c r="GE3" s="83"/>
-      <c r="GF3" s="91" t="s">
+      <c r="FZ3" s="126"/>
+      <c r="GA3" s="126"/>
+      <c r="GB3" s="126"/>
+      <c r="GC3" s="126"/>
+      <c r="GD3" s="126"/>
+      <c r="GE3" s="127"/>
+      <c r="GF3" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="GG3" s="92"/>
-      <c r="GH3" s="92"/>
-      <c r="GI3" s="92"/>
-      <c r="GJ3" s="92"/>
-      <c r="GK3" s="78"/>
-      <c r="GL3" s="79"/>
-      <c r="GM3" s="80" t="s">
+      <c r="GG3" s="129"/>
+      <c r="GH3" s="129"/>
+      <c r="GI3" s="129"/>
+      <c r="GJ3" s="129"/>
+      <c r="GK3" s="130"/>
+      <c r="GL3" s="131"/>
+      <c r="GM3" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="GN3" s="78"/>
-      <c r="GO3" s="78"/>
-      <c r="GP3" s="78"/>
-      <c r="GQ3" s="78"/>
-      <c r="GR3" s="78"/>
-      <c r="GS3" s="79"/>
-      <c r="GT3" s="80" t="s">
+      <c r="GN3" s="130"/>
+      <c r="GO3" s="130"/>
+      <c r="GP3" s="130"/>
+      <c r="GQ3" s="130"/>
+      <c r="GR3" s="130"/>
+      <c r="GS3" s="131"/>
+      <c r="GT3" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="GU3" s="78"/>
-      <c r="GV3" s="78"/>
-      <c r="GW3" s="78"/>
-      <c r="GX3" s="78"/>
-      <c r="GY3" s="78"/>
-      <c r="GZ3" s="79"/>
-      <c r="HA3" s="82" t="s">
+      <c r="GU3" s="130"/>
+      <c r="GV3" s="130"/>
+      <c r="GW3" s="130"/>
+      <c r="GX3" s="130"/>
+      <c r="GY3" s="130"/>
+      <c r="GZ3" s="131"/>
+      <c r="HA3" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="HB3" s="81"/>
-      <c r="HC3" s="81"/>
-      <c r="HD3" s="81"/>
-      <c r="HE3" s="81"/>
-      <c r="HF3" s="81"/>
-      <c r="HG3" s="83"/>
-      <c r="HH3" s="82" t="s">
+      <c r="HB3" s="126"/>
+      <c r="HC3" s="126"/>
+      <c r="HD3" s="126"/>
+      <c r="HE3" s="126"/>
+      <c r="HF3" s="126"/>
+      <c r="HG3" s="127"/>
+      <c r="HH3" s="125" t="s">
         <v>44</v>
       </c>
-      <c r="HI3" s="81"/>
-      <c r="HJ3" s="81"/>
-      <c r="HK3" s="81"/>
-      <c r="HL3" s="81"/>
-      <c r="HM3" s="81"/>
-      <c r="HN3" s="83"/>
-      <c r="HO3" s="89" t="s">
+      <c r="HI3" s="126"/>
+      <c r="HJ3" s="126"/>
+      <c r="HK3" s="126"/>
+      <c r="HL3" s="126"/>
+      <c r="HM3" s="126"/>
+      <c r="HN3" s="127"/>
+      <c r="HO3" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="HP3" s="90"/>
-      <c r="HQ3" s="90"/>
-      <c r="HR3" s="90"/>
-      <c r="HS3" s="90"/>
-      <c r="HT3" s="90"/>
-      <c r="HU3" s="93"/>
+      <c r="HP3" s="134"/>
+      <c r="HQ3" s="134"/>
+      <c r="HR3" s="134"/>
+      <c r="HS3" s="134"/>
+      <c r="HT3" s="134"/>
+      <c r="HU3" s="135"/>
       <c r="HV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="IC3" s="84" t="s">
+      <c r="IC3" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="ID3" s="85"/>
-      <c r="IE3" s="85"/>
-      <c r="IF3" s="85"/>
-      <c r="IG3" s="85"/>
-      <c r="IH3" s="85"/>
-      <c r="II3" s="88"/>
+      <c r="ID3" s="113"/>
+      <c r="IE3" s="113"/>
+      <c r="IF3" s="113"/>
+      <c r="IG3" s="113"/>
+      <c r="IH3" s="113"/>
+      <c r="II3" s="114"/>
       <c r="IJ3" s="74" t="s">
         <v>48</v>
       </c>
@@ -2476,15 +2524,15 @@
       <c r="IM3" s="75"/>
       <c r="IN3" s="75"/>
       <c r="IO3" s="77"/>
-      <c r="IP3" s="84" t="s">
+      <c r="IP3" s="112" t="s">
         <v>49</v>
       </c>
-      <c r="IQ3" s="85"/>
-      <c r="IR3" s="85"/>
-      <c r="IS3" s="85"/>
-      <c r="IT3" s="85"/>
-      <c r="IU3" s="85"/>
-      <c r="IV3" s="88"/>
+      <c r="IQ3" s="113"/>
+      <c r="IR3" s="113"/>
+      <c r="IS3" s="113"/>
+      <c r="IT3" s="113"/>
+      <c r="IU3" s="113"/>
+      <c r="IV3" s="114"/>
     </row>
     <row r="4" spans="1:256" s="2" customFormat="1">
       <c r="C4" s="10"/>
@@ -3679,8 +3727,8 @@
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="95"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="116"/>
       <c r="O9" s="30"/>
       <c r="S9" s="28"/>
       <c r="T9" s="33"/>
@@ -4540,13 +4588,13 @@
       <c r="M17" s="33"/>
       <c r="O17" s="30"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
       <c r="AA17" s="33"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="33"/>
@@ -4650,11 +4698,11 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="33"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="100"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="121"/>
       <c r="T18" s="33"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="33"/>
@@ -4884,11 +4932,11 @@
       <c r="AO20" s="33"/>
       <c r="AU20" s="28"/>
       <c r="AV20" s="33"/>
-      <c r="AX20" s="101"/>
-      <c r="AY20" s="101"/>
-      <c r="AZ20" s="101"/>
-      <c r="BA20" s="101"/>
-      <c r="BB20" s="102"/>
+      <c r="AX20" s="122"/>
+      <c r="AY20" s="122"/>
+      <c r="AZ20" s="122"/>
+      <c r="BA20" s="122"/>
+      <c r="BB20" s="123"/>
       <c r="BC20" s="33"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="47"/>
@@ -5019,41 +5067,41 @@
       <c r="EH21" s="28"/>
       <c r="EI21" s="33"/>
       <c r="EO21" s="28"/>
-      <c r="EP21" s="103"/>
-      <c r="EQ21" s="101"/>
-      <c r="ER21" s="101"/>
-      <c r="ES21" s="101"/>
-      <c r="ET21" s="101"/>
-      <c r="EU21" s="101"/>
-      <c r="EV21" s="101"/>
-      <c r="EW21" s="103"/>
-      <c r="EX21" s="101"/>
-      <c r="EY21" s="101"/>
-      <c r="EZ21" s="101"/>
-      <c r="FA21" s="101"/>
-      <c r="FB21" s="101"/>
-      <c r="FC21" s="101"/>
-      <c r="FD21" s="103"/>
-      <c r="FE21" s="101"/>
-      <c r="FF21" s="101"/>
-      <c r="FG21" s="101"/>
-      <c r="FH21" s="101"/>
-      <c r="FI21" s="101"/>
-      <c r="FJ21" s="101"/>
-      <c r="FK21" s="103"/>
-      <c r="FL21" s="101"/>
-      <c r="FM21" s="101"/>
-      <c r="FN21" s="101"/>
-      <c r="FO21" s="101"/>
-      <c r="FP21" s="101"/>
-      <c r="FQ21" s="101"/>
-      <c r="FR21" s="103"/>
-      <c r="FS21" s="101"/>
-      <c r="FT21" s="101"/>
-      <c r="FU21" s="101"/>
-      <c r="FV21" s="101"/>
-      <c r="FW21" s="101"/>
-      <c r="FX21" s="101"/>
+      <c r="EP21" s="124"/>
+      <c r="EQ21" s="122"/>
+      <c r="ER21" s="122"/>
+      <c r="ES21" s="122"/>
+      <c r="ET21" s="122"/>
+      <c r="EU21" s="122"/>
+      <c r="EV21" s="122"/>
+      <c r="EW21" s="124"/>
+      <c r="EX21" s="122"/>
+      <c r="EY21" s="122"/>
+      <c r="EZ21" s="122"/>
+      <c r="FA21" s="122"/>
+      <c r="FB21" s="122"/>
+      <c r="FC21" s="122"/>
+      <c r="FD21" s="124"/>
+      <c r="FE21" s="122"/>
+      <c r="FF21" s="122"/>
+      <c r="FG21" s="122"/>
+      <c r="FH21" s="122"/>
+      <c r="FI21" s="122"/>
+      <c r="FJ21" s="122"/>
+      <c r="FK21" s="124"/>
+      <c r="FL21" s="122"/>
+      <c r="FM21" s="122"/>
+      <c r="FN21" s="122"/>
+      <c r="FO21" s="122"/>
+      <c r="FP21" s="122"/>
+      <c r="FQ21" s="122"/>
+      <c r="FR21" s="124"/>
+      <c r="FS21" s="122"/>
+      <c r="FT21" s="122"/>
+      <c r="FU21" s="122"/>
+      <c r="FV21" s="122"/>
+      <c r="FW21" s="122"/>
+      <c r="FX21" s="122"/>
       <c r="FY21" s="47"/>
       <c r="FZ21" s="30"/>
       <c r="GA21" s="30"/>
@@ -5319,20 +5367,20 @@
       <c r="M24" s="33"/>
       <c r="O24" s="30"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="104"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="105"/>
-      <c r="AE24" s="105"/>
-      <c r="AF24" s="105"/>
-      <c r="AG24" s="105"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="107"/>
+      <c r="V24" s="107"/>
+      <c r="W24" s="107"/>
+      <c r="X24" s="107"/>
+      <c r="Y24" s="107"/>
+      <c r="Z24" s="107"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="107"/>
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="107"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
       <c r="AH24" s="33"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="33"/>
@@ -5440,20 +5488,20 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="33"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="104"/>
-      <c r="AI25" s="105"/>
-      <c r="AJ25" s="105"/>
-      <c r="AK25" s="105"/>
-      <c r="AL25" s="105"/>
-      <c r="AM25" s="105"/>
-      <c r="AN25" s="105"/>
-      <c r="AO25" s="104"/>
-      <c r="AP25" s="105"/>
-      <c r="AQ25" s="105"/>
-      <c r="AR25" s="105"/>
-      <c r="AS25" s="105"/>
-      <c r="AT25" s="105"/>
-      <c r="AU25" s="105"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="107"/>
+      <c r="AK25" s="107"/>
+      <c r="AL25" s="107"/>
+      <c r="AM25" s="107"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="106"/>
+      <c r="AP25" s="107"/>
+      <c r="AQ25" s="107"/>
+      <c r="AR25" s="107"/>
+      <c r="AS25" s="107"/>
+      <c r="AT25" s="107"/>
+      <c r="AU25" s="107"/>
       <c r="AV25" s="33"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="33"/>
@@ -5561,20 +5609,20 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="33"/>
       <c r="AU26" s="28"/>
-      <c r="AV26" s="104"/>
-      <c r="AW26" s="105"/>
-      <c r="AX26" s="105"/>
-      <c r="AY26" s="105"/>
-      <c r="AZ26" s="105"/>
-      <c r="BA26" s="105"/>
-      <c r="BB26" s="105"/>
-      <c r="BC26" s="104"/>
-      <c r="BD26" s="105"/>
-      <c r="BE26" s="105"/>
-      <c r="BF26" s="105"/>
-      <c r="BG26" s="105"/>
-      <c r="BH26" s="105"/>
-      <c r="BI26" s="105"/>
+      <c r="AV26" s="106"/>
+      <c r="AW26" s="107"/>
+      <c r="AX26" s="107"/>
+      <c r="AY26" s="107"/>
+      <c r="AZ26" s="107"/>
+      <c r="BA26" s="107"/>
+      <c r="BB26" s="107"/>
+      <c r="BC26" s="106"/>
+      <c r="BD26" s="107"/>
+      <c r="BE26" s="107"/>
+      <c r="BF26" s="107"/>
+      <c r="BG26" s="107"/>
+      <c r="BH26" s="107"/>
+      <c r="BI26" s="107"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
@@ -5692,10 +5740,10 @@
       <c r="BQ27" s="47"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="104"/>
-      <c r="BU27" s="105"/>
-      <c r="BV27" s="105"/>
-      <c r="BW27" s="105"/>
+      <c r="BT27" s="106"/>
+      <c r="BU27" s="107"/>
+      <c r="BV27" s="107"/>
+      <c r="BW27" s="107"/>
       <c r="BX27" s="47"/>
       <c r="CD27" s="28"/>
       <c r="CE27" s="33"/>
@@ -5817,17 +5865,17 @@
       <c r="DM28" s="28"/>
       <c r="DN28" s="33"/>
       <c r="DT28" s="68"/>
-      <c r="DY28" s="104"/>
-      <c r="DZ28" s="106"/>
+      <c r="DY28" s="106"/>
+      <c r="DZ28" s="108"/>
       <c r="EA28" s="28"/>
       <c r="EB28" s="33"/>
-      <c r="EF28" s="104"/>
-      <c r="EG28" s="105"/>
-      <c r="EH28" s="106"/>
-      <c r="EI28" s="104"/>
-      <c r="EJ28" s="105"/>
-      <c r="EK28" s="105"/>
-      <c r="EL28" s="106"/>
+      <c r="EF28" s="106"/>
+      <c r="EG28" s="107"/>
+      <c r="EH28" s="108"/>
+      <c r="EI28" s="106"/>
+      <c r="EJ28" s="107"/>
+      <c r="EK28" s="107"/>
+      <c r="EL28" s="108"/>
       <c r="EO28" s="28"/>
       <c r="EP28" s="33"/>
       <c r="ER28" s="30"/>
@@ -5903,8 +5951,8 @@
       <c r="AO29" s="33"/>
       <c r="AU29" s="28"/>
       <c r="AV29" s="33"/>
-      <c r="AY29" s="107"/>
-      <c r="AZ29" s="108"/>
+      <c r="AY29" s="103"/>
+      <c r="AZ29" s="105"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="33"/>
       <c r="BI29" s="28"/>
@@ -6042,13 +6090,13 @@
       <c r="EA30" s="28"/>
       <c r="EB30" s="33"/>
       <c r="EH30" s="44"/>
-      <c r="EI30" s="107"/>
-      <c r="EJ30" s="109"/>
-      <c r="EK30" s="109"/>
-      <c r="EL30" s="109"/>
-      <c r="EM30" s="109"/>
-      <c r="EN30" s="109"/>
-      <c r="EO30" s="109"/>
+      <c r="EI30" s="103"/>
+      <c r="EJ30" s="104"/>
+      <c r="EK30" s="104"/>
+      <c r="EL30" s="104"/>
+      <c r="EM30" s="104"/>
+      <c r="EN30" s="104"/>
+      <c r="EO30" s="104"/>
       <c r="EP30" s="33"/>
       <c r="ER30" s="30"/>
       <c r="EV30" s="28"/>
@@ -6123,30 +6171,30 @@
       <c r="AO31" s="33"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="33"/>
-      <c r="AZ31" s="107"/>
-      <c r="BA31" s="109"/>
-      <c r="BB31" s="108"/>
-      <c r="BC31" s="109"/>
-      <c r="BD31" s="109"/>
-      <c r="BE31" s="109"/>
-      <c r="BF31" s="109"/>
-      <c r="BG31" s="109"/>
-      <c r="BH31" s="109"/>
-      <c r="BI31" s="108"/>
-      <c r="BJ31" s="109"/>
-      <c r="BK31" s="109"/>
-      <c r="BL31" s="109"/>
-      <c r="BM31" s="109"/>
-      <c r="BN31" s="109"/>
-      <c r="BO31" s="109"/>
-      <c r="BP31" s="108"/>
-      <c r="BQ31" s="109"/>
-      <c r="BR31" s="109"/>
-      <c r="BS31" s="109"/>
-      <c r="BT31" s="109"/>
-      <c r="BU31" s="109"/>
-      <c r="BV31" s="109"/>
-      <c r="BW31" s="108"/>
+      <c r="AZ31" s="103"/>
+      <c r="BA31" s="104"/>
+      <c r="BB31" s="105"/>
+      <c r="BC31" s="104"/>
+      <c r="BD31" s="104"/>
+      <c r="BE31" s="104"/>
+      <c r="BF31" s="104"/>
+      <c r="BG31" s="104"/>
+      <c r="BH31" s="104"/>
+      <c r="BI31" s="105"/>
+      <c r="BJ31" s="104"/>
+      <c r="BK31" s="104"/>
+      <c r="BL31" s="104"/>
+      <c r="BM31" s="104"/>
+      <c r="BN31" s="104"/>
+      <c r="BO31" s="104"/>
+      <c r="BP31" s="105"/>
+      <c r="BQ31" s="104"/>
+      <c r="BR31" s="104"/>
+      <c r="BS31" s="104"/>
+      <c r="BT31" s="104"/>
+      <c r="BU31" s="104"/>
+      <c r="BV31" s="104"/>
+      <c r="BW31" s="105"/>
       <c r="BX31" s="45"/>
       <c r="CD31" s="28"/>
       <c r="CK31" s="28"/>
@@ -6161,9 +6209,9 @@
       <c r="DT31" s="68"/>
       <c r="EA31" s="28"/>
       <c r="EI31" s="33"/>
-      <c r="EM31" s="110"/>
-      <c r="EN31" s="111"/>
-      <c r="EO31" s="111"/>
+      <c r="EM31" s="109"/>
+      <c r="EN31" s="110"/>
+      <c r="EO31" s="110"/>
       <c r="EP31" s="33"/>
       <c r="ER31" s="30"/>
       <c r="EV31" s="28"/>
@@ -6213,14 +6261,14 @@
       <c r="A32" s="18">
         <v>5.4</v>
       </c>
-      <c r="B32" s="131" t="s">
+      <c r="B32" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="D32" s="80" t="s">
         <v>121</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>122</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -6235,29 +6283,29 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="33"/>
       <c r="AN32" s="28"/>
-      <c r="AO32" s="127"/>
+      <c r="AO32" s="83"/>
       <c r="AU32" s="28"/>
       <c r="AV32" s="33"/>
-      <c r="AZ32" s="134"/>
-      <c r="BA32" s="134"/>
-      <c r="BB32" s="135"/>
-      <c r="BC32" s="134"/>
-      <c r="BD32" s="134"/>
-      <c r="BE32" s="134"/>
-      <c r="BF32" s="134"/>
-      <c r="BG32" s="134"/>
-      <c r="BH32" s="134"/>
-      <c r="BI32" s="135"/>
-      <c r="BJ32" s="134"/>
-      <c r="BK32" s="134"/>
-      <c r="BL32" s="134"/>
-      <c r="BM32" s="134"/>
-      <c r="BN32" s="134"/>
-      <c r="BO32" s="134"/>
-      <c r="BP32" s="135"/>
-      <c r="BQ32" s="134"/>
-      <c r="BR32" s="134"/>
-      <c r="BS32" s="134"/>
+      <c r="AZ32" s="90"/>
+      <c r="BA32" s="90"/>
+      <c r="BB32" s="91"/>
+      <c r="BC32" s="90"/>
+      <c r="BD32" s="90"/>
+      <c r="BE32" s="90"/>
+      <c r="BF32" s="90"/>
+      <c r="BG32" s="90"/>
+      <c r="BH32" s="90"/>
+      <c r="BI32" s="91"/>
+      <c r="BJ32" s="90"/>
+      <c r="BK32" s="90"/>
+      <c r="BL32" s="90"/>
+      <c r="BM32" s="90"/>
+      <c r="BN32" s="90"/>
+      <c r="BO32" s="90"/>
+      <c r="BP32" s="91"/>
+      <c r="BQ32" s="90"/>
+      <c r="BR32" s="90"/>
+      <c r="BS32" s="90"/>
       <c r="BT32" s="57"/>
       <c r="BU32" s="57"/>
       <c r="BV32" s="57"/>
@@ -6276,9 +6324,9 @@
       <c r="DT32" s="68"/>
       <c r="EA32" s="28"/>
       <c r="EI32" s="33"/>
-      <c r="EM32" s="134"/>
-      <c r="EN32" s="134"/>
-      <c r="EO32" s="134"/>
+      <c r="EM32" s="90"/>
+      <c r="EN32" s="90"/>
+      <c r="EO32" s="90"/>
       <c r="EP32" s="33"/>
       <c r="ER32" s="30"/>
       <c r="EV32" s="28"/>
@@ -6365,10 +6413,10 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="110"/>
-      <c r="BU33" s="111"/>
-      <c r="BV33" s="111"/>
-      <c r="BW33" s="112"/>
+      <c r="BT33" s="109"/>
+      <c r="BU33" s="110"/>
+      <c r="BV33" s="110"/>
+      <c r="BW33" s="111"/>
       <c r="BX33" s="58"/>
       <c r="CD33" s="28"/>
       <c r="CK33" s="28"/>
@@ -6441,8 +6489,8 @@
       <c r="C34" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="124" t="s">
-        <v>114</v>
+      <c r="D34" s="80" t="s">
+        <v>129</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -6587,22 +6635,22 @@
       <c r="DM35" s="28"/>
       <c r="DN35" s="33"/>
       <c r="DT35" s="68"/>
-      <c r="DY35" s="107"/>
-      <c r="DZ35" s="109"/>
-      <c r="EA35" s="108"/>
-      <c r="EB35" s="107"/>
-      <c r="EC35" s="109"/>
-      <c r="ED35" s="109"/>
-      <c r="EE35" s="108"/>
+      <c r="DY35" s="103"/>
+      <c r="DZ35" s="104"/>
+      <c r="EA35" s="105"/>
+      <c r="EB35" s="103"/>
+      <c r="EC35" s="104"/>
+      <c r="ED35" s="104"/>
+      <c r="EE35" s="105"/>
       <c r="EH35" s="28"/>
       <c r="EI35" s="33"/>
-      <c r="EM35" s="107"/>
-      <c r="EN35" s="109"/>
-      <c r="EO35" s="108"/>
-      <c r="EP35" s="109"/>
-      <c r="EQ35" s="109"/>
-      <c r="ER35" s="109"/>
-      <c r="ES35" s="108"/>
+      <c r="EM35" s="103"/>
+      <c r="EN35" s="104"/>
+      <c r="EO35" s="105"/>
+      <c r="EP35" s="104"/>
+      <c r="EQ35" s="104"/>
+      <c r="ER35" s="104"/>
+      <c r="ES35" s="105"/>
       <c r="EV35" s="28"/>
       <c r="EW35" s="33"/>
       <c r="FC35" s="28"/>
@@ -6705,20 +6753,20 @@
       <c r="ER36" s="30"/>
       <c r="EW36" s="33"/>
       <c r="FC36" s="71"/>
-      <c r="FD36" s="109"/>
-      <c r="FE36" s="109"/>
-      <c r="FF36" s="109"/>
-      <c r="FG36" s="109"/>
-      <c r="FH36" s="109"/>
-      <c r="FI36" s="109"/>
-      <c r="FJ36" s="108"/>
-      <c r="FK36" s="109"/>
-      <c r="FL36" s="109"/>
-      <c r="FM36" s="109"/>
-      <c r="FN36" s="109"/>
-      <c r="FO36" s="109"/>
-      <c r="FP36" s="109"/>
-      <c r="FQ36" s="108"/>
+      <c r="FD36" s="104"/>
+      <c r="FE36" s="104"/>
+      <c r="FF36" s="104"/>
+      <c r="FG36" s="104"/>
+      <c r="FH36" s="104"/>
+      <c r="FI36" s="104"/>
+      <c r="FJ36" s="105"/>
+      <c r="FK36" s="104"/>
+      <c r="FL36" s="104"/>
+      <c r="FM36" s="104"/>
+      <c r="FN36" s="104"/>
+      <c r="FO36" s="104"/>
+      <c r="FP36" s="104"/>
+      <c r="FQ36" s="105"/>
       <c r="FR36" s="45"/>
       <c r="FS36" s="30"/>
       <c r="FT36" s="30"/>
@@ -6765,7 +6813,7 @@
       <c r="C37" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="124" t="s">
+      <c r="D37" s="80" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="21">
@@ -6812,29 +6860,29 @@
       <c r="DT37" s="68"/>
       <c r="EA37" s="28"/>
       <c r="EH37" s="28"/>
-      <c r="EM37" s="113"/>
-      <c r="EN37" s="114"/>
-      <c r="EO37" s="114"/>
-      <c r="EP37" s="113"/>
-      <c r="EQ37" s="114"/>
-      <c r="ER37" s="114"/>
-      <c r="ES37" s="114"/>
-      <c r="ET37" s="114"/>
-      <c r="EU37" s="114"/>
-      <c r="EV37" s="114"/>
-      <c r="EW37" s="113"/>
-      <c r="EX37" s="114"/>
-      <c r="EY37" s="114"/>
-      <c r="EZ37" s="114"/>
-      <c r="FA37" s="114"/>
-      <c r="FB37" s="115"/>
+      <c r="EM37" s="99"/>
+      <c r="EN37" s="100"/>
+      <c r="EO37" s="100"/>
+      <c r="EP37" s="99"/>
+      <c r="EQ37" s="100"/>
+      <c r="ER37" s="100"/>
+      <c r="ES37" s="100"/>
+      <c r="ET37" s="100"/>
+      <c r="EU37" s="100"/>
+      <c r="EV37" s="100"/>
+      <c r="EW37" s="99"/>
+      <c r="EX37" s="100"/>
+      <c r="EY37" s="100"/>
+      <c r="EZ37" s="100"/>
+      <c r="FA37" s="100"/>
+      <c r="FB37" s="101"/>
       <c r="FC37" s="28"/>
       <c r="FD37" s="33"/>
       <c r="FJ37" s="28"/>
-      <c r="FK37" s="113"/>
-      <c r="FL37" s="114"/>
-      <c r="FM37" s="114"/>
-      <c r="FN37" s="115"/>
+      <c r="FK37" s="99"/>
+      <c r="FL37" s="100"/>
+      <c r="FM37" s="100"/>
+      <c r="FN37" s="101"/>
       <c r="FQ37" s="28"/>
       <c r="FR37" s="47"/>
       <c r="FS37" s="30"/>
@@ -6876,19 +6924,20 @@
       <c r="A38" s="18">
         <v>6.2</v>
       </c>
-      <c r="B38" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>78</v>
+      <c r="B38" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="E38" s="21">
         <v>1</v>
       </c>
       <c r="L38" s="28"/>
+      <c r="M38" s="83"/>
       <c r="O38" s="30"/>
       <c r="S38" s="28"/>
       <c r="T38" s="33"/>
@@ -6917,8 +6966,6 @@
       <c r="BW38" s="28"/>
       <c r="BX38" s="47"/>
       <c r="CD38" s="28"/>
-      <c r="CE38" s="33"/>
-      <c r="CK38" s="28"/>
       <c r="CL38" s="33"/>
       <c r="CR38" s="28"/>
       <c r="CS38" s="33"/>
@@ -6929,25 +6976,32 @@
       <c r="DN38" s="33"/>
       <c r="DT38" s="68"/>
       <c r="EA38" s="28"/>
-      <c r="EB38" s="33"/>
-      <c r="EI38" s="33"/>
-      <c r="EM38" s="113"/>
-      <c r="EN38" s="114"/>
-      <c r="EO38" s="114"/>
-      <c r="EP38" s="113"/>
-      <c r="EQ38" s="114"/>
-      <c r="ER38" s="114"/>
-      <c r="ES38" s="114"/>
-      <c r="ET38" s="114"/>
-      <c r="EU38" s="114"/>
-      <c r="EV38" s="114"/>
-      <c r="EW38" s="72"/>
+      <c r="EH38" s="83"/>
+      <c r="EM38" s="78"/>
+      <c r="EN38" s="79"/>
+      <c r="EO38" s="79"/>
+      <c r="EP38" s="78"/>
+      <c r="EQ38" s="79"/>
+      <c r="ER38" s="79"/>
+      <c r="ES38" s="79"/>
+      <c r="ET38" s="79"/>
+      <c r="EU38" s="79"/>
+      <c r="EV38" s="79"/>
+      <c r="EW38" s="78"/>
+      <c r="EX38" s="138"/>
+      <c r="EY38" s="138"/>
+      <c r="EZ38" s="138"/>
+      <c r="FA38" s="138"/>
+      <c r="FB38" s="138"/>
       <c r="FC38" s="28"/>
       <c r="FD38" s="33"/>
       <c r="FJ38" s="28"/>
-      <c r="FK38" s="33"/>
+      <c r="FK38" s="139"/>
+      <c r="FL38" s="138"/>
+      <c r="FM38" s="138"/>
+      <c r="FN38" s="138"/>
       <c r="FQ38" s="28"/>
-      <c r="FR38" s="30"/>
+      <c r="FR38" s="82"/>
       <c r="FS38" s="30"/>
       <c r="FT38" s="30"/>
       <c r="FU38" s="30"/>
@@ -6991,16 +7045,15 @@
         <v>96</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="E39" s="21">
         <v>1</v>
       </c>
       <c r="L39" s="28"/>
-      <c r="M39" s="33"/>
       <c r="O39" s="30"/>
       <c r="S39" s="28"/>
       <c r="T39" s="33"/>
@@ -7042,23 +7095,24 @@
       <c r="DT39" s="68"/>
       <c r="EA39" s="28"/>
       <c r="EB39" s="33"/>
-      <c r="EH39" s="28"/>
       <c r="EI39" s="33"/>
-      <c r="EO39" s="28"/>
-      <c r="EP39" s="33"/>
-      <c r="ER39" s="30"/>
-      <c r="EV39" s="28"/>
-      <c r="EW39" s="33"/>
+      <c r="EM39" s="99"/>
+      <c r="EN39" s="100"/>
+      <c r="EO39" s="100"/>
+      <c r="EP39" s="99"/>
+      <c r="EQ39" s="100"/>
+      <c r="ER39" s="100"/>
+      <c r="ES39" s="100"/>
+      <c r="ET39" s="100"/>
+      <c r="EU39" s="100"/>
+      <c r="EV39" s="100"/>
+      <c r="EW39" s="72"/>
       <c r="FC39" s="28"/>
       <c r="FD39" s="33"/>
-      <c r="FI39" s="113"/>
-      <c r="FJ39" s="115"/>
-      <c r="FK39" s="114"/>
-      <c r="FL39" s="114"/>
-      <c r="FM39" s="114"/>
-      <c r="FN39" s="114"/>
-      <c r="FO39" s="115"/>
-      <c r="FR39" s="47"/>
+      <c r="FJ39" s="28"/>
+      <c r="FK39" s="33"/>
+      <c r="FQ39" s="28"/>
+      <c r="FR39" s="30"/>
       <c r="FS39" s="30"/>
       <c r="FT39" s="30"/>
       <c r="FU39" s="30"/>
@@ -7094,18 +7148,18 @@
       <c r="IP39" s="61"/>
       <c r="IV39" s="68"/>
     </row>
-    <row r="40" spans="1:256" ht="32">
+    <row r="40" spans="1:256" ht="16">
       <c r="A40" s="18">
         <v>6.4</v>
       </c>
       <c r="B40" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>78</v>
+      <c r="C40" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="E40" s="21">
         <v>1</v>
@@ -7158,18 +7212,17 @@
       <c r="EO40" s="28"/>
       <c r="EP40" s="33"/>
       <c r="ER40" s="30"/>
-      <c r="EU40" s="113"/>
-      <c r="EV40" s="114"/>
-      <c r="EW40" s="113"/>
-      <c r="EX40" s="114"/>
-      <c r="EY40" s="114"/>
-      <c r="EZ40" s="114"/>
-      <c r="FA40" s="114"/>
-      <c r="FB40" s="114"/>
-      <c r="FC40" s="114"/>
-      <c r="FD40" s="72"/>
-      <c r="FJ40" s="28"/>
-      <c r="FQ40" s="28"/>
+      <c r="EV40" s="28"/>
+      <c r="EW40" s="33"/>
+      <c r="FC40" s="28"/>
+      <c r="FD40" s="33"/>
+      <c r="FI40" s="99"/>
+      <c r="FJ40" s="101"/>
+      <c r="FK40" s="100"/>
+      <c r="FL40" s="100"/>
+      <c r="FM40" s="100"/>
+      <c r="FN40" s="100"/>
+      <c r="FO40" s="101"/>
       <c r="FR40" s="47"/>
       <c r="FS40" s="30"/>
       <c r="FT40" s="30"/>
@@ -7206,18 +7259,18 @@
       <c r="IP40" s="61"/>
       <c r="IV40" s="68"/>
     </row>
-    <row r="41" spans="1:256" ht="16">
+    <row r="41" spans="1:256" ht="32">
       <c r="A41" s="18">
         <v>6.5</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="132" t="s">
-        <v>111</v>
+      <c r="C41" s="88" t="s">
+        <v>112</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -7270,18 +7323,18 @@
       <c r="EO41" s="28"/>
       <c r="EP41" s="33"/>
       <c r="ER41" s="30"/>
-      <c r="EV41" s="28"/>
-      <c r="EW41" s="33"/>
-      <c r="FC41" s="28"/>
-      <c r="FD41" s="33"/>
+      <c r="EU41" s="99"/>
+      <c r="EV41" s="100"/>
+      <c r="EW41" s="99"/>
+      <c r="EX41" s="100"/>
+      <c r="EY41" s="100"/>
+      <c r="EZ41" s="100"/>
+      <c r="FA41" s="100"/>
+      <c r="FB41" s="100"/>
+      <c r="FC41" s="100"/>
+      <c r="FD41" s="72"/>
       <c r="FJ41" s="28"/>
-      <c r="FK41" s="116"/>
-      <c r="FL41" s="116"/>
-      <c r="FM41" s="116"/>
-      <c r="FN41" s="116"/>
-      <c r="FO41" s="116"/>
-      <c r="FP41" s="116"/>
-      <c r="FQ41" s="116"/>
+      <c r="FQ41" s="28"/>
       <c r="FR41" s="47"/>
       <c r="FS41" s="30"/>
       <c r="FT41" s="30"/>
@@ -7322,14 +7375,14 @@
       <c r="A42" s="18">
         <v>6.6</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="124" t="s">
-        <v>115</v>
+      <c r="B42" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>122</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -7382,18 +7435,18 @@
       <c r="EO42" s="28"/>
       <c r="EP42" s="33"/>
       <c r="ER42" s="30"/>
-      <c r="EV42" s="28"/>
-      <c r="EW42" s="33"/>
-      <c r="FC42" s="28"/>
-      <c r="FD42" s="33"/>
+      <c r="EU42" s="138"/>
+      <c r="EV42" s="138"/>
+      <c r="EW42" s="139"/>
+      <c r="EX42" s="138"/>
+      <c r="EY42" s="138"/>
+      <c r="EZ42" s="138"/>
+      <c r="FA42" s="138"/>
+      <c r="FB42" s="138"/>
+      <c r="FC42" s="138"/>
+      <c r="FD42" s="139"/>
       <c r="FJ42" s="28"/>
-      <c r="FK42" s="116"/>
-      <c r="FL42" s="116"/>
-      <c r="FM42" s="116"/>
-      <c r="FN42" s="116"/>
-      <c r="FO42" s="116"/>
-      <c r="FP42" s="116"/>
-      <c r="FQ42" s="116"/>
+      <c r="FQ42" s="83"/>
       <c r="FR42" s="47"/>
       <c r="FS42" s="30"/>
       <c r="FT42" s="30"/>
@@ -7434,14 +7487,14 @@
       <c r="A43" s="18">
         <v>6.7</v>
       </c>
-      <c r="B43" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="132" t="s">
-        <v>119</v>
-      </c>
-      <c r="D43" s="124" t="s">
-        <v>110</v>
+      <c r="B43" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -7499,20 +7552,20 @@
       <c r="FC43" s="28"/>
       <c r="FD43" s="33"/>
       <c r="FJ43" s="28"/>
-      <c r="FK43" s="133"/>
-      <c r="FL43" s="133"/>
-      <c r="FM43" s="133"/>
-      <c r="FN43" s="133"/>
-      <c r="FO43" s="133"/>
-      <c r="FP43" s="133"/>
-      <c r="FQ43" s="133"/>
+      <c r="FK43" s="102"/>
+      <c r="FL43" s="102"/>
+      <c r="FM43" s="102"/>
+      <c r="FN43" s="102"/>
+      <c r="FO43" s="102"/>
+      <c r="FP43" s="102"/>
+      <c r="FQ43" s="102"/>
       <c r="FR43" s="47"/>
       <c r="FS43" s="30"/>
       <c r="FT43" s="30"/>
       <c r="FU43" s="30"/>
       <c r="FV43" s="30"/>
       <c r="FW43" s="30"/>
-      <c r="FX43" s="126"/>
+      <c r="FX43" s="53"/>
       <c r="FY43" s="47"/>
       <c r="FZ43" s="30"/>
       <c r="GA43" s="30"/>
@@ -7550,10 +7603,10 @@
         <v>96</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="D44" s="80" t="s">
+        <v>114</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -7611,16 +7664,21 @@
       <c r="FC44" s="28"/>
       <c r="FD44" s="33"/>
       <c r="FJ44" s="28"/>
-      <c r="FK44" s="33"/>
-      <c r="FQ44" s="28"/>
+      <c r="FK44" s="102"/>
+      <c r="FL44" s="102"/>
+      <c r="FM44" s="102"/>
+      <c r="FN44" s="102"/>
+      <c r="FO44" s="102"/>
+      <c r="FP44" s="102"/>
+      <c r="FQ44" s="102"/>
       <c r="FR44" s="47"/>
       <c r="FS44" s="30"/>
       <c r="FT44" s="30"/>
       <c r="FU44" s="30"/>
-      <c r="FV44" s="113"/>
-      <c r="FW44" s="114"/>
-      <c r="FX44" s="114"/>
-      <c r="FY44" s="72"/>
+      <c r="FV44" s="30"/>
+      <c r="FW44" s="30"/>
+      <c r="FX44" s="53"/>
+      <c r="FY44" s="47"/>
       <c r="FZ44" s="30"/>
       <c r="GA44" s="30"/>
       <c r="GB44" s="30"/>
@@ -7653,14 +7711,14 @@
       <c r="A45" s="18">
         <v>6.9</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>102</v>
+      <c r="B45" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>110</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -7718,15 +7776,20 @@
       <c r="FC45" s="28"/>
       <c r="FD45" s="33"/>
       <c r="FJ45" s="28"/>
-      <c r="FK45" s="33"/>
-      <c r="FQ45" s="28"/>
+      <c r="FK45" s="89"/>
+      <c r="FL45" s="89"/>
+      <c r="FM45" s="89"/>
+      <c r="FN45" s="89"/>
+      <c r="FO45" s="89"/>
+      <c r="FP45" s="89"/>
+      <c r="FQ45" s="89"/>
       <c r="FR45" s="47"/>
       <c r="FS45" s="30"/>
       <c r="FT45" s="30"/>
       <c r="FU45" s="30"/>
       <c r="FV45" s="30"/>
       <c r="FW45" s="30"/>
-      <c r="FX45" s="53"/>
+      <c r="FX45" s="82"/>
       <c r="FY45" s="47"/>
       <c r="FZ45" s="30"/>
       <c r="GA45" s="30"/>
@@ -7739,21 +7802,10 @@
       <c r="GM45" s="33"/>
       <c r="GS45" s="28"/>
       <c r="GT45" s="33"/>
-      <c r="GW45" s="117"/>
-      <c r="GX45" s="118"/>
-      <c r="GY45" s="118"/>
-      <c r="GZ45" s="118"/>
-      <c r="HA45" s="117"/>
-      <c r="HB45" s="118"/>
-      <c r="HC45" s="118"/>
-      <c r="HD45" s="118"/>
-      <c r="HE45" s="118"/>
-      <c r="HF45" s="118"/>
-      <c r="HG45" s="118"/>
-      <c r="HH45" s="117"/>
-      <c r="HI45" s="118"/>
-      <c r="HJ45" s="118"/>
-      <c r="HK45" s="118"/>
+      <c r="GZ45" s="28"/>
+      <c r="HA45" s="33"/>
+      <c r="HG45" s="28"/>
+      <c r="HH45" s="33"/>
       <c r="HN45" s="28"/>
       <c r="HO45" s="47"/>
       <c r="HR45" s="54"/>
@@ -7768,14 +7820,14 @@
       <c r="IV45" s="68"/>
     </row>
     <row r="46" spans="1:256" ht="16">
-      <c r="A46" s="124" t="s">
-        <v>117</v>
+      <c r="A46" s="80" t="s">
+        <v>116</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>78</v>
@@ -7842,48 +7894,25 @@
       <c r="FS46" s="30"/>
       <c r="FT46" s="30"/>
       <c r="FU46" s="30"/>
-      <c r="FV46" s="30"/>
-      <c r="FW46" s="30"/>
-      <c r="FX46" s="53"/>
-      <c r="FY46" s="47"/>
+      <c r="FV46" s="99"/>
+      <c r="FW46" s="100"/>
+      <c r="FX46" s="100"/>
+      <c r="FY46" s="72"/>
       <c r="FZ46" s="30"/>
       <c r="GA46" s="30"/>
-      <c r="GB46" s="119"/>
-      <c r="GC46" s="119"/>
-      <c r="GD46" s="119"/>
-      <c r="GE46" s="113"/>
-      <c r="GF46" s="119"/>
-      <c r="GG46" s="119"/>
-      <c r="GH46" s="119"/>
-      <c r="GI46" s="119"/>
-      <c r="GJ46" s="119"/>
-      <c r="GK46" s="119"/>
-      <c r="GL46" s="113"/>
-      <c r="GM46" s="113"/>
-      <c r="GN46" s="114"/>
-      <c r="GO46" s="114"/>
-      <c r="GP46" s="114"/>
-      <c r="GQ46" s="114"/>
-      <c r="GR46" s="114"/>
-      <c r="GS46" s="114"/>
-      <c r="GT46" s="113"/>
-      <c r="GU46" s="114"/>
-      <c r="GV46" s="114"/>
-      <c r="GW46" s="114"/>
-      <c r="GX46" s="114"/>
-      <c r="GY46" s="114"/>
-      <c r="GZ46" s="114"/>
-      <c r="HA46" s="113"/>
-      <c r="HB46" s="114"/>
-      <c r="HC46" s="114"/>
-      <c r="HD46" s="114"/>
-      <c r="HE46" s="114"/>
-      <c r="HF46" s="114"/>
-      <c r="HG46" s="114"/>
-      <c r="HH46" s="113"/>
-      <c r="HI46" s="114"/>
-      <c r="HJ46" s="114"/>
-      <c r="HK46" s="115"/>
+      <c r="GB46" s="30"/>
+      <c r="GC46" s="30"/>
+      <c r="GD46" s="30"/>
+      <c r="GE46" s="53"/>
+      <c r="GF46" s="33"/>
+      <c r="GL46" s="28"/>
+      <c r="GM46" s="33"/>
+      <c r="GS46" s="28"/>
+      <c r="GT46" s="33"/>
+      <c r="GZ46" s="28"/>
+      <c r="HA46" s="33"/>
+      <c r="HG46" s="28"/>
+      <c r="HH46" s="33"/>
       <c r="HN46" s="28"/>
       <c r="HO46" s="47"/>
       <c r="HR46" s="54"/>
@@ -7897,18 +7926,18 @@
       <c r="IP46" s="61"/>
       <c r="IV46" s="68"/>
     </row>
-    <row r="47" spans="1:256" ht="33" customHeight="1">
-      <c r="A47" s="18">
-        <v>7.1</v>
+    <row r="47" spans="1:256" ht="16">
+      <c r="A47" s="80" t="s">
+        <v>124</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E47" s="21">
         <v>1</v>
@@ -7958,8 +7987,6 @@
       <c r="EB47" s="33"/>
       <c r="EH47" s="28"/>
       <c r="EI47" s="33"/>
-      <c r="EK47" s="120"/>
-      <c r="EL47" s="121"/>
       <c r="EO47" s="28"/>
       <c r="EP47" s="33"/>
       <c r="ER47" s="30"/>
@@ -7989,10 +8016,21 @@
       <c r="GM47" s="33"/>
       <c r="GS47" s="28"/>
       <c r="GT47" s="33"/>
-      <c r="GZ47" s="28"/>
-      <c r="HA47" s="33"/>
-      <c r="HG47" s="28"/>
-      <c r="HH47" s="33"/>
+      <c r="GW47" s="96"/>
+      <c r="GX47" s="97"/>
+      <c r="GY47" s="97"/>
+      <c r="GZ47" s="97"/>
+      <c r="HA47" s="96"/>
+      <c r="HB47" s="97"/>
+      <c r="HC47" s="97"/>
+      <c r="HD47" s="97"/>
+      <c r="HE47" s="97"/>
+      <c r="HF47" s="97"/>
+      <c r="HG47" s="97"/>
+      <c r="HH47" s="96"/>
+      <c r="HI47" s="97"/>
+      <c r="HJ47" s="97"/>
+      <c r="HK47" s="97"/>
       <c r="HN47" s="28"/>
       <c r="HO47" s="47"/>
       <c r="HR47" s="54"/>
@@ -8007,17 +8045,17 @@
       <c r="IV47" s="68"/>
     </row>
     <row r="48" spans="1:256" ht="16">
-      <c r="A48" s="18">
-        <v>7.2</v>
+      <c r="A48" s="80" t="s">
+        <v>128</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>62</v>
+        <v>96</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="E48" s="21">
         <v>1</v>
@@ -8081,49 +8119,48 @@
       <c r="FS48" s="30"/>
       <c r="FT48" s="30"/>
       <c r="FU48" s="30"/>
-      <c r="FV48" s="120"/>
-      <c r="FW48" s="122"/>
-      <c r="FX48" s="121"/>
-      <c r="FY48" s="122"/>
-      <c r="FZ48" s="122"/>
-      <c r="GA48" s="122"/>
-      <c r="GB48" s="122"/>
-      <c r="GC48" s="122"/>
-      <c r="GD48" s="122"/>
-      <c r="GE48" s="121"/>
-      <c r="GF48" s="122"/>
-      <c r="GG48" s="122"/>
-      <c r="GH48" s="122"/>
-      <c r="GI48" s="122"/>
-      <c r="GJ48" s="122"/>
-      <c r="GK48" s="122"/>
-      <c r="GL48" s="121"/>
-      <c r="GM48" s="122"/>
-      <c r="GN48" s="122"/>
-      <c r="GO48" s="122"/>
-      <c r="GP48" s="122"/>
-      <c r="GQ48" s="122"/>
-      <c r="GR48" s="122"/>
-      <c r="GS48" s="121"/>
-      <c r="GT48" s="122"/>
-      <c r="GU48" s="122"/>
-      <c r="GV48" s="122"/>
-      <c r="GW48" s="122"/>
-      <c r="GX48" s="122"/>
-      <c r="GY48" s="122"/>
-      <c r="GZ48" s="121"/>
-      <c r="HA48" s="122"/>
-      <c r="HB48" s="122"/>
-      <c r="HC48" s="122"/>
-      <c r="HD48" s="122"/>
-      <c r="HE48" s="122"/>
-      <c r="HF48" s="122"/>
-      <c r="HG48" s="121"/>
-      <c r="HH48" s="120"/>
-      <c r="HI48" s="122"/>
-      <c r="HJ48" s="122"/>
-      <c r="HK48" s="122"/>
-      <c r="HL48" s="123"/>
+      <c r="FV48" s="30"/>
+      <c r="FW48" s="30"/>
+      <c r="FX48" s="53"/>
+      <c r="FY48" s="47"/>
+      <c r="FZ48" s="30"/>
+      <c r="GA48" s="30"/>
+      <c r="GB48" s="98"/>
+      <c r="GC48" s="98"/>
+      <c r="GD48" s="98"/>
+      <c r="GE48" s="99"/>
+      <c r="GF48" s="98"/>
+      <c r="GG48" s="98"/>
+      <c r="GH48" s="98"/>
+      <c r="GI48" s="98"/>
+      <c r="GJ48" s="98"/>
+      <c r="GK48" s="98"/>
+      <c r="GL48" s="99"/>
+      <c r="GM48" s="99"/>
+      <c r="GN48" s="100"/>
+      <c r="GO48" s="100"/>
+      <c r="GP48" s="100"/>
+      <c r="GQ48" s="100"/>
+      <c r="GR48" s="100"/>
+      <c r="GS48" s="100"/>
+      <c r="GT48" s="99"/>
+      <c r="GU48" s="100"/>
+      <c r="GV48" s="100"/>
+      <c r="GW48" s="100"/>
+      <c r="GX48" s="100"/>
+      <c r="GY48" s="100"/>
+      <c r="GZ48" s="100"/>
+      <c r="HA48" s="99"/>
+      <c r="HB48" s="100"/>
+      <c r="HC48" s="100"/>
+      <c r="HD48" s="100"/>
+      <c r="HE48" s="100"/>
+      <c r="HF48" s="100"/>
+      <c r="HG48" s="100"/>
+      <c r="HH48" s="99"/>
+      <c r="HI48" s="100"/>
+      <c r="HJ48" s="100"/>
+      <c r="HK48" s="101"/>
       <c r="HN48" s="28"/>
       <c r="HO48" s="47"/>
       <c r="HR48" s="54"/>
@@ -8138,17 +8175,17 @@
       <c r="IV48" s="68"/>
     </row>
     <row r="49" spans="1:256" ht="16">
-      <c r="A49" s="18">
-        <v>7.3</v>
-      </c>
-      <c r="B49" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="132" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="124" t="s">
-        <v>110</v>
+      <c r="A49" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>125</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
@@ -8212,50 +8249,49 @@
       <c r="FS49" s="30"/>
       <c r="FT49" s="30"/>
       <c r="FU49" s="30"/>
-      <c r="FV49" s="125"/>
-      <c r="FW49" s="125"/>
-      <c r="FX49" s="128"/>
-      <c r="FY49" s="125"/>
-      <c r="FZ49" s="125"/>
-      <c r="GA49" s="125"/>
-      <c r="GB49" s="125"/>
-      <c r="GC49" s="125"/>
-      <c r="GD49" s="125"/>
-      <c r="GE49" s="128"/>
-      <c r="GF49" s="125"/>
-      <c r="GG49" s="125"/>
-      <c r="GH49" s="125"/>
-      <c r="GI49" s="125"/>
-      <c r="GJ49" s="125"/>
-      <c r="GK49" s="125"/>
-      <c r="GL49" s="128"/>
-      <c r="GM49" s="125"/>
-      <c r="GN49" s="125"/>
-      <c r="GO49" s="125"/>
-      <c r="GP49" s="125"/>
-      <c r="GQ49" s="125"/>
-      <c r="GR49" s="125"/>
-      <c r="GS49" s="128"/>
-      <c r="GT49" s="125"/>
-      <c r="GU49" s="125"/>
-      <c r="GV49" s="125"/>
-      <c r="GW49" s="125"/>
-      <c r="GX49" s="125"/>
-      <c r="GY49" s="125"/>
-      <c r="GZ49" s="128"/>
-      <c r="HA49" s="125"/>
-      <c r="HB49" s="125"/>
-      <c r="HC49" s="125"/>
-      <c r="HD49" s="125"/>
-      <c r="HE49" s="125"/>
-      <c r="HF49" s="125"/>
-      <c r="HG49" s="128"/>
-      <c r="HH49" s="129"/>
-      <c r="HI49" s="125"/>
-      <c r="HJ49" s="125"/>
-      <c r="HK49" s="125"/>
-      <c r="HL49" s="130"/>
-      <c r="HN49" s="127"/>
+      <c r="FV49" s="30"/>
+      <c r="FW49" s="30"/>
+      <c r="FX49" s="53"/>
+      <c r="FY49" s="47"/>
+      <c r="FZ49" s="30"/>
+      <c r="GA49" s="30"/>
+      <c r="GB49" s="138"/>
+      <c r="GC49" s="138"/>
+      <c r="GD49" s="138"/>
+      <c r="GE49" s="138"/>
+      <c r="GF49" s="139"/>
+      <c r="GG49" s="138"/>
+      <c r="GH49" s="138"/>
+      <c r="GI49" s="138"/>
+      <c r="GJ49" s="138"/>
+      <c r="GK49" s="138"/>
+      <c r="GL49" s="138"/>
+      <c r="GM49" s="139"/>
+      <c r="GN49" s="138"/>
+      <c r="GO49" s="138"/>
+      <c r="GP49" s="138"/>
+      <c r="GQ49" s="138"/>
+      <c r="GR49" s="138"/>
+      <c r="GS49" s="138"/>
+      <c r="GT49" s="139"/>
+      <c r="GU49" s="138"/>
+      <c r="GV49" s="138"/>
+      <c r="GW49" s="138"/>
+      <c r="GX49" s="138"/>
+      <c r="GY49" s="138"/>
+      <c r="GZ49" s="138"/>
+      <c r="HA49" s="139"/>
+      <c r="HB49" s="138"/>
+      <c r="HC49" s="138"/>
+      <c r="HD49" s="138"/>
+      <c r="HE49" s="138"/>
+      <c r="HF49" s="138"/>
+      <c r="HG49" s="138"/>
+      <c r="HH49" s="139"/>
+      <c r="HI49" s="138"/>
+      <c r="HJ49" s="138"/>
+      <c r="HK49" s="138"/>
+      <c r="HN49" s="28"/>
       <c r="HO49" s="47"/>
       <c r="HR49" s="54"/>
       <c r="HT49" s="54"/>
@@ -8268,12 +8304,22 @@
       <c r="IP49" s="61"/>
       <c r="IV49" s="68"/>
     </row>
-    <row r="50" spans="1:256">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+    <row r="50" spans="1:256" ht="33" customHeight="1">
+      <c r="A50" s="18">
+        <v>7.1</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
       <c r="L50" s="28"/>
       <c r="M50" s="33"/>
       <c r="O50" s="30"/>
@@ -8319,6 +8365,8 @@
       <c r="EB50" s="33"/>
       <c r="EH50" s="28"/>
       <c r="EI50" s="33"/>
+      <c r="EK50" s="92"/>
+      <c r="EL50" s="93"/>
       <c r="EO50" s="28"/>
       <c r="EP50" s="33"/>
       <c r="ER50" s="30"/>
@@ -8365,12 +8413,22 @@
       <c r="IP50" s="61"/>
       <c r="IV50" s="68"/>
     </row>
-    <row r="51" spans="1:256">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+    <row r="51" spans="1:256" ht="16">
+      <c r="A51" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="21">
+        <v>1</v>
+      </c>
       <c r="L51" s="28"/>
       <c r="M51" s="33"/>
       <c r="O51" s="30"/>
@@ -8430,25 +8488,49 @@
       <c r="FS51" s="30"/>
       <c r="FT51" s="30"/>
       <c r="FU51" s="30"/>
-      <c r="FV51" s="30"/>
-      <c r="FW51" s="30"/>
-      <c r="FX51" s="53"/>
-      <c r="FY51" s="47"/>
-      <c r="FZ51" s="30"/>
-      <c r="GA51" s="30"/>
-      <c r="GB51" s="30"/>
-      <c r="GC51" s="30"/>
-      <c r="GD51" s="30"/>
-      <c r="GE51" s="53"/>
-      <c r="GF51" s="33"/>
-      <c r="GL51" s="28"/>
-      <c r="GM51" s="33"/>
-      <c r="GS51" s="28"/>
-      <c r="GT51" s="33"/>
-      <c r="GZ51" s="28"/>
-      <c r="HA51" s="33"/>
-      <c r="HG51" s="28"/>
-      <c r="HH51" s="33"/>
+      <c r="FV51" s="92"/>
+      <c r="FW51" s="94"/>
+      <c r="FX51" s="93"/>
+      <c r="FY51" s="94"/>
+      <c r="FZ51" s="94"/>
+      <c r="GA51" s="94"/>
+      <c r="GB51" s="94"/>
+      <c r="GC51" s="94"/>
+      <c r="GD51" s="94"/>
+      <c r="GE51" s="93"/>
+      <c r="GF51" s="94"/>
+      <c r="GG51" s="94"/>
+      <c r="GH51" s="94"/>
+      <c r="GI51" s="94"/>
+      <c r="GJ51" s="94"/>
+      <c r="GK51" s="94"/>
+      <c r="GL51" s="93"/>
+      <c r="GM51" s="94"/>
+      <c r="GN51" s="94"/>
+      <c r="GO51" s="94"/>
+      <c r="GP51" s="94"/>
+      <c r="GQ51" s="94"/>
+      <c r="GR51" s="94"/>
+      <c r="GS51" s="93"/>
+      <c r="GT51" s="94"/>
+      <c r="GU51" s="94"/>
+      <c r="GV51" s="94"/>
+      <c r="GW51" s="94"/>
+      <c r="GX51" s="94"/>
+      <c r="GY51" s="94"/>
+      <c r="GZ51" s="93"/>
+      <c r="HA51" s="94"/>
+      <c r="HB51" s="94"/>
+      <c r="HC51" s="94"/>
+      <c r="HD51" s="94"/>
+      <c r="HE51" s="94"/>
+      <c r="HF51" s="94"/>
+      <c r="HG51" s="93"/>
+      <c r="HH51" s="92"/>
+      <c r="HI51" s="94"/>
+      <c r="HJ51" s="94"/>
+      <c r="HK51" s="94"/>
+      <c r="HL51" s="95"/>
       <c r="HN51" s="28"/>
       <c r="HO51" s="47"/>
       <c r="HR51" s="54"/>
@@ -8462,12 +8544,22 @@
       <c r="IP51" s="61"/>
       <c r="IV51" s="68"/>
     </row>
-    <row r="52" spans="1:256">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+    <row r="52" spans="1:256" ht="16">
+      <c r="A52" s="18">
+        <v>7.3</v>
+      </c>
+      <c r="B52" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="21">
+        <v>1</v>
+      </c>
       <c r="L52" s="28"/>
       <c r="M52" s="33"/>
       <c r="O52" s="30"/>
@@ -8527,26 +8619,50 @@
       <c r="FS52" s="30"/>
       <c r="FT52" s="30"/>
       <c r="FU52" s="30"/>
-      <c r="FV52" s="30"/>
-      <c r="FW52" s="30"/>
-      <c r="FX52" s="53"/>
-      <c r="FY52" s="47"/>
-      <c r="FZ52" s="30"/>
-      <c r="GA52" s="30"/>
-      <c r="GB52" s="30"/>
-      <c r="GC52" s="30"/>
-      <c r="GD52" s="30"/>
-      <c r="GE52" s="53"/>
-      <c r="GF52" s="33"/>
-      <c r="GL52" s="28"/>
-      <c r="GM52" s="33"/>
-      <c r="GS52" s="28"/>
-      <c r="GT52" s="33"/>
-      <c r="GZ52" s="28"/>
-      <c r="HA52" s="33"/>
-      <c r="HG52" s="28"/>
-      <c r="HH52" s="33"/>
-      <c r="HN52" s="28"/>
+      <c r="FV52" s="81"/>
+      <c r="FW52" s="81"/>
+      <c r="FX52" s="84"/>
+      <c r="FY52" s="81"/>
+      <c r="FZ52" s="81"/>
+      <c r="GA52" s="81"/>
+      <c r="GB52" s="81"/>
+      <c r="GC52" s="81"/>
+      <c r="GD52" s="81"/>
+      <c r="GE52" s="84"/>
+      <c r="GF52" s="81"/>
+      <c r="GG52" s="81"/>
+      <c r="GH52" s="81"/>
+      <c r="GI52" s="81"/>
+      <c r="GJ52" s="81"/>
+      <c r="GK52" s="81"/>
+      <c r="GL52" s="84"/>
+      <c r="GM52" s="81"/>
+      <c r="GN52" s="81"/>
+      <c r="GO52" s="81"/>
+      <c r="GP52" s="81"/>
+      <c r="GQ52" s="81"/>
+      <c r="GR52" s="81"/>
+      <c r="GS52" s="84"/>
+      <c r="GT52" s="81"/>
+      <c r="GU52" s="81"/>
+      <c r="GV52" s="81"/>
+      <c r="GW52" s="81"/>
+      <c r="GX52" s="81"/>
+      <c r="GY52" s="81"/>
+      <c r="GZ52" s="84"/>
+      <c r="HA52" s="81"/>
+      <c r="HB52" s="81"/>
+      <c r="HC52" s="81"/>
+      <c r="HD52" s="81"/>
+      <c r="HE52" s="81"/>
+      <c r="HF52" s="81"/>
+      <c r="HG52" s="84"/>
+      <c r="HH52" s="85"/>
+      <c r="HI52" s="81"/>
+      <c r="HJ52" s="81"/>
+      <c r="HK52" s="81"/>
+      <c r="HL52" s="86"/>
+      <c r="HN52" s="83"/>
       <c r="HO52" s="47"/>
       <c r="HR52" s="54"/>
       <c r="HT52" s="54"/>
@@ -9632,337 +9748,563 @@
       <c r="C64" s="20"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="23"/>
-      <c r="AD64" s="23"/>
-      <c r="AE64" s="23"/>
-      <c r="AF64" s="23"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="23"/>
-      <c r="AJ64" s="23"/>
-      <c r="AK64" s="23"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="40"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="23"/>
-      <c r="AR64" s="23"/>
-      <c r="AS64" s="23"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="40"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="23"/>
-      <c r="AX64" s="23"/>
-      <c r="AY64" s="23"/>
-      <c r="AZ64" s="23"/>
-      <c r="BA64" s="23"/>
-      <c r="BB64" s="40"/>
-      <c r="BC64" s="22"/>
-      <c r="BD64" s="23"/>
-      <c r="BE64" s="23"/>
-      <c r="BF64" s="23"/>
-      <c r="BG64" s="23"/>
-      <c r="BH64" s="23"/>
-      <c r="BI64" s="40"/>
-      <c r="BJ64" s="48"/>
-      <c r="BK64" s="41"/>
-      <c r="BL64" s="41"/>
-      <c r="BM64" s="41"/>
-      <c r="BN64" s="41"/>
-      <c r="BO64" s="41"/>
-      <c r="BP64" s="55"/>
-      <c r="BQ64" s="48"/>
-      <c r="BR64" s="41"/>
-      <c r="BS64" s="41"/>
-      <c r="BT64" s="56"/>
-      <c r="BU64" s="23"/>
-      <c r="BV64" s="23"/>
-      <c r="BW64" s="40"/>
-      <c r="BX64" s="48"/>
-      <c r="BY64" s="23"/>
-      <c r="BZ64" s="23"/>
-      <c r="CA64" s="23"/>
-      <c r="CB64" s="23"/>
-      <c r="CC64" s="23"/>
-      <c r="CD64" s="40"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="23"/>
-      <c r="CG64" s="23"/>
-      <c r="CH64" s="23"/>
-      <c r="CI64" s="23"/>
-      <c r="CJ64" s="23"/>
-      <c r="CK64" s="40"/>
-      <c r="CL64" s="22"/>
-      <c r="CM64" s="23"/>
-      <c r="CN64" s="23"/>
-      <c r="CO64" s="23"/>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="23"/>
-      <c r="CR64" s="40"/>
-      <c r="CS64" s="22"/>
-      <c r="CT64" s="23"/>
-      <c r="CU64" s="23"/>
-      <c r="CV64" s="23"/>
-      <c r="CW64" s="23"/>
-      <c r="CX64" s="23"/>
-      <c r="CY64" s="40"/>
-      <c r="CZ64" s="22"/>
-      <c r="DA64" s="23"/>
-      <c r="DB64" s="23"/>
-      <c r="DC64" s="23"/>
-      <c r="DD64" s="23"/>
-      <c r="DE64" s="23"/>
-      <c r="DF64" s="23"/>
-      <c r="DG64" s="62"/>
-      <c r="DH64" s="63"/>
-      <c r="DI64" s="63"/>
-      <c r="DJ64" s="63"/>
-      <c r="DK64" s="63"/>
-      <c r="DL64" s="63"/>
-      <c r="DM64" s="64"/>
-      <c r="DN64" s="65"/>
-      <c r="DO64" s="63"/>
-      <c r="DP64" s="63"/>
-      <c r="DQ64" s="63"/>
-      <c r="DR64" s="63"/>
-      <c r="DS64" s="63"/>
-      <c r="DT64" s="69"/>
-      <c r="DU64" s="23"/>
-      <c r="DV64" s="23"/>
-      <c r="DW64" s="23"/>
-      <c r="DX64" s="23"/>
-      <c r="DY64" s="23"/>
-      <c r="DZ64" s="23"/>
-      <c r="EA64" s="40"/>
-      <c r="EB64" s="22"/>
-      <c r="EC64" s="23"/>
-      <c r="ED64" s="23"/>
-      <c r="EE64" s="23"/>
-      <c r="EF64" s="23"/>
-      <c r="EG64" s="23"/>
-      <c r="EH64" s="40"/>
-      <c r="EI64" s="22"/>
-      <c r="EJ64" s="23"/>
-      <c r="EK64" s="23"/>
-      <c r="EL64" s="23"/>
-      <c r="EM64" s="23"/>
-      <c r="EN64" s="23"/>
-      <c r="EO64" s="40"/>
-      <c r="EP64" s="22"/>
-      <c r="EQ64" s="23"/>
-      <c r="ER64" s="41"/>
-      <c r="ES64" s="23"/>
-      <c r="ET64" s="23"/>
-      <c r="EU64" s="23"/>
-      <c r="EV64" s="40"/>
-      <c r="EW64" s="22"/>
-      <c r="EX64" s="23"/>
-      <c r="EY64" s="23"/>
-      <c r="EZ64" s="23"/>
-      <c r="FA64" s="23"/>
-      <c r="FB64" s="23"/>
-      <c r="FC64" s="40"/>
-      <c r="FD64" s="22"/>
-      <c r="FE64" s="23"/>
-      <c r="FF64" s="23"/>
-      <c r="FG64" s="23"/>
-      <c r="FH64" s="23"/>
-      <c r="FI64" s="23"/>
-      <c r="FJ64" s="40"/>
-      <c r="FK64" s="22"/>
-      <c r="FL64" s="23"/>
-      <c r="FM64" s="23"/>
-      <c r="FN64" s="23"/>
-      <c r="FO64" s="23"/>
-      <c r="FP64" s="23"/>
-      <c r="FQ64" s="40"/>
-      <c r="FR64" s="48"/>
-      <c r="FS64" s="41"/>
-      <c r="FT64" s="41"/>
-      <c r="FU64" s="41"/>
-      <c r="FV64" s="41"/>
-      <c r="FW64" s="41"/>
-      <c r="FX64" s="55"/>
-      <c r="FY64" s="48"/>
-      <c r="FZ64" s="41"/>
-      <c r="GA64" s="41"/>
-      <c r="GB64" s="41"/>
-      <c r="GC64" s="41"/>
-      <c r="GD64" s="41"/>
-      <c r="GE64" s="55"/>
-      <c r="GF64" s="22"/>
-      <c r="GG64" s="23"/>
-      <c r="GH64" s="23"/>
-      <c r="GI64" s="23"/>
-      <c r="GJ64" s="23"/>
-      <c r="GK64" s="23"/>
-      <c r="GL64" s="40"/>
-      <c r="GM64" s="22"/>
-      <c r="GN64" s="23"/>
-      <c r="GO64" s="23"/>
-      <c r="GP64" s="23"/>
-      <c r="GQ64" s="23"/>
-      <c r="GR64" s="23"/>
-      <c r="GS64" s="40"/>
-      <c r="GT64" s="22"/>
-      <c r="GU64" s="23"/>
-      <c r="GV64" s="23"/>
-      <c r="GW64" s="23"/>
-      <c r="GX64" s="23"/>
-      <c r="GY64" s="23"/>
-      <c r="GZ64" s="40"/>
-      <c r="HA64" s="22"/>
-      <c r="HB64" s="23"/>
-      <c r="HC64" s="23"/>
-      <c r="HD64" s="23"/>
-      <c r="HE64" s="23"/>
-      <c r="HF64" s="23"/>
-      <c r="HG64" s="40"/>
-      <c r="HH64" s="22"/>
-      <c r="HI64" s="23"/>
-      <c r="HJ64" s="23"/>
-      <c r="HK64" s="23"/>
-      <c r="HL64" s="23"/>
-      <c r="HM64" s="23"/>
-      <c r="HN64" s="40"/>
-      <c r="HO64" s="48"/>
-      <c r="HP64" s="23"/>
-      <c r="HQ64" s="23"/>
-      <c r="HR64" s="56"/>
-      <c r="HS64" s="23"/>
-      <c r="HT64" s="56"/>
-      <c r="HU64" s="40"/>
-      <c r="HV64" s="22"/>
-      <c r="HW64" s="23"/>
-      <c r="HX64" s="23"/>
-      <c r="HY64" s="23"/>
-      <c r="HZ64" s="23"/>
-      <c r="IA64" s="23"/>
-      <c r="IB64" s="23"/>
-      <c r="IC64" s="62"/>
-      <c r="ID64" s="63"/>
-      <c r="IE64" s="63"/>
-      <c r="IF64" s="63"/>
-      <c r="IG64" s="63"/>
-      <c r="IH64" s="63"/>
-      <c r="II64" s="69"/>
-      <c r="IJ64" s="62"/>
-      <c r="IK64" s="63"/>
-      <c r="IL64" s="63"/>
-      <c r="IM64" s="63"/>
-      <c r="IN64" s="63"/>
-      <c r="IO64" s="69"/>
-      <c r="IP64" s="62"/>
-      <c r="IQ64" s="63"/>
-      <c r="IR64" s="63"/>
-      <c r="IS64" s="63"/>
-      <c r="IT64" s="63"/>
-      <c r="IU64" s="63"/>
-      <c r="IV64" s="69"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="33"/>
+      <c r="O64" s="30"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="33"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="33"/>
+      <c r="AG64" s="28"/>
+      <c r="AH64" s="33"/>
+      <c r="AN64" s="28"/>
+      <c r="AO64" s="33"/>
+      <c r="AU64" s="28"/>
+      <c r="AV64" s="33"/>
+      <c r="BB64" s="28"/>
+      <c r="BC64" s="33"/>
+      <c r="BI64" s="28"/>
+      <c r="BJ64" s="47"/>
+      <c r="BK64" s="30"/>
+      <c r="BL64" s="30"/>
+      <c r="BM64" s="30"/>
+      <c r="BN64" s="30"/>
+      <c r="BO64" s="30"/>
+      <c r="BP64" s="53"/>
+      <c r="BQ64" s="47"/>
+      <c r="BR64" s="30"/>
+      <c r="BS64" s="30"/>
+      <c r="BT64" s="54"/>
+      <c r="BW64" s="28"/>
+      <c r="BX64" s="47"/>
+      <c r="CD64" s="28"/>
+      <c r="CE64" s="33"/>
+      <c r="CK64" s="28"/>
+      <c r="CL64" s="33"/>
+      <c r="CR64" s="28"/>
+      <c r="CS64" s="33"/>
+      <c r="CY64" s="28"/>
+      <c r="CZ64" s="33"/>
+      <c r="DG64" s="61"/>
+      <c r="DM64" s="28"/>
+      <c r="DN64" s="33"/>
+      <c r="DT64" s="68"/>
+      <c r="EA64" s="28"/>
+      <c r="EB64" s="33"/>
+      <c r="EH64" s="28"/>
+      <c r="EI64" s="33"/>
+      <c r="EO64" s="28"/>
+      <c r="EP64" s="33"/>
+      <c r="ER64" s="30"/>
+      <c r="EV64" s="28"/>
+      <c r="EW64" s="33"/>
+      <c r="FC64" s="28"/>
+      <c r="FD64" s="33"/>
+      <c r="FJ64" s="28"/>
+      <c r="FK64" s="33"/>
+      <c r="FQ64" s="28"/>
+      <c r="FR64" s="47"/>
+      <c r="FS64" s="30"/>
+      <c r="FT64" s="30"/>
+      <c r="FU64" s="30"/>
+      <c r="FV64" s="30"/>
+      <c r="FW64" s="30"/>
+      <c r="FX64" s="53"/>
+      <c r="FY64" s="47"/>
+      <c r="FZ64" s="30"/>
+      <c r="GA64" s="30"/>
+      <c r="GB64" s="30"/>
+      <c r="GC64" s="30"/>
+      <c r="GD64" s="30"/>
+      <c r="GE64" s="53"/>
+      <c r="GF64" s="33"/>
+      <c r="GL64" s="28"/>
+      <c r="GM64" s="33"/>
+      <c r="GS64" s="28"/>
+      <c r="GT64" s="33"/>
+      <c r="GZ64" s="28"/>
+      <c r="HA64" s="33"/>
+      <c r="HG64" s="28"/>
+      <c r="HH64" s="33"/>
+      <c r="HN64" s="28"/>
+      <c r="HO64" s="47"/>
+      <c r="HR64" s="54"/>
+      <c r="HT64" s="54"/>
+      <c r="HU64" s="28"/>
+      <c r="HV64" s="33"/>
+      <c r="IC64" s="61"/>
+      <c r="II64" s="68"/>
+      <c r="IJ64" s="61"/>
+      <c r="IO64" s="68"/>
+      <c r="IP64" s="61"/>
+      <c r="IV64" s="68"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:256">
       <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="33"/>
+      <c r="O65" s="30"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="33"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="33"/>
+      <c r="AG65" s="28"/>
+      <c r="AH65" s="33"/>
+      <c r="AN65" s="28"/>
+      <c r="AO65" s="33"/>
+      <c r="AU65" s="28"/>
+      <c r="AV65" s="33"/>
+      <c r="BB65" s="28"/>
+      <c r="BC65" s="33"/>
+      <c r="BI65" s="28"/>
+      <c r="BJ65" s="47"/>
+      <c r="BK65" s="30"/>
+      <c r="BL65" s="30"/>
+      <c r="BM65" s="30"/>
+      <c r="BN65" s="30"/>
+      <c r="BO65" s="30"/>
+      <c r="BP65" s="53"/>
+      <c r="BQ65" s="47"/>
+      <c r="BR65" s="30"/>
+      <c r="BS65" s="30"/>
+      <c r="BT65" s="54"/>
+      <c r="BW65" s="28"/>
+      <c r="BX65" s="47"/>
+      <c r="CD65" s="28"/>
+      <c r="CE65" s="33"/>
+      <c r="CK65" s="28"/>
+      <c r="CL65" s="33"/>
+      <c r="CR65" s="28"/>
+      <c r="CS65" s="33"/>
+      <c r="CY65" s="28"/>
+      <c r="CZ65" s="33"/>
+      <c r="DG65" s="61"/>
+      <c r="DM65" s="28"/>
+      <c r="DN65" s="33"/>
+      <c r="DT65" s="68"/>
+      <c r="EA65" s="28"/>
+      <c r="EB65" s="33"/>
+      <c r="EH65" s="28"/>
+      <c r="EI65" s="33"/>
+      <c r="EO65" s="28"/>
+      <c r="EP65" s="33"/>
+      <c r="ER65" s="30"/>
+      <c r="EV65" s="28"/>
+      <c r="EW65" s="33"/>
+      <c r="FC65" s="28"/>
+      <c r="FD65" s="33"/>
+      <c r="FJ65" s="28"/>
+      <c r="FK65" s="33"/>
+      <c r="FQ65" s="28"/>
+      <c r="FR65" s="47"/>
+      <c r="FS65" s="30"/>
+      <c r="FT65" s="30"/>
+      <c r="FU65" s="30"/>
+      <c r="FV65" s="30"/>
+      <c r="FW65" s="30"/>
+      <c r="FX65" s="53"/>
+      <c r="FY65" s="47"/>
+      <c r="FZ65" s="30"/>
+      <c r="GA65" s="30"/>
+      <c r="GB65" s="30"/>
+      <c r="GC65" s="30"/>
+      <c r="GD65" s="30"/>
+      <c r="GE65" s="53"/>
+      <c r="GF65" s="33"/>
+      <c r="GL65" s="28"/>
+      <c r="GM65" s="33"/>
+      <c r="GS65" s="28"/>
+      <c r="GT65" s="33"/>
+      <c r="GZ65" s="28"/>
+      <c r="HA65" s="33"/>
+      <c r="HG65" s="28"/>
+      <c r="HH65" s="33"/>
+      <c r="HN65" s="28"/>
+      <c r="HO65" s="47"/>
+      <c r="HR65" s="54"/>
+      <c r="HT65" s="54"/>
+      <c r="HU65" s="28"/>
+      <c r="HV65" s="33"/>
+      <c r="IC65" s="61"/>
+      <c r="II65" s="68"/>
+      <c r="IJ65" s="61"/>
+      <c r="IO65" s="68"/>
+      <c r="IP65" s="61"/>
+      <c r="IV65" s="68"/>
+    </row>
+    <row r="66" spans="1:256">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="33"/>
+      <c r="O66" s="30"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="33"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="33"/>
+      <c r="AG66" s="28"/>
+      <c r="AH66" s="33"/>
+      <c r="AN66" s="28"/>
+      <c r="AO66" s="33"/>
+      <c r="AU66" s="28"/>
+      <c r="AV66" s="33"/>
+      <c r="BB66" s="28"/>
+      <c r="BC66" s="33"/>
+      <c r="BI66" s="28"/>
+      <c r="BJ66" s="47"/>
+      <c r="BK66" s="30"/>
+      <c r="BL66" s="30"/>
+      <c r="BM66" s="30"/>
+      <c r="BN66" s="30"/>
+      <c r="BO66" s="30"/>
+      <c r="BP66" s="53"/>
+      <c r="BQ66" s="47"/>
+      <c r="BR66" s="30"/>
+      <c r="BS66" s="30"/>
+      <c r="BT66" s="54"/>
+      <c r="BW66" s="28"/>
+      <c r="BX66" s="47"/>
+      <c r="CD66" s="28"/>
+      <c r="CE66" s="33"/>
+      <c r="CK66" s="28"/>
+      <c r="CL66" s="33"/>
+      <c r="CR66" s="28"/>
+      <c r="CS66" s="33"/>
+      <c r="CY66" s="28"/>
+      <c r="CZ66" s="33"/>
+      <c r="DG66" s="61"/>
+      <c r="DM66" s="28"/>
+      <c r="DN66" s="33"/>
+      <c r="DT66" s="68"/>
+      <c r="EA66" s="28"/>
+      <c r="EB66" s="33"/>
+      <c r="EH66" s="28"/>
+      <c r="EI66" s="33"/>
+      <c r="EO66" s="28"/>
+      <c r="EP66" s="33"/>
+      <c r="ER66" s="30"/>
+      <c r="EV66" s="28"/>
+      <c r="EW66" s="33"/>
+      <c r="FC66" s="28"/>
+      <c r="FD66" s="33"/>
+      <c r="FJ66" s="28"/>
+      <c r="FK66" s="33"/>
+      <c r="FQ66" s="28"/>
+      <c r="FR66" s="47"/>
+      <c r="FS66" s="30"/>
+      <c r="FT66" s="30"/>
+      <c r="FU66" s="30"/>
+      <c r="FV66" s="30"/>
+      <c r="FW66" s="30"/>
+      <c r="FX66" s="53"/>
+      <c r="FY66" s="47"/>
+      <c r="FZ66" s="30"/>
+      <c r="GA66" s="30"/>
+      <c r="GB66" s="30"/>
+      <c r="GC66" s="30"/>
+      <c r="GD66" s="30"/>
+      <c r="GE66" s="53"/>
+      <c r="GF66" s="33"/>
+      <c r="GL66" s="28"/>
+      <c r="GM66" s="33"/>
+      <c r="GS66" s="28"/>
+      <c r="GT66" s="33"/>
+      <c r="GZ66" s="28"/>
+      <c r="HA66" s="33"/>
+      <c r="HG66" s="28"/>
+      <c r="HH66" s="33"/>
+      <c r="HN66" s="28"/>
+      <c r="HO66" s="47"/>
+      <c r="HR66" s="54"/>
+      <c r="HT66" s="54"/>
+      <c r="HU66" s="28"/>
+      <c r="HV66" s="33"/>
+      <c r="IC66" s="61"/>
+      <c r="II66" s="68"/>
+      <c r="IJ66" s="61"/>
+      <c r="IO66" s="68"/>
+      <c r="IP66" s="61"/>
+      <c r="IV66" s="68"/>
+    </row>
+    <row r="67" spans="1:256">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="40"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="40"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="23"/>
+      <c r="AF67" s="23"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="23"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="23"/>
+      <c r="AL67" s="23"/>
+      <c r="AM67" s="23"/>
+      <c r="AN67" s="40"/>
+      <c r="AO67" s="22"/>
+      <c r="AP67" s="23"/>
+      <c r="AQ67" s="23"/>
+      <c r="AR67" s="23"/>
+      <c r="AS67" s="23"/>
+      <c r="AT67" s="23"/>
+      <c r="AU67" s="40"/>
+      <c r="AV67" s="22"/>
+      <c r="AW67" s="23"/>
+      <c r="AX67" s="23"/>
+      <c r="AY67" s="23"/>
+      <c r="AZ67" s="23"/>
+      <c r="BA67" s="23"/>
+      <c r="BB67" s="40"/>
+      <c r="BC67" s="22"/>
+      <c r="BD67" s="23"/>
+      <c r="BE67" s="23"/>
+      <c r="BF67" s="23"/>
+      <c r="BG67" s="23"/>
+      <c r="BH67" s="23"/>
+      <c r="BI67" s="40"/>
+      <c r="BJ67" s="48"/>
+      <c r="BK67" s="41"/>
+      <c r="BL67" s="41"/>
+      <c r="BM67" s="41"/>
+      <c r="BN67" s="41"/>
+      <c r="BO67" s="41"/>
+      <c r="BP67" s="55"/>
+      <c r="BQ67" s="48"/>
+      <c r="BR67" s="41"/>
+      <c r="BS67" s="41"/>
+      <c r="BT67" s="56"/>
+      <c r="BU67" s="23"/>
+      <c r="BV67" s="23"/>
+      <c r="BW67" s="40"/>
+      <c r="BX67" s="48"/>
+      <c r="BY67" s="23"/>
+      <c r="BZ67" s="23"/>
+      <c r="CA67" s="23"/>
+      <c r="CB67" s="23"/>
+      <c r="CC67" s="23"/>
+      <c r="CD67" s="40"/>
+      <c r="CE67" s="22"/>
+      <c r="CF67" s="23"/>
+      <c r="CG67" s="23"/>
+      <c r="CH67" s="23"/>
+      <c r="CI67" s="23"/>
+      <c r="CJ67" s="23"/>
+      <c r="CK67" s="40"/>
+      <c r="CL67" s="22"/>
+      <c r="CM67" s="23"/>
+      <c r="CN67" s="23"/>
+      <c r="CO67" s="23"/>
+      <c r="CP67" s="23"/>
+      <c r="CQ67" s="23"/>
+      <c r="CR67" s="40"/>
+      <c r="CS67" s="22"/>
+      <c r="CT67" s="23"/>
+      <c r="CU67" s="23"/>
+      <c r="CV67" s="23"/>
+      <c r="CW67" s="23"/>
+      <c r="CX67" s="23"/>
+      <c r="CY67" s="40"/>
+      <c r="CZ67" s="22"/>
+      <c r="DA67" s="23"/>
+      <c r="DB67" s="23"/>
+      <c r="DC67" s="23"/>
+      <c r="DD67" s="23"/>
+      <c r="DE67" s="23"/>
+      <c r="DF67" s="23"/>
+      <c r="DG67" s="62"/>
+      <c r="DH67" s="63"/>
+      <c r="DI67" s="63"/>
+      <c r="DJ67" s="63"/>
+      <c r="DK67" s="63"/>
+      <c r="DL67" s="63"/>
+      <c r="DM67" s="64"/>
+      <c r="DN67" s="65"/>
+      <c r="DO67" s="63"/>
+      <c r="DP67" s="63"/>
+      <c r="DQ67" s="63"/>
+      <c r="DR67" s="63"/>
+      <c r="DS67" s="63"/>
+      <c r="DT67" s="69"/>
+      <c r="DU67" s="23"/>
+      <c r="DV67" s="23"/>
+      <c r="DW67" s="23"/>
+      <c r="DX67" s="23"/>
+      <c r="DY67" s="23"/>
+      <c r="DZ67" s="23"/>
+      <c r="EA67" s="40"/>
+      <c r="EB67" s="22"/>
+      <c r="EC67" s="23"/>
+      <c r="ED67" s="23"/>
+      <c r="EE67" s="23"/>
+      <c r="EF67" s="23"/>
+      <c r="EG67" s="23"/>
+      <c r="EH67" s="40"/>
+      <c r="EI67" s="22"/>
+      <c r="EJ67" s="23"/>
+      <c r="EK67" s="23"/>
+      <c r="EL67" s="23"/>
+      <c r="EM67" s="23"/>
+      <c r="EN67" s="23"/>
+      <c r="EO67" s="40"/>
+      <c r="EP67" s="22"/>
+      <c r="EQ67" s="23"/>
+      <c r="ER67" s="41"/>
+      <c r="ES67" s="23"/>
+      <c r="ET67" s="23"/>
+      <c r="EU67" s="23"/>
+      <c r="EV67" s="40"/>
+      <c r="EW67" s="22"/>
+      <c r="EX67" s="23"/>
+      <c r="EY67" s="23"/>
+      <c r="EZ67" s="23"/>
+      <c r="FA67" s="23"/>
+      <c r="FB67" s="23"/>
+      <c r="FC67" s="40"/>
+      <c r="FD67" s="22"/>
+      <c r="FE67" s="23"/>
+      <c r="FF67" s="23"/>
+      <c r="FG67" s="23"/>
+      <c r="FH67" s="23"/>
+      <c r="FI67" s="23"/>
+      <c r="FJ67" s="40"/>
+      <c r="FK67" s="22"/>
+      <c r="FL67" s="23"/>
+      <c r="FM67" s="23"/>
+      <c r="FN67" s="23"/>
+      <c r="FO67" s="23"/>
+      <c r="FP67" s="23"/>
+      <c r="FQ67" s="40"/>
+      <c r="FR67" s="48"/>
+      <c r="FS67" s="41"/>
+      <c r="FT67" s="41"/>
+      <c r="FU67" s="41"/>
+      <c r="FV67" s="41"/>
+      <c r="FW67" s="41"/>
+      <c r="FX67" s="55"/>
+      <c r="FY67" s="48"/>
+      <c r="FZ67" s="41"/>
+      <c r="GA67" s="41"/>
+      <c r="GB67" s="41"/>
+      <c r="GC67" s="41"/>
+      <c r="GD67" s="41"/>
+      <c r="GE67" s="55"/>
+      <c r="GF67" s="22"/>
+      <c r="GG67" s="23"/>
+      <c r="GH67" s="23"/>
+      <c r="GI67" s="23"/>
+      <c r="GJ67" s="23"/>
+      <c r="GK67" s="23"/>
+      <c r="GL67" s="40"/>
+      <c r="GM67" s="22"/>
+      <c r="GN67" s="23"/>
+      <c r="GO67" s="23"/>
+      <c r="GP67" s="23"/>
+      <c r="GQ67" s="23"/>
+      <c r="GR67" s="23"/>
+      <c r="GS67" s="40"/>
+      <c r="GT67" s="22"/>
+      <c r="GU67" s="23"/>
+      <c r="GV67" s="23"/>
+      <c r="GW67" s="23"/>
+      <c r="GX67" s="23"/>
+      <c r="GY67" s="23"/>
+      <c r="GZ67" s="40"/>
+      <c r="HA67" s="22"/>
+      <c r="HB67" s="23"/>
+      <c r="HC67" s="23"/>
+      <c r="HD67" s="23"/>
+      <c r="HE67" s="23"/>
+      <c r="HF67" s="23"/>
+      <c r="HG67" s="40"/>
+      <c r="HH67" s="22"/>
+      <c r="HI67" s="23"/>
+      <c r="HJ67" s="23"/>
+      <c r="HK67" s="23"/>
+      <c r="HL67" s="23"/>
+      <c r="HM67" s="23"/>
+      <c r="HN67" s="40"/>
+      <c r="HO67" s="48"/>
+      <c r="HP67" s="23"/>
+      <c r="HQ67" s="23"/>
+      <c r="HR67" s="56"/>
+      <c r="HS67" s="23"/>
+      <c r="HT67" s="56"/>
+      <c r="HU67" s="40"/>
+      <c r="HV67" s="22"/>
+      <c r="HW67" s="23"/>
+      <c r="HX67" s="23"/>
+      <c r="HY67" s="23"/>
+      <c r="HZ67" s="23"/>
+      <c r="IA67" s="23"/>
+      <c r="IB67" s="23"/>
+      <c r="IC67" s="62"/>
+      <c r="ID67" s="63"/>
+      <c r="IE67" s="63"/>
+      <c r="IF67" s="63"/>
+      <c r="IG67" s="63"/>
+      <c r="IH67" s="63"/>
+      <c r="II67" s="69"/>
+      <c r="IJ67" s="62"/>
+      <c r="IK67" s="63"/>
+      <c r="IL67" s="63"/>
+      <c r="IM67" s="63"/>
+      <c r="IN67" s="63"/>
+      <c r="IO67" s="69"/>
+      <c r="IP67" s="62"/>
+      <c r="IQ67" s="63"/>
+      <c r="IR67" s="63"/>
+      <c r="IS67" s="63"/>
+      <c r="IT67" s="63"/>
+      <c r="IU67" s="63"/>
+      <c r="IV67" s="69"/>
+    </row>
+    <row r="68" spans="1:256">
+      <c r="A68" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="EK47:EL47"/>
-    <mergeCell ref="FV48:FX48"/>
-    <mergeCell ref="FY48:GE48"/>
-    <mergeCell ref="GF48:GL48"/>
-    <mergeCell ref="GM48:GS48"/>
-    <mergeCell ref="GT48:GZ48"/>
-    <mergeCell ref="HA48:HG48"/>
-    <mergeCell ref="HH48:HL48"/>
-    <mergeCell ref="GW45:GZ45"/>
-    <mergeCell ref="HA45:HG45"/>
-    <mergeCell ref="HH45:HK45"/>
-    <mergeCell ref="GB46:GE46"/>
-    <mergeCell ref="GF46:GL46"/>
-    <mergeCell ref="GM46:GS46"/>
-    <mergeCell ref="GT46:GZ46"/>
-    <mergeCell ref="HA46:HG46"/>
-    <mergeCell ref="HH46:HK46"/>
-    <mergeCell ref="EM38:EO38"/>
-    <mergeCell ref="EP38:EV38"/>
-    <mergeCell ref="FI39:FJ39"/>
-    <mergeCell ref="FK39:FO39"/>
-    <mergeCell ref="EU40:EV40"/>
-    <mergeCell ref="EW40:FC40"/>
-    <mergeCell ref="FK41:FQ41"/>
-    <mergeCell ref="FK42:FQ42"/>
-    <mergeCell ref="FV44:FX44"/>
-    <mergeCell ref="DY35:EA35"/>
-    <mergeCell ref="EB35:EE35"/>
-    <mergeCell ref="EM35:EO35"/>
-    <mergeCell ref="EP35:ES35"/>
-    <mergeCell ref="FD36:FJ36"/>
-    <mergeCell ref="FK36:FQ36"/>
-    <mergeCell ref="EM37:EO37"/>
-    <mergeCell ref="EP37:EV37"/>
-    <mergeCell ref="EW37:FB37"/>
-    <mergeCell ref="FK37:FN37"/>
-    <mergeCell ref="EI28:EL28"/>
-    <mergeCell ref="AY29:AZ29"/>
-    <mergeCell ref="EI30:EO30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BC31:BI31"/>
-    <mergeCell ref="BJ31:BP31"/>
-    <mergeCell ref="BQ31:BW31"/>
-    <mergeCell ref="EM31:EO31"/>
-    <mergeCell ref="BT33:BW33"/>
-    <mergeCell ref="T24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="AO25:AU25"/>
-    <mergeCell ref="AV26:BB26"/>
-    <mergeCell ref="BC26:BI26"/>
-    <mergeCell ref="BT27:BW27"/>
-    <mergeCell ref="DY28:DZ28"/>
-    <mergeCell ref="EF28:EH28"/>
-    <mergeCell ref="IC3:II3"/>
-    <mergeCell ref="IP3:IV3"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="EP21:EV21"/>
-    <mergeCell ref="EW21:FC21"/>
-    <mergeCell ref="FD21:FJ21"/>
-    <mergeCell ref="FK21:FQ21"/>
-    <mergeCell ref="FR21:FX21"/>
-    <mergeCell ref="FK3:FQ3"/>
-    <mergeCell ref="FR3:FX3"/>
-    <mergeCell ref="FY3:GE3"/>
-    <mergeCell ref="GF3:GL3"/>
-    <mergeCell ref="GM3:GS3"/>
-    <mergeCell ref="GT3:GZ3"/>
-    <mergeCell ref="HA3:HG3"/>
-    <mergeCell ref="HH3:HN3"/>
-    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:AO2"/>
+    <mergeCell ref="AP2:BS2"/>
+    <mergeCell ref="BT2:CX2"/>
+    <mergeCell ref="CY2:EC2"/>
+    <mergeCell ref="ED2:FE2"/>
+    <mergeCell ref="FF2:GJ2"/>
+    <mergeCell ref="GK2:HN2"/>
+    <mergeCell ref="HO2:IS2"/>
     <mergeCell ref="IT2:IV2"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:S3"/>
@@ -9987,15 +10329,80 @@
     <mergeCell ref="EP3:EV3"/>
     <mergeCell ref="EW3:FC3"/>
     <mergeCell ref="FD3:FJ3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:AO2"/>
-    <mergeCell ref="AP2:BS2"/>
-    <mergeCell ref="BT2:CX2"/>
-    <mergeCell ref="CY2:EC2"/>
-    <mergeCell ref="ED2:FE2"/>
-    <mergeCell ref="FF2:GJ2"/>
-    <mergeCell ref="GK2:HN2"/>
-    <mergeCell ref="HO2:IS2"/>
+    <mergeCell ref="IC3:II3"/>
+    <mergeCell ref="IP3:IV3"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="EP21:EV21"/>
+    <mergeCell ref="EW21:FC21"/>
+    <mergeCell ref="FD21:FJ21"/>
+    <mergeCell ref="FK21:FQ21"/>
+    <mergeCell ref="FR21:FX21"/>
+    <mergeCell ref="FK3:FQ3"/>
+    <mergeCell ref="FR3:FX3"/>
+    <mergeCell ref="FY3:GE3"/>
+    <mergeCell ref="GF3:GL3"/>
+    <mergeCell ref="GM3:GS3"/>
+    <mergeCell ref="GT3:GZ3"/>
+    <mergeCell ref="HA3:HG3"/>
+    <mergeCell ref="HH3:HN3"/>
+    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="T24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="AO25:AU25"/>
+    <mergeCell ref="AV26:BB26"/>
+    <mergeCell ref="BC26:BI26"/>
+    <mergeCell ref="BT27:BW27"/>
+    <mergeCell ref="DY28:DZ28"/>
+    <mergeCell ref="EF28:EH28"/>
+    <mergeCell ref="EI28:EL28"/>
+    <mergeCell ref="AY29:AZ29"/>
+    <mergeCell ref="EI30:EO30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BC31:BI31"/>
+    <mergeCell ref="BJ31:BP31"/>
+    <mergeCell ref="BQ31:BW31"/>
+    <mergeCell ref="EM31:EO31"/>
+    <mergeCell ref="BT33:BW33"/>
+    <mergeCell ref="DY35:EA35"/>
+    <mergeCell ref="EB35:EE35"/>
+    <mergeCell ref="EM35:EO35"/>
+    <mergeCell ref="EP35:ES35"/>
+    <mergeCell ref="FD36:FJ36"/>
+    <mergeCell ref="FK36:FQ36"/>
+    <mergeCell ref="EM37:EO37"/>
+    <mergeCell ref="EP37:EV37"/>
+    <mergeCell ref="EW37:FB37"/>
+    <mergeCell ref="FK37:FN37"/>
+    <mergeCell ref="EM39:EO39"/>
+    <mergeCell ref="EP39:EV39"/>
+    <mergeCell ref="FI40:FJ40"/>
+    <mergeCell ref="FK40:FO40"/>
+    <mergeCell ref="EU41:EV41"/>
+    <mergeCell ref="EW41:FC41"/>
+    <mergeCell ref="FK43:FQ43"/>
+    <mergeCell ref="FK44:FQ44"/>
+    <mergeCell ref="FV46:FX46"/>
+    <mergeCell ref="EK50:EL50"/>
+    <mergeCell ref="FV51:FX51"/>
+    <mergeCell ref="FY51:GE51"/>
+    <mergeCell ref="GF51:GL51"/>
+    <mergeCell ref="GM51:GS51"/>
+    <mergeCell ref="GT51:GZ51"/>
+    <mergeCell ref="HA51:HG51"/>
+    <mergeCell ref="HH51:HL51"/>
+    <mergeCell ref="GW47:GZ47"/>
+    <mergeCell ref="HA47:HG47"/>
+    <mergeCell ref="HH47:HK47"/>
+    <mergeCell ref="GB48:GE48"/>
+    <mergeCell ref="GF48:GL48"/>
+    <mergeCell ref="GM48:GS48"/>
+    <mergeCell ref="GT48:GZ48"/>
+    <mergeCell ref="HA48:HG48"/>
+    <mergeCell ref="HH48:HK48"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihaixin/Desktop/code/2022-RewardProcessingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948287E8-2673-514E-89D5-CF26FDB6CB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD455EE-637A-044A-A864-944FC7ACF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,6 +203,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -211,11 +212,21 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Deploy Final Version release</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Deploy Final Version release</t>
         </r>
       </text>
     </comment>
@@ -225,6 +236,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -233,11 +245,21 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-SEP Project Presentation and Demo</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEP Project Presentation and Demo</t>
         </r>
       </text>
     </comment>
@@ -247,6 +269,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -255,11 +278,21 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Interaction &amp; Society Coursework due date</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Interaction &amp; Society Coursework due date</t>
         </r>
       </text>
     </comment>
@@ -268,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="130">
   <si>
     <t>Colour coding:</t>
   </si>
@@ -472,9 +505,6 @@
   </si>
   <si>
     <t>Arrange to meet your mentor</t>
-  </si>
-  <si>
-    <t>Add key dates to your Outlook calendars, Gantt Chart and project descriptions</t>
   </si>
   <si>
     <t>Set up team communication channels</t>
@@ -652,6 +682,38 @@
   </si>
   <si>
     <t>Finished Questions and Finish Page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add key dates to your Outlook calendars, Gantt Chart and project descriptions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Comment for game part as client's required</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project completion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wren,Haixin,Chongqi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Check for everything(e.g. readme, document, code)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haixin,Wren</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Release</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +721,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,8 +772,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -772,8 +847,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF75FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1179,11 +1260,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1353,157 +1449,205 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1590,6 +1734,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF75FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1862,10 +2011,10 @@
   <dimension ref="A1:IV65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BO40" sqref="BO40"/>
+      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -1894,277 +2043,277 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="126" t="s">
+      <c r="F2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="128" t="s">
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="127"/>
-      <c r="AP2" s="128" t="s">
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="126"/>
-      <c r="AS2" s="126"/>
-      <c r="AT2" s="126"/>
-      <c r="AU2" s="126"/>
-      <c r="AV2" s="126"/>
-      <c r="AW2" s="126"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="126"/>
-      <c r="AZ2" s="126"/>
-      <c r="BA2" s="126"/>
-      <c r="BB2" s="126"/>
-      <c r="BC2" s="126"/>
-      <c r="BD2" s="126"/>
-      <c r="BE2" s="126"/>
-      <c r="BF2" s="126"/>
-      <c r="BG2" s="126"/>
-      <c r="BH2" s="126"/>
-      <c r="BI2" s="126"/>
-      <c r="BJ2" s="126"/>
-      <c r="BK2" s="126"/>
-      <c r="BL2" s="126"/>
-      <c r="BM2" s="126"/>
-      <c r="BN2" s="126"/>
-      <c r="BO2" s="126"/>
-      <c r="BP2" s="126"/>
-      <c r="BQ2" s="126"/>
-      <c r="BR2" s="126"/>
-      <c r="BS2" s="127"/>
-      <c r="BT2" s="128" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="142"/>
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="143"/>
+      <c r="BT2" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="126"/>
-      <c r="BV2" s="126"/>
-      <c r="BW2" s="126"/>
-      <c r="BX2" s="126"/>
-      <c r="BY2" s="126"/>
-      <c r="BZ2" s="126"/>
-      <c r="CA2" s="126"/>
-      <c r="CB2" s="126"/>
-      <c r="CC2" s="126"/>
-      <c r="CD2" s="126"/>
-      <c r="CE2" s="126"/>
-      <c r="CF2" s="126"/>
-      <c r="CG2" s="126"/>
-      <c r="CH2" s="126"/>
-      <c r="CI2" s="126"/>
-      <c r="CJ2" s="126"/>
-      <c r="CK2" s="126"/>
-      <c r="CL2" s="126"/>
-      <c r="CM2" s="126"/>
-      <c r="CN2" s="126"/>
-      <c r="CO2" s="126"/>
-      <c r="CP2" s="126"/>
-      <c r="CQ2" s="126"/>
-      <c r="CR2" s="126"/>
-      <c r="CS2" s="126"/>
-      <c r="CT2" s="126"/>
-      <c r="CU2" s="126"/>
-      <c r="CV2" s="126"/>
-      <c r="CW2" s="126"/>
-      <c r="CX2" s="127"/>
-      <c r="CY2" s="128" t="s">
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="142"/>
+      <c r="CL2" s="142"/>
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="142"/>
+      <c r="CS2" s="142"/>
+      <c r="CT2" s="142"/>
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="143"/>
+      <c r="CY2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="CZ2" s="126"/>
-      <c r="DA2" s="126"/>
-      <c r="DB2" s="126"/>
-      <c r="DC2" s="126"/>
-      <c r="DD2" s="126"/>
-      <c r="DE2" s="126"/>
-      <c r="DF2" s="126"/>
-      <c r="DG2" s="122"/>
-      <c r="DH2" s="122"/>
-      <c r="DI2" s="122"/>
-      <c r="DJ2" s="122"/>
-      <c r="DK2" s="122"/>
-      <c r="DL2" s="122"/>
-      <c r="DM2" s="122"/>
-      <c r="DN2" s="122"/>
-      <c r="DO2" s="122"/>
-      <c r="DP2" s="122"/>
-      <c r="DQ2" s="122"/>
-      <c r="DR2" s="122"/>
-      <c r="DS2" s="122"/>
-      <c r="DT2" s="122"/>
-      <c r="DU2" s="126"/>
-      <c r="DV2" s="126"/>
-      <c r="DW2" s="126"/>
-      <c r="DX2" s="126"/>
-      <c r="DY2" s="126"/>
-      <c r="DZ2" s="126"/>
-      <c r="EA2" s="126"/>
-      <c r="EB2" s="126"/>
-      <c r="EC2" s="127"/>
-      <c r="ED2" s="121" t="s">
+      <c r="CZ2" s="142"/>
+      <c r="DA2" s="142"/>
+      <c r="DB2" s="142"/>
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="138"/>
+      <c r="DH2" s="138"/>
+      <c r="DI2" s="138"/>
+      <c r="DJ2" s="138"/>
+      <c r="DK2" s="138"/>
+      <c r="DL2" s="138"/>
+      <c r="DM2" s="138"/>
+      <c r="DN2" s="138"/>
+      <c r="DO2" s="138"/>
+      <c r="DP2" s="138"/>
+      <c r="DQ2" s="138"/>
+      <c r="DR2" s="138"/>
+      <c r="DS2" s="138"/>
+      <c r="DT2" s="138"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="142"/>
+      <c r="DY2" s="142"/>
+      <c r="DZ2" s="142"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="143"/>
+      <c r="ED2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="EE2" s="122"/>
-      <c r="EF2" s="122"/>
-      <c r="EG2" s="122"/>
-      <c r="EH2" s="122"/>
-      <c r="EI2" s="126"/>
-      <c r="EJ2" s="126"/>
-      <c r="EK2" s="126"/>
-      <c r="EL2" s="126"/>
-      <c r="EM2" s="126"/>
-      <c r="EN2" s="126"/>
-      <c r="EO2" s="126"/>
-      <c r="EP2" s="126"/>
-      <c r="EQ2" s="126"/>
-      <c r="ER2" s="126"/>
-      <c r="ES2" s="126"/>
-      <c r="ET2" s="126"/>
-      <c r="EU2" s="126"/>
-      <c r="EV2" s="126"/>
-      <c r="EW2" s="126"/>
-      <c r="EX2" s="126"/>
-      <c r="EY2" s="126"/>
-      <c r="EZ2" s="126"/>
-      <c r="FA2" s="126"/>
-      <c r="FB2" s="126"/>
-      <c r="FC2" s="126"/>
-      <c r="FD2" s="126"/>
-      <c r="FE2" s="127"/>
-      <c r="FF2" s="121" t="s">
+      <c r="EE2" s="138"/>
+      <c r="EF2" s="138"/>
+      <c r="EG2" s="138"/>
+      <c r="EH2" s="138"/>
+      <c r="EI2" s="142"/>
+      <c r="EJ2" s="142"/>
+      <c r="EK2" s="142"/>
+      <c r="EL2" s="142"/>
+      <c r="EM2" s="142"/>
+      <c r="EN2" s="142"/>
+      <c r="EO2" s="142"/>
+      <c r="EP2" s="142"/>
+      <c r="EQ2" s="142"/>
+      <c r="ER2" s="142"/>
+      <c r="ES2" s="142"/>
+      <c r="ET2" s="142"/>
+      <c r="EU2" s="142"/>
+      <c r="EV2" s="142"/>
+      <c r="EW2" s="142"/>
+      <c r="EX2" s="142"/>
+      <c r="EY2" s="142"/>
+      <c r="EZ2" s="142"/>
+      <c r="FA2" s="142"/>
+      <c r="FB2" s="142"/>
+      <c r="FC2" s="142"/>
+      <c r="FD2" s="142"/>
+      <c r="FE2" s="143"/>
+      <c r="FF2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="FG2" s="122"/>
-      <c r="FH2" s="122"/>
-      <c r="FI2" s="122"/>
-      <c r="FJ2" s="122"/>
-      <c r="FK2" s="126"/>
-      <c r="FL2" s="126"/>
-      <c r="FM2" s="126"/>
-      <c r="FN2" s="126"/>
-      <c r="FO2" s="126"/>
-      <c r="FP2" s="126"/>
-      <c r="FQ2" s="126"/>
-      <c r="FR2" s="126"/>
-      <c r="FS2" s="126"/>
-      <c r="FT2" s="126"/>
-      <c r="FU2" s="126"/>
-      <c r="FV2" s="126"/>
-      <c r="FW2" s="126"/>
-      <c r="FX2" s="126"/>
-      <c r="FY2" s="126"/>
-      <c r="FZ2" s="126"/>
-      <c r="GA2" s="126"/>
-      <c r="GB2" s="126"/>
-      <c r="GC2" s="126"/>
-      <c r="GD2" s="126"/>
-      <c r="GE2" s="126"/>
-      <c r="GF2" s="126"/>
-      <c r="GG2" s="126"/>
-      <c r="GH2" s="126"/>
-      <c r="GI2" s="126"/>
-      <c r="GJ2" s="127"/>
-      <c r="GK2" s="128" t="s">
+      <c r="FG2" s="138"/>
+      <c r="FH2" s="138"/>
+      <c r="FI2" s="138"/>
+      <c r="FJ2" s="138"/>
+      <c r="FK2" s="142"/>
+      <c r="FL2" s="142"/>
+      <c r="FM2" s="142"/>
+      <c r="FN2" s="142"/>
+      <c r="FO2" s="142"/>
+      <c r="FP2" s="142"/>
+      <c r="FQ2" s="142"/>
+      <c r="FR2" s="142"/>
+      <c r="FS2" s="142"/>
+      <c r="FT2" s="142"/>
+      <c r="FU2" s="142"/>
+      <c r="FV2" s="142"/>
+      <c r="FW2" s="142"/>
+      <c r="FX2" s="142"/>
+      <c r="FY2" s="142"/>
+      <c r="FZ2" s="142"/>
+      <c r="GA2" s="142"/>
+      <c r="GB2" s="142"/>
+      <c r="GC2" s="142"/>
+      <c r="GD2" s="142"/>
+      <c r="GE2" s="142"/>
+      <c r="GF2" s="142"/>
+      <c r="GG2" s="142"/>
+      <c r="GH2" s="142"/>
+      <c r="GI2" s="142"/>
+      <c r="GJ2" s="143"/>
+      <c r="GK2" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="GL2" s="126"/>
-      <c r="GM2" s="126"/>
-      <c r="GN2" s="126"/>
-      <c r="GO2" s="126"/>
-      <c r="GP2" s="126"/>
-      <c r="GQ2" s="126"/>
-      <c r="GR2" s="126"/>
-      <c r="GS2" s="126"/>
-      <c r="GT2" s="126"/>
-      <c r="GU2" s="126"/>
-      <c r="GV2" s="126"/>
-      <c r="GW2" s="126"/>
-      <c r="GX2" s="126"/>
-      <c r="GY2" s="126"/>
-      <c r="GZ2" s="126"/>
-      <c r="HA2" s="126"/>
-      <c r="HB2" s="126"/>
-      <c r="HC2" s="126"/>
-      <c r="HD2" s="126"/>
-      <c r="HE2" s="126"/>
-      <c r="HF2" s="126"/>
-      <c r="HG2" s="126"/>
-      <c r="HH2" s="126"/>
-      <c r="HI2" s="126"/>
-      <c r="HJ2" s="126"/>
-      <c r="HK2" s="126"/>
-      <c r="HL2" s="126"/>
-      <c r="HM2" s="126"/>
-      <c r="HN2" s="127"/>
-      <c r="HO2" s="128" t="s">
+      <c r="GL2" s="142"/>
+      <c r="GM2" s="142"/>
+      <c r="GN2" s="142"/>
+      <c r="GO2" s="142"/>
+      <c r="GP2" s="142"/>
+      <c r="GQ2" s="142"/>
+      <c r="GR2" s="142"/>
+      <c r="GS2" s="142"/>
+      <c r="GT2" s="142"/>
+      <c r="GU2" s="142"/>
+      <c r="GV2" s="142"/>
+      <c r="GW2" s="142"/>
+      <c r="GX2" s="142"/>
+      <c r="GY2" s="142"/>
+      <c r="GZ2" s="142"/>
+      <c r="HA2" s="142"/>
+      <c r="HB2" s="142"/>
+      <c r="HC2" s="142"/>
+      <c r="HD2" s="142"/>
+      <c r="HE2" s="142"/>
+      <c r="HF2" s="142"/>
+      <c r="HG2" s="142"/>
+      <c r="HH2" s="142"/>
+      <c r="HI2" s="142"/>
+      <c r="HJ2" s="142"/>
+      <c r="HK2" s="142"/>
+      <c r="HL2" s="142"/>
+      <c r="HM2" s="142"/>
+      <c r="HN2" s="143"/>
+      <c r="HO2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="HP2" s="126"/>
-      <c r="HQ2" s="126"/>
-      <c r="HR2" s="126"/>
-      <c r="HS2" s="126"/>
-      <c r="HT2" s="126"/>
-      <c r="HU2" s="126"/>
-      <c r="HV2" s="126"/>
-      <c r="HW2" s="126"/>
-      <c r="HX2" s="126"/>
-      <c r="HY2" s="126"/>
-      <c r="HZ2" s="126"/>
-      <c r="IA2" s="126"/>
-      <c r="IB2" s="126"/>
-      <c r="IC2" s="122"/>
-      <c r="ID2" s="122"/>
-      <c r="IE2" s="122"/>
-      <c r="IF2" s="122"/>
-      <c r="IG2" s="122"/>
-      <c r="IH2" s="122"/>
-      <c r="II2" s="122"/>
-      <c r="IJ2" s="122"/>
-      <c r="IK2" s="122"/>
-      <c r="IL2" s="122"/>
-      <c r="IM2" s="122"/>
-      <c r="IN2" s="122"/>
-      <c r="IO2" s="122"/>
-      <c r="IP2" s="122"/>
-      <c r="IQ2" s="122"/>
-      <c r="IR2" s="122"/>
-      <c r="IS2" s="123"/>
-      <c r="IT2" s="121" t="s">
+      <c r="HP2" s="142"/>
+      <c r="HQ2" s="142"/>
+      <c r="HR2" s="142"/>
+      <c r="HS2" s="142"/>
+      <c r="HT2" s="142"/>
+      <c r="HU2" s="142"/>
+      <c r="HV2" s="142"/>
+      <c r="HW2" s="142"/>
+      <c r="HX2" s="142"/>
+      <c r="HY2" s="142"/>
+      <c r="HZ2" s="142"/>
+      <c r="IA2" s="142"/>
+      <c r="IB2" s="142"/>
+      <c r="IC2" s="138"/>
+      <c r="ID2" s="138"/>
+      <c r="IE2" s="138"/>
+      <c r="IF2" s="138"/>
+      <c r="IG2" s="138"/>
+      <c r="IH2" s="138"/>
+      <c r="II2" s="138"/>
+      <c r="IJ2" s="138"/>
+      <c r="IK2" s="138"/>
+      <c r="IL2" s="138"/>
+      <c r="IM2" s="138"/>
+      <c r="IN2" s="138"/>
+      <c r="IO2" s="138"/>
+      <c r="IP2" s="138"/>
+      <c r="IQ2" s="138"/>
+      <c r="IR2" s="138"/>
+      <c r="IS2" s="139"/>
+      <c r="IT2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="IU2" s="122"/>
-      <c r="IV2" s="123"/>
+      <c r="IU2" s="138"/>
+      <c r="IV2" s="139"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1">
       <c r="B3" s="2"/>
@@ -2172,323 +2321,323 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="121" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="121" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="121" t="s">
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
-      <c r="AG3" s="123"/>
-      <c r="AH3" s="121" t="s">
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="122"/>
-      <c r="AJ3" s="122"/>
-      <c r="AK3" s="122"/>
-      <c r="AL3" s="122"/>
-      <c r="AM3" s="122"/>
-      <c r="AN3" s="123"/>
-      <c r="AO3" s="121" t="s">
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="122"/>
-      <c r="AQ3" s="122"/>
-      <c r="AR3" s="122"/>
-      <c r="AS3" s="122"/>
-      <c r="AT3" s="122"/>
-      <c r="AU3" s="123"/>
-      <c r="AV3" s="121" t="s">
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="138"/>
+      <c r="AT3" s="138"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="122"/>
-      <c r="AX3" s="122"/>
-      <c r="AY3" s="122"/>
-      <c r="AZ3" s="122"/>
-      <c r="BA3" s="122"/>
-      <c r="BB3" s="123"/>
-      <c r="BC3" s="121" t="s">
+      <c r="AW3" s="138"/>
+      <c r="AX3" s="138"/>
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="138"/>
+      <c r="BA3" s="138"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="122"/>
-      <c r="BE3" s="122"/>
-      <c r="BF3" s="122"/>
-      <c r="BG3" s="122"/>
-      <c r="BH3" s="122"/>
-      <c r="BI3" s="123"/>
-      <c r="BJ3" s="121" t="s">
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138"/>
+      <c r="BH3" s="138"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="122"/>
-      <c r="BL3" s="122"/>
-      <c r="BM3" s="122"/>
-      <c r="BN3" s="122"/>
-      <c r="BO3" s="122"/>
-      <c r="BP3" s="123"/>
-      <c r="BQ3" s="121" t="s">
+      <c r="BK3" s="138"/>
+      <c r="BL3" s="138"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="138"/>
+      <c r="BO3" s="138"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="122"/>
-      <c r="BS3" s="122"/>
-      <c r="BT3" s="122"/>
-      <c r="BU3" s="122"/>
-      <c r="BV3" s="122"/>
-      <c r="BW3" s="123"/>
-      <c r="BX3" s="121" t="s">
+      <c r="BR3" s="138"/>
+      <c r="BS3" s="138"/>
+      <c r="BT3" s="138"/>
+      <c r="BU3" s="138"/>
+      <c r="BV3" s="138"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="BY3" s="122"/>
-      <c r="BZ3" s="122"/>
-      <c r="CA3" s="122"/>
-      <c r="CB3" s="122"/>
-      <c r="CC3" s="122"/>
-      <c r="CD3" s="123"/>
-      <c r="CE3" s="121" t="s">
+      <c r="BY3" s="138"/>
+      <c r="BZ3" s="138"/>
+      <c r="CA3" s="138"/>
+      <c r="CB3" s="138"/>
+      <c r="CC3" s="138"/>
+      <c r="CD3" s="139"/>
+      <c r="CE3" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="CF3" s="122"/>
-      <c r="CG3" s="122"/>
-      <c r="CH3" s="122"/>
-      <c r="CI3" s="122"/>
-      <c r="CJ3" s="122"/>
-      <c r="CK3" s="123"/>
-      <c r="CL3" s="128" t="s">
+      <c r="CF3" s="138"/>
+      <c r="CG3" s="138"/>
+      <c r="CH3" s="138"/>
+      <c r="CI3" s="138"/>
+      <c r="CJ3" s="138"/>
+      <c r="CK3" s="139"/>
+      <c r="CL3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="CM3" s="126"/>
-      <c r="CN3" s="126"/>
-      <c r="CO3" s="126"/>
-      <c r="CP3" s="126"/>
-      <c r="CQ3" s="126"/>
-      <c r="CR3" s="127"/>
-      <c r="CS3" s="128" t="s">
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="142"/>
+      <c r="CP3" s="142"/>
+      <c r="CQ3" s="142"/>
+      <c r="CR3" s="143"/>
+      <c r="CS3" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="126"/>
-      <c r="CU3" s="126"/>
-      <c r="CV3" s="126"/>
-      <c r="CW3" s="126"/>
-      <c r="CX3" s="126"/>
-      <c r="CY3" s="127"/>
-      <c r="CZ3" s="128" t="s">
+      <c r="CT3" s="142"/>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="142"/>
+      <c r="CX3" s="142"/>
+      <c r="CY3" s="143"/>
+      <c r="CZ3" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="126"/>
-      <c r="DB3" s="126"/>
-      <c r="DC3" s="126"/>
-      <c r="DD3" s="126"/>
-      <c r="DE3" s="126"/>
-      <c r="DF3" s="126"/>
-      <c r="DG3" s="108" t="s">
+      <c r="DA3" s="142"/>
+      <c r="DB3" s="142"/>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="142"/>
+      <c r="DF3" s="142"/>
+      <c r="DG3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="DH3" s="109"/>
-      <c r="DI3" s="109"/>
-      <c r="DJ3" s="109"/>
-      <c r="DK3" s="109"/>
-      <c r="DL3" s="109"/>
-      <c r="DM3" s="132"/>
-      <c r="DN3" s="133" t="s">
+      <c r="DH3" s="125"/>
+      <c r="DI3" s="125"/>
+      <c r="DJ3" s="125"/>
+      <c r="DK3" s="125"/>
+      <c r="DL3" s="125"/>
+      <c r="DM3" s="148"/>
+      <c r="DN3" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="DO3" s="109"/>
-      <c r="DP3" s="109"/>
-      <c r="DQ3" s="109"/>
-      <c r="DR3" s="109"/>
-      <c r="DS3" s="109"/>
-      <c r="DT3" s="110"/>
-      <c r="DU3" s="126" t="s">
+      <c r="DO3" s="125"/>
+      <c r="DP3" s="125"/>
+      <c r="DQ3" s="125"/>
+      <c r="DR3" s="125"/>
+      <c r="DS3" s="125"/>
+      <c r="DT3" s="126"/>
+      <c r="DU3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="DV3" s="126"/>
-      <c r="DW3" s="126"/>
-      <c r="DX3" s="126"/>
-      <c r="DY3" s="126"/>
-      <c r="DZ3" s="126"/>
-      <c r="EA3" s="127"/>
-      <c r="EB3" s="128" t="s">
+      <c r="DV3" s="142"/>
+      <c r="DW3" s="142"/>
+      <c r="DX3" s="142"/>
+      <c r="DY3" s="142"/>
+      <c r="DZ3" s="142"/>
+      <c r="EA3" s="143"/>
+      <c r="EB3" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="EC3" s="126"/>
-      <c r="ED3" s="126"/>
-      <c r="EE3" s="126"/>
-      <c r="EF3" s="126"/>
-      <c r="EG3" s="126"/>
-      <c r="EH3" s="127"/>
-      <c r="EI3" s="128" t="s">
+      <c r="EC3" s="142"/>
+      <c r="ED3" s="142"/>
+      <c r="EE3" s="142"/>
+      <c r="EF3" s="142"/>
+      <c r="EG3" s="142"/>
+      <c r="EH3" s="143"/>
+      <c r="EI3" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="EJ3" s="126"/>
-      <c r="EK3" s="126"/>
-      <c r="EL3" s="126"/>
-      <c r="EM3" s="126"/>
-      <c r="EN3" s="126"/>
-      <c r="EO3" s="127"/>
-      <c r="EP3" s="128" t="s">
+      <c r="EJ3" s="142"/>
+      <c r="EK3" s="142"/>
+      <c r="EL3" s="142"/>
+      <c r="EM3" s="142"/>
+      <c r="EN3" s="142"/>
+      <c r="EO3" s="143"/>
+      <c r="EP3" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="EQ3" s="126"/>
-      <c r="ER3" s="126"/>
-      <c r="ES3" s="126"/>
-      <c r="ET3" s="126"/>
-      <c r="EU3" s="126"/>
-      <c r="EV3" s="127"/>
-      <c r="EW3" s="128" t="s">
+      <c r="EQ3" s="142"/>
+      <c r="ER3" s="142"/>
+      <c r="ES3" s="142"/>
+      <c r="ET3" s="142"/>
+      <c r="EU3" s="142"/>
+      <c r="EV3" s="143"/>
+      <c r="EW3" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="EX3" s="126"/>
-      <c r="EY3" s="126"/>
-      <c r="EZ3" s="126"/>
-      <c r="FA3" s="126"/>
-      <c r="FB3" s="126"/>
-      <c r="FC3" s="127"/>
-      <c r="FD3" s="129" t="s">
+      <c r="EX3" s="142"/>
+      <c r="EY3" s="142"/>
+      <c r="EZ3" s="142"/>
+      <c r="FA3" s="142"/>
+      <c r="FB3" s="142"/>
+      <c r="FC3" s="143"/>
+      <c r="FD3" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="FE3" s="130"/>
-      <c r="FF3" s="122"/>
-      <c r="FG3" s="122"/>
-      <c r="FH3" s="122"/>
-      <c r="FI3" s="122"/>
-      <c r="FJ3" s="123"/>
-      <c r="FK3" s="121" t="s">
+      <c r="FE3" s="146"/>
+      <c r="FF3" s="138"/>
+      <c r="FG3" s="138"/>
+      <c r="FH3" s="138"/>
+      <c r="FI3" s="138"/>
+      <c r="FJ3" s="139"/>
+      <c r="FK3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="FL3" s="122"/>
-      <c r="FM3" s="122"/>
-      <c r="FN3" s="122"/>
-      <c r="FO3" s="122"/>
-      <c r="FP3" s="122"/>
-      <c r="FQ3" s="123"/>
-      <c r="FR3" s="121" t="s">
+      <c r="FL3" s="138"/>
+      <c r="FM3" s="138"/>
+      <c r="FN3" s="138"/>
+      <c r="FO3" s="138"/>
+      <c r="FP3" s="138"/>
+      <c r="FQ3" s="139"/>
+      <c r="FR3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="FS3" s="122"/>
-      <c r="FT3" s="122"/>
-      <c r="FU3" s="122"/>
-      <c r="FV3" s="122"/>
-      <c r="FW3" s="122"/>
-      <c r="FX3" s="123"/>
-      <c r="FY3" s="121" t="s">
+      <c r="FS3" s="138"/>
+      <c r="FT3" s="138"/>
+      <c r="FU3" s="138"/>
+      <c r="FV3" s="138"/>
+      <c r="FW3" s="138"/>
+      <c r="FX3" s="139"/>
+      <c r="FY3" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="FZ3" s="122"/>
-      <c r="GA3" s="122"/>
-      <c r="GB3" s="122"/>
-      <c r="GC3" s="122"/>
-      <c r="GD3" s="122"/>
-      <c r="GE3" s="123"/>
-      <c r="GF3" s="124" t="s">
+      <c r="FZ3" s="138"/>
+      <c r="GA3" s="138"/>
+      <c r="GB3" s="138"/>
+      <c r="GC3" s="138"/>
+      <c r="GD3" s="138"/>
+      <c r="GE3" s="139"/>
+      <c r="GF3" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="GG3" s="125"/>
-      <c r="GH3" s="125"/>
-      <c r="GI3" s="125"/>
-      <c r="GJ3" s="125"/>
-      <c r="GK3" s="126"/>
-      <c r="GL3" s="127"/>
-      <c r="GM3" s="128" t="s">
+      <c r="GG3" s="141"/>
+      <c r="GH3" s="141"/>
+      <c r="GI3" s="141"/>
+      <c r="GJ3" s="141"/>
+      <c r="GK3" s="142"/>
+      <c r="GL3" s="143"/>
+      <c r="GM3" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="GN3" s="126"/>
-      <c r="GO3" s="126"/>
-      <c r="GP3" s="126"/>
-      <c r="GQ3" s="126"/>
-      <c r="GR3" s="126"/>
-      <c r="GS3" s="127"/>
-      <c r="GT3" s="128" t="s">
+      <c r="GN3" s="142"/>
+      <c r="GO3" s="142"/>
+      <c r="GP3" s="142"/>
+      <c r="GQ3" s="142"/>
+      <c r="GR3" s="142"/>
+      <c r="GS3" s="143"/>
+      <c r="GT3" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="GU3" s="126"/>
-      <c r="GV3" s="126"/>
-      <c r="GW3" s="126"/>
-      <c r="GX3" s="126"/>
-      <c r="GY3" s="126"/>
-      <c r="GZ3" s="127"/>
-      <c r="HA3" s="121" t="s">
+      <c r="GU3" s="142"/>
+      <c r="GV3" s="142"/>
+      <c r="GW3" s="142"/>
+      <c r="GX3" s="142"/>
+      <c r="GY3" s="142"/>
+      <c r="GZ3" s="143"/>
+      <c r="HA3" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="HB3" s="122"/>
-      <c r="HC3" s="122"/>
-      <c r="HD3" s="122"/>
-      <c r="HE3" s="122"/>
-      <c r="HF3" s="122"/>
-      <c r="HG3" s="123"/>
-      <c r="HH3" s="121" t="s">
+      <c r="HB3" s="138"/>
+      <c r="HC3" s="138"/>
+      <c r="HD3" s="138"/>
+      <c r="HE3" s="138"/>
+      <c r="HF3" s="138"/>
+      <c r="HG3" s="139"/>
+      <c r="HH3" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="HI3" s="122"/>
-      <c r="HJ3" s="122"/>
-      <c r="HK3" s="122"/>
-      <c r="HL3" s="122"/>
-      <c r="HM3" s="122"/>
-      <c r="HN3" s="123"/>
-      <c r="HO3" s="129" t="s">
+      <c r="HI3" s="138"/>
+      <c r="HJ3" s="138"/>
+      <c r="HK3" s="138"/>
+      <c r="HL3" s="138"/>
+      <c r="HM3" s="138"/>
+      <c r="HN3" s="139"/>
+      <c r="HO3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="HP3" s="130"/>
-      <c r="HQ3" s="130"/>
-      <c r="HR3" s="130"/>
-      <c r="HS3" s="130"/>
-      <c r="HT3" s="130"/>
-      <c r="HU3" s="131"/>
-      <c r="HV3" s="73" t="s">
+      <c r="HP3" s="146"/>
+      <c r="HQ3" s="146"/>
+      <c r="HR3" s="146"/>
+      <c r="HS3" s="146"/>
+      <c r="HT3" s="146"/>
+      <c r="HU3" s="147"/>
+      <c r="HV3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="IC3" s="108" t="s">
+      <c r="IC3" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="ID3" s="109"/>
-      <c r="IE3" s="109"/>
-      <c r="IF3" s="109"/>
-      <c r="IG3" s="109"/>
-      <c r="IH3" s="109"/>
-      <c r="II3" s="110"/>
-      <c r="IJ3" s="74" t="s">
+      <c r="ID3" s="125"/>
+      <c r="IE3" s="125"/>
+      <c r="IF3" s="125"/>
+      <c r="IG3" s="125"/>
+      <c r="IH3" s="125"/>
+      <c r="II3" s="126"/>
+      <c r="IJ3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="IK3" s="75"/>
-      <c r="IL3" s="75"/>
-      <c r="IM3" s="75"/>
-      <c r="IN3" s="75"/>
-      <c r="IO3" s="77"/>
-      <c r="IP3" s="108" t="s">
+      <c r="IK3" s="74"/>
+      <c r="IL3" s="74"/>
+      <c r="IM3" s="74"/>
+      <c r="IN3" s="74"/>
+      <c r="IO3" s="76"/>
+      <c r="IP3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="IQ3" s="109"/>
-      <c r="IR3" s="109"/>
-      <c r="IS3" s="109"/>
-      <c r="IT3" s="109"/>
-      <c r="IU3" s="109"/>
-      <c r="IV3" s="110"/>
+      <c r="IQ3" s="125"/>
+      <c r="IR3" s="125"/>
+      <c r="IS3" s="125"/>
+      <c r="IT3" s="125"/>
+      <c r="IU3" s="125"/>
+      <c r="IV3" s="126"/>
     </row>
     <row r="4" spans="1:256" s="2" customFormat="1">
       <c r="C4" s="10"/>
@@ -2808,7 +2957,7 @@
       <c r="DF4" s="24">
         <v>8</v>
       </c>
-      <c r="DG4" s="59">
+      <c r="DG4" s="58">
         <v>9</v>
       </c>
       <c r="DH4" s="13">
@@ -2847,7 +2996,7 @@
       <c r="DS4" s="13">
         <v>21</v>
       </c>
-      <c r="DT4" s="66">
+      <c r="DT4" s="65">
         <v>22</v>
       </c>
       <c r="DU4" s="12">
@@ -3186,7 +3335,7 @@
       <c r="IB4" s="24">
         <v>14</v>
       </c>
-      <c r="IC4" s="59">
+      <c r="IC4" s="58">
         <v>15</v>
       </c>
       <c r="ID4" s="8">
@@ -3204,10 +3353,10 @@
       <c r="IH4" s="8">
         <v>20</v>
       </c>
-      <c r="II4" s="76">
+      <c r="II4" s="75">
         <v>21</v>
       </c>
-      <c r="IJ4" s="59">
+      <c r="IJ4" s="58">
         <v>22</v>
       </c>
       <c r="IK4" s="13">
@@ -3225,7 +3374,7 @@
       <c r="IO4" s="24">
         <v>27</v>
       </c>
-      <c r="IP4" s="59">
+      <c r="IP4" s="58">
         <v>28</v>
       </c>
       <c r="IQ4" s="13">
@@ -3243,7 +3392,7 @@
       <c r="IU4" s="13">
         <v>2</v>
       </c>
-      <c r="IV4" s="66">
+      <c r="IV4" s="65">
         <v>3</v>
       </c>
     </row>
@@ -3290,10 +3439,10 @@
       <c r="CS5" s="26"/>
       <c r="CY5" s="11"/>
       <c r="CZ5" s="26"/>
-      <c r="DG5" s="60"/>
+      <c r="DG5" s="59"/>
       <c r="DM5" s="11"/>
       <c r="DN5" s="26"/>
-      <c r="DT5" s="67"/>
+      <c r="DT5" s="66"/>
       <c r="EA5" s="11"/>
       <c r="EB5" s="26"/>
       <c r="EH5" s="11"/>
@@ -3337,12 +3486,12 @@
       <c r="HT5" s="52"/>
       <c r="HU5" s="11"/>
       <c r="HV5" s="26"/>
-      <c r="IC5" s="60"/>
-      <c r="II5" s="67"/>
-      <c r="IJ5" s="60"/>
-      <c r="IO5" s="67"/>
-      <c r="IP5" s="60"/>
-      <c r="IV5" s="67"/>
+      <c r="IC5" s="59"/>
+      <c r="II5" s="66"/>
+      <c r="IJ5" s="59"/>
+      <c r="IO5" s="66"/>
+      <c r="IP5" s="59"/>
+      <c r="IV5" s="66"/>
     </row>
     <row r="6" spans="1:256" s="2" customFormat="1" ht="16">
       <c r="A6" s="16" t="s">
@@ -3397,10 +3546,10 @@
       <c r="CS6" s="26"/>
       <c r="CY6" s="11"/>
       <c r="CZ6" s="26"/>
-      <c r="DG6" s="60"/>
+      <c r="DG6" s="59"/>
       <c r="DM6" s="11"/>
       <c r="DN6" s="26"/>
-      <c r="DT6" s="67"/>
+      <c r="DT6" s="66"/>
       <c r="EA6" s="11"/>
       <c r="EB6" s="26"/>
       <c r="EH6" s="11"/>
@@ -3444,12 +3593,12 @@
       <c r="HT6" s="52"/>
       <c r="HU6" s="11"/>
       <c r="HV6" s="26"/>
-      <c r="IC6" s="60"/>
-      <c r="II6" s="67"/>
-      <c r="IJ6" s="60"/>
-      <c r="IO6" s="67"/>
-      <c r="IP6" s="60"/>
-      <c r="IV6" s="67"/>
+      <c r="IC6" s="59"/>
+      <c r="II6" s="66"/>
+      <c r="IJ6" s="59"/>
+      <c r="IO6" s="66"/>
+      <c r="IP6" s="59"/>
+      <c r="IV6" s="66"/>
     </row>
     <row r="7" spans="1:256" ht="16">
       <c r="A7" s="18">
@@ -3504,10 +3653,10 @@
       <c r="CS7" s="33"/>
       <c r="CY7" s="28"/>
       <c r="CZ7" s="33"/>
-      <c r="DG7" s="61"/>
+      <c r="DG7" s="60"/>
       <c r="DM7" s="28"/>
       <c r="DN7" s="33"/>
-      <c r="DT7" s="68"/>
+      <c r="DT7" s="67"/>
       <c r="EA7" s="28"/>
       <c r="EB7" s="33"/>
       <c r="EH7" s="28"/>
@@ -3551,12 +3700,12 @@
       <c r="HT7" s="54"/>
       <c r="HU7" s="28"/>
       <c r="HV7" s="33"/>
-      <c r="IC7" s="61"/>
-      <c r="II7" s="68"/>
-      <c r="IJ7" s="61"/>
-      <c r="IO7" s="68"/>
-      <c r="IP7" s="61"/>
-      <c r="IV7" s="68"/>
+      <c r="IC7" s="60"/>
+      <c r="II7" s="67"/>
+      <c r="IJ7" s="60"/>
+      <c r="IO7" s="67"/>
+      <c r="IP7" s="60"/>
+      <c r="IV7" s="67"/>
     </row>
     <row r="8" spans="1:256">
       <c r="A8" s="18">
@@ -3612,10 +3761,10 @@
       <c r="CS8" s="33"/>
       <c r="CY8" s="28"/>
       <c r="CZ8" s="33"/>
-      <c r="DG8" s="61"/>
+      <c r="DG8" s="60"/>
       <c r="DM8" s="28"/>
       <c r="DN8" s="33"/>
-      <c r="DT8" s="68"/>
+      <c r="DT8" s="67"/>
       <c r="EA8" s="28"/>
       <c r="EB8" s="33"/>
       <c r="EH8" s="28"/>
@@ -3659,12 +3808,12 @@
       <c r="HT8" s="54"/>
       <c r="HU8" s="28"/>
       <c r="HV8" s="33"/>
-      <c r="IC8" s="61"/>
-      <c r="II8" s="68"/>
-      <c r="IJ8" s="61"/>
-      <c r="IO8" s="68"/>
-      <c r="IP8" s="61"/>
-      <c r="IV8" s="68"/>
+      <c r="IC8" s="60"/>
+      <c r="II8" s="67"/>
+      <c r="IJ8" s="60"/>
+      <c r="IO8" s="67"/>
+      <c r="IP8" s="60"/>
+      <c r="IV8" s="67"/>
     </row>
     <row r="9" spans="1:256" ht="32">
       <c r="A9" s="18">
@@ -3683,8 +3832,8 @@
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="30"/>
       <c r="S9" s="28"/>
       <c r="T9" s="33"/>
@@ -3720,10 +3869,10 @@
       <c r="CS9" s="33"/>
       <c r="CY9" s="28"/>
       <c r="CZ9" s="33"/>
-      <c r="DG9" s="61"/>
+      <c r="DG9" s="60"/>
       <c r="DM9" s="28"/>
       <c r="DN9" s="33"/>
-      <c r="DT9" s="68"/>
+      <c r="DT9" s="67"/>
       <c r="EA9" s="28"/>
       <c r="EB9" s="33"/>
       <c r="EH9" s="28"/>
@@ -3767,12 +3916,12 @@
       <c r="HT9" s="54"/>
       <c r="HU9" s="28"/>
       <c r="HV9" s="33"/>
-      <c r="IC9" s="61"/>
-      <c r="II9" s="68"/>
-      <c r="IJ9" s="61"/>
-      <c r="IO9" s="68"/>
-      <c r="IP9" s="61"/>
-      <c r="IV9" s="68"/>
+      <c r="IC9" s="60"/>
+      <c r="II9" s="67"/>
+      <c r="IJ9" s="60"/>
+      <c r="IO9" s="67"/>
+      <c r="IP9" s="60"/>
+      <c r="IV9" s="67"/>
     </row>
     <row r="10" spans="1:256" ht="32">
       <c r="A10" s="18">
@@ -3827,10 +3976,10 @@
       <c r="CS10" s="33"/>
       <c r="CY10" s="28"/>
       <c r="CZ10" s="33"/>
-      <c r="DG10" s="61"/>
+      <c r="DG10" s="60"/>
       <c r="DM10" s="28"/>
       <c r="DN10" s="33"/>
-      <c r="DT10" s="68"/>
+      <c r="DT10" s="67"/>
       <c r="EA10" s="28"/>
       <c r="EB10" s="33"/>
       <c r="EH10" s="28"/>
@@ -3874,12 +4023,12 @@
       <c r="HT10" s="54"/>
       <c r="HU10" s="28"/>
       <c r="HV10" s="33"/>
-      <c r="IC10" s="61"/>
-      <c r="II10" s="68"/>
-      <c r="IJ10" s="61"/>
-      <c r="IO10" s="68"/>
-      <c r="IP10" s="61"/>
-      <c r="IV10" s="68"/>
+      <c r="IC10" s="60"/>
+      <c r="II10" s="67"/>
+      <c r="IJ10" s="60"/>
+      <c r="IO10" s="67"/>
+      <c r="IP10" s="60"/>
+      <c r="IV10" s="67"/>
     </row>
     <row r="11" spans="1:256" ht="16">
       <c r="A11" s="18">
@@ -3934,10 +4083,10 @@
       <c r="CS11" s="33"/>
       <c r="CY11" s="28"/>
       <c r="CZ11" s="33"/>
-      <c r="DG11" s="61"/>
+      <c r="DG11" s="60"/>
       <c r="DM11" s="28"/>
       <c r="DN11" s="33"/>
-      <c r="DT11" s="68"/>
+      <c r="DT11" s="67"/>
       <c r="EA11" s="28"/>
       <c r="EB11" s="33"/>
       <c r="EH11" s="28"/>
@@ -3981,12 +4130,12 @@
       <c r="HT11" s="54"/>
       <c r="HU11" s="28"/>
       <c r="HV11" s="33"/>
-      <c r="IC11" s="61"/>
-      <c r="II11" s="68"/>
-      <c r="IJ11" s="61"/>
-      <c r="IO11" s="68"/>
-      <c r="IP11" s="61"/>
-      <c r="IV11" s="68"/>
+      <c r="IC11" s="60"/>
+      <c r="II11" s="67"/>
+      <c r="IJ11" s="60"/>
+      <c r="IO11" s="67"/>
+      <c r="IP11" s="60"/>
+      <c r="IV11" s="67"/>
     </row>
     <row r="12" spans="1:256" ht="20" customHeight="1">
       <c r="A12" s="18">
@@ -4041,10 +4190,10 @@
       <c r="CS12" s="33"/>
       <c r="CY12" s="28"/>
       <c r="CZ12" s="33"/>
-      <c r="DG12" s="61"/>
+      <c r="DG12" s="60"/>
       <c r="DM12" s="28"/>
       <c r="DN12" s="33"/>
-      <c r="DT12" s="68"/>
+      <c r="DT12" s="67"/>
       <c r="EA12" s="28"/>
       <c r="EB12" s="33"/>
       <c r="EH12" s="28"/>
@@ -4088,12 +4237,12 @@
       <c r="HT12" s="54"/>
       <c r="HU12" s="28"/>
       <c r="HV12" s="33"/>
-      <c r="IC12" s="61"/>
-      <c r="II12" s="68"/>
-      <c r="IJ12" s="61"/>
-      <c r="IO12" s="68"/>
-      <c r="IP12" s="61"/>
-      <c r="IV12" s="68"/>
+      <c r="IC12" s="60"/>
+      <c r="II12" s="67"/>
+      <c r="IJ12" s="60"/>
+      <c r="IO12" s="67"/>
+      <c r="IP12" s="60"/>
+      <c r="IV12" s="67"/>
     </row>
     <row r="13" spans="1:256" ht="48">
       <c r="A13" s="18">
@@ -4148,10 +4297,10 @@
       <c r="CS13" s="33"/>
       <c r="CY13" s="28"/>
       <c r="CZ13" s="33"/>
-      <c r="DG13" s="61"/>
+      <c r="DG13" s="60"/>
       <c r="DM13" s="28"/>
       <c r="DN13" s="33"/>
-      <c r="DT13" s="68"/>
+      <c r="DT13" s="67"/>
       <c r="EA13" s="28"/>
       <c r="EB13" s="33"/>
       <c r="EH13" s="28"/>
@@ -4195,12 +4344,12 @@
       <c r="HT13" s="54"/>
       <c r="HU13" s="28"/>
       <c r="HV13" s="33"/>
-      <c r="IC13" s="61"/>
-      <c r="II13" s="68"/>
-      <c r="IJ13" s="61"/>
-      <c r="IO13" s="68"/>
-      <c r="IP13" s="61"/>
-      <c r="IV13" s="68"/>
+      <c r="IC13" s="60"/>
+      <c r="II13" s="67"/>
+      <c r="IJ13" s="60"/>
+      <c r="IO13" s="67"/>
+      <c r="IP13" s="60"/>
+      <c r="IV13" s="67"/>
     </row>
     <row r="14" spans="1:256" ht="16">
       <c r="A14" s="18">
@@ -4255,10 +4404,10 @@
       <c r="CS14" s="33"/>
       <c r="CY14" s="28"/>
       <c r="CZ14" s="33"/>
-      <c r="DG14" s="61"/>
+      <c r="DG14" s="60"/>
       <c r="DM14" s="28"/>
       <c r="DN14" s="33"/>
-      <c r="DT14" s="68"/>
+      <c r="DT14" s="67"/>
       <c r="EA14" s="28"/>
       <c r="EB14" s="33"/>
       <c r="EH14" s="28"/>
@@ -4302,12 +4451,12 @@
       <c r="HT14" s="54"/>
       <c r="HU14" s="28"/>
       <c r="HV14" s="33"/>
-      <c r="IC14" s="61"/>
-      <c r="II14" s="68"/>
-      <c r="IJ14" s="61"/>
-      <c r="IO14" s="68"/>
-      <c r="IP14" s="61"/>
-      <c r="IV14" s="68"/>
+      <c r="IC14" s="60"/>
+      <c r="II14" s="67"/>
+      <c r="IJ14" s="60"/>
+      <c r="IO14" s="67"/>
+      <c r="IP14" s="60"/>
+      <c r="IV14" s="67"/>
     </row>
     <row r="15" spans="1:256" ht="48">
       <c r="A15" s="18">
@@ -4316,11 +4465,11 @@
       <c r="B15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>57</v>
+      <c r="C15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -4363,10 +4512,10 @@
       <c r="CS15" s="33"/>
       <c r="CY15" s="28"/>
       <c r="CZ15" s="33"/>
-      <c r="DG15" s="61"/>
+      <c r="DG15" s="60"/>
       <c r="DM15" s="28"/>
       <c r="DN15" s="33"/>
-      <c r="DT15" s="68"/>
+      <c r="DT15" s="67"/>
       <c r="EA15" s="28"/>
       <c r="EB15" s="33"/>
       <c r="EH15" s="28"/>
@@ -4410,12 +4559,12 @@
       <c r="HT15" s="54"/>
       <c r="HU15" s="28"/>
       <c r="HV15" s="33"/>
-      <c r="IC15" s="61"/>
-      <c r="II15" s="68"/>
-      <c r="IJ15" s="61"/>
-      <c r="IO15" s="68"/>
-      <c r="IP15" s="61"/>
-      <c r="IV15" s="68"/>
+      <c r="IC15" s="60"/>
+      <c r="II15" s="67"/>
+      <c r="IJ15" s="60"/>
+      <c r="IO15" s="67"/>
+      <c r="IP15" s="60"/>
+      <c r="IV15" s="67"/>
     </row>
     <row r="16" spans="1:256" ht="16">
       <c r="A16" s="18">
@@ -4425,7 +4574,7 @@
         <v>65</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>59</v>
@@ -4470,10 +4619,10 @@
       <c r="CS16" s="33"/>
       <c r="CY16" s="28"/>
       <c r="CZ16" s="33"/>
-      <c r="DG16" s="61"/>
+      <c r="DG16" s="60"/>
       <c r="DM16" s="28"/>
       <c r="DN16" s="33"/>
-      <c r="DT16" s="68"/>
+      <c r="DT16" s="67"/>
       <c r="EA16" s="28"/>
       <c r="EB16" s="33"/>
       <c r="EH16" s="28"/>
@@ -4517,22 +4666,22 @@
       <c r="HT16" s="54"/>
       <c r="HU16" s="28"/>
       <c r="HV16" s="33"/>
-      <c r="IC16" s="61"/>
-      <c r="II16" s="68"/>
-      <c r="IJ16" s="61"/>
-      <c r="IO16" s="68"/>
-      <c r="IP16" s="61"/>
-      <c r="IV16" s="68"/>
+      <c r="IC16" s="60"/>
+      <c r="II16" s="67"/>
+      <c r="IJ16" s="60"/>
+      <c r="IO16" s="67"/>
+      <c r="IP16" s="60"/>
+      <c r="IV16" s="67"/>
     </row>
     <row r="17" spans="1:256" ht="32">
       <c r="A17" s="18">
         <v>3.1</v>
       </c>
       <c r="B17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>71</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>59</v>
@@ -4544,13 +4693,13 @@
       <c r="M17" s="33"/>
       <c r="O17" s="30"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
       <c r="AA17" s="33"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="33"/>
@@ -4582,10 +4731,10 @@
       <c r="CS17" s="33"/>
       <c r="CY17" s="28"/>
       <c r="CZ17" s="33"/>
-      <c r="DG17" s="61"/>
+      <c r="DG17" s="60"/>
       <c r="DM17" s="28"/>
       <c r="DN17" s="33"/>
-      <c r="DT17" s="68"/>
+      <c r="DT17" s="67"/>
       <c r="EA17" s="28"/>
       <c r="EB17" s="33"/>
       <c r="EH17" s="28"/>
@@ -4629,22 +4778,22 @@
       <c r="HT17" s="54"/>
       <c r="HU17" s="28"/>
       <c r="HV17" s="33"/>
-      <c r="IC17" s="61"/>
-      <c r="II17" s="68"/>
-      <c r="IJ17" s="61"/>
-      <c r="IO17" s="68"/>
-      <c r="IP17" s="61"/>
-      <c r="IV17" s="68"/>
+      <c r="IC17" s="60"/>
+      <c r="II17" s="67"/>
+      <c r="IJ17" s="60"/>
+      <c r="IO17" s="67"/>
+      <c r="IP17" s="60"/>
+      <c r="IV17" s="67"/>
     </row>
     <row r="18" spans="1:256" ht="16">
       <c r="A18" s="18">
         <v>3.2</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4654,11 +4803,11 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="33"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="116"/>
-      <c r="Q18" s="116"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="117"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
       <c r="T18" s="33"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="33"/>
@@ -4692,10 +4841,10 @@
       <c r="CS18" s="33"/>
       <c r="CY18" s="28"/>
       <c r="CZ18" s="33"/>
-      <c r="DG18" s="61"/>
+      <c r="DG18" s="60"/>
       <c r="DM18" s="28"/>
       <c r="DN18" s="33"/>
-      <c r="DT18" s="68"/>
+      <c r="DT18" s="67"/>
       <c r="EA18" s="28"/>
       <c r="EB18" s="33"/>
       <c r="EH18" s="28"/>
@@ -4739,22 +4888,22 @@
       <c r="HT18" s="54"/>
       <c r="HU18" s="28"/>
       <c r="HV18" s="33"/>
-      <c r="IC18" s="61"/>
-      <c r="II18" s="68"/>
-      <c r="IJ18" s="61"/>
-      <c r="IO18" s="68"/>
-      <c r="IP18" s="61"/>
-      <c r="IV18" s="68"/>
+      <c r="IC18" s="60"/>
+      <c r="II18" s="67"/>
+      <c r="IJ18" s="60"/>
+      <c r="IO18" s="67"/>
+      <c r="IP18" s="60"/>
+      <c r="IV18" s="67"/>
     </row>
     <row r="19" spans="1:256" ht="16">
       <c r="A19" s="18">
         <v>3.3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>59</v>
@@ -4804,10 +4953,10 @@
       <c r="CS19" s="33"/>
       <c r="CY19" s="28"/>
       <c r="CZ19" s="33"/>
-      <c r="DG19" s="61"/>
+      <c r="DG19" s="60"/>
       <c r="DM19" s="28"/>
       <c r="DN19" s="33"/>
-      <c r="DT19" s="68"/>
+      <c r="DT19" s="67"/>
       <c r="EA19" s="28"/>
       <c r="EB19" s="33"/>
       <c r="EH19" s="28"/>
@@ -4851,22 +5000,22 @@
       <c r="HT19" s="54"/>
       <c r="HU19" s="28"/>
       <c r="HV19" s="33"/>
-      <c r="IC19" s="61"/>
-      <c r="II19" s="68"/>
-      <c r="IJ19" s="61"/>
-      <c r="IO19" s="68"/>
-      <c r="IP19" s="61"/>
-      <c r="IV19" s="68"/>
+      <c r="IC19" s="60"/>
+      <c r="II19" s="67"/>
+      <c r="IJ19" s="60"/>
+      <c r="IO19" s="67"/>
+      <c r="IP19" s="60"/>
+      <c r="IV19" s="67"/>
     </row>
     <row r="20" spans="1:256" ht="16">
       <c r="A20" s="18">
         <v>3.4</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>59</v>
@@ -4888,11 +5037,11 @@
       <c r="AO20" s="33"/>
       <c r="AU20" s="28"/>
       <c r="AV20" s="33"/>
-      <c r="AX20" s="118"/>
-      <c r="AY20" s="118"/>
-      <c r="AZ20" s="118"/>
-      <c r="BA20" s="118"/>
-      <c r="BB20" s="119"/>
+      <c r="AX20" s="134"/>
+      <c r="AY20" s="134"/>
+      <c r="AZ20" s="134"/>
+      <c r="BA20" s="134"/>
+      <c r="BB20" s="135"/>
       <c r="BC20" s="33"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="47"/>
@@ -4916,10 +5065,10 @@
       <c r="CS20" s="33"/>
       <c r="CY20" s="28"/>
       <c r="CZ20" s="33"/>
-      <c r="DG20" s="61"/>
+      <c r="DG20" s="60"/>
       <c r="DM20" s="28"/>
       <c r="DN20" s="33"/>
-      <c r="DT20" s="68"/>
+      <c r="DT20" s="67"/>
       <c r="EA20" s="28"/>
       <c r="EI20" s="33"/>
       <c r="EO20" s="28"/>
@@ -4960,22 +5109,22 @@
       <c r="HT20" s="54"/>
       <c r="HU20" s="28"/>
       <c r="HV20" s="33"/>
-      <c r="IC20" s="61"/>
-      <c r="II20" s="68"/>
-      <c r="IJ20" s="61"/>
-      <c r="IO20" s="68"/>
-      <c r="IP20" s="61"/>
-      <c r="IV20" s="68"/>
+      <c r="IC20" s="60"/>
+      <c r="II20" s="67"/>
+      <c r="IJ20" s="60"/>
+      <c r="IO20" s="67"/>
+      <c r="IP20" s="60"/>
+      <c r="IV20" s="67"/>
     </row>
     <row r="21" spans="1:256" ht="16">
       <c r="A21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>62</v>
@@ -5016,49 +5165,48 @@
       <c r="CL21" s="33"/>
       <c r="CS21" s="33"/>
       <c r="CZ21" s="33"/>
-      <c r="DG21" s="61"/>
+      <c r="DG21" s="60"/>
       <c r="DN21" s="33"/>
-      <c r="DT21" s="68"/>
+      <c r="DT21" s="67"/>
       <c r="EB21" s="33"/>
       <c r="EH21" s="28"/>
       <c r="EI21" s="33"/>
-      <c r="EO21" s="28"/>
-      <c r="EP21" s="120"/>
-      <c r="EQ21" s="118"/>
-      <c r="ER21" s="118"/>
-      <c r="ES21" s="118"/>
-      <c r="ET21" s="118"/>
-      <c r="EU21" s="118"/>
-      <c r="EV21" s="118"/>
-      <c r="EW21" s="120"/>
-      <c r="EX21" s="118"/>
-      <c r="EY21" s="118"/>
-      <c r="EZ21" s="118"/>
-      <c r="FA21" s="118"/>
-      <c r="FB21" s="118"/>
-      <c r="FC21" s="118"/>
-      <c r="FD21" s="120"/>
-      <c r="FE21" s="118"/>
-      <c r="FF21" s="118"/>
-      <c r="FG21" s="118"/>
-      <c r="FH21" s="118"/>
-      <c r="FI21" s="118"/>
-      <c r="FJ21" s="118"/>
-      <c r="FK21" s="120"/>
-      <c r="FL21" s="118"/>
-      <c r="FM21" s="118"/>
-      <c r="FN21" s="118"/>
-      <c r="FO21" s="118"/>
-      <c r="FP21" s="118"/>
-      <c r="FQ21" s="118"/>
-      <c r="FR21" s="120"/>
-      <c r="FS21" s="118"/>
-      <c r="FT21" s="118"/>
-      <c r="FU21" s="118"/>
-      <c r="FV21" s="118"/>
-      <c r="FW21" s="118"/>
-      <c r="FX21" s="118"/>
-      <c r="FY21" s="47"/>
+      <c r="EP21" s="136"/>
+      <c r="EQ21" s="134"/>
+      <c r="ER21" s="134"/>
+      <c r="ES21" s="134"/>
+      <c r="ET21" s="134"/>
+      <c r="EU21" s="134"/>
+      <c r="EV21" s="134"/>
+      <c r="EW21" s="134"/>
+      <c r="EX21" s="134"/>
+      <c r="EY21" s="134"/>
+      <c r="EZ21" s="134"/>
+      <c r="FA21" s="134"/>
+      <c r="FB21" s="134"/>
+      <c r="FC21" s="134"/>
+      <c r="FD21" s="134"/>
+      <c r="FE21" s="134"/>
+      <c r="FF21" s="134"/>
+      <c r="FG21" s="134"/>
+      <c r="FH21" s="134"/>
+      <c r="FI21" s="134"/>
+      <c r="FJ21" s="134"/>
+      <c r="FK21" s="134"/>
+      <c r="FL21" s="134"/>
+      <c r="FM21" s="134"/>
+      <c r="FN21" s="134"/>
+      <c r="FO21" s="134"/>
+      <c r="FP21" s="134"/>
+      <c r="FQ21" s="134"/>
+      <c r="FR21" s="134"/>
+      <c r="FS21" s="134"/>
+      <c r="FT21" s="134"/>
+      <c r="FU21" s="134"/>
+      <c r="FV21" s="134"/>
+      <c r="FW21" s="134"/>
+      <c r="FX21" s="135"/>
+      <c r="FY21" s="30"/>
       <c r="FZ21" s="30"/>
       <c r="GA21" s="30"/>
       <c r="GB21" s="30"/>
@@ -5080,25 +5228,25 @@
       <c r="HT21" s="54"/>
       <c r="HU21" s="28"/>
       <c r="HV21" s="33"/>
-      <c r="IC21" s="61"/>
-      <c r="II21" s="68"/>
-      <c r="IJ21" s="61"/>
-      <c r="IO21" s="68"/>
-      <c r="IP21" s="61"/>
-      <c r="IV21" s="68"/>
+      <c r="IC21" s="60"/>
+      <c r="II21" s="67"/>
+      <c r="IJ21" s="60"/>
+      <c r="IO21" s="67"/>
+      <c r="IP21" s="60"/>
+      <c r="IV21" s="67"/>
     </row>
     <row r="22" spans="1:256" ht="16">
       <c r="A22" s="18">
         <v>3.6</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>77</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>78</v>
       </c>
       <c r="E22" s="21">
         <v>1</v>
@@ -5140,10 +5288,10 @@
       <c r="CS22" s="33"/>
       <c r="CY22" s="28"/>
       <c r="CZ22" s="33"/>
-      <c r="DG22" s="61"/>
+      <c r="DG22" s="60"/>
       <c r="DM22" s="28"/>
       <c r="DN22" s="33"/>
-      <c r="DT22" s="68"/>
+      <c r="DT22" s="67"/>
       <c r="EA22" s="28"/>
       <c r="EB22" s="33"/>
       <c r="EH22" s="28"/>
@@ -5151,7 +5299,7 @@
       <c r="EO22" s="28"/>
       <c r="EP22" s="33"/>
       <c r="ER22" s="30"/>
-      <c r="ET22" s="70"/>
+      <c r="ET22" s="95"/>
       <c r="EV22" s="28"/>
       <c r="EW22" s="33"/>
       <c r="FC22" s="28"/>
@@ -5188,22 +5336,22 @@
       <c r="HT22" s="54"/>
       <c r="HU22" s="28"/>
       <c r="HV22" s="33"/>
-      <c r="IC22" s="61"/>
-      <c r="II22" s="68"/>
-      <c r="IJ22" s="61"/>
-      <c r="IO22" s="68"/>
-      <c r="IP22" s="61"/>
-      <c r="IV22" s="68"/>
+      <c r="IC22" s="60"/>
+      <c r="II22" s="67"/>
+      <c r="IJ22" s="60"/>
+      <c r="IO22" s="67"/>
+      <c r="IP22" s="60"/>
+      <c r="IV22" s="67"/>
     </row>
     <row r="23" spans="1:256" ht="16">
       <c r="A23" s="18">
         <v>3.7</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>59</v>
@@ -5248,10 +5396,10 @@
       <c r="CS23" s="33"/>
       <c r="CY23" s="28"/>
       <c r="CZ23" s="33"/>
-      <c r="DG23" s="61"/>
+      <c r="DG23" s="60"/>
       <c r="DM23" s="28"/>
       <c r="DN23" s="33"/>
-      <c r="DT23" s="68"/>
+      <c r="DT23" s="67"/>
       <c r="EA23" s="28"/>
       <c r="EB23" s="33"/>
       <c r="EH23" s="28"/>
@@ -5259,7 +5407,7 @@
       <c r="EO23" s="28"/>
       <c r="EP23" s="33"/>
       <c r="ER23" s="30"/>
-      <c r="ES23" s="70"/>
+      <c r="ES23" s="69"/>
       <c r="EV23" s="28"/>
       <c r="EW23" s="33"/>
       <c r="FC23" s="28"/>
@@ -5296,25 +5444,25 @@
       <c r="HT23" s="54"/>
       <c r="HU23" s="28"/>
       <c r="HV23" s="33"/>
-      <c r="IC23" s="61"/>
-      <c r="II23" s="68"/>
-      <c r="IJ23" s="61"/>
-      <c r="IO23" s="68"/>
-      <c r="IP23" s="61"/>
-      <c r="IV23" s="68"/>
+      <c r="IC23" s="60"/>
+      <c r="II23" s="67"/>
+      <c r="IJ23" s="60"/>
+      <c r="IO23" s="67"/>
+      <c r="IP23" s="60"/>
+      <c r="IV23" s="67"/>
     </row>
     <row r="24" spans="1:256" ht="16">
       <c r="A24" s="18">
         <v>4.0999999999999996</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="E24" s="21">
         <v>1</v>
@@ -5323,20 +5471,20 @@
       <c r="M24" s="33"/>
       <c r="O24" s="30"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="103"/>
-      <c r="X24" s="103"/>
-      <c r="Y24" s="103"/>
-      <c r="Z24" s="103"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="103"/>
-      <c r="AC24" s="103"/>
-      <c r="AD24" s="103"/>
-      <c r="AE24" s="103"/>
-      <c r="AF24" s="103"/>
-      <c r="AG24" s="103"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
       <c r="AH24" s="33"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="33"/>
@@ -5365,10 +5513,10 @@
       <c r="CS24" s="33"/>
       <c r="CY24" s="28"/>
       <c r="CZ24" s="33"/>
-      <c r="DG24" s="61"/>
+      <c r="DG24" s="60"/>
       <c r="DM24" s="28"/>
       <c r="DN24" s="33"/>
-      <c r="DT24" s="68"/>
+      <c r="DT24" s="67"/>
       <c r="DU24" s="33"/>
       <c r="EA24" s="28"/>
       <c r="EB24" s="33"/>
@@ -5413,22 +5561,22 @@
       <c r="HT24" s="54"/>
       <c r="HU24" s="28"/>
       <c r="HV24" s="33"/>
-      <c r="IC24" s="61"/>
-      <c r="II24" s="68"/>
-      <c r="IJ24" s="61"/>
-      <c r="IO24" s="68"/>
-      <c r="IP24" s="61"/>
-      <c r="IV24" s="68"/>
+      <c r="IC24" s="60"/>
+      <c r="II24" s="67"/>
+      <c r="IJ24" s="60"/>
+      <c r="IO24" s="67"/>
+      <c r="IP24" s="60"/>
+      <c r="IV24" s="67"/>
     </row>
     <row r="25" spans="1:256" ht="16">
       <c r="A25" s="18">
         <v>4.2</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>62</v>
@@ -5444,20 +5592,20 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="33"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="102"/>
-      <c r="AI25" s="103"/>
-      <c r="AJ25" s="103"/>
-      <c r="AK25" s="103"/>
-      <c r="AL25" s="103"/>
-      <c r="AM25" s="103"/>
-      <c r="AN25" s="103"/>
-      <c r="AO25" s="102"/>
-      <c r="AP25" s="103"/>
-      <c r="AQ25" s="103"/>
-      <c r="AR25" s="103"/>
-      <c r="AS25" s="103"/>
-      <c r="AT25" s="103"/>
-      <c r="AU25" s="103"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="116"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="116"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="116"/>
+      <c r="AN25" s="116"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="116"/>
+      <c r="AQ25" s="116"/>
+      <c r="AR25" s="116"/>
+      <c r="AS25" s="116"/>
+      <c r="AT25" s="116"/>
+      <c r="AU25" s="116"/>
       <c r="AV25" s="33"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="33"/>
@@ -5483,10 +5631,10 @@
       <c r="CS25" s="33"/>
       <c r="CY25" s="28"/>
       <c r="CZ25" s="33"/>
-      <c r="DG25" s="61"/>
+      <c r="DG25" s="60"/>
       <c r="DM25" s="28"/>
       <c r="DN25" s="33"/>
-      <c r="DT25" s="68"/>
+      <c r="DT25" s="67"/>
       <c r="EA25" s="28"/>
       <c r="EB25" s="33"/>
       <c r="EH25" s="28"/>
@@ -5530,25 +5678,25 @@
       <c r="HT25" s="54"/>
       <c r="HU25" s="28"/>
       <c r="HV25" s="33"/>
-      <c r="IC25" s="61"/>
-      <c r="II25" s="68"/>
-      <c r="IJ25" s="61"/>
-      <c r="IO25" s="68"/>
-      <c r="IP25" s="61"/>
-      <c r="IV25" s="68"/>
+      <c r="IC25" s="60"/>
+      <c r="II25" s="67"/>
+      <c r="IJ25" s="60"/>
+      <c r="IO25" s="67"/>
+      <c r="IP25" s="60"/>
+      <c r="IV25" s="67"/>
     </row>
     <row r="26" spans="1:256" ht="16">
       <c r="A26" s="18">
         <v>4.3</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="21">
         <v>1</v>
@@ -5565,20 +5713,20 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="33"/>
       <c r="AU26" s="28"/>
-      <c r="AV26" s="102"/>
-      <c r="AW26" s="103"/>
-      <c r="AX26" s="103"/>
-      <c r="AY26" s="103"/>
-      <c r="AZ26" s="103"/>
-      <c r="BA26" s="103"/>
-      <c r="BB26" s="103"/>
-      <c r="BC26" s="102"/>
-      <c r="BD26" s="103"/>
-      <c r="BE26" s="103"/>
-      <c r="BF26" s="103"/>
-      <c r="BG26" s="103"/>
-      <c r="BH26" s="103"/>
-      <c r="BI26" s="103"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="116"/>
+      <c r="AX26" s="116"/>
+      <c r="AY26" s="116"/>
+      <c r="AZ26" s="116"/>
+      <c r="BA26" s="116"/>
+      <c r="BB26" s="116"/>
+      <c r="BC26" s="123"/>
+      <c r="BD26" s="116"/>
+      <c r="BE26" s="116"/>
+      <c r="BF26" s="116"/>
+      <c r="BG26" s="116"/>
+      <c r="BH26" s="116"/>
+      <c r="BI26" s="116"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
@@ -5600,10 +5748,10 @@
       <c r="CS26" s="33"/>
       <c r="CY26" s="28"/>
       <c r="CZ26" s="33"/>
-      <c r="DG26" s="61"/>
+      <c r="DG26" s="60"/>
       <c r="DM26" s="28"/>
       <c r="DN26" s="33"/>
-      <c r="DT26" s="68"/>
+      <c r="DT26" s="67"/>
       <c r="EA26" s="28"/>
       <c r="EB26" s="33"/>
       <c r="EH26" s="28"/>
@@ -5647,25 +5795,25 @@
       <c r="HT26" s="54"/>
       <c r="HU26" s="28"/>
       <c r="HV26" s="33"/>
-      <c r="IC26" s="61"/>
-      <c r="II26" s="68"/>
-      <c r="IJ26" s="61"/>
-      <c r="IO26" s="68"/>
-      <c r="IP26" s="61"/>
-      <c r="IV26" s="68"/>
+      <c r="IC26" s="60"/>
+      <c r="II26" s="67"/>
+      <c r="IJ26" s="60"/>
+      <c r="IO26" s="67"/>
+      <c r="IP26" s="60"/>
+      <c r="IV26" s="67"/>
     </row>
     <row r="27" spans="1:256" ht="16">
       <c r="A27" s="18">
         <v>4.4000000000000004</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" s="21">
         <v>1</v>
@@ -5696,10 +5844,10 @@
       <c r="BQ27" s="47"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="102"/>
-      <c r="BU27" s="103"/>
-      <c r="BV27" s="103"/>
-      <c r="BW27" s="103"/>
+      <c r="BT27" s="123"/>
+      <c r="BU27" s="116"/>
+      <c r="BV27" s="116"/>
+      <c r="BW27" s="116"/>
       <c r="BX27" s="47"/>
       <c r="CD27" s="28"/>
       <c r="CE27" s="33"/>
@@ -5709,10 +5857,10 @@
       <c r="CS27" s="33"/>
       <c r="CY27" s="28"/>
       <c r="CZ27" s="33"/>
-      <c r="DG27" s="61"/>
+      <c r="DG27" s="60"/>
       <c r="DM27" s="28"/>
       <c r="DN27" s="33"/>
-      <c r="DT27" s="68"/>
+      <c r="DT27" s="67"/>
       <c r="EA27" s="28"/>
       <c r="EB27" s="33"/>
       <c r="EH27" s="28"/>
@@ -5756,25 +5904,25 @@
       <c r="HT27" s="54"/>
       <c r="HU27" s="28"/>
       <c r="HV27" s="33"/>
-      <c r="IC27" s="61"/>
-      <c r="II27" s="68"/>
-      <c r="IJ27" s="61"/>
-      <c r="IO27" s="68"/>
-      <c r="IP27" s="61"/>
-      <c r="IV27" s="68"/>
+      <c r="IC27" s="60"/>
+      <c r="II27" s="67"/>
+      <c r="IJ27" s="60"/>
+      <c r="IO27" s="67"/>
+      <c r="IP27" s="60"/>
+      <c r="IV27" s="67"/>
     </row>
     <row r="28" spans="1:256" ht="32">
       <c r="A28" s="18">
         <v>4.5</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="21">
         <v>1</v>
@@ -5817,21 +5965,21 @@
       <c r="CS28" s="33"/>
       <c r="CY28" s="28"/>
       <c r="CZ28" s="33"/>
-      <c r="DG28" s="61"/>
+      <c r="DG28" s="60"/>
       <c r="DM28" s="28"/>
       <c r="DN28" s="33"/>
-      <c r="DT28" s="68"/>
-      <c r="DY28" s="102"/>
-      <c r="DZ28" s="104"/>
+      <c r="DT28" s="67"/>
+      <c r="DY28" s="123"/>
+      <c r="DZ28" s="117"/>
       <c r="EA28" s="28"/>
       <c r="EB28" s="33"/>
-      <c r="EF28" s="102"/>
-      <c r="EG28" s="103"/>
-      <c r="EH28" s="104"/>
-      <c r="EI28" s="102"/>
-      <c r="EJ28" s="103"/>
-      <c r="EK28" s="103"/>
-      <c r="EL28" s="104"/>
+      <c r="EF28" s="123"/>
+      <c r="EG28" s="116"/>
+      <c r="EH28" s="116"/>
+      <c r="EI28" s="116"/>
+      <c r="EJ28" s="116"/>
+      <c r="EK28" s="116"/>
+      <c r="EL28" s="117"/>
       <c r="EO28" s="28"/>
       <c r="EP28" s="33"/>
       <c r="ER28" s="30"/>
@@ -5871,22 +6019,22 @@
       <c r="HT28" s="54"/>
       <c r="HU28" s="28"/>
       <c r="HV28" s="33"/>
-      <c r="IC28" s="61"/>
-      <c r="II28" s="68"/>
-      <c r="IJ28" s="61"/>
-      <c r="IO28" s="68"/>
-      <c r="IP28" s="61"/>
-      <c r="IV28" s="68"/>
+      <c r="IC28" s="60"/>
+      <c r="II28" s="67"/>
+      <c r="IJ28" s="60"/>
+      <c r="IO28" s="67"/>
+      <c r="IP28" s="60"/>
+      <c r="IV28" s="67"/>
     </row>
     <row r="29" spans="1:256" ht="16">
       <c r="A29" s="18">
         <v>5.0999999999999996</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>62</v>
@@ -5907,8 +6055,8 @@
       <c r="AO29" s="33"/>
       <c r="AU29" s="28"/>
       <c r="AV29" s="33"/>
-      <c r="AY29" s="99"/>
-      <c r="AZ29" s="101"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="115"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="33"/>
       <c r="BI29" s="28"/>
@@ -5933,10 +6081,10 @@
       <c r="CS29" s="33"/>
       <c r="CY29" s="28"/>
       <c r="CZ29" s="33"/>
-      <c r="DG29" s="61"/>
+      <c r="DG29" s="60"/>
       <c r="DM29" s="28"/>
       <c r="DN29" s="33"/>
-      <c r="DT29" s="68"/>
+      <c r="DT29" s="67"/>
       <c r="EA29" s="28"/>
       <c r="EB29" s="33"/>
       <c r="EH29" s="28"/>
@@ -5980,25 +6128,25 @@
       <c r="HT29" s="54"/>
       <c r="HU29" s="28"/>
       <c r="HV29" s="33"/>
-      <c r="IC29" s="61"/>
-      <c r="II29" s="68"/>
-      <c r="IJ29" s="61"/>
-      <c r="IO29" s="68"/>
-      <c r="IP29" s="61"/>
-      <c r="IV29" s="68"/>
+      <c r="IC29" s="60"/>
+      <c r="II29" s="67"/>
+      <c r="IJ29" s="60"/>
+      <c r="IO29" s="67"/>
+      <c r="IP29" s="60"/>
+      <c r="IV29" s="67"/>
     </row>
     <row r="30" spans="1:256" ht="16">
       <c r="A30" s="18">
         <v>5.2</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
@@ -6039,20 +6187,20 @@
       <c r="CS30" s="33"/>
       <c r="CY30" s="28"/>
       <c r="CZ30" s="33"/>
-      <c r="DG30" s="61"/>
+      <c r="DG30" s="60"/>
       <c r="DM30" s="28"/>
       <c r="DN30" s="33"/>
-      <c r="DT30" s="68"/>
+      <c r="DT30" s="67"/>
       <c r="EA30" s="28"/>
       <c r="EB30" s="33"/>
       <c r="EH30" s="44"/>
-      <c r="EI30" s="99"/>
-      <c r="EJ30" s="100"/>
-      <c r="EK30" s="100"/>
-      <c r="EL30" s="100"/>
-      <c r="EM30" s="100"/>
-      <c r="EN30" s="100"/>
-      <c r="EO30" s="100"/>
+      <c r="EI30" s="113"/>
+      <c r="EJ30" s="114"/>
+      <c r="EK30" s="114"/>
+      <c r="EL30" s="114"/>
+      <c r="EM30" s="114"/>
+      <c r="EN30" s="114"/>
+      <c r="EO30" s="114"/>
       <c r="EP30" s="33"/>
       <c r="ER30" s="30"/>
       <c r="EV30" s="28"/>
@@ -6091,25 +6239,25 @@
       <c r="HT30" s="54"/>
       <c r="HU30" s="28"/>
       <c r="HV30" s="33"/>
-      <c r="IC30" s="61"/>
-      <c r="II30" s="68"/>
-      <c r="IJ30" s="61"/>
-      <c r="IO30" s="68"/>
-      <c r="IP30" s="61"/>
-      <c r="IV30" s="68"/>
+      <c r="IC30" s="60"/>
+      <c r="II30" s="67"/>
+      <c r="IJ30" s="60"/>
+      <c r="IO30" s="67"/>
+      <c r="IP30" s="60"/>
+      <c r="IV30" s="67"/>
     </row>
     <row r="31" spans="1:256" ht="16">
       <c r="A31" s="18">
         <v>5.3</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="21">
         <v>1</v>
@@ -6127,31 +6275,31 @@
       <c r="AO31" s="33"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="33"/>
-      <c r="AZ31" s="99"/>
-      <c r="BA31" s="100"/>
-      <c r="BB31" s="101"/>
-      <c r="BC31" s="100"/>
-      <c r="BD31" s="100"/>
-      <c r="BE31" s="100"/>
-      <c r="BF31" s="100"/>
-      <c r="BG31" s="100"/>
-      <c r="BH31" s="100"/>
-      <c r="BI31" s="101"/>
-      <c r="BJ31" s="100"/>
-      <c r="BK31" s="100"/>
-      <c r="BL31" s="100"/>
-      <c r="BM31" s="100"/>
-      <c r="BN31" s="100"/>
-      <c r="BO31" s="100"/>
-      <c r="BP31" s="101"/>
-      <c r="BQ31" s="100"/>
-      <c r="BR31" s="100"/>
-      <c r="BS31" s="100"/>
-      <c r="BT31" s="100"/>
-      <c r="BU31" s="100"/>
-      <c r="BV31" s="100"/>
-      <c r="BW31" s="101"/>
-      <c r="BX31" s="45"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="115"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="115"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="115"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="118"/>
+      <c r="BU31" s="118"/>
+      <c r="BV31" s="118"/>
+      <c r="BW31" s="119"/>
+      <c r="BX31" s="96"/>
       <c r="CD31" s="28"/>
       <c r="CK31" s="28"/>
       <c r="CL31" s="33"/>
@@ -6159,15 +6307,15 @@
       <c r="CS31" s="33"/>
       <c r="CY31" s="28"/>
       <c r="CZ31" s="33"/>
-      <c r="DG31" s="61"/>
+      <c r="DG31" s="60"/>
       <c r="DM31" s="28"/>
       <c r="DN31" s="33"/>
-      <c r="DT31" s="68"/>
+      <c r="DT31" s="67"/>
       <c r="EA31" s="28"/>
       <c r="EI31" s="33"/>
-      <c r="EM31" s="105"/>
-      <c r="EN31" s="106"/>
-      <c r="EO31" s="106"/>
+      <c r="EM31" s="120"/>
+      <c r="EN31" s="121"/>
+      <c r="EO31" s="121"/>
       <c r="EP31" s="33"/>
       <c r="ER31" s="30"/>
       <c r="EV31" s="28"/>
@@ -6206,25 +6354,25 @@
       <c r="HT31" s="54"/>
       <c r="HU31" s="28"/>
       <c r="HV31" s="33"/>
-      <c r="IC31" s="61"/>
-      <c r="II31" s="68"/>
-      <c r="IJ31" s="61"/>
-      <c r="IO31" s="68"/>
-      <c r="IP31" s="61"/>
-      <c r="IV31" s="68"/>
+      <c r="IC31" s="60"/>
+      <c r="II31" s="67"/>
+      <c r="IJ31" s="60"/>
+      <c r="IO31" s="67"/>
+      <c r="IP31" s="60"/>
+      <c r="IV31" s="67"/>
     </row>
     <row r="32" spans="1:256" ht="16">
       <c r="A32" s="18">
         <v>5.4</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="82" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="84" t="s">
+      <c r="D32" s="77" t="s">
         <v>120</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>121</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -6241,16 +6389,16 @@
       <c r="AN32" s="28"/>
       <c r="AU32" s="28"/>
       <c r="AV32" s="33"/>
-      <c r="AZ32" s="86"/>
-      <c r="BA32" s="86"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="86"/>
-      <c r="BD32" s="86"/>
-      <c r="BE32" s="86"/>
-      <c r="BF32" s="86"/>
-      <c r="BG32" s="86"/>
-      <c r="BH32" s="86"/>
-      <c r="BI32" s="87"/>
+      <c r="AZ32" s="84"/>
+      <c r="BA32" s="84"/>
+      <c r="BB32" s="85"/>
+      <c r="BC32" s="84"/>
+      <c r="BD32" s="84"/>
+      <c r="BE32" s="84"/>
+      <c r="BF32" s="84"/>
+      <c r="BG32" s="84"/>
+      <c r="BH32" s="84"/>
+      <c r="BI32" s="85"/>
       <c r="BJ32" s="47"/>
       <c r="BK32" s="30"/>
       <c r="BL32" s="30"/>
@@ -6261,11 +6409,11 @@
       <c r="BQ32" s="47"/>
       <c r="BR32" s="30"/>
       <c r="BS32" s="30"/>
-      <c r="BT32" s="57"/>
-      <c r="BU32" s="57"/>
-      <c r="BV32" s="57"/>
-      <c r="BW32" s="58"/>
-      <c r="BX32" s="58"/>
+      <c r="BT32" s="44"/>
+      <c r="BU32" s="88"/>
+      <c r="BV32" s="88"/>
+      <c r="BW32" s="88"/>
+      <c r="BX32" s="45"/>
       <c r="CD32" s="28"/>
       <c r="CK32" s="28"/>
       <c r="CL32" s="33"/>
@@ -6273,15 +6421,15 @@
       <c r="CS32" s="33"/>
       <c r="CY32" s="28"/>
       <c r="CZ32" s="33"/>
-      <c r="DG32" s="61"/>
+      <c r="DG32" s="60"/>
       <c r="DM32" s="28"/>
       <c r="DN32" s="33"/>
-      <c r="DT32" s="68"/>
+      <c r="DT32" s="67"/>
       <c r="EA32" s="28"/>
       <c r="EI32" s="33"/>
-      <c r="EM32" s="86"/>
-      <c r="EN32" s="86"/>
-      <c r="EO32" s="86"/>
+      <c r="EM32" s="84"/>
+      <c r="EN32" s="84"/>
+      <c r="EO32" s="84"/>
       <c r="EP32" s="33"/>
       <c r="ER32" s="30"/>
       <c r="EV32" s="28"/>
@@ -6320,25 +6468,25 @@
       <c r="HT32" s="54"/>
       <c r="HU32" s="28"/>
       <c r="HV32" s="33"/>
-      <c r="IC32" s="61"/>
-      <c r="II32" s="68"/>
-      <c r="IJ32" s="61"/>
-      <c r="IO32" s="68"/>
-      <c r="IP32" s="61"/>
-      <c r="IV32" s="68"/>
+      <c r="IC32" s="60"/>
+      <c r="II32" s="67"/>
+      <c r="IJ32" s="60"/>
+      <c r="IO32" s="67"/>
+      <c r="IP32" s="60"/>
+      <c r="IV32" s="67"/>
     </row>
     <row r="33" spans="1:256" ht="16">
       <c r="A33" s="18">
         <v>5.5</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="21">
         <v>1</v>
@@ -6368,11 +6516,11 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="105"/>
-      <c r="BU33" s="106"/>
-      <c r="BV33" s="106"/>
-      <c r="BW33" s="107"/>
-      <c r="BX33" s="58"/>
+      <c r="BT33" s="120"/>
+      <c r="BU33" s="121"/>
+      <c r="BV33" s="121"/>
+      <c r="BW33" s="122"/>
+      <c r="BX33" s="57"/>
       <c r="CD33" s="28"/>
       <c r="CK33" s="28"/>
       <c r="CL33" s="33"/>
@@ -6380,10 +6528,10 @@
       <c r="CS33" s="33"/>
       <c r="CY33" s="28"/>
       <c r="CZ33" s="33"/>
-      <c r="DG33" s="61"/>
+      <c r="DG33" s="60"/>
       <c r="DM33" s="28"/>
       <c r="DN33" s="33"/>
-      <c r="DT33" s="68"/>
+      <c r="DT33" s="67"/>
       <c r="EA33" s="28"/>
       <c r="EB33" s="33"/>
       <c r="EH33" s="28"/>
@@ -6427,25 +6575,25 @@
       <c r="HT33" s="54"/>
       <c r="HU33" s="28"/>
       <c r="HV33" s="33"/>
-      <c r="IC33" s="61"/>
-      <c r="II33" s="68"/>
-      <c r="IJ33" s="61"/>
-      <c r="IO33" s="68"/>
-      <c r="IP33" s="61"/>
-      <c r="IV33" s="68"/>
+      <c r="IC33" s="60"/>
+      <c r="II33" s="67"/>
+      <c r="IJ33" s="60"/>
+      <c r="IO33" s="67"/>
+      <c r="IP33" s="60"/>
+      <c r="IV33" s="67"/>
     </row>
     <row r="34" spans="1:256" ht="16">
       <c r="A34" s="18">
         <v>5.6</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>113</v>
+        <v>91</v>
+      </c>
+      <c r="D34" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -6483,10 +6631,10 @@
       <c r="CS34" s="33"/>
       <c r="CY34" s="28"/>
       <c r="CZ34" s="33"/>
-      <c r="DG34" s="61"/>
+      <c r="DG34" s="60"/>
       <c r="DM34" s="28"/>
       <c r="DN34" s="33"/>
-      <c r="DT34" s="68"/>
+      <c r="DT34" s="67"/>
       <c r="EA34" s="28"/>
       <c r="EB34" s="33"/>
       <c r="EH34" s="44"/>
@@ -6530,25 +6678,25 @@
       <c r="HT34" s="54"/>
       <c r="HU34" s="28"/>
       <c r="HV34" s="33"/>
-      <c r="IC34" s="61"/>
-      <c r="II34" s="68"/>
-      <c r="IJ34" s="61"/>
-      <c r="IO34" s="68"/>
-      <c r="IP34" s="61"/>
-      <c r="IV34" s="68"/>
+      <c r="IC34" s="60"/>
+      <c r="II34" s="67"/>
+      <c r="IJ34" s="60"/>
+      <c r="IO34" s="67"/>
+      <c r="IP34" s="60"/>
+      <c r="IV34" s="67"/>
     </row>
     <row r="35" spans="1:256" ht="16">
       <c r="A35" s="18">
         <v>5.7</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="21">
         <v>1</v>
@@ -6586,26 +6734,26 @@
       <c r="CS35" s="33"/>
       <c r="CY35" s="28"/>
       <c r="CZ35" s="33"/>
-      <c r="DG35" s="61"/>
+      <c r="DG35" s="60"/>
       <c r="DM35" s="28"/>
       <c r="DN35" s="33"/>
-      <c r="DT35" s="68"/>
-      <c r="DY35" s="99"/>
-      <c r="DZ35" s="100"/>
-      <c r="EA35" s="101"/>
-      <c r="EB35" s="99"/>
-      <c r="EC35" s="100"/>
-      <c r="ED35" s="100"/>
-      <c r="EE35" s="101"/>
+      <c r="DT35" s="67"/>
+      <c r="DY35" s="113"/>
+      <c r="DZ35" s="114"/>
+      <c r="EA35" s="115"/>
+      <c r="EB35" s="113"/>
+      <c r="EC35" s="114"/>
+      <c r="ED35" s="114"/>
+      <c r="EE35" s="115"/>
       <c r="EH35" s="28"/>
       <c r="EI35" s="33"/>
-      <c r="EM35" s="99"/>
-      <c r="EN35" s="100"/>
-      <c r="EO35" s="101"/>
-      <c r="EP35" s="100"/>
-      <c r="EQ35" s="100"/>
-      <c r="ER35" s="100"/>
-      <c r="ES35" s="101"/>
+      <c r="EM35" s="113"/>
+      <c r="EN35" s="114"/>
+      <c r="EO35" s="115"/>
+      <c r="EP35" s="114"/>
+      <c r="EQ35" s="114"/>
+      <c r="ER35" s="114"/>
+      <c r="ES35" s="115"/>
       <c r="EV35" s="28"/>
       <c r="EW35" s="33"/>
       <c r="FC35" s="28"/>
@@ -6642,25 +6790,25 @@
       <c r="HT35" s="54"/>
       <c r="HU35" s="28"/>
       <c r="HV35" s="33"/>
-      <c r="IC35" s="61"/>
-      <c r="II35" s="68"/>
-      <c r="IJ35" s="61"/>
-      <c r="IO35" s="68"/>
-      <c r="IP35" s="61"/>
-      <c r="IV35" s="68"/>
+      <c r="IC35" s="60"/>
+      <c r="II35" s="67"/>
+      <c r="IJ35" s="60"/>
+      <c r="IO35" s="67"/>
+      <c r="IP35" s="60"/>
+      <c r="IV35" s="67"/>
     </row>
     <row r="36" spans="1:256" ht="16">
       <c r="A36" s="18">
         <v>5.8</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>122</v>
+        <v>86</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>121</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="21">
         <v>1</v>
@@ -6698,30 +6846,30 @@
       <c r="CS36" s="33"/>
       <c r="CY36" s="28"/>
       <c r="CZ36" s="33"/>
-      <c r="DG36" s="61"/>
+      <c r="DG36" s="60"/>
       <c r="DM36" s="28"/>
       <c r="DN36" s="33"/>
-      <c r="DT36" s="68"/>
+      <c r="DT36" s="67"/>
       <c r="EA36" s="28"/>
       <c r="EH36" s="28"/>
       <c r="EO36" s="28"/>
       <c r="ER36" s="30"/>
       <c r="EW36" s="33"/>
-      <c r="FC36" s="71"/>
-      <c r="FD36" s="100"/>
-      <c r="FE36" s="100"/>
-      <c r="FF36" s="100"/>
-      <c r="FG36" s="100"/>
-      <c r="FH36" s="100"/>
-      <c r="FI36" s="100"/>
-      <c r="FJ36" s="101"/>
-      <c r="FK36" s="100"/>
-      <c r="FL36" s="100"/>
-      <c r="FM36" s="100"/>
-      <c r="FN36" s="100"/>
-      <c r="FO36" s="100"/>
-      <c r="FP36" s="100"/>
-      <c r="FQ36" s="101"/>
+      <c r="FC36" s="70"/>
+      <c r="FD36" s="114"/>
+      <c r="FE36" s="114"/>
+      <c r="FF36" s="114"/>
+      <c r="FG36" s="114"/>
+      <c r="FH36" s="114"/>
+      <c r="FI36" s="114"/>
+      <c r="FJ36" s="115"/>
+      <c r="FK36" s="114"/>
+      <c r="FL36" s="114"/>
+      <c r="FM36" s="114"/>
+      <c r="FN36" s="114"/>
+      <c r="FO36" s="114"/>
+      <c r="FP36" s="114"/>
+      <c r="FQ36" s="115"/>
       <c r="FR36" s="45"/>
       <c r="FS36" s="30"/>
       <c r="FT36" s="30"/>
@@ -6751,25 +6899,25 @@
       <c r="HT36" s="54"/>
       <c r="HU36" s="28"/>
       <c r="HV36" s="33"/>
-      <c r="IC36" s="61"/>
-      <c r="II36" s="68"/>
-      <c r="IJ36" s="61"/>
-      <c r="IO36" s="68"/>
-      <c r="IP36" s="61"/>
-      <c r="IV36" s="68"/>
+      <c r="IC36" s="60"/>
+      <c r="II36" s="67"/>
+      <c r="IJ36" s="60"/>
+      <c r="IO36" s="67"/>
+      <c r="IP36" s="60"/>
+      <c r="IV36" s="67"/>
     </row>
     <row r="37" spans="1:256" ht="16">
       <c r="A37" s="18">
         <v>6.1</v>
       </c>
       <c r="B37" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="78" t="s">
-        <v>107</v>
+      <c r="D37" s="77" t="s">
+        <v>106</v>
       </c>
       <c r="E37" s="21">
         <v>1</v>
@@ -6809,35 +6957,35 @@
       <c r="CS37" s="33"/>
       <c r="CY37" s="28"/>
       <c r="CZ37" s="33"/>
-      <c r="DG37" s="61"/>
+      <c r="DG37" s="60"/>
       <c r="DM37" s="28"/>
       <c r="DN37" s="33"/>
-      <c r="DT37" s="68"/>
+      <c r="DT37" s="67"/>
       <c r="EA37" s="28"/>
       <c r="EH37" s="28"/>
-      <c r="EM37" s="95"/>
-      <c r="EN37" s="96"/>
-      <c r="EO37" s="96"/>
-      <c r="EP37" s="95"/>
-      <c r="EQ37" s="96"/>
-      <c r="ER37" s="96"/>
-      <c r="ES37" s="96"/>
-      <c r="ET37" s="96"/>
-      <c r="EU37" s="96"/>
-      <c r="EV37" s="96"/>
-      <c r="EW37" s="95"/>
-      <c r="EX37" s="96"/>
-      <c r="EY37" s="96"/>
-      <c r="EZ37" s="96"/>
-      <c r="FA37" s="96"/>
-      <c r="FB37" s="97"/>
+      <c r="EM37" s="107"/>
+      <c r="EN37" s="108"/>
+      <c r="EO37" s="108"/>
+      <c r="EP37" s="108"/>
+      <c r="EQ37" s="108"/>
+      <c r="ER37" s="108"/>
+      <c r="ES37" s="108"/>
+      <c r="ET37" s="108"/>
+      <c r="EU37" s="108"/>
+      <c r="EV37" s="108"/>
+      <c r="EW37" s="108"/>
+      <c r="EX37" s="108"/>
+      <c r="EY37" s="108"/>
+      <c r="EZ37" s="108"/>
+      <c r="FA37" s="108"/>
+      <c r="FB37" s="109"/>
       <c r="FC37" s="28"/>
       <c r="FD37" s="33"/>
       <c r="FJ37" s="28"/>
-      <c r="FK37" s="95"/>
-      <c r="FL37" s="96"/>
-      <c r="FM37" s="96"/>
-      <c r="FN37" s="97"/>
+      <c r="FK37" s="107"/>
+      <c r="FL37" s="108"/>
+      <c r="FM37" s="108"/>
+      <c r="FN37" s="109"/>
       <c r="FQ37" s="28"/>
       <c r="FR37" s="47"/>
       <c r="FS37" s="30"/>
@@ -6868,25 +7016,25 @@
       <c r="HT37" s="54"/>
       <c r="HU37" s="28"/>
       <c r="HV37" s="33"/>
-      <c r="IC37" s="61"/>
-      <c r="II37" s="68"/>
-      <c r="IJ37" s="61"/>
-      <c r="IO37" s="68"/>
-      <c r="IP37" s="61"/>
-      <c r="IV37" s="68"/>
+      <c r="IC37" s="60"/>
+      <c r="II37" s="67"/>
+      <c r="IJ37" s="60"/>
+      <c r="IO37" s="67"/>
+      <c r="IP37" s="60"/>
+      <c r="IV37" s="67"/>
     </row>
     <row r="38" spans="1:256" ht="16">
       <c r="A38" s="18">
         <v>6.2</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="21">
         <v>1</v>
@@ -6927,24 +7075,24 @@
       <c r="CS38" s="33"/>
       <c r="CY38" s="28"/>
       <c r="CZ38" s="33"/>
-      <c r="DG38" s="61"/>
+      <c r="DG38" s="60"/>
       <c r="DM38" s="28"/>
       <c r="DN38" s="33"/>
-      <c r="DT38" s="68"/>
+      <c r="DT38" s="67"/>
       <c r="EA38" s="28"/>
       <c r="EB38" s="33"/>
       <c r="EI38" s="33"/>
-      <c r="EM38" s="95"/>
-      <c r="EN38" s="96"/>
-      <c r="EO38" s="96"/>
-      <c r="EP38" s="95"/>
-      <c r="EQ38" s="96"/>
-      <c r="ER38" s="96"/>
-      <c r="ES38" s="96"/>
-      <c r="ET38" s="96"/>
-      <c r="EU38" s="96"/>
-      <c r="EV38" s="96"/>
-      <c r="EW38" s="72"/>
+      <c r="EM38" s="110"/>
+      <c r="EN38" s="111"/>
+      <c r="EO38" s="111"/>
+      <c r="EP38" s="111"/>
+      <c r="EQ38" s="111"/>
+      <c r="ER38" s="111"/>
+      <c r="ES38" s="111"/>
+      <c r="ET38" s="111"/>
+      <c r="EU38" s="111"/>
+      <c r="EV38" s="111"/>
+      <c r="EW38" s="94"/>
       <c r="FC38" s="28"/>
       <c r="FD38" s="33"/>
       <c r="FJ38" s="28"/>
@@ -6979,25 +7127,25 @@
       <c r="HT38" s="54"/>
       <c r="HU38" s="28"/>
       <c r="HV38" s="33"/>
-      <c r="IC38" s="61"/>
-      <c r="II38" s="68"/>
-      <c r="IJ38" s="61"/>
-      <c r="IO38" s="68"/>
-      <c r="IP38" s="61"/>
-      <c r="IV38" s="68"/>
+      <c r="IC38" s="60"/>
+      <c r="II38" s="67"/>
+      <c r="IJ38" s="60"/>
+      <c r="IO38" s="67"/>
+      <c r="IP38" s="60"/>
+      <c r="IV38" s="67"/>
     </row>
     <row r="39" spans="1:256" ht="16">
       <c r="A39" s="18">
         <v>6.3</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E39" s="21">
         <v>1</v>
@@ -7039,10 +7187,10 @@
       <c r="CS39" s="33"/>
       <c r="CY39" s="28"/>
       <c r="CZ39" s="33"/>
-      <c r="DG39" s="61"/>
+      <c r="DG39" s="60"/>
       <c r="DM39" s="28"/>
       <c r="DN39" s="33"/>
-      <c r="DT39" s="68"/>
+      <c r="DT39" s="67"/>
       <c r="EA39" s="28"/>
       <c r="EB39" s="33"/>
       <c r="EH39" s="28"/>
@@ -7054,13 +7202,13 @@
       <c r="EW39" s="33"/>
       <c r="FC39" s="28"/>
       <c r="FD39" s="33"/>
-      <c r="FI39" s="95"/>
-      <c r="FJ39" s="97"/>
-      <c r="FK39" s="96"/>
-      <c r="FL39" s="96"/>
-      <c r="FM39" s="96"/>
-      <c r="FN39" s="96"/>
-      <c r="FO39" s="97"/>
+      <c r="FI39" s="107"/>
+      <c r="FJ39" s="108"/>
+      <c r="FK39" s="108"/>
+      <c r="FL39" s="108"/>
+      <c r="FM39" s="108"/>
+      <c r="FN39" s="108"/>
+      <c r="FO39" s="109"/>
       <c r="FR39" s="47"/>
       <c r="FS39" s="30"/>
       <c r="FT39" s="30"/>
@@ -7090,25 +7238,25 @@
       <c r="HT39" s="54"/>
       <c r="HU39" s="28"/>
       <c r="HV39" s="33"/>
-      <c r="IC39" s="61"/>
-      <c r="II39" s="68"/>
-      <c r="IJ39" s="61"/>
-      <c r="IO39" s="68"/>
-      <c r="IP39" s="61"/>
-      <c r="IV39" s="68"/>
+      <c r="IC39" s="60"/>
+      <c r="II39" s="67"/>
+      <c r="IJ39" s="60"/>
+      <c r="IO39" s="67"/>
+      <c r="IP39" s="60"/>
+      <c r="IV39" s="67"/>
     </row>
     <row r="40" spans="1:256" ht="32">
       <c r="A40" s="18">
         <v>6.4</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="84" t="s">
-        <v>111</v>
+        <v>94</v>
+      </c>
+      <c r="C40" s="83" t="s">
+        <v>110</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E40" s="21">
         <v>1</v>
@@ -7150,10 +7298,10 @@
       <c r="CS40" s="33"/>
       <c r="CY40" s="28"/>
       <c r="CZ40" s="33"/>
-      <c r="DG40" s="61"/>
+      <c r="DG40" s="60"/>
       <c r="DM40" s="28"/>
       <c r="DN40" s="33"/>
-      <c r="DT40" s="68"/>
+      <c r="DT40" s="67"/>
       <c r="EA40" s="28"/>
       <c r="EB40" s="33"/>
       <c r="EH40" s="28"/>
@@ -7161,16 +7309,16 @@
       <c r="EO40" s="28"/>
       <c r="EP40" s="33"/>
       <c r="ER40" s="30"/>
-      <c r="EU40" s="95"/>
-      <c r="EV40" s="96"/>
-      <c r="EW40" s="95"/>
-      <c r="EX40" s="96"/>
-      <c r="EY40" s="96"/>
-      <c r="EZ40" s="96"/>
-      <c r="FA40" s="96"/>
-      <c r="FB40" s="96"/>
-      <c r="FC40" s="96"/>
-      <c r="FD40" s="72"/>
+      <c r="EU40" s="107"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="108"/>
+      <c r="EZ40" s="108"/>
+      <c r="FA40" s="108"/>
+      <c r="FB40" s="108"/>
+      <c r="FC40" s="108"/>
+      <c r="FD40" s="86"/>
       <c r="FJ40" s="28"/>
       <c r="FQ40" s="28"/>
       <c r="FR40" s="47"/>
@@ -7202,25 +7350,25 @@
       <c r="HT40" s="54"/>
       <c r="HU40" s="28"/>
       <c r="HV40" s="33"/>
-      <c r="IC40" s="61"/>
-      <c r="II40" s="68"/>
-      <c r="IJ40" s="61"/>
-      <c r="IO40" s="68"/>
-      <c r="IP40" s="61"/>
-      <c r="IV40" s="68"/>
+      <c r="IC40" s="60"/>
+      <c r="II40" s="67"/>
+      <c r="IJ40" s="60"/>
+      <c r="IO40" s="67"/>
+      <c r="IP40" s="60"/>
+      <c r="IV40" s="67"/>
     </row>
     <row r="41" spans="1:256" ht="16">
       <c r="A41" s="18">
         <v>6.5</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="84" t="s">
-        <v>110</v>
+        <v>94</v>
+      </c>
+      <c r="C41" s="83" t="s">
+        <v>109</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -7262,10 +7410,10 @@
       <c r="CS41" s="33"/>
       <c r="CY41" s="28"/>
       <c r="CZ41" s="33"/>
-      <c r="DG41" s="61"/>
+      <c r="DG41" s="60"/>
       <c r="DM41" s="28"/>
       <c r="DN41" s="33"/>
-      <c r="DT41" s="68"/>
+      <c r="DT41" s="67"/>
       <c r="EA41" s="28"/>
       <c r="EB41" s="33"/>
       <c r="EH41" s="28"/>
@@ -7278,13 +7426,13 @@
       <c r="FC41" s="28"/>
       <c r="FD41" s="33"/>
       <c r="FJ41" s="28"/>
-      <c r="FK41" s="98"/>
-      <c r="FL41" s="98"/>
-      <c r="FM41" s="98"/>
-      <c r="FN41" s="98"/>
-      <c r="FO41" s="98"/>
-      <c r="FP41" s="98"/>
-      <c r="FQ41" s="98"/>
+      <c r="FK41" s="112"/>
+      <c r="FL41" s="112"/>
+      <c r="FM41" s="112"/>
+      <c r="FN41" s="112"/>
+      <c r="FO41" s="112"/>
+      <c r="FP41" s="112"/>
+      <c r="FQ41" s="112"/>
       <c r="FR41" s="47"/>
       <c r="FS41" s="30"/>
       <c r="FT41" s="30"/>
@@ -7314,25 +7462,25 @@
       <c r="HT41" s="54"/>
       <c r="HU41" s="28"/>
       <c r="HV41" s="33"/>
-      <c r="IC41" s="61"/>
-      <c r="II41" s="68"/>
-      <c r="IJ41" s="61"/>
-      <c r="IO41" s="68"/>
-      <c r="IP41" s="61"/>
-      <c r="IV41" s="68"/>
+      <c r="IC41" s="60"/>
+      <c r="II41" s="67"/>
+      <c r="IJ41" s="60"/>
+      <c r="IO41" s="67"/>
+      <c r="IP41" s="60"/>
+      <c r="IV41" s="67"/>
     </row>
     <row r="42" spans="1:256" ht="16">
       <c r="A42" s="18">
         <v>6.6</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="78" t="s">
-        <v>114</v>
+        <v>99</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>113</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -7374,10 +7522,10 @@
       <c r="CS42" s="33"/>
       <c r="CY42" s="28"/>
       <c r="CZ42" s="33"/>
-      <c r="DG42" s="61"/>
+      <c r="DG42" s="60"/>
       <c r="DM42" s="28"/>
       <c r="DN42" s="33"/>
-      <c r="DT42" s="68"/>
+      <c r="DT42" s="67"/>
       <c r="EA42" s="28"/>
       <c r="EB42" s="33"/>
       <c r="EH42" s="28"/>
@@ -7390,13 +7538,13 @@
       <c r="FC42" s="28"/>
       <c r="FD42" s="33"/>
       <c r="FJ42" s="28"/>
-      <c r="FK42" s="98"/>
-      <c r="FL42" s="98"/>
-      <c r="FM42" s="98"/>
-      <c r="FN42" s="98"/>
-      <c r="FO42" s="98"/>
-      <c r="FP42" s="98"/>
-      <c r="FQ42" s="98"/>
+      <c r="FK42" s="112"/>
+      <c r="FL42" s="112"/>
+      <c r="FM42" s="112"/>
+      <c r="FN42" s="112"/>
+      <c r="FO42" s="112"/>
+      <c r="FP42" s="112"/>
+      <c r="FQ42" s="112"/>
       <c r="FR42" s="47"/>
       <c r="FS42" s="30"/>
       <c r="FT42" s="30"/>
@@ -7426,25 +7574,25 @@
       <c r="HT42" s="54"/>
       <c r="HU42" s="28"/>
       <c r="HV42" s="33"/>
-      <c r="IC42" s="61"/>
-      <c r="II42" s="68"/>
-      <c r="IJ42" s="61"/>
-      <c r="IO42" s="68"/>
-      <c r="IP42" s="61"/>
-      <c r="IV42" s="68"/>
+      <c r="IC42" s="60"/>
+      <c r="II42" s="67"/>
+      <c r="IJ42" s="60"/>
+      <c r="IO42" s="67"/>
+      <c r="IP42" s="60"/>
+      <c r="IV42" s="67"/>
     </row>
     <row r="43" spans="1:256" ht="16">
       <c r="A43" s="18">
         <v>6.7</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="84" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>109</v>
+      <c r="D43" s="77" t="s">
+        <v>108</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -7486,10 +7634,10 @@
       <c r="CS43" s="33"/>
       <c r="CY43" s="28"/>
       <c r="CZ43" s="33"/>
-      <c r="DG43" s="61"/>
+      <c r="DG43" s="60"/>
       <c r="DM43" s="28"/>
       <c r="DN43" s="33"/>
-      <c r="DT43" s="68"/>
+      <c r="DT43" s="67"/>
       <c r="EA43" s="28"/>
       <c r="EB43" s="33"/>
       <c r="EH43" s="28"/>
@@ -7502,13 +7650,6 @@
       <c r="FC43" s="28"/>
       <c r="FD43" s="33"/>
       <c r="FJ43" s="28"/>
-      <c r="FK43" s="85"/>
-      <c r="FL43" s="85"/>
-      <c r="FM43" s="85"/>
-      <c r="FN43" s="85"/>
-      <c r="FO43" s="85"/>
-      <c r="FP43" s="85"/>
-      <c r="FQ43" s="85"/>
       <c r="FR43" s="47"/>
       <c r="FS43" s="30"/>
       <c r="FT43" s="30"/>
@@ -7526,10 +7667,13 @@
       <c r="GF43" s="33"/>
       <c r="GL43" s="28"/>
       <c r="GM43" s="33"/>
-      <c r="GS43" s="28"/>
-      <c r="GT43" s="33"/>
-      <c r="GZ43" s="28"/>
-      <c r="HA43" s="33"/>
+      <c r="GT43" s="92"/>
+      <c r="GU43" s="87"/>
+      <c r="GV43" s="87"/>
+      <c r="GW43" s="87"/>
+      <c r="GX43" s="87"/>
+      <c r="GY43" s="87"/>
+      <c r="GZ43" s="93"/>
       <c r="HG43" s="28"/>
       <c r="HH43" s="33"/>
       <c r="HN43" s="28"/>
@@ -7538,25 +7682,25 @@
       <c r="HT43" s="54"/>
       <c r="HU43" s="28"/>
       <c r="HV43" s="33"/>
-      <c r="IC43" s="61"/>
-      <c r="II43" s="68"/>
-      <c r="IJ43" s="61"/>
-      <c r="IO43" s="68"/>
-      <c r="IP43" s="61"/>
-      <c r="IV43" s="68"/>
+      <c r="IC43" s="60"/>
+      <c r="II43" s="67"/>
+      <c r="IJ43" s="60"/>
+      <c r="IO43" s="67"/>
+      <c r="IP43" s="60"/>
+      <c r="IV43" s="67"/>
     </row>
     <row r="44" spans="1:256" ht="16">
       <c r="A44" s="18">
         <v>6.8</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -7598,10 +7742,10 @@
       <c r="CS44" s="33"/>
       <c r="CY44" s="28"/>
       <c r="CZ44" s="33"/>
-      <c r="DG44" s="61"/>
+      <c r="DG44" s="60"/>
       <c r="DM44" s="28"/>
       <c r="DN44" s="33"/>
-      <c r="DT44" s="68"/>
+      <c r="DT44" s="67"/>
       <c r="EA44" s="28"/>
       <c r="EB44" s="33"/>
       <c r="EH44" s="28"/>
@@ -7620,10 +7764,10 @@
       <c r="FS44" s="30"/>
       <c r="FT44" s="30"/>
       <c r="FU44" s="30"/>
-      <c r="FV44" s="95"/>
-      <c r="FW44" s="96"/>
-      <c r="FX44" s="96"/>
-      <c r="FY44" s="72"/>
+      <c r="FV44" s="107"/>
+      <c r="FW44" s="108"/>
+      <c r="FX44" s="108"/>
+      <c r="FY44" s="71"/>
       <c r="FZ44" s="30"/>
       <c r="GA44" s="30"/>
       <c r="GB44" s="30"/>
@@ -7645,25 +7789,25 @@
       <c r="HT44" s="54"/>
       <c r="HU44" s="28"/>
       <c r="HV44" s="33"/>
-      <c r="IC44" s="61"/>
-      <c r="II44" s="68"/>
-      <c r="IJ44" s="61"/>
-      <c r="IO44" s="68"/>
-      <c r="IP44" s="61"/>
-      <c r="IV44" s="68"/>
+      <c r="IC44" s="60"/>
+      <c r="II44" s="67"/>
+      <c r="IJ44" s="60"/>
+      <c r="IO44" s="67"/>
+      <c r="IP44" s="60"/>
+      <c r="IV44" s="67"/>
     </row>
     <row r="45" spans="1:256" ht="16">
       <c r="A45" s="18">
         <v>6.9</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -7705,10 +7849,10 @@
       <c r="CS45" s="33"/>
       <c r="CY45" s="28"/>
       <c r="CZ45" s="33"/>
-      <c r="DG45" s="61"/>
+      <c r="DG45" s="60"/>
       <c r="DM45" s="28"/>
       <c r="DN45" s="33"/>
-      <c r="DT45" s="68"/>
+      <c r="DT45" s="67"/>
       <c r="EA45" s="28"/>
       <c r="EB45" s="33"/>
       <c r="EH45" s="28"/>
@@ -7736,47 +7880,47 @@
       <c r="GB45" s="30"/>
       <c r="GC45" s="30"/>
       <c r="GD45" s="30"/>
-      <c r="GE45" s="53"/>
-      <c r="GF45" s="92"/>
-      <c r="GG45" s="93"/>
-      <c r="GH45" s="93"/>
-      <c r="GI45" s="93"/>
-      <c r="GJ45" s="92"/>
-      <c r="GK45" s="93"/>
-      <c r="GL45" s="93"/>
-      <c r="GM45" s="93"/>
-      <c r="GN45" s="93"/>
-      <c r="GO45" s="93"/>
-      <c r="GP45" s="93"/>
-      <c r="GQ45" s="92"/>
-      <c r="GR45" s="93"/>
-      <c r="GS45" s="93"/>
-      <c r="GT45" s="93"/>
+      <c r="GE45" s="30"/>
+      <c r="GF45" s="104"/>
+      <c r="GG45" s="105"/>
+      <c r="GH45" s="105"/>
+      <c r="GI45" s="105"/>
+      <c r="GJ45" s="105"/>
+      <c r="GK45" s="105"/>
+      <c r="GL45" s="105"/>
+      <c r="GM45" s="105"/>
+      <c r="GN45" s="105"/>
+      <c r="GO45" s="105"/>
+      <c r="GP45" s="105"/>
+      <c r="GQ45" s="105"/>
+      <c r="GR45" s="105"/>
+      <c r="GS45" s="105"/>
+      <c r="GT45" s="106"/>
       <c r="HN45" s="28"/>
       <c r="HO45" s="47"/>
       <c r="HR45" s="54"/>
       <c r="HT45" s="54"/>
       <c r="HU45" s="28"/>
       <c r="HV45" s="33"/>
-      <c r="IC45" s="61"/>
-      <c r="II45" s="68"/>
-      <c r="IJ45" s="61"/>
-      <c r="IO45" s="68"/>
-      <c r="IP45" s="61"/>
-      <c r="IV45" s="68"/>
+      <c r="IC45" s="60"/>
+      <c r="II45" s="67"/>
+      <c r="IJ45" s="60"/>
+      <c r="IO45" s="67"/>
+      <c r="IP45" s="60"/>
+      <c r="IV45" s="67"/>
     </row>
     <row r="46" spans="1:256" ht="16">
-      <c r="A46" s="78" t="s">
-        <v>116</v>
+      <c r="A46" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="21">
         <v>1</v>
@@ -7818,10 +7962,10 @@
       <c r="CS46" s="33"/>
       <c r="CY46" s="28"/>
       <c r="CZ46" s="33"/>
-      <c r="DG46" s="61"/>
+      <c r="DG46" s="60"/>
       <c r="DM46" s="28"/>
       <c r="DN46" s="33"/>
-      <c r="DT46" s="68"/>
+      <c r="DT46" s="67"/>
       <c r="EA46" s="28"/>
       <c r="EB46" s="33"/>
       <c r="EH46" s="28"/>
@@ -7846,64 +7990,64 @@
       <c r="FY46" s="47"/>
       <c r="FZ46" s="30"/>
       <c r="GA46" s="30"/>
-      <c r="GB46" s="94"/>
-      <c r="GC46" s="94"/>
-      <c r="GD46" s="94"/>
-      <c r="GE46" s="95"/>
-      <c r="GF46" s="94"/>
-      <c r="GG46" s="94"/>
-      <c r="GH46" s="94"/>
-      <c r="GI46" s="94"/>
-      <c r="GJ46" s="94"/>
-      <c r="GK46" s="94"/>
-      <c r="GL46" s="95"/>
-      <c r="GM46" s="95"/>
-      <c r="GN46" s="96"/>
-      <c r="GO46" s="96"/>
-      <c r="GP46" s="96"/>
-      <c r="GQ46" s="96"/>
-      <c r="GR46" s="96"/>
-      <c r="GS46" s="96"/>
-      <c r="GT46" s="95"/>
-      <c r="GU46" s="96"/>
-      <c r="GV46" s="96"/>
-      <c r="GW46" s="96"/>
-      <c r="GX46" s="96"/>
-      <c r="GY46" s="96"/>
-      <c r="GZ46" s="96"/>
-      <c r="HA46" s="95"/>
-      <c r="HB46" s="96"/>
-      <c r="HC46" s="96"/>
-      <c r="HD46" s="96"/>
-      <c r="HE46" s="96"/>
-      <c r="HF46" s="96"/>
-      <c r="HG46" s="96"/>
-      <c r="HH46" s="95"/>
-      <c r="HI46" s="96"/>
-      <c r="HJ46" s="96"/>
-      <c r="HK46" s="97"/>
+      <c r="GB46" s="107"/>
+      <c r="GC46" s="108"/>
+      <c r="GD46" s="108"/>
+      <c r="GE46" s="108"/>
+      <c r="GF46" s="108"/>
+      <c r="GG46" s="108"/>
+      <c r="GH46" s="108"/>
+      <c r="GI46" s="108"/>
+      <c r="GJ46" s="108"/>
+      <c r="GK46" s="108"/>
+      <c r="GL46" s="108"/>
+      <c r="GM46" s="108"/>
+      <c r="GN46" s="108"/>
+      <c r="GO46" s="108"/>
+      <c r="GP46" s="108"/>
+      <c r="GQ46" s="108"/>
+      <c r="GR46" s="108"/>
+      <c r="GS46" s="108"/>
+      <c r="GT46" s="108"/>
+      <c r="GU46" s="108"/>
+      <c r="GV46" s="108"/>
+      <c r="GW46" s="108"/>
+      <c r="GX46" s="108"/>
+      <c r="GY46" s="108"/>
+      <c r="GZ46" s="108"/>
+      <c r="HA46" s="108"/>
+      <c r="HB46" s="108"/>
+      <c r="HC46" s="108"/>
+      <c r="HD46" s="108"/>
+      <c r="HE46" s="108"/>
+      <c r="HF46" s="108"/>
+      <c r="HG46" s="108"/>
+      <c r="HH46" s="108"/>
+      <c r="HI46" s="108"/>
+      <c r="HJ46" s="108"/>
+      <c r="HK46" s="109"/>
       <c r="HN46" s="28"/>
       <c r="HO46" s="47"/>
       <c r="HR46" s="54"/>
       <c r="HT46" s="54"/>
       <c r="HU46" s="28"/>
       <c r="HV46" s="33"/>
-      <c r="IC46" s="61"/>
-      <c r="II46" s="68"/>
-      <c r="IJ46" s="61"/>
-      <c r="IO46" s="68"/>
-      <c r="IP46" s="61"/>
-      <c r="IV46" s="68"/>
+      <c r="IC46" s="60"/>
+      <c r="II46" s="67"/>
+      <c r="IJ46" s="60"/>
+      <c r="IO46" s="67"/>
+      <c r="IP46" s="60"/>
+      <c r="IV46" s="67"/>
     </row>
     <row r="47" spans="1:256" ht="33" customHeight="1">
       <c r="A47" s="18">
         <v>7.1</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>105</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>106</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>62</v>
@@ -7948,16 +8092,16 @@
       <c r="CS47" s="33"/>
       <c r="CY47" s="28"/>
       <c r="CZ47" s="33"/>
-      <c r="DG47" s="61"/>
+      <c r="DG47" s="60"/>
       <c r="DM47" s="28"/>
       <c r="DN47" s="33"/>
-      <c r="DT47" s="68"/>
+      <c r="DT47" s="67"/>
       <c r="EA47" s="28"/>
       <c r="EB47" s="33"/>
       <c r="EH47" s="28"/>
       <c r="EI47" s="33"/>
-      <c r="EK47" s="88"/>
-      <c r="EL47" s="89"/>
+      <c r="EK47" s="100"/>
+      <c r="EL47" s="101"/>
       <c r="EO47" s="28"/>
       <c r="EP47" s="33"/>
       <c r="ER47" s="30"/>
@@ -7997,22 +8141,22 @@
       <c r="HT47" s="54"/>
       <c r="HU47" s="28"/>
       <c r="HV47" s="33"/>
-      <c r="IC47" s="61"/>
-      <c r="II47" s="68"/>
-      <c r="IJ47" s="61"/>
-      <c r="IO47" s="68"/>
-      <c r="IP47" s="61"/>
-      <c r="IV47" s="68"/>
+      <c r="IC47" s="60"/>
+      <c r="II47" s="67"/>
+      <c r="IJ47" s="60"/>
+      <c r="IO47" s="67"/>
+      <c r="IP47" s="60"/>
+      <c r="IV47" s="67"/>
     </row>
     <row r="48" spans="1:256" ht="16">
       <c r="A48" s="18">
         <v>7.2</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="84" t="s">
-        <v>112</v>
+        <v>104</v>
+      </c>
+      <c r="C48" s="83" t="s">
+        <v>111</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>62</v>
@@ -8057,10 +8201,10 @@
       <c r="CS48" s="33"/>
       <c r="CY48" s="28"/>
       <c r="CZ48" s="33"/>
-      <c r="DG48" s="61"/>
+      <c r="DG48" s="60"/>
       <c r="DM48" s="28"/>
       <c r="DN48" s="33"/>
-      <c r="DT48" s="68"/>
+      <c r="DT48" s="67"/>
       <c r="EA48" s="28"/>
       <c r="EB48" s="33"/>
       <c r="EH48" s="28"/>
@@ -8079,74 +8223,74 @@
       <c r="FS48" s="30"/>
       <c r="FT48" s="30"/>
       <c r="FU48" s="30"/>
-      <c r="FV48" s="88"/>
-      <c r="FW48" s="90"/>
-      <c r="FX48" s="89"/>
-      <c r="FY48" s="90"/>
-      <c r="FZ48" s="90"/>
-      <c r="GA48" s="90"/>
-      <c r="GB48" s="90"/>
-      <c r="GC48" s="90"/>
-      <c r="GD48" s="90"/>
-      <c r="GE48" s="89"/>
-      <c r="GF48" s="90"/>
-      <c r="GG48" s="90"/>
-      <c r="GH48" s="90"/>
-      <c r="GI48" s="90"/>
-      <c r="GJ48" s="90"/>
-      <c r="GK48" s="90"/>
-      <c r="GL48" s="89"/>
-      <c r="GM48" s="90"/>
-      <c r="GN48" s="90"/>
-      <c r="GO48" s="90"/>
-      <c r="GP48" s="90"/>
-      <c r="GQ48" s="90"/>
-      <c r="GR48" s="90"/>
-      <c r="GS48" s="89"/>
-      <c r="GT48" s="90"/>
-      <c r="GU48" s="90"/>
-      <c r="GV48" s="90"/>
-      <c r="GW48" s="90"/>
-      <c r="GX48" s="90"/>
-      <c r="GY48" s="90"/>
-      <c r="GZ48" s="89"/>
-      <c r="HA48" s="90"/>
-      <c r="HB48" s="90"/>
-      <c r="HC48" s="90"/>
-      <c r="HD48" s="90"/>
-      <c r="HE48" s="90"/>
-      <c r="HF48" s="90"/>
-      <c r="HG48" s="89"/>
-      <c r="HH48" s="88"/>
-      <c r="HI48" s="90"/>
-      <c r="HJ48" s="90"/>
-      <c r="HK48" s="90"/>
-      <c r="HL48" s="91"/>
+      <c r="FV48" s="100"/>
+      <c r="FW48" s="102"/>
+      <c r="FX48" s="101"/>
+      <c r="FY48" s="102"/>
+      <c r="FZ48" s="102"/>
+      <c r="GA48" s="102"/>
+      <c r="GB48" s="102"/>
+      <c r="GC48" s="102"/>
+      <c r="GD48" s="102"/>
+      <c r="GE48" s="101"/>
+      <c r="GF48" s="102"/>
+      <c r="GG48" s="102"/>
+      <c r="GH48" s="102"/>
+      <c r="GI48" s="102"/>
+      <c r="GJ48" s="102"/>
+      <c r="GK48" s="102"/>
+      <c r="GL48" s="101"/>
+      <c r="GM48" s="102"/>
+      <c r="GN48" s="102"/>
+      <c r="GO48" s="102"/>
+      <c r="GP48" s="102"/>
+      <c r="GQ48" s="102"/>
+      <c r="GR48" s="102"/>
+      <c r="GS48" s="101"/>
+      <c r="GT48" s="102"/>
+      <c r="GU48" s="102"/>
+      <c r="GV48" s="102"/>
+      <c r="GW48" s="102"/>
+      <c r="GX48" s="102"/>
+      <c r="GY48" s="102"/>
+      <c r="GZ48" s="101"/>
+      <c r="HA48" s="102"/>
+      <c r="HB48" s="102"/>
+      <c r="HC48" s="102"/>
+      <c r="HD48" s="102"/>
+      <c r="HE48" s="102"/>
+      <c r="HF48" s="102"/>
+      <c r="HG48" s="101"/>
+      <c r="HH48" s="100"/>
+      <c r="HI48" s="102"/>
+      <c r="HJ48" s="102"/>
+      <c r="HK48" s="102"/>
+      <c r="HL48" s="103"/>
       <c r="HN48" s="28"/>
       <c r="HO48" s="47"/>
       <c r="HR48" s="54"/>
       <c r="HT48" s="54"/>
       <c r="HU48" s="28"/>
       <c r="HV48" s="33"/>
-      <c r="IC48" s="61"/>
-      <c r="II48" s="68"/>
-      <c r="IJ48" s="61"/>
-      <c r="IO48" s="68"/>
-      <c r="IP48" s="61"/>
-      <c r="IV48" s="68"/>
+      <c r="IC48" s="60"/>
+      <c r="II48" s="67"/>
+      <c r="IJ48" s="60"/>
+      <c r="IO48" s="67"/>
+      <c r="IP48" s="60"/>
+      <c r="IV48" s="67"/>
     </row>
     <row r="49" spans="1:256" ht="16">
       <c r="A49" s="18">
         <v>7.3</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="77" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>109</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
@@ -8188,10 +8332,10 @@
       <c r="CS49" s="33"/>
       <c r="CY49" s="28"/>
       <c r="CZ49" s="33"/>
-      <c r="DG49" s="61"/>
+      <c r="DG49" s="60"/>
       <c r="DM49" s="28"/>
       <c r="DN49" s="33"/>
-      <c r="DT49" s="68"/>
+      <c r="DT49" s="67"/>
       <c r="EA49" s="28"/>
       <c r="EB49" s="33"/>
       <c r="EH49" s="28"/>
@@ -8210,67 +8354,77 @@
       <c r="FS49" s="30"/>
       <c r="FT49" s="30"/>
       <c r="FU49" s="30"/>
-      <c r="FV49" s="79"/>
-      <c r="FW49" s="79"/>
-      <c r="FX49" s="80"/>
-      <c r="FY49" s="79"/>
-      <c r="FZ49" s="79"/>
-      <c r="GA49" s="79"/>
-      <c r="GB49" s="79"/>
-      <c r="GC49" s="79"/>
-      <c r="GD49" s="79"/>
-      <c r="GE49" s="80"/>
-      <c r="GF49" s="79"/>
-      <c r="GG49" s="79"/>
-      <c r="GH49" s="79"/>
-      <c r="GI49" s="79"/>
-      <c r="GJ49" s="79"/>
-      <c r="GK49" s="79"/>
-      <c r="GL49" s="80"/>
-      <c r="GM49" s="79"/>
-      <c r="GN49" s="79"/>
-      <c r="GO49" s="79"/>
-      <c r="GP49" s="79"/>
-      <c r="GQ49" s="79"/>
-      <c r="GR49" s="79"/>
-      <c r="GS49" s="80"/>
-      <c r="GT49" s="79"/>
-      <c r="GU49" s="79"/>
-      <c r="GV49" s="79"/>
-      <c r="GW49" s="79"/>
-      <c r="GX49" s="79"/>
-      <c r="GY49" s="79"/>
-      <c r="GZ49" s="80"/>
-      <c r="HA49" s="79"/>
-      <c r="HB49" s="79"/>
-      <c r="HC49" s="79"/>
-      <c r="HD49" s="79"/>
-      <c r="HE49" s="79"/>
-      <c r="HF49" s="79"/>
-      <c r="HG49" s="80"/>
-      <c r="HH49" s="81"/>
-      <c r="HI49" s="79"/>
-      <c r="HJ49" s="79"/>
-      <c r="HK49" s="79"/>
-      <c r="HL49" s="82"/>
+      <c r="FV49" s="78"/>
+      <c r="FW49" s="78"/>
+      <c r="FX49" s="79"/>
+      <c r="FY49" s="78"/>
+      <c r="FZ49" s="78"/>
+      <c r="GA49" s="78"/>
+      <c r="GB49" s="78"/>
+      <c r="GC49" s="78"/>
+      <c r="GD49" s="78"/>
+      <c r="GE49" s="79"/>
+      <c r="GF49" s="78"/>
+      <c r="GG49" s="78"/>
+      <c r="GH49" s="78"/>
+      <c r="GI49" s="78"/>
+      <c r="GJ49" s="78"/>
+      <c r="GK49" s="78"/>
+      <c r="GL49" s="79"/>
+      <c r="GM49" s="78"/>
+      <c r="GN49" s="78"/>
+      <c r="GO49" s="78"/>
+      <c r="GP49" s="78"/>
+      <c r="GQ49" s="78"/>
+      <c r="GR49" s="78"/>
+      <c r="GS49" s="79"/>
+      <c r="GT49" s="78"/>
+      <c r="GU49" s="78"/>
+      <c r="GV49" s="78"/>
+      <c r="GW49" s="78"/>
+      <c r="GX49" s="78"/>
+      <c r="GY49" s="78"/>
+      <c r="GZ49" s="79"/>
+      <c r="HA49" s="78"/>
+      <c r="HB49" s="78"/>
+      <c r="HC49" s="78"/>
+      <c r="HD49" s="78"/>
+      <c r="HE49" s="78"/>
+      <c r="HF49" s="78"/>
+      <c r="HG49" s="79"/>
+      <c r="HH49" s="80"/>
+      <c r="HI49" s="78"/>
+      <c r="HJ49" s="78"/>
+      <c r="HK49" s="78"/>
+      <c r="HL49" s="81"/>
       <c r="HO49" s="47"/>
       <c r="HR49" s="54"/>
       <c r="HT49" s="54"/>
       <c r="HU49" s="28"/>
       <c r="HV49" s="33"/>
-      <c r="IC49" s="61"/>
-      <c r="II49" s="68"/>
-      <c r="IJ49" s="61"/>
-      <c r="IO49" s="68"/>
-      <c r="IP49" s="61"/>
-      <c r="IV49" s="68"/>
+      <c r="IC49" s="60"/>
+      <c r="II49" s="67"/>
+      <c r="IJ49" s="60"/>
+      <c r="IO49" s="67"/>
+      <c r="IP49" s="60"/>
+      <c r="IV49" s="67"/>
     </row>
-    <row r="50" spans="1:256">
-      <c r="A50" s="18"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+    <row r="50" spans="1:256" ht="32">
+      <c r="A50" s="18">
+        <v>8.1</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="21">
+        <v>1</v>
+      </c>
       <c r="L50" s="28"/>
       <c r="M50" s="33"/>
       <c r="O50" s="30"/>
@@ -8308,10 +8462,10 @@
       <c r="CS50" s="33"/>
       <c r="CY50" s="28"/>
       <c r="CZ50" s="33"/>
-      <c r="DG50" s="61"/>
+      <c r="DG50" s="60"/>
       <c r="DM50" s="28"/>
       <c r="DN50" s="33"/>
-      <c r="DT50" s="68"/>
+      <c r="DT50" s="67"/>
       <c r="EA50" s="28"/>
       <c r="EB50" s="33"/>
       <c r="EH50" s="28"/>
@@ -8349,25 +8503,37 @@
       <c r="HA50" s="33"/>
       <c r="HG50" s="28"/>
       <c r="HH50" s="33"/>
-      <c r="HN50" s="28"/>
-      <c r="HO50" s="47"/>
+      <c r="HL50" s="89"/>
+      <c r="HM50" s="90"/>
+      <c r="HN50" s="91"/>
+      <c r="HO50" s="30"/>
       <c r="HR50" s="54"/>
       <c r="HT50" s="54"/>
       <c r="HU50" s="28"/>
       <c r="HV50" s="33"/>
-      <c r="IC50" s="61"/>
-      <c r="II50" s="68"/>
-      <c r="IJ50" s="61"/>
-      <c r="IO50" s="68"/>
-      <c r="IP50" s="61"/>
-      <c r="IV50" s="68"/>
+      <c r="IC50" s="60"/>
+      <c r="II50" s="67"/>
+      <c r="IJ50" s="60"/>
+      <c r="IO50" s="67"/>
+      <c r="IP50" s="60"/>
+      <c r="IV50" s="67"/>
     </row>
-    <row r="51" spans="1:256">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+    <row r="51" spans="1:256" ht="32">
+      <c r="A51" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B51" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="21">
+        <v>1</v>
+      </c>
       <c r="L51" s="28"/>
       <c r="M51" s="33"/>
       <c r="O51" s="30"/>
@@ -8405,10 +8571,10 @@
       <c r="CS51" s="33"/>
       <c r="CY51" s="28"/>
       <c r="CZ51" s="33"/>
-      <c r="DG51" s="61"/>
+      <c r="DG51" s="60"/>
       <c r="DM51" s="28"/>
       <c r="DN51" s="33"/>
-      <c r="DT51" s="68"/>
+      <c r="DT51" s="67"/>
       <c r="EA51" s="28"/>
       <c r="EB51" s="33"/>
       <c r="EH51" s="28"/>
@@ -8446,25 +8612,36 @@
       <c r="HA51" s="33"/>
       <c r="HG51" s="28"/>
       <c r="HH51" s="33"/>
-      <c r="HN51" s="28"/>
-      <c r="HO51" s="47"/>
+      <c r="HN51" s="89"/>
+      <c r="HO51" s="97"/>
+      <c r="HP51" s="98"/>
       <c r="HR51" s="54"/>
       <c r="HT51" s="54"/>
       <c r="HU51" s="28"/>
       <c r="HV51" s="33"/>
-      <c r="IC51" s="61"/>
-      <c r="II51" s="68"/>
-      <c r="IJ51" s="61"/>
-      <c r="IO51" s="68"/>
-      <c r="IP51" s="61"/>
-      <c r="IV51" s="68"/>
+      <c r="IC51" s="60"/>
+      <c r="II51" s="67"/>
+      <c r="IJ51" s="60"/>
+      <c r="IO51" s="67"/>
+      <c r="IP51" s="60"/>
+      <c r="IV51" s="67"/>
     </row>
-    <row r="52" spans="1:256">
-      <c r="A52" s="18"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+    <row r="52" spans="1:256" ht="16">
+      <c r="A52" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B52" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E52" s="21">
+        <v>1</v>
+      </c>
       <c r="L52" s="28"/>
       <c r="M52" s="33"/>
       <c r="O52" s="30"/>
@@ -8502,10 +8679,10 @@
       <c r="CS52" s="33"/>
       <c r="CY52" s="28"/>
       <c r="CZ52" s="33"/>
-      <c r="DG52" s="61"/>
+      <c r="DG52" s="60"/>
       <c r="DM52" s="28"/>
       <c r="DN52" s="33"/>
-      <c r="DT52" s="68"/>
+      <c r="DT52" s="67"/>
       <c r="EA52" s="28"/>
       <c r="EB52" s="33"/>
       <c r="EH52" s="28"/>
@@ -8544,17 +8721,20 @@
       <c r="HG52" s="28"/>
       <c r="HH52" s="33"/>
       <c r="HN52" s="28"/>
-      <c r="HO52" s="47"/>
-      <c r="HR52" s="54"/>
-      <c r="HT52" s="54"/>
-      <c r="HU52" s="28"/>
+      <c r="HO52" s="89"/>
+      <c r="HP52" s="90"/>
+      <c r="HQ52" s="90"/>
+      <c r="HR52" s="99"/>
+      <c r="HS52" s="90"/>
+      <c r="HT52" s="99"/>
+      <c r="HU52" s="91"/>
       <c r="HV52" s="33"/>
-      <c r="IC52" s="61"/>
-      <c r="II52" s="68"/>
-      <c r="IJ52" s="61"/>
-      <c r="IO52" s="68"/>
-      <c r="IP52" s="61"/>
-      <c r="IV52" s="68"/>
+      <c r="IC52" s="60"/>
+      <c r="II52" s="67"/>
+      <c r="IJ52" s="60"/>
+      <c r="IO52" s="67"/>
+      <c r="IP52" s="60"/>
+      <c r="IV52" s="67"/>
     </row>
     <row r="53" spans="1:256">
       <c r="A53" s="18"/>
@@ -8599,10 +8779,10 @@
       <c r="CS53" s="33"/>
       <c r="CY53" s="28"/>
       <c r="CZ53" s="33"/>
-      <c r="DG53" s="61"/>
+      <c r="DG53" s="60"/>
       <c r="DM53" s="28"/>
       <c r="DN53" s="33"/>
-      <c r="DT53" s="68"/>
+      <c r="DT53" s="67"/>
       <c r="EA53" s="28"/>
       <c r="EB53" s="33"/>
       <c r="EH53" s="28"/>
@@ -8646,12 +8826,12 @@
       <c r="HT53" s="54"/>
       <c r="HU53" s="28"/>
       <c r="HV53" s="33"/>
-      <c r="IC53" s="61"/>
-      <c r="II53" s="68"/>
-      <c r="IJ53" s="61"/>
-      <c r="IO53" s="68"/>
-      <c r="IP53" s="61"/>
-      <c r="IV53" s="68"/>
+      <c r="IC53" s="60"/>
+      <c r="II53" s="67"/>
+      <c r="IJ53" s="60"/>
+      <c r="IO53" s="67"/>
+      <c r="IP53" s="60"/>
+      <c r="IV53" s="67"/>
     </row>
     <row r="54" spans="1:256">
       <c r="A54" s="18"/>
@@ -8696,10 +8876,10 @@
       <c r="CS54" s="33"/>
       <c r="CY54" s="28"/>
       <c r="CZ54" s="33"/>
-      <c r="DG54" s="61"/>
+      <c r="DG54" s="60"/>
       <c r="DM54" s="28"/>
       <c r="DN54" s="33"/>
-      <c r="DT54" s="68"/>
+      <c r="DT54" s="67"/>
       <c r="EA54" s="28"/>
       <c r="EB54" s="33"/>
       <c r="EH54" s="28"/>
@@ -8743,12 +8923,12 @@
       <c r="HT54" s="54"/>
       <c r="HU54" s="28"/>
       <c r="HV54" s="33"/>
-      <c r="IC54" s="61"/>
-      <c r="II54" s="68"/>
-      <c r="IJ54" s="61"/>
-      <c r="IO54" s="68"/>
-      <c r="IP54" s="61"/>
-      <c r="IV54" s="68"/>
+      <c r="IC54" s="60"/>
+      <c r="II54" s="67"/>
+      <c r="IJ54" s="60"/>
+      <c r="IO54" s="67"/>
+      <c r="IP54" s="60"/>
+      <c r="IV54" s="67"/>
     </row>
     <row r="55" spans="1:256">
       <c r="A55" s="18"/>
@@ -8793,10 +8973,10 @@
       <c r="CS55" s="33"/>
       <c r="CY55" s="28"/>
       <c r="CZ55" s="33"/>
-      <c r="DG55" s="61"/>
+      <c r="DG55" s="60"/>
       <c r="DM55" s="28"/>
       <c r="DN55" s="33"/>
-      <c r="DT55" s="68"/>
+      <c r="DT55" s="67"/>
       <c r="EA55" s="28"/>
       <c r="EB55" s="33"/>
       <c r="EH55" s="28"/>
@@ -8840,12 +9020,12 @@
       <c r="HT55" s="54"/>
       <c r="HU55" s="28"/>
       <c r="HV55" s="33"/>
-      <c r="IC55" s="61"/>
-      <c r="II55" s="68"/>
-      <c r="IJ55" s="61"/>
-      <c r="IO55" s="68"/>
-      <c r="IP55" s="61"/>
-      <c r="IV55" s="68"/>
+      <c r="IC55" s="60"/>
+      <c r="II55" s="67"/>
+      <c r="IJ55" s="60"/>
+      <c r="IO55" s="67"/>
+      <c r="IP55" s="60"/>
+      <c r="IV55" s="67"/>
     </row>
     <row r="56" spans="1:256">
       <c r="A56" s="18"/>
@@ -8890,10 +9070,10 @@
       <c r="CS56" s="33"/>
       <c r="CY56" s="28"/>
       <c r="CZ56" s="33"/>
-      <c r="DG56" s="61"/>
+      <c r="DG56" s="60"/>
       <c r="DM56" s="28"/>
       <c r="DN56" s="33"/>
-      <c r="DT56" s="68"/>
+      <c r="DT56" s="67"/>
       <c r="EA56" s="28"/>
       <c r="EB56" s="33"/>
       <c r="EH56" s="28"/>
@@ -8937,12 +9117,12 @@
       <c r="HT56" s="54"/>
       <c r="HU56" s="28"/>
       <c r="HV56" s="33"/>
-      <c r="IC56" s="61"/>
-      <c r="II56" s="68"/>
-      <c r="IJ56" s="61"/>
-      <c r="IO56" s="68"/>
-      <c r="IP56" s="61"/>
-      <c r="IV56" s="68"/>
+      <c r="IC56" s="60"/>
+      <c r="II56" s="67"/>
+      <c r="IJ56" s="60"/>
+      <c r="IO56" s="67"/>
+      <c r="IP56" s="60"/>
+      <c r="IV56" s="67"/>
     </row>
     <row r="57" spans="1:256">
       <c r="A57" s="18"/>
@@ -8987,10 +9167,10 @@
       <c r="CS57" s="33"/>
       <c r="CY57" s="28"/>
       <c r="CZ57" s="33"/>
-      <c r="DG57" s="61"/>
+      <c r="DG57" s="60"/>
       <c r="DM57" s="28"/>
       <c r="DN57" s="33"/>
-      <c r="DT57" s="68"/>
+      <c r="DT57" s="67"/>
       <c r="EA57" s="28"/>
       <c r="EB57" s="33"/>
       <c r="EH57" s="28"/>
@@ -9034,12 +9214,12 @@
       <c r="HT57" s="54"/>
       <c r="HU57" s="28"/>
       <c r="HV57" s="33"/>
-      <c r="IC57" s="61"/>
-      <c r="II57" s="68"/>
-      <c r="IJ57" s="61"/>
-      <c r="IO57" s="68"/>
-      <c r="IP57" s="61"/>
-      <c r="IV57" s="68"/>
+      <c r="IC57" s="60"/>
+      <c r="II57" s="67"/>
+      <c r="IJ57" s="60"/>
+      <c r="IO57" s="67"/>
+      <c r="IP57" s="60"/>
+      <c r="IV57" s="67"/>
     </row>
     <row r="58" spans="1:256">
       <c r="A58" s="18"/>
@@ -9084,10 +9264,10 @@
       <c r="CS58" s="33"/>
       <c r="CY58" s="28"/>
       <c r="CZ58" s="33"/>
-      <c r="DG58" s="61"/>
+      <c r="DG58" s="60"/>
       <c r="DM58" s="28"/>
       <c r="DN58" s="33"/>
-      <c r="DT58" s="68"/>
+      <c r="DT58" s="67"/>
       <c r="EA58" s="28"/>
       <c r="EB58" s="33"/>
       <c r="EH58" s="28"/>
@@ -9131,12 +9311,12 @@
       <c r="HT58" s="54"/>
       <c r="HU58" s="28"/>
       <c r="HV58" s="33"/>
-      <c r="IC58" s="61"/>
-      <c r="II58" s="68"/>
-      <c r="IJ58" s="61"/>
-      <c r="IO58" s="68"/>
-      <c r="IP58" s="61"/>
-      <c r="IV58" s="68"/>
+      <c r="IC58" s="60"/>
+      <c r="II58" s="67"/>
+      <c r="IJ58" s="60"/>
+      <c r="IO58" s="67"/>
+      <c r="IP58" s="60"/>
+      <c r="IV58" s="67"/>
     </row>
     <row r="59" spans="1:256">
       <c r="A59" s="18"/>
@@ -9181,10 +9361,10 @@
       <c r="CS59" s="33"/>
       <c r="CY59" s="28"/>
       <c r="CZ59" s="33"/>
-      <c r="DG59" s="61"/>
+      <c r="DG59" s="60"/>
       <c r="DM59" s="28"/>
       <c r="DN59" s="33"/>
-      <c r="DT59" s="68"/>
+      <c r="DT59" s="67"/>
       <c r="EA59" s="28"/>
       <c r="EB59" s="33"/>
       <c r="EH59" s="28"/>
@@ -9228,12 +9408,12 @@
       <c r="HT59" s="54"/>
       <c r="HU59" s="28"/>
       <c r="HV59" s="33"/>
-      <c r="IC59" s="61"/>
-      <c r="II59" s="68"/>
-      <c r="IJ59" s="61"/>
-      <c r="IO59" s="68"/>
-      <c r="IP59" s="61"/>
-      <c r="IV59" s="68"/>
+      <c r="IC59" s="60"/>
+      <c r="II59" s="67"/>
+      <c r="IJ59" s="60"/>
+      <c r="IO59" s="67"/>
+      <c r="IP59" s="60"/>
+      <c r="IV59" s="67"/>
     </row>
     <row r="60" spans="1:256">
       <c r="A60" s="18"/>
@@ -9278,10 +9458,10 @@
       <c r="CS60" s="33"/>
       <c r="CY60" s="28"/>
       <c r="CZ60" s="33"/>
-      <c r="DG60" s="61"/>
+      <c r="DG60" s="60"/>
       <c r="DM60" s="28"/>
       <c r="DN60" s="33"/>
-      <c r="DT60" s="68"/>
+      <c r="DT60" s="67"/>
       <c r="EA60" s="28"/>
       <c r="EB60" s="33"/>
       <c r="EH60" s="28"/>
@@ -9325,12 +9505,12 @@
       <c r="HT60" s="54"/>
       <c r="HU60" s="28"/>
       <c r="HV60" s="33"/>
-      <c r="IC60" s="61"/>
-      <c r="II60" s="68"/>
-      <c r="IJ60" s="61"/>
-      <c r="IO60" s="68"/>
-      <c r="IP60" s="61"/>
-      <c r="IV60" s="68"/>
+      <c r="IC60" s="60"/>
+      <c r="II60" s="67"/>
+      <c r="IJ60" s="60"/>
+      <c r="IO60" s="67"/>
+      <c r="IP60" s="60"/>
+      <c r="IV60" s="67"/>
     </row>
     <row r="61" spans="1:256">
       <c r="A61" s="18"/>
@@ -9375,10 +9555,10 @@
       <c r="CS61" s="33"/>
       <c r="CY61" s="28"/>
       <c r="CZ61" s="33"/>
-      <c r="DG61" s="61"/>
+      <c r="DG61" s="60"/>
       <c r="DM61" s="28"/>
       <c r="DN61" s="33"/>
-      <c r="DT61" s="68"/>
+      <c r="DT61" s="67"/>
       <c r="EA61" s="28"/>
       <c r="EB61" s="33"/>
       <c r="EH61" s="28"/>
@@ -9422,12 +9602,12 @@
       <c r="HT61" s="54"/>
       <c r="HU61" s="28"/>
       <c r="HV61" s="33"/>
-      <c r="IC61" s="61"/>
-      <c r="II61" s="68"/>
-      <c r="IJ61" s="61"/>
-      <c r="IO61" s="68"/>
-      <c r="IP61" s="61"/>
-      <c r="IV61" s="68"/>
+      <c r="IC61" s="60"/>
+      <c r="II61" s="67"/>
+      <c r="IJ61" s="60"/>
+      <c r="IO61" s="67"/>
+      <c r="IP61" s="60"/>
+      <c r="IV61" s="67"/>
     </row>
     <row r="62" spans="1:256">
       <c r="A62" s="18"/>
@@ -9472,10 +9652,10 @@
       <c r="CS62" s="33"/>
       <c r="CY62" s="28"/>
       <c r="CZ62" s="33"/>
-      <c r="DG62" s="61"/>
+      <c r="DG62" s="60"/>
       <c r="DM62" s="28"/>
       <c r="DN62" s="33"/>
-      <c r="DT62" s="68"/>
+      <c r="DT62" s="67"/>
       <c r="EA62" s="28"/>
       <c r="EB62" s="33"/>
       <c r="EH62" s="28"/>
@@ -9519,12 +9699,12 @@
       <c r="HT62" s="54"/>
       <c r="HU62" s="28"/>
       <c r="HV62" s="33"/>
-      <c r="IC62" s="61"/>
-      <c r="II62" s="68"/>
-      <c r="IJ62" s="61"/>
-      <c r="IO62" s="68"/>
-      <c r="IP62" s="61"/>
-      <c r="IV62" s="68"/>
+      <c r="IC62" s="60"/>
+      <c r="II62" s="67"/>
+      <c r="IJ62" s="60"/>
+      <c r="IO62" s="67"/>
+      <c r="IP62" s="60"/>
+      <c r="IV62" s="67"/>
     </row>
     <row r="63" spans="1:256">
       <c r="A63" s="18"/>
@@ -9569,10 +9749,10 @@
       <c r="CS63" s="33"/>
       <c r="CY63" s="28"/>
       <c r="CZ63" s="33"/>
-      <c r="DG63" s="61"/>
+      <c r="DG63" s="60"/>
       <c r="DM63" s="28"/>
       <c r="DN63" s="33"/>
-      <c r="DT63" s="68"/>
+      <c r="DT63" s="67"/>
       <c r="EA63" s="28"/>
       <c r="EB63" s="33"/>
       <c r="EH63" s="28"/>
@@ -9616,12 +9796,12 @@
       <c r="HT63" s="54"/>
       <c r="HU63" s="28"/>
       <c r="HV63" s="33"/>
-      <c r="IC63" s="61"/>
-      <c r="II63" s="68"/>
-      <c r="IJ63" s="61"/>
-      <c r="IO63" s="68"/>
-      <c r="IP63" s="61"/>
-      <c r="IV63" s="68"/>
+      <c r="IC63" s="60"/>
+      <c r="II63" s="67"/>
+      <c r="IJ63" s="60"/>
+      <c r="IO63" s="67"/>
+      <c r="IP63" s="60"/>
+      <c r="IV63" s="67"/>
     </row>
     <row r="64" spans="1:256">
       <c r="A64" s="18"/>
@@ -9734,20 +9914,20 @@
       <c r="DD64" s="23"/>
       <c r="DE64" s="23"/>
       <c r="DF64" s="23"/>
-      <c r="DG64" s="62"/>
-      <c r="DH64" s="63"/>
-      <c r="DI64" s="63"/>
-      <c r="DJ64" s="63"/>
-      <c r="DK64" s="63"/>
-      <c r="DL64" s="63"/>
-      <c r="DM64" s="64"/>
-      <c r="DN64" s="65"/>
-      <c r="DO64" s="63"/>
-      <c r="DP64" s="63"/>
-      <c r="DQ64" s="63"/>
-      <c r="DR64" s="63"/>
-      <c r="DS64" s="63"/>
-      <c r="DT64" s="69"/>
+      <c r="DG64" s="61"/>
+      <c r="DH64" s="62"/>
+      <c r="DI64" s="62"/>
+      <c r="DJ64" s="62"/>
+      <c r="DK64" s="62"/>
+      <c r="DL64" s="62"/>
+      <c r="DM64" s="63"/>
+      <c r="DN64" s="64"/>
+      <c r="DO64" s="62"/>
+      <c r="DP64" s="62"/>
+      <c r="DQ64" s="62"/>
+      <c r="DR64" s="62"/>
+      <c r="DS64" s="62"/>
+      <c r="DT64" s="68"/>
       <c r="DU64" s="23"/>
       <c r="DV64" s="23"/>
       <c r="DW64" s="23"/>
@@ -9860,26 +10040,26 @@
       <c r="HZ64" s="23"/>
       <c r="IA64" s="23"/>
       <c r="IB64" s="23"/>
-      <c r="IC64" s="62"/>
-      <c r="ID64" s="63"/>
-      <c r="IE64" s="63"/>
-      <c r="IF64" s="63"/>
-      <c r="IG64" s="63"/>
-      <c r="IH64" s="63"/>
-      <c r="II64" s="69"/>
-      <c r="IJ64" s="62"/>
-      <c r="IK64" s="63"/>
-      <c r="IL64" s="63"/>
-      <c r="IM64" s="63"/>
-      <c r="IN64" s="63"/>
-      <c r="IO64" s="69"/>
-      <c r="IP64" s="62"/>
-      <c r="IQ64" s="63"/>
-      <c r="IR64" s="63"/>
-      <c r="IS64" s="63"/>
-      <c r="IT64" s="63"/>
-      <c r="IU64" s="63"/>
-      <c r="IV64" s="69"/>
+      <c r="IC64" s="61"/>
+      <c r="ID64" s="62"/>
+      <c r="IE64" s="62"/>
+      <c r="IF64" s="62"/>
+      <c r="IG64" s="62"/>
+      <c r="IH64" s="62"/>
+      <c r="II64" s="68"/>
+      <c r="IJ64" s="61"/>
+      <c r="IK64" s="62"/>
+      <c r="IL64" s="62"/>
+      <c r="IM64" s="62"/>
+      <c r="IN64" s="62"/>
+      <c r="IO64" s="68"/>
+      <c r="IP64" s="61"/>
+      <c r="IQ64" s="62"/>
+      <c r="IR64" s="62"/>
+      <c r="IS64" s="62"/>
+      <c r="IT64" s="62"/>
+      <c r="IU64" s="62"/>
+      <c r="IV64" s="68"/>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="18"/>

--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihaixin/Desktop/code/2022-RewardProcessingApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrix/zzzzzzzzzzzzzzzzjbk/2022-RewardProcessingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD455EE-637A-044A-A864-944FC7ACF955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45D9FB-ABD9-2C46-A646-9794B3D0EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11000" yWindow="760" windowWidth="19240" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP Gantt chart" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
   <si>
     <t>Colour coding:</t>
   </si>
@@ -607,9 +607,6 @@
   </si>
   <si>
     <t>Jump page from level 1 to level 2</t>
-  </si>
-  <si>
-    <t>Click button rearrenge</t>
   </si>
   <si>
     <t xml:space="preserve">Game logic </t>
@@ -714,6 +711,38 @@
   </si>
   <si>
     <t>ALL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi,Haixin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity-Pacman</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chongqi, Yichen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click button arrange and rearrenge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game grid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1578,6 +1607,135 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1599,134 +1757,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2008,13 +2043,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV65"/>
+  <dimension ref="A1:IV67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -2043,277 +2078,277 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="142" t="s">
+      <c r="F2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="144" t="s">
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="142"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="142"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="142"/>
-      <c r="AN2" s="142"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="144" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="100"/>
+      <c r="X2" s="100"/>
+      <c r="Y2" s="100"/>
+      <c r="Z2" s="100"/>
+      <c r="AA2" s="100"/>
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="100"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="100"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
+      <c r="AK2" s="100"/>
+      <c r="AL2" s="100"/>
+      <c r="AM2" s="100"/>
+      <c r="AN2" s="100"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="142"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-      <c r="AT2" s="142"/>
-      <c r="AU2" s="142"/>
-      <c r="AV2" s="142"/>
-      <c r="AW2" s="142"/>
-      <c r="AX2" s="142"/>
-      <c r="AY2" s="142"/>
-      <c r="AZ2" s="142"/>
-      <c r="BA2" s="142"/>
-      <c r="BB2" s="142"/>
-      <c r="BC2" s="142"/>
-      <c r="BD2" s="142"/>
-      <c r="BE2" s="142"/>
-      <c r="BF2" s="142"/>
-      <c r="BG2" s="142"/>
-      <c r="BH2" s="142"/>
-      <c r="BI2" s="142"/>
-      <c r="BJ2" s="142"/>
-      <c r="BK2" s="142"/>
-      <c r="BL2" s="142"/>
-      <c r="BM2" s="142"/>
-      <c r="BN2" s="142"/>
-      <c r="BO2" s="142"/>
-      <c r="BP2" s="142"/>
-      <c r="BQ2" s="142"/>
-      <c r="BR2" s="142"/>
-      <c r="BS2" s="143"/>
-      <c r="BT2" s="144" t="s">
+      <c r="AQ2" s="100"/>
+      <c r="AR2" s="100"/>
+      <c r="AS2" s="100"/>
+      <c r="AT2" s="100"/>
+      <c r="AU2" s="100"/>
+      <c r="AV2" s="100"/>
+      <c r="AW2" s="100"/>
+      <c r="AX2" s="100"/>
+      <c r="AY2" s="100"/>
+      <c r="AZ2" s="100"/>
+      <c r="BA2" s="100"/>
+      <c r="BB2" s="100"/>
+      <c r="BC2" s="100"/>
+      <c r="BD2" s="100"/>
+      <c r="BE2" s="100"/>
+      <c r="BF2" s="100"/>
+      <c r="BG2" s="100"/>
+      <c r="BH2" s="100"/>
+      <c r="BI2" s="100"/>
+      <c r="BJ2" s="100"/>
+      <c r="BK2" s="100"/>
+      <c r="BL2" s="100"/>
+      <c r="BM2" s="100"/>
+      <c r="BN2" s="100"/>
+      <c r="BO2" s="100"/>
+      <c r="BP2" s="100"/>
+      <c r="BQ2" s="100"/>
+      <c r="BR2" s="100"/>
+      <c r="BS2" s="101"/>
+      <c r="BT2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="142"/>
-      <c r="BV2" s="142"/>
-      <c r="BW2" s="142"/>
-      <c r="BX2" s="142"/>
-      <c r="BY2" s="142"/>
-      <c r="BZ2" s="142"/>
-      <c r="CA2" s="142"/>
-      <c r="CB2" s="142"/>
-      <c r="CC2" s="142"/>
-      <c r="CD2" s="142"/>
-      <c r="CE2" s="142"/>
-      <c r="CF2" s="142"/>
-      <c r="CG2" s="142"/>
-      <c r="CH2" s="142"/>
-      <c r="CI2" s="142"/>
-      <c r="CJ2" s="142"/>
-      <c r="CK2" s="142"/>
-      <c r="CL2" s="142"/>
-      <c r="CM2" s="142"/>
-      <c r="CN2" s="142"/>
-      <c r="CO2" s="142"/>
-      <c r="CP2" s="142"/>
-      <c r="CQ2" s="142"/>
-      <c r="CR2" s="142"/>
-      <c r="CS2" s="142"/>
-      <c r="CT2" s="142"/>
-      <c r="CU2" s="142"/>
-      <c r="CV2" s="142"/>
-      <c r="CW2" s="142"/>
-      <c r="CX2" s="143"/>
-      <c r="CY2" s="144" t="s">
+      <c r="BU2" s="100"/>
+      <c r="BV2" s="100"/>
+      <c r="BW2" s="100"/>
+      <c r="BX2" s="100"/>
+      <c r="BY2" s="100"/>
+      <c r="BZ2" s="100"/>
+      <c r="CA2" s="100"/>
+      <c r="CB2" s="100"/>
+      <c r="CC2" s="100"/>
+      <c r="CD2" s="100"/>
+      <c r="CE2" s="100"/>
+      <c r="CF2" s="100"/>
+      <c r="CG2" s="100"/>
+      <c r="CH2" s="100"/>
+      <c r="CI2" s="100"/>
+      <c r="CJ2" s="100"/>
+      <c r="CK2" s="100"/>
+      <c r="CL2" s="100"/>
+      <c r="CM2" s="100"/>
+      <c r="CN2" s="100"/>
+      <c r="CO2" s="100"/>
+      <c r="CP2" s="100"/>
+      <c r="CQ2" s="100"/>
+      <c r="CR2" s="100"/>
+      <c r="CS2" s="100"/>
+      <c r="CT2" s="100"/>
+      <c r="CU2" s="100"/>
+      <c r="CV2" s="100"/>
+      <c r="CW2" s="100"/>
+      <c r="CX2" s="101"/>
+      <c r="CY2" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="CZ2" s="142"/>
-      <c r="DA2" s="142"/>
-      <c r="DB2" s="142"/>
-      <c r="DC2" s="142"/>
-      <c r="DD2" s="142"/>
-      <c r="DE2" s="142"/>
-      <c r="DF2" s="142"/>
-      <c r="DG2" s="138"/>
-      <c r="DH2" s="138"/>
-      <c r="DI2" s="138"/>
-      <c r="DJ2" s="138"/>
-      <c r="DK2" s="138"/>
-      <c r="DL2" s="138"/>
-      <c r="DM2" s="138"/>
-      <c r="DN2" s="138"/>
-      <c r="DO2" s="138"/>
-      <c r="DP2" s="138"/>
-      <c r="DQ2" s="138"/>
-      <c r="DR2" s="138"/>
-      <c r="DS2" s="138"/>
-      <c r="DT2" s="138"/>
-      <c r="DU2" s="142"/>
-      <c r="DV2" s="142"/>
-      <c r="DW2" s="142"/>
-      <c r="DX2" s="142"/>
-      <c r="DY2" s="142"/>
-      <c r="DZ2" s="142"/>
-      <c r="EA2" s="142"/>
-      <c r="EB2" s="142"/>
-      <c r="EC2" s="143"/>
-      <c r="ED2" s="137" t="s">
+      <c r="CZ2" s="100"/>
+      <c r="DA2" s="100"/>
+      <c r="DB2" s="100"/>
+      <c r="DC2" s="100"/>
+      <c r="DD2" s="100"/>
+      <c r="DE2" s="100"/>
+      <c r="DF2" s="100"/>
+      <c r="DG2" s="103"/>
+      <c r="DH2" s="103"/>
+      <c r="DI2" s="103"/>
+      <c r="DJ2" s="103"/>
+      <c r="DK2" s="103"/>
+      <c r="DL2" s="103"/>
+      <c r="DM2" s="103"/>
+      <c r="DN2" s="103"/>
+      <c r="DO2" s="103"/>
+      <c r="DP2" s="103"/>
+      <c r="DQ2" s="103"/>
+      <c r="DR2" s="103"/>
+      <c r="DS2" s="103"/>
+      <c r="DT2" s="103"/>
+      <c r="DU2" s="100"/>
+      <c r="DV2" s="100"/>
+      <c r="DW2" s="100"/>
+      <c r="DX2" s="100"/>
+      <c r="DY2" s="100"/>
+      <c r="DZ2" s="100"/>
+      <c r="EA2" s="100"/>
+      <c r="EB2" s="100"/>
+      <c r="EC2" s="101"/>
+      <c r="ED2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="EE2" s="138"/>
-      <c r="EF2" s="138"/>
-      <c r="EG2" s="138"/>
-      <c r="EH2" s="138"/>
-      <c r="EI2" s="142"/>
-      <c r="EJ2" s="142"/>
-      <c r="EK2" s="142"/>
-      <c r="EL2" s="142"/>
-      <c r="EM2" s="142"/>
-      <c r="EN2" s="142"/>
-      <c r="EO2" s="142"/>
-      <c r="EP2" s="142"/>
-      <c r="EQ2" s="142"/>
-      <c r="ER2" s="142"/>
-      <c r="ES2" s="142"/>
-      <c r="ET2" s="142"/>
-      <c r="EU2" s="142"/>
-      <c r="EV2" s="142"/>
-      <c r="EW2" s="142"/>
-      <c r="EX2" s="142"/>
-      <c r="EY2" s="142"/>
-      <c r="EZ2" s="142"/>
-      <c r="FA2" s="142"/>
-      <c r="FB2" s="142"/>
-      <c r="FC2" s="142"/>
-      <c r="FD2" s="142"/>
-      <c r="FE2" s="143"/>
-      <c r="FF2" s="137" t="s">
+      <c r="EE2" s="103"/>
+      <c r="EF2" s="103"/>
+      <c r="EG2" s="103"/>
+      <c r="EH2" s="103"/>
+      <c r="EI2" s="100"/>
+      <c r="EJ2" s="100"/>
+      <c r="EK2" s="100"/>
+      <c r="EL2" s="100"/>
+      <c r="EM2" s="100"/>
+      <c r="EN2" s="100"/>
+      <c r="EO2" s="100"/>
+      <c r="EP2" s="100"/>
+      <c r="EQ2" s="100"/>
+      <c r="ER2" s="100"/>
+      <c r="ES2" s="100"/>
+      <c r="ET2" s="100"/>
+      <c r="EU2" s="100"/>
+      <c r="EV2" s="100"/>
+      <c r="EW2" s="100"/>
+      <c r="EX2" s="100"/>
+      <c r="EY2" s="100"/>
+      <c r="EZ2" s="100"/>
+      <c r="FA2" s="100"/>
+      <c r="FB2" s="100"/>
+      <c r="FC2" s="100"/>
+      <c r="FD2" s="100"/>
+      <c r="FE2" s="101"/>
+      <c r="FF2" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="FG2" s="138"/>
-      <c r="FH2" s="138"/>
-      <c r="FI2" s="138"/>
-      <c r="FJ2" s="138"/>
-      <c r="FK2" s="142"/>
-      <c r="FL2" s="142"/>
-      <c r="FM2" s="142"/>
-      <c r="FN2" s="142"/>
-      <c r="FO2" s="142"/>
-      <c r="FP2" s="142"/>
-      <c r="FQ2" s="142"/>
-      <c r="FR2" s="142"/>
-      <c r="FS2" s="142"/>
-      <c r="FT2" s="142"/>
-      <c r="FU2" s="142"/>
-      <c r="FV2" s="142"/>
-      <c r="FW2" s="142"/>
-      <c r="FX2" s="142"/>
-      <c r="FY2" s="142"/>
-      <c r="FZ2" s="142"/>
-      <c r="GA2" s="142"/>
-      <c r="GB2" s="142"/>
-      <c r="GC2" s="142"/>
-      <c r="GD2" s="142"/>
-      <c r="GE2" s="142"/>
-      <c r="GF2" s="142"/>
-      <c r="GG2" s="142"/>
-      <c r="GH2" s="142"/>
-      <c r="GI2" s="142"/>
-      <c r="GJ2" s="143"/>
-      <c r="GK2" s="144" t="s">
+      <c r="FG2" s="103"/>
+      <c r="FH2" s="103"/>
+      <c r="FI2" s="103"/>
+      <c r="FJ2" s="103"/>
+      <c r="FK2" s="100"/>
+      <c r="FL2" s="100"/>
+      <c r="FM2" s="100"/>
+      <c r="FN2" s="100"/>
+      <c r="FO2" s="100"/>
+      <c r="FP2" s="100"/>
+      <c r="FQ2" s="100"/>
+      <c r="FR2" s="100"/>
+      <c r="FS2" s="100"/>
+      <c r="FT2" s="100"/>
+      <c r="FU2" s="100"/>
+      <c r="FV2" s="100"/>
+      <c r="FW2" s="100"/>
+      <c r="FX2" s="100"/>
+      <c r="FY2" s="100"/>
+      <c r="FZ2" s="100"/>
+      <c r="GA2" s="100"/>
+      <c r="GB2" s="100"/>
+      <c r="GC2" s="100"/>
+      <c r="GD2" s="100"/>
+      <c r="GE2" s="100"/>
+      <c r="GF2" s="100"/>
+      <c r="GG2" s="100"/>
+      <c r="GH2" s="100"/>
+      <c r="GI2" s="100"/>
+      <c r="GJ2" s="101"/>
+      <c r="GK2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="GL2" s="142"/>
-      <c r="GM2" s="142"/>
-      <c r="GN2" s="142"/>
-      <c r="GO2" s="142"/>
-      <c r="GP2" s="142"/>
-      <c r="GQ2" s="142"/>
-      <c r="GR2" s="142"/>
-      <c r="GS2" s="142"/>
-      <c r="GT2" s="142"/>
-      <c r="GU2" s="142"/>
-      <c r="GV2" s="142"/>
-      <c r="GW2" s="142"/>
-      <c r="GX2" s="142"/>
-      <c r="GY2" s="142"/>
-      <c r="GZ2" s="142"/>
-      <c r="HA2" s="142"/>
-      <c r="HB2" s="142"/>
-      <c r="HC2" s="142"/>
-      <c r="HD2" s="142"/>
-      <c r="HE2" s="142"/>
-      <c r="HF2" s="142"/>
-      <c r="HG2" s="142"/>
-      <c r="HH2" s="142"/>
-      <c r="HI2" s="142"/>
-      <c r="HJ2" s="142"/>
-      <c r="HK2" s="142"/>
-      <c r="HL2" s="142"/>
-      <c r="HM2" s="142"/>
-      <c r="HN2" s="143"/>
-      <c r="HO2" s="144" t="s">
+      <c r="GL2" s="100"/>
+      <c r="GM2" s="100"/>
+      <c r="GN2" s="100"/>
+      <c r="GO2" s="100"/>
+      <c r="GP2" s="100"/>
+      <c r="GQ2" s="100"/>
+      <c r="GR2" s="100"/>
+      <c r="GS2" s="100"/>
+      <c r="GT2" s="100"/>
+      <c r="GU2" s="100"/>
+      <c r="GV2" s="100"/>
+      <c r="GW2" s="100"/>
+      <c r="GX2" s="100"/>
+      <c r="GY2" s="100"/>
+      <c r="GZ2" s="100"/>
+      <c r="HA2" s="100"/>
+      <c r="HB2" s="100"/>
+      <c r="HC2" s="100"/>
+      <c r="HD2" s="100"/>
+      <c r="HE2" s="100"/>
+      <c r="HF2" s="100"/>
+      <c r="HG2" s="100"/>
+      <c r="HH2" s="100"/>
+      <c r="HI2" s="100"/>
+      <c r="HJ2" s="100"/>
+      <c r="HK2" s="100"/>
+      <c r="HL2" s="100"/>
+      <c r="HM2" s="100"/>
+      <c r="HN2" s="101"/>
+      <c r="HO2" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="HP2" s="142"/>
-      <c r="HQ2" s="142"/>
-      <c r="HR2" s="142"/>
-      <c r="HS2" s="142"/>
-      <c r="HT2" s="142"/>
-      <c r="HU2" s="142"/>
-      <c r="HV2" s="142"/>
-      <c r="HW2" s="142"/>
-      <c r="HX2" s="142"/>
-      <c r="HY2" s="142"/>
-      <c r="HZ2" s="142"/>
-      <c r="IA2" s="142"/>
-      <c r="IB2" s="142"/>
-      <c r="IC2" s="138"/>
-      <c r="ID2" s="138"/>
-      <c r="IE2" s="138"/>
-      <c r="IF2" s="138"/>
-      <c r="IG2" s="138"/>
-      <c r="IH2" s="138"/>
-      <c r="II2" s="138"/>
-      <c r="IJ2" s="138"/>
-      <c r="IK2" s="138"/>
-      <c r="IL2" s="138"/>
-      <c r="IM2" s="138"/>
-      <c r="IN2" s="138"/>
-      <c r="IO2" s="138"/>
-      <c r="IP2" s="138"/>
-      <c r="IQ2" s="138"/>
-      <c r="IR2" s="138"/>
-      <c r="IS2" s="139"/>
-      <c r="IT2" s="137" t="s">
+      <c r="HP2" s="100"/>
+      <c r="HQ2" s="100"/>
+      <c r="HR2" s="100"/>
+      <c r="HS2" s="100"/>
+      <c r="HT2" s="100"/>
+      <c r="HU2" s="100"/>
+      <c r="HV2" s="100"/>
+      <c r="HW2" s="100"/>
+      <c r="HX2" s="100"/>
+      <c r="HY2" s="100"/>
+      <c r="HZ2" s="100"/>
+      <c r="IA2" s="100"/>
+      <c r="IB2" s="100"/>
+      <c r="IC2" s="103"/>
+      <c r="ID2" s="103"/>
+      <c r="IE2" s="103"/>
+      <c r="IF2" s="103"/>
+      <c r="IG2" s="103"/>
+      <c r="IH2" s="103"/>
+      <c r="II2" s="103"/>
+      <c r="IJ2" s="103"/>
+      <c r="IK2" s="103"/>
+      <c r="IL2" s="103"/>
+      <c r="IM2" s="103"/>
+      <c r="IN2" s="103"/>
+      <c r="IO2" s="103"/>
+      <c r="IP2" s="103"/>
+      <c r="IQ2" s="103"/>
+      <c r="IR2" s="103"/>
+      <c r="IS2" s="105"/>
+      <c r="IT2" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="IU2" s="138"/>
-      <c r="IV2" s="139"/>
+      <c r="IU2" s="103"/>
+      <c r="IV2" s="105"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1">
       <c r="B3" s="2"/>
@@ -2321,306 +2356,306 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="137" t="s">
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="104" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="137" t="s">
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="137" t="s">
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="138"/>
-      <c r="AJ3" s="138"/>
-      <c r="AK3" s="138"/>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="137" t="s">
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="103"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="138"/>
-      <c r="AQ3" s="138"/>
-      <c r="AR3" s="138"/>
-      <c r="AS3" s="138"/>
-      <c r="AT3" s="138"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="137" t="s">
+      <c r="AP3" s="103"/>
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="103"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="138"/>
-      <c r="AX3" s="138"/>
-      <c r="AY3" s="138"/>
-      <c r="AZ3" s="138"/>
-      <c r="BA3" s="138"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="137" t="s">
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
+      <c r="AZ3" s="103"/>
+      <c r="BA3" s="103"/>
+      <c r="BB3" s="105"/>
+      <c r="BC3" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="138"/>
-      <c r="BE3" s="138"/>
-      <c r="BF3" s="138"/>
-      <c r="BG3" s="138"/>
-      <c r="BH3" s="138"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="137" t="s">
+      <c r="BD3" s="103"/>
+      <c r="BE3" s="103"/>
+      <c r="BF3" s="103"/>
+      <c r="BG3" s="103"/>
+      <c r="BH3" s="103"/>
+      <c r="BI3" s="105"/>
+      <c r="BJ3" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="138"/>
-      <c r="BL3" s="138"/>
-      <c r="BM3" s="138"/>
-      <c r="BN3" s="138"/>
-      <c r="BO3" s="138"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="137" t="s">
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="103"/>
+      <c r="BM3" s="103"/>
+      <c r="BN3" s="103"/>
+      <c r="BO3" s="103"/>
+      <c r="BP3" s="105"/>
+      <c r="BQ3" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="138"/>
-      <c r="BS3" s="138"/>
-      <c r="BT3" s="138"/>
-      <c r="BU3" s="138"/>
-      <c r="BV3" s="138"/>
-      <c r="BW3" s="139"/>
-      <c r="BX3" s="137" t="s">
+      <c r="BR3" s="103"/>
+      <c r="BS3" s="103"/>
+      <c r="BT3" s="103"/>
+      <c r="BU3" s="103"/>
+      <c r="BV3" s="103"/>
+      <c r="BW3" s="105"/>
+      <c r="BX3" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="BY3" s="138"/>
-      <c r="BZ3" s="138"/>
-      <c r="CA3" s="138"/>
-      <c r="CB3" s="138"/>
-      <c r="CC3" s="138"/>
-      <c r="CD3" s="139"/>
-      <c r="CE3" s="137" t="s">
+      <c r="BY3" s="103"/>
+      <c r="BZ3" s="103"/>
+      <c r="CA3" s="103"/>
+      <c r="CB3" s="103"/>
+      <c r="CC3" s="103"/>
+      <c r="CD3" s="105"/>
+      <c r="CE3" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="CF3" s="138"/>
-      <c r="CG3" s="138"/>
-      <c r="CH3" s="138"/>
-      <c r="CI3" s="138"/>
-      <c r="CJ3" s="138"/>
-      <c r="CK3" s="139"/>
-      <c r="CL3" s="144" t="s">
+      <c r="CF3" s="103"/>
+      <c r="CG3" s="103"/>
+      <c r="CH3" s="103"/>
+      <c r="CI3" s="103"/>
+      <c r="CJ3" s="103"/>
+      <c r="CK3" s="105"/>
+      <c r="CL3" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="CM3" s="142"/>
-      <c r="CN3" s="142"/>
-      <c r="CO3" s="142"/>
-      <c r="CP3" s="142"/>
-      <c r="CQ3" s="142"/>
-      <c r="CR3" s="143"/>
-      <c r="CS3" s="144" t="s">
+      <c r="CM3" s="100"/>
+      <c r="CN3" s="100"/>
+      <c r="CO3" s="100"/>
+      <c r="CP3" s="100"/>
+      <c r="CQ3" s="100"/>
+      <c r="CR3" s="101"/>
+      <c r="CS3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="142"/>
-      <c r="CU3" s="142"/>
-      <c r="CV3" s="142"/>
-      <c r="CW3" s="142"/>
-      <c r="CX3" s="142"/>
-      <c r="CY3" s="143"/>
-      <c r="CZ3" s="144" t="s">
+      <c r="CT3" s="100"/>
+      <c r="CU3" s="100"/>
+      <c r="CV3" s="100"/>
+      <c r="CW3" s="100"/>
+      <c r="CX3" s="100"/>
+      <c r="CY3" s="101"/>
+      <c r="CZ3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="142"/>
-      <c r="DB3" s="142"/>
-      <c r="DC3" s="142"/>
-      <c r="DD3" s="142"/>
-      <c r="DE3" s="142"/>
-      <c r="DF3" s="142"/>
-      <c r="DG3" s="124" t="s">
+      <c r="DA3" s="100"/>
+      <c r="DB3" s="100"/>
+      <c r="DC3" s="100"/>
+      <c r="DD3" s="100"/>
+      <c r="DE3" s="100"/>
+      <c r="DF3" s="100"/>
+      <c r="DG3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="DH3" s="125"/>
-      <c r="DI3" s="125"/>
-      <c r="DJ3" s="125"/>
-      <c r="DK3" s="125"/>
-      <c r="DL3" s="125"/>
-      <c r="DM3" s="148"/>
-      <c r="DN3" s="149" t="s">
+      <c r="DH3" s="107"/>
+      <c r="DI3" s="107"/>
+      <c r="DJ3" s="107"/>
+      <c r="DK3" s="107"/>
+      <c r="DL3" s="107"/>
+      <c r="DM3" s="108"/>
+      <c r="DN3" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="DO3" s="125"/>
-      <c r="DP3" s="125"/>
-      <c r="DQ3" s="125"/>
-      <c r="DR3" s="125"/>
-      <c r="DS3" s="125"/>
-      <c r="DT3" s="126"/>
-      <c r="DU3" s="142" t="s">
+      <c r="DO3" s="107"/>
+      <c r="DP3" s="107"/>
+      <c r="DQ3" s="107"/>
+      <c r="DR3" s="107"/>
+      <c r="DS3" s="107"/>
+      <c r="DT3" s="110"/>
+      <c r="DU3" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="DV3" s="142"/>
-      <c r="DW3" s="142"/>
-      <c r="DX3" s="142"/>
-      <c r="DY3" s="142"/>
-      <c r="DZ3" s="142"/>
-      <c r="EA3" s="143"/>
-      <c r="EB3" s="144" t="s">
+      <c r="DV3" s="100"/>
+      <c r="DW3" s="100"/>
+      <c r="DX3" s="100"/>
+      <c r="DY3" s="100"/>
+      <c r="DZ3" s="100"/>
+      <c r="EA3" s="101"/>
+      <c r="EB3" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="EC3" s="142"/>
-      <c r="ED3" s="142"/>
-      <c r="EE3" s="142"/>
-      <c r="EF3" s="142"/>
-      <c r="EG3" s="142"/>
-      <c r="EH3" s="143"/>
-      <c r="EI3" s="144" t="s">
+      <c r="EC3" s="100"/>
+      <c r="ED3" s="100"/>
+      <c r="EE3" s="100"/>
+      <c r="EF3" s="100"/>
+      <c r="EG3" s="100"/>
+      <c r="EH3" s="101"/>
+      <c r="EI3" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="EJ3" s="142"/>
-      <c r="EK3" s="142"/>
-      <c r="EL3" s="142"/>
-      <c r="EM3" s="142"/>
-      <c r="EN3" s="142"/>
-      <c r="EO3" s="143"/>
-      <c r="EP3" s="144" t="s">
+      <c r="EJ3" s="100"/>
+      <c r="EK3" s="100"/>
+      <c r="EL3" s="100"/>
+      <c r="EM3" s="100"/>
+      <c r="EN3" s="100"/>
+      <c r="EO3" s="101"/>
+      <c r="EP3" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="EQ3" s="142"/>
-      <c r="ER3" s="142"/>
-      <c r="ES3" s="142"/>
-      <c r="ET3" s="142"/>
-      <c r="EU3" s="142"/>
-      <c r="EV3" s="143"/>
-      <c r="EW3" s="144" t="s">
+      <c r="EQ3" s="100"/>
+      <c r="ER3" s="100"/>
+      <c r="ES3" s="100"/>
+      <c r="ET3" s="100"/>
+      <c r="EU3" s="100"/>
+      <c r="EV3" s="101"/>
+      <c r="EW3" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="EX3" s="142"/>
-      <c r="EY3" s="142"/>
-      <c r="EZ3" s="142"/>
-      <c r="FA3" s="142"/>
-      <c r="FB3" s="142"/>
-      <c r="FC3" s="143"/>
-      <c r="FD3" s="145" t="s">
+      <c r="EX3" s="100"/>
+      <c r="EY3" s="100"/>
+      <c r="EZ3" s="100"/>
+      <c r="FA3" s="100"/>
+      <c r="FB3" s="100"/>
+      <c r="FC3" s="101"/>
+      <c r="FD3" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="FE3" s="146"/>
-      <c r="FF3" s="138"/>
-      <c r="FG3" s="138"/>
-      <c r="FH3" s="138"/>
-      <c r="FI3" s="138"/>
-      <c r="FJ3" s="139"/>
-      <c r="FK3" s="137" t="s">
+      <c r="FE3" s="112"/>
+      <c r="FF3" s="103"/>
+      <c r="FG3" s="103"/>
+      <c r="FH3" s="103"/>
+      <c r="FI3" s="103"/>
+      <c r="FJ3" s="105"/>
+      <c r="FK3" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="FL3" s="138"/>
-      <c r="FM3" s="138"/>
-      <c r="FN3" s="138"/>
-      <c r="FO3" s="138"/>
-      <c r="FP3" s="138"/>
-      <c r="FQ3" s="139"/>
-      <c r="FR3" s="137" t="s">
+      <c r="FL3" s="103"/>
+      <c r="FM3" s="103"/>
+      <c r="FN3" s="103"/>
+      <c r="FO3" s="103"/>
+      <c r="FP3" s="103"/>
+      <c r="FQ3" s="105"/>
+      <c r="FR3" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="FS3" s="138"/>
-      <c r="FT3" s="138"/>
-      <c r="FU3" s="138"/>
-      <c r="FV3" s="138"/>
-      <c r="FW3" s="138"/>
-      <c r="FX3" s="139"/>
-      <c r="FY3" s="137" t="s">
+      <c r="FS3" s="103"/>
+      <c r="FT3" s="103"/>
+      <c r="FU3" s="103"/>
+      <c r="FV3" s="103"/>
+      <c r="FW3" s="103"/>
+      <c r="FX3" s="105"/>
+      <c r="FY3" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="FZ3" s="138"/>
-      <c r="GA3" s="138"/>
-      <c r="GB3" s="138"/>
-      <c r="GC3" s="138"/>
-      <c r="GD3" s="138"/>
-      <c r="GE3" s="139"/>
-      <c r="GF3" s="140" t="s">
+      <c r="FZ3" s="103"/>
+      <c r="GA3" s="103"/>
+      <c r="GB3" s="103"/>
+      <c r="GC3" s="103"/>
+      <c r="GD3" s="103"/>
+      <c r="GE3" s="105"/>
+      <c r="GF3" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="GG3" s="141"/>
-      <c r="GH3" s="141"/>
-      <c r="GI3" s="141"/>
-      <c r="GJ3" s="141"/>
-      <c r="GK3" s="142"/>
-      <c r="GL3" s="143"/>
-      <c r="GM3" s="144" t="s">
+      <c r="GG3" s="124"/>
+      <c r="GH3" s="124"/>
+      <c r="GI3" s="124"/>
+      <c r="GJ3" s="124"/>
+      <c r="GK3" s="100"/>
+      <c r="GL3" s="101"/>
+      <c r="GM3" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="GN3" s="142"/>
-      <c r="GO3" s="142"/>
-      <c r="GP3" s="142"/>
-      <c r="GQ3" s="142"/>
-      <c r="GR3" s="142"/>
-      <c r="GS3" s="143"/>
-      <c r="GT3" s="144" t="s">
+      <c r="GN3" s="100"/>
+      <c r="GO3" s="100"/>
+      <c r="GP3" s="100"/>
+      <c r="GQ3" s="100"/>
+      <c r="GR3" s="100"/>
+      <c r="GS3" s="101"/>
+      <c r="GT3" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="GU3" s="142"/>
-      <c r="GV3" s="142"/>
-      <c r="GW3" s="142"/>
-      <c r="GX3" s="142"/>
-      <c r="GY3" s="142"/>
-      <c r="GZ3" s="143"/>
-      <c r="HA3" s="137" t="s">
+      <c r="GU3" s="100"/>
+      <c r="GV3" s="100"/>
+      <c r="GW3" s="100"/>
+      <c r="GX3" s="100"/>
+      <c r="GY3" s="100"/>
+      <c r="GZ3" s="101"/>
+      <c r="HA3" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="HB3" s="138"/>
-      <c r="HC3" s="138"/>
-      <c r="HD3" s="138"/>
-      <c r="HE3" s="138"/>
-      <c r="HF3" s="138"/>
-      <c r="HG3" s="139"/>
-      <c r="HH3" s="137" t="s">
+      <c r="HB3" s="103"/>
+      <c r="HC3" s="103"/>
+      <c r="HD3" s="103"/>
+      <c r="HE3" s="103"/>
+      <c r="HF3" s="103"/>
+      <c r="HG3" s="105"/>
+      <c r="HH3" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="HI3" s="138"/>
-      <c r="HJ3" s="138"/>
-      <c r="HK3" s="138"/>
-      <c r="HL3" s="138"/>
-      <c r="HM3" s="138"/>
-      <c r="HN3" s="139"/>
-      <c r="HO3" s="145" t="s">
+      <c r="HI3" s="103"/>
+      <c r="HJ3" s="103"/>
+      <c r="HK3" s="103"/>
+      <c r="HL3" s="103"/>
+      <c r="HM3" s="103"/>
+      <c r="HN3" s="105"/>
+      <c r="HO3" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="HP3" s="146"/>
-      <c r="HQ3" s="146"/>
-      <c r="HR3" s="146"/>
-      <c r="HS3" s="146"/>
-      <c r="HT3" s="146"/>
-      <c r="HU3" s="147"/>
+      <c r="HP3" s="112"/>
+      <c r="HQ3" s="112"/>
+      <c r="HR3" s="112"/>
+      <c r="HS3" s="112"/>
+      <c r="HT3" s="112"/>
+      <c r="HU3" s="125"/>
       <c r="HV3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="IC3" s="124" t="s">
+      <c r="IC3" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="ID3" s="125"/>
-      <c r="IE3" s="125"/>
-      <c r="IF3" s="125"/>
-      <c r="IG3" s="125"/>
-      <c r="IH3" s="125"/>
-      <c r="II3" s="126"/>
+      <c r="ID3" s="107"/>
+      <c r="IE3" s="107"/>
+      <c r="IF3" s="107"/>
+      <c r="IG3" s="107"/>
+      <c r="IH3" s="107"/>
+      <c r="II3" s="110"/>
       <c r="IJ3" s="73" t="s">
         <v>48</v>
       </c>
@@ -2629,15 +2664,15 @@
       <c r="IM3" s="74"/>
       <c r="IN3" s="74"/>
       <c r="IO3" s="76"/>
-      <c r="IP3" s="124" t="s">
+      <c r="IP3" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="IQ3" s="125"/>
-      <c r="IR3" s="125"/>
-      <c r="IS3" s="125"/>
-      <c r="IT3" s="125"/>
-      <c r="IU3" s="125"/>
-      <c r="IV3" s="126"/>
+      <c r="IQ3" s="107"/>
+      <c r="IR3" s="107"/>
+      <c r="IS3" s="107"/>
+      <c r="IT3" s="107"/>
+      <c r="IU3" s="107"/>
+      <c r="IV3" s="110"/>
     </row>
     <row r="4" spans="1:256" s="2" customFormat="1">
       <c r="C4" s="10"/>
@@ -3832,8 +3867,8 @@
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="114"/>
       <c r="O9" s="30"/>
       <c r="S9" s="28"/>
       <c r="T9" s="33"/>
@@ -4466,10 +4501,10 @@
         <v>65</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="21">
         <v>1</v>
@@ -4693,13 +4728,13 @@
       <c r="M17" s="33"/>
       <c r="O17" s="30"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="116"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="116"/>
+      <c r="X17" s="116"/>
+      <c r="Y17" s="116"/>
+      <c r="Z17" s="116"/>
       <c r="AA17" s="33"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="33"/>
@@ -4803,11 +4838,11 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="33"/>
-      <c r="O18" s="131"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="133"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="119"/>
       <c r="T18" s="33"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="33"/>
@@ -5037,11 +5072,11 @@
       <c r="AO20" s="33"/>
       <c r="AU20" s="28"/>
       <c r="AV20" s="33"/>
-      <c r="AX20" s="134"/>
-      <c r="AY20" s="134"/>
-      <c r="AZ20" s="134"/>
-      <c r="BA20" s="134"/>
-      <c r="BB20" s="135"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="121"/>
       <c r="BC20" s="33"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="47"/>
@@ -5171,41 +5206,41 @@
       <c r="EB21" s="33"/>
       <c r="EH21" s="28"/>
       <c r="EI21" s="33"/>
-      <c r="EP21" s="136"/>
-      <c r="EQ21" s="134"/>
-      <c r="ER21" s="134"/>
-      <c r="ES21" s="134"/>
-      <c r="ET21" s="134"/>
-      <c r="EU21" s="134"/>
-      <c r="EV21" s="134"/>
-      <c r="EW21" s="134"/>
-      <c r="EX21" s="134"/>
-      <c r="EY21" s="134"/>
-      <c r="EZ21" s="134"/>
-      <c r="FA21" s="134"/>
-      <c r="FB21" s="134"/>
-      <c r="FC21" s="134"/>
-      <c r="FD21" s="134"/>
-      <c r="FE21" s="134"/>
-      <c r="FF21" s="134"/>
-      <c r="FG21" s="134"/>
-      <c r="FH21" s="134"/>
-      <c r="FI21" s="134"/>
-      <c r="FJ21" s="134"/>
-      <c r="FK21" s="134"/>
-      <c r="FL21" s="134"/>
-      <c r="FM21" s="134"/>
-      <c r="FN21" s="134"/>
-      <c r="FO21" s="134"/>
-      <c r="FP21" s="134"/>
-      <c r="FQ21" s="134"/>
-      <c r="FR21" s="134"/>
-      <c r="FS21" s="134"/>
-      <c r="FT21" s="134"/>
-      <c r="FU21" s="134"/>
-      <c r="FV21" s="134"/>
-      <c r="FW21" s="134"/>
-      <c r="FX21" s="135"/>
+      <c r="EP21" s="122"/>
+      <c r="EQ21" s="120"/>
+      <c r="ER21" s="120"/>
+      <c r="ES21" s="120"/>
+      <c r="ET21" s="120"/>
+      <c r="EU21" s="120"/>
+      <c r="EV21" s="120"/>
+      <c r="EW21" s="120"/>
+      <c r="EX21" s="120"/>
+      <c r="EY21" s="120"/>
+      <c r="EZ21" s="120"/>
+      <c r="FA21" s="120"/>
+      <c r="FB21" s="120"/>
+      <c r="FC21" s="120"/>
+      <c r="FD21" s="120"/>
+      <c r="FE21" s="120"/>
+      <c r="FF21" s="120"/>
+      <c r="FG21" s="120"/>
+      <c r="FH21" s="120"/>
+      <c r="FI21" s="120"/>
+      <c r="FJ21" s="120"/>
+      <c r="FK21" s="120"/>
+      <c r="FL21" s="120"/>
+      <c r="FM21" s="120"/>
+      <c r="FN21" s="120"/>
+      <c r="FO21" s="120"/>
+      <c r="FP21" s="120"/>
+      <c r="FQ21" s="120"/>
+      <c r="FR21" s="120"/>
+      <c r="FS21" s="120"/>
+      <c r="FT21" s="120"/>
+      <c r="FU21" s="120"/>
+      <c r="FV21" s="120"/>
+      <c r="FW21" s="120"/>
+      <c r="FX21" s="121"/>
       <c r="FY21" s="30"/>
       <c r="FZ21" s="30"/>
       <c r="GA21" s="30"/>
@@ -5471,20 +5506,20 @@
       <c r="M24" s="33"/>
       <c r="O24" s="30"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="116"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="116"/>
-      <c r="Y24" s="116"/>
-      <c r="Z24" s="116"/>
-      <c r="AA24" s="123"/>
-      <c r="AB24" s="116"/>
-      <c r="AC24" s="116"/>
-      <c r="AD24" s="116"/>
-      <c r="AE24" s="116"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="127"/>
+      <c r="V24" s="127"/>
+      <c r="W24" s="127"/>
+      <c r="X24" s="127"/>
+      <c r="Y24" s="127"/>
+      <c r="Z24" s="127"/>
+      <c r="AA24" s="126"/>
+      <c r="AB24" s="127"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="127"/>
       <c r="AH24" s="33"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="33"/>
@@ -5592,20 +5627,20 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="33"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="123"/>
-      <c r="AI25" s="116"/>
-      <c r="AJ25" s="116"/>
-      <c r="AK25" s="116"/>
-      <c r="AL25" s="116"/>
-      <c r="AM25" s="116"/>
-      <c r="AN25" s="116"/>
-      <c r="AO25" s="123"/>
-      <c r="AP25" s="116"/>
-      <c r="AQ25" s="116"/>
-      <c r="AR25" s="116"/>
-      <c r="AS25" s="116"/>
-      <c r="AT25" s="116"/>
-      <c r="AU25" s="116"/>
+      <c r="AH25" s="126"/>
+      <c r="AI25" s="127"/>
+      <c r="AJ25" s="127"/>
+      <c r="AK25" s="127"/>
+      <c r="AL25" s="127"/>
+      <c r="AM25" s="127"/>
+      <c r="AN25" s="127"/>
+      <c r="AO25" s="126"/>
+      <c r="AP25" s="127"/>
+      <c r="AQ25" s="127"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="127"/>
+      <c r="AT25" s="127"/>
+      <c r="AU25" s="127"/>
       <c r="AV25" s="33"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="33"/>
@@ -5713,20 +5748,20 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="33"/>
       <c r="AU26" s="28"/>
-      <c r="AV26" s="123"/>
-      <c r="AW26" s="116"/>
-      <c r="AX26" s="116"/>
-      <c r="AY26" s="116"/>
-      <c r="AZ26" s="116"/>
-      <c r="BA26" s="116"/>
-      <c r="BB26" s="116"/>
-      <c r="BC26" s="123"/>
-      <c r="BD26" s="116"/>
-      <c r="BE26" s="116"/>
-      <c r="BF26" s="116"/>
-      <c r="BG26" s="116"/>
-      <c r="BH26" s="116"/>
-      <c r="BI26" s="116"/>
+      <c r="AV26" s="126"/>
+      <c r="AW26" s="127"/>
+      <c r="AX26" s="127"/>
+      <c r="AY26" s="127"/>
+      <c r="AZ26" s="127"/>
+      <c r="BA26" s="127"/>
+      <c r="BB26" s="127"/>
+      <c r="BC26" s="126"/>
+      <c r="BD26" s="127"/>
+      <c r="BE26" s="127"/>
+      <c r="BF26" s="127"/>
+      <c r="BG26" s="127"/>
+      <c r="BH26" s="127"/>
+      <c r="BI26" s="127"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
@@ -5844,10 +5879,10 @@
       <c r="BQ27" s="47"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="123"/>
-      <c r="BU27" s="116"/>
-      <c r="BV27" s="116"/>
-      <c r="BW27" s="116"/>
+      <c r="BT27" s="126"/>
+      <c r="BU27" s="127"/>
+      <c r="BV27" s="127"/>
+      <c r="BW27" s="127"/>
       <c r="BX27" s="47"/>
       <c r="CD27" s="28"/>
       <c r="CE27" s="33"/>
@@ -5969,17 +6004,17 @@
       <c r="DM28" s="28"/>
       <c r="DN28" s="33"/>
       <c r="DT28" s="67"/>
-      <c r="DY28" s="123"/>
-      <c r="DZ28" s="117"/>
+      <c r="DY28" s="126"/>
+      <c r="DZ28" s="128"/>
       <c r="EA28" s="28"/>
       <c r="EB28" s="33"/>
-      <c r="EF28" s="123"/>
-      <c r="EG28" s="116"/>
-      <c r="EH28" s="116"/>
-      <c r="EI28" s="116"/>
-      <c r="EJ28" s="116"/>
-      <c r="EK28" s="116"/>
-      <c r="EL28" s="117"/>
+      <c r="EF28" s="126"/>
+      <c r="EG28" s="127"/>
+      <c r="EH28" s="127"/>
+      <c r="EI28" s="127"/>
+      <c r="EJ28" s="127"/>
+      <c r="EK28" s="127"/>
+      <c r="EL28" s="128"/>
       <c r="EO28" s="28"/>
       <c r="EP28" s="33"/>
       <c r="ER28" s="30"/>
@@ -6055,8 +6090,8 @@
       <c r="AO29" s="33"/>
       <c r="AU29" s="28"/>
       <c r="AV29" s="33"/>
-      <c r="AY29" s="113"/>
-      <c r="AZ29" s="115"/>
+      <c r="AY29" s="129"/>
+      <c r="AZ29" s="130"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="33"/>
       <c r="BI29" s="28"/>
@@ -6194,13 +6229,13 @@
       <c r="EA30" s="28"/>
       <c r="EB30" s="33"/>
       <c r="EH30" s="44"/>
-      <c r="EI30" s="113"/>
-      <c r="EJ30" s="114"/>
-      <c r="EK30" s="114"/>
-      <c r="EL30" s="114"/>
-      <c r="EM30" s="114"/>
-      <c r="EN30" s="114"/>
-      <c r="EO30" s="114"/>
+      <c r="EI30" s="129"/>
+      <c r="EJ30" s="131"/>
+      <c r="EK30" s="131"/>
+      <c r="EL30" s="131"/>
+      <c r="EM30" s="131"/>
+      <c r="EN30" s="131"/>
+      <c r="EO30" s="131"/>
       <c r="EP30" s="33"/>
       <c r="ER30" s="30"/>
       <c r="EV30" s="28"/>
@@ -6275,30 +6310,30 @@
       <c r="AO31" s="33"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="33"/>
-      <c r="AZ31" s="113"/>
-      <c r="BA31" s="114"/>
-      <c r="BB31" s="115"/>
-      <c r="BC31" s="114"/>
-      <c r="BD31" s="114"/>
-      <c r="BE31" s="114"/>
-      <c r="BF31" s="114"/>
-      <c r="BG31" s="114"/>
-      <c r="BH31" s="114"/>
-      <c r="BI31" s="115"/>
-      <c r="BJ31" s="114"/>
-      <c r="BK31" s="114"/>
-      <c r="BL31" s="114"/>
-      <c r="BM31" s="114"/>
-      <c r="BN31" s="114"/>
-      <c r="BO31" s="114"/>
-      <c r="BP31" s="115"/>
-      <c r="BQ31" s="114"/>
-      <c r="BR31" s="114"/>
-      <c r="BS31" s="114"/>
-      <c r="BT31" s="118"/>
-      <c r="BU31" s="118"/>
-      <c r="BV31" s="118"/>
-      <c r="BW31" s="119"/>
+      <c r="AZ31" s="129"/>
+      <c r="BA31" s="131"/>
+      <c r="BB31" s="130"/>
+      <c r="BC31" s="131"/>
+      <c r="BD31" s="131"/>
+      <c r="BE31" s="131"/>
+      <c r="BF31" s="131"/>
+      <c r="BG31" s="131"/>
+      <c r="BH31" s="131"/>
+      <c r="BI31" s="130"/>
+      <c r="BJ31" s="131"/>
+      <c r="BK31" s="131"/>
+      <c r="BL31" s="131"/>
+      <c r="BM31" s="131"/>
+      <c r="BN31" s="131"/>
+      <c r="BO31" s="131"/>
+      <c r="BP31" s="130"/>
+      <c r="BQ31" s="131"/>
+      <c r="BR31" s="131"/>
+      <c r="BS31" s="131"/>
+      <c r="BT31" s="132"/>
+      <c r="BU31" s="132"/>
+      <c r="BV31" s="132"/>
+      <c r="BW31" s="133"/>
       <c r="BX31" s="96"/>
       <c r="CD31" s="28"/>
       <c r="CK31" s="28"/>
@@ -6313,9 +6348,9 @@
       <c r="DT31" s="67"/>
       <c r="EA31" s="28"/>
       <c r="EI31" s="33"/>
-      <c r="EM31" s="120"/>
-      <c r="EN31" s="121"/>
-      <c r="EO31" s="121"/>
+      <c r="EM31" s="134"/>
+      <c r="EN31" s="135"/>
+      <c r="EO31" s="135"/>
       <c r="EP31" s="33"/>
       <c r="ER31" s="30"/>
       <c r="EV31" s="28"/>
@@ -6366,13 +6401,13 @@
         <v>5.4</v>
       </c>
       <c r="B32" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="D32" s="77" t="s">
         <v>119</v>
-      </c>
-      <c r="D32" s="77" t="s">
-        <v>120</v>
       </c>
       <c r="E32" s="21">
         <v>1</v>
@@ -6516,10 +6551,10 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="120"/>
-      <c r="BU33" s="121"/>
-      <c r="BV33" s="121"/>
-      <c r="BW33" s="122"/>
+      <c r="BT33" s="134"/>
+      <c r="BU33" s="135"/>
+      <c r="BV33" s="135"/>
+      <c r="BW33" s="136"/>
       <c r="BX33" s="57"/>
       <c r="CD33" s="28"/>
       <c r="CK33" s="28"/>
@@ -6593,7 +6628,7 @@
         <v>91</v>
       </c>
       <c r="D34" s="77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="21">
         <v>1</v>
@@ -6738,22 +6773,22 @@
       <c r="DM35" s="28"/>
       <c r="DN35" s="33"/>
       <c r="DT35" s="67"/>
-      <c r="DY35" s="113"/>
-      <c r="DZ35" s="114"/>
-      <c r="EA35" s="115"/>
-      <c r="EB35" s="113"/>
-      <c r="EC35" s="114"/>
-      <c r="ED35" s="114"/>
-      <c r="EE35" s="115"/>
+      <c r="DY35" s="129"/>
+      <c r="DZ35" s="131"/>
+      <c r="EA35" s="130"/>
+      <c r="EB35" s="129"/>
+      <c r="EC35" s="131"/>
+      <c r="ED35" s="131"/>
+      <c r="EE35" s="130"/>
       <c r="EH35" s="28"/>
       <c r="EI35" s="33"/>
-      <c r="EM35" s="113"/>
-      <c r="EN35" s="114"/>
-      <c r="EO35" s="115"/>
-      <c r="EP35" s="114"/>
-      <c r="EQ35" s="114"/>
-      <c r="ER35" s="114"/>
-      <c r="ES35" s="115"/>
+      <c r="EM35" s="129"/>
+      <c r="EN35" s="131"/>
+      <c r="EO35" s="130"/>
+      <c r="EP35" s="131"/>
+      <c r="EQ35" s="131"/>
+      <c r="ER35" s="131"/>
+      <c r="ES35" s="130"/>
       <c r="EV35" s="28"/>
       <c r="EW35" s="33"/>
       <c r="FC35" s="28"/>
@@ -6805,7 +6840,7 @@
         <v>86</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>93</v>
@@ -6856,20 +6891,20 @@
       <c r="ER36" s="30"/>
       <c r="EW36" s="33"/>
       <c r="FC36" s="70"/>
-      <c r="FD36" s="114"/>
-      <c r="FE36" s="114"/>
-      <c r="FF36" s="114"/>
-      <c r="FG36" s="114"/>
-      <c r="FH36" s="114"/>
-      <c r="FI36" s="114"/>
-      <c r="FJ36" s="115"/>
-      <c r="FK36" s="114"/>
-      <c r="FL36" s="114"/>
-      <c r="FM36" s="114"/>
-      <c r="FN36" s="114"/>
-      <c r="FO36" s="114"/>
-      <c r="FP36" s="114"/>
-      <c r="FQ36" s="115"/>
+      <c r="FD36" s="131"/>
+      <c r="FE36" s="131"/>
+      <c r="FF36" s="131"/>
+      <c r="FG36" s="131"/>
+      <c r="FH36" s="131"/>
+      <c r="FI36" s="131"/>
+      <c r="FJ36" s="130"/>
+      <c r="FK36" s="131"/>
+      <c r="FL36" s="131"/>
+      <c r="FM36" s="131"/>
+      <c r="FN36" s="131"/>
+      <c r="FO36" s="131"/>
+      <c r="FP36" s="131"/>
+      <c r="FQ36" s="130"/>
       <c r="FR36" s="45"/>
       <c r="FS36" s="30"/>
       <c r="FT36" s="30"/>
@@ -6917,7 +6952,7 @@
         <v>95</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="21">
         <v>1</v>
@@ -6963,29 +6998,29 @@
       <c r="DT37" s="67"/>
       <c r="EA37" s="28"/>
       <c r="EH37" s="28"/>
-      <c r="EM37" s="107"/>
-      <c r="EN37" s="108"/>
-      <c r="EO37" s="108"/>
-      <c r="EP37" s="108"/>
-      <c r="EQ37" s="108"/>
-      <c r="ER37" s="108"/>
-      <c r="ES37" s="108"/>
-      <c r="ET37" s="108"/>
-      <c r="EU37" s="108"/>
-      <c r="EV37" s="108"/>
-      <c r="EW37" s="108"/>
-      <c r="EX37" s="108"/>
-      <c r="EY37" s="108"/>
-      <c r="EZ37" s="108"/>
-      <c r="FA37" s="108"/>
-      <c r="FB37" s="109"/>
+      <c r="EM37" s="137"/>
+      <c r="EN37" s="138"/>
+      <c r="EO37" s="138"/>
+      <c r="EP37" s="138"/>
+      <c r="EQ37" s="138"/>
+      <c r="ER37" s="138"/>
+      <c r="ES37" s="138"/>
+      <c r="ET37" s="138"/>
+      <c r="EU37" s="138"/>
+      <c r="EV37" s="138"/>
+      <c r="EW37" s="138"/>
+      <c r="EX37" s="138"/>
+      <c r="EY37" s="138"/>
+      <c r="EZ37" s="138"/>
+      <c r="FA37" s="138"/>
+      <c r="FB37" s="139"/>
       <c r="FC37" s="28"/>
       <c r="FD37" s="33"/>
       <c r="FJ37" s="28"/>
-      <c r="FK37" s="107"/>
-      <c r="FL37" s="108"/>
-      <c r="FM37" s="108"/>
-      <c r="FN37" s="109"/>
+      <c r="FK37" s="137"/>
+      <c r="FL37" s="138"/>
+      <c r="FM37" s="138"/>
+      <c r="FN37" s="139"/>
       <c r="FQ37" s="28"/>
       <c r="FR37" s="47"/>
       <c r="FS37" s="30"/>
@@ -7033,8 +7068,8 @@
       <c r="C38" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>77</v>
+      <c r="D38" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="E38" s="21">
         <v>1</v>
@@ -7082,16 +7117,16 @@
       <c r="EA38" s="28"/>
       <c r="EB38" s="33"/>
       <c r="EI38" s="33"/>
-      <c r="EM38" s="110"/>
-      <c r="EN38" s="111"/>
-      <c r="EO38" s="111"/>
-      <c r="EP38" s="111"/>
-      <c r="EQ38" s="111"/>
-      <c r="ER38" s="111"/>
-      <c r="ES38" s="111"/>
-      <c r="ET38" s="111"/>
-      <c r="EU38" s="111"/>
-      <c r="EV38" s="111"/>
+      <c r="EM38" s="140"/>
+      <c r="EN38" s="141"/>
+      <c r="EO38" s="141"/>
+      <c r="EP38" s="141"/>
+      <c r="EQ38" s="141"/>
+      <c r="ER38" s="141"/>
+      <c r="ES38" s="141"/>
+      <c r="ET38" s="141"/>
+      <c r="EU38" s="141"/>
+      <c r="EV38" s="141"/>
       <c r="EW38" s="94"/>
       <c r="FC38" s="28"/>
       <c r="FD38" s="33"/>
@@ -7144,8 +7179,8 @@
       <c r="C39" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>77</v>
+      <c r="D39" s="77" t="s">
+        <v>130</v>
       </c>
       <c r="E39" s="21">
         <v>1</v>
@@ -7202,13 +7237,13 @@
       <c r="EW39" s="33"/>
       <c r="FC39" s="28"/>
       <c r="FD39" s="33"/>
-      <c r="FI39" s="107"/>
-      <c r="FJ39" s="108"/>
-      <c r="FK39" s="108"/>
-      <c r="FL39" s="108"/>
-      <c r="FM39" s="108"/>
-      <c r="FN39" s="108"/>
-      <c r="FO39" s="109"/>
+      <c r="FI39" s="137"/>
+      <c r="FJ39" s="138"/>
+      <c r="FK39" s="138"/>
+      <c r="FL39" s="138"/>
+      <c r="FM39" s="138"/>
+      <c r="FN39" s="138"/>
+      <c r="FO39" s="139"/>
       <c r="FR39" s="47"/>
       <c r="FS39" s="30"/>
       <c r="FT39" s="30"/>
@@ -7253,7 +7288,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>77</v>
@@ -7309,15 +7344,15 @@
       <c r="EO40" s="28"/>
       <c r="EP40" s="33"/>
       <c r="ER40" s="30"/>
-      <c r="EU40" s="107"/>
-      <c r="EV40" s="108"/>
-      <c r="EW40" s="108"/>
-      <c r="EX40" s="108"/>
-      <c r="EY40" s="108"/>
-      <c r="EZ40" s="108"/>
-      <c r="FA40" s="108"/>
-      <c r="FB40" s="108"/>
-      <c r="FC40" s="108"/>
+      <c r="EU40" s="137"/>
+      <c r="EV40" s="138"/>
+      <c r="EW40" s="138"/>
+      <c r="EX40" s="138"/>
+      <c r="EY40" s="138"/>
+      <c r="EZ40" s="138"/>
+      <c r="FA40" s="138"/>
+      <c r="FB40" s="138"/>
+      <c r="FC40" s="138"/>
       <c r="FD40" s="86"/>
       <c r="FJ40" s="28"/>
       <c r="FQ40" s="28"/>
@@ -7361,14 +7396,14 @@
       <c r="A41" s="18">
         <v>6.5</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>94</v>
+      <c r="B41" s="82" t="s">
+        <v>115</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>98</v>
+        <v>135</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>129</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -7421,18 +7456,18 @@
       <c r="EO41" s="28"/>
       <c r="EP41" s="33"/>
       <c r="ER41" s="30"/>
-      <c r="EV41" s="28"/>
-      <c r="EW41" s="33"/>
-      <c r="FC41" s="28"/>
-      <c r="FD41" s="33"/>
+      <c r="EU41" s="150"/>
+      <c r="EV41" s="150"/>
+      <c r="EW41" s="150"/>
+      <c r="EX41" s="150"/>
+      <c r="EY41" s="150"/>
+      <c r="EZ41" s="150"/>
+      <c r="FA41" s="150"/>
+      <c r="FB41" s="150"/>
+      <c r="FC41" s="150"/>
+      <c r="FD41" s="150"/>
       <c r="FJ41" s="28"/>
-      <c r="FK41" s="112"/>
-      <c r="FL41" s="112"/>
-      <c r="FM41" s="112"/>
-      <c r="FN41" s="112"/>
-      <c r="FO41" s="112"/>
-      <c r="FP41" s="112"/>
-      <c r="FQ41" s="112"/>
+      <c r="FQ41" s="151"/>
       <c r="FR41" s="47"/>
       <c r="FS41" s="30"/>
       <c r="FT41" s="30"/>
@@ -7476,11 +7511,11 @@
       <c r="B42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="77" t="s">
-        <v>113</v>
+      <c r="C42" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -7538,13 +7573,13 @@
       <c r="FC42" s="28"/>
       <c r="FD42" s="33"/>
       <c r="FJ42" s="28"/>
-      <c r="FK42" s="112"/>
-      <c r="FL42" s="112"/>
-      <c r="FM42" s="112"/>
-      <c r="FN42" s="112"/>
-      <c r="FO42" s="112"/>
-      <c r="FP42" s="112"/>
-      <c r="FQ42" s="112"/>
+      <c r="FK42" s="142"/>
+      <c r="FL42" s="142"/>
+      <c r="FM42" s="142"/>
+      <c r="FN42" s="142"/>
+      <c r="FO42" s="142"/>
+      <c r="FP42" s="142"/>
+      <c r="FQ42" s="142"/>
       <c r="FR42" s="47"/>
       <c r="FS42" s="30"/>
       <c r="FT42" s="30"/>
@@ -7585,14 +7620,14 @@
       <c r="A43" s="18">
         <v>6.7</v>
       </c>
-      <c r="B43" s="82" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="83" t="s">
-        <v>117</v>
+      <c r="B43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -7650,13 +7685,20 @@
       <c r="FC43" s="28"/>
       <c r="FD43" s="33"/>
       <c r="FJ43" s="28"/>
+      <c r="FK43" s="142"/>
+      <c r="FL43" s="142"/>
+      <c r="FM43" s="142"/>
+      <c r="FN43" s="142"/>
+      <c r="FO43" s="142"/>
+      <c r="FP43" s="142"/>
+      <c r="FQ43" s="142"/>
       <c r="FR43" s="47"/>
       <c r="FS43" s="30"/>
       <c r="FT43" s="30"/>
       <c r="FU43" s="30"/>
       <c r="FV43" s="30"/>
       <c r="FW43" s="30"/>
-      <c r="FX43" s="30"/>
+      <c r="FX43" s="53"/>
       <c r="FY43" s="47"/>
       <c r="FZ43" s="30"/>
       <c r="GA43" s="30"/>
@@ -7667,13 +7709,10 @@
       <c r="GF43" s="33"/>
       <c r="GL43" s="28"/>
       <c r="GM43" s="33"/>
-      <c r="GT43" s="92"/>
-      <c r="GU43" s="87"/>
-      <c r="GV43" s="87"/>
-      <c r="GW43" s="87"/>
-      <c r="GX43" s="87"/>
-      <c r="GY43" s="87"/>
-      <c r="GZ43" s="93"/>
+      <c r="GS43" s="28"/>
+      <c r="GT43" s="33"/>
+      <c r="GZ43" s="28"/>
+      <c r="HA43" s="33"/>
       <c r="HG43" s="28"/>
       <c r="HH43" s="33"/>
       <c r="HN43" s="28"/>
@@ -7693,14 +7732,14 @@
       <c r="A44" s="18">
         <v>6.8</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>77</v>
+      <c r="B44" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>107</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -7758,16 +7797,14 @@
       <c r="FC44" s="28"/>
       <c r="FD44" s="33"/>
       <c r="FJ44" s="28"/>
-      <c r="FK44" s="33"/>
-      <c r="FQ44" s="28"/>
       <c r="FR44" s="47"/>
       <c r="FS44" s="30"/>
       <c r="FT44" s="30"/>
       <c r="FU44" s="30"/>
-      <c r="FV44" s="107"/>
-      <c r="FW44" s="108"/>
-      <c r="FX44" s="108"/>
-      <c r="FY44" s="71"/>
+      <c r="FV44" s="30"/>
+      <c r="FW44" s="30"/>
+      <c r="FX44" s="30"/>
+      <c r="FY44" s="47"/>
       <c r="FZ44" s="30"/>
       <c r="GA44" s="30"/>
       <c r="GB44" s="30"/>
@@ -7777,10 +7814,13 @@
       <c r="GF44" s="33"/>
       <c r="GL44" s="28"/>
       <c r="GM44" s="33"/>
-      <c r="GS44" s="28"/>
-      <c r="GT44" s="33"/>
-      <c r="GZ44" s="28"/>
-      <c r="HA44" s="33"/>
+      <c r="GT44" s="92"/>
+      <c r="GU44" s="87"/>
+      <c r="GV44" s="87"/>
+      <c r="GW44" s="87"/>
+      <c r="GX44" s="87"/>
+      <c r="GY44" s="87"/>
+      <c r="GZ44" s="93"/>
       <c r="HG44" s="28"/>
       <c r="HH44" s="33"/>
       <c r="HN44" s="28"/>
@@ -7804,10 +7844,10 @@
         <v>94</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -7871,31 +7911,25 @@
       <c r="FS45" s="30"/>
       <c r="FT45" s="30"/>
       <c r="FU45" s="30"/>
-      <c r="FV45" s="30"/>
-      <c r="FW45" s="30"/>
-      <c r="FX45" s="53"/>
-      <c r="FY45" s="47"/>
+      <c r="FV45" s="137"/>
+      <c r="FW45" s="138"/>
+      <c r="FX45" s="138"/>
+      <c r="FY45" s="71"/>
       <c r="FZ45" s="30"/>
       <c r="GA45" s="30"/>
       <c r="GB45" s="30"/>
       <c r="GC45" s="30"/>
       <c r="GD45" s="30"/>
-      <c r="GE45" s="30"/>
-      <c r="GF45" s="104"/>
-      <c r="GG45" s="105"/>
-      <c r="GH45" s="105"/>
-      <c r="GI45" s="105"/>
-      <c r="GJ45" s="105"/>
-      <c r="GK45" s="105"/>
-      <c r="GL45" s="105"/>
-      <c r="GM45" s="105"/>
-      <c r="GN45" s="105"/>
-      <c r="GO45" s="105"/>
-      <c r="GP45" s="105"/>
-      <c r="GQ45" s="105"/>
-      <c r="GR45" s="105"/>
-      <c r="GS45" s="105"/>
-      <c r="GT45" s="106"/>
+      <c r="GE45" s="53"/>
+      <c r="GF45" s="33"/>
+      <c r="GL45" s="28"/>
+      <c r="GM45" s="33"/>
+      <c r="GS45" s="28"/>
+      <c r="GT45" s="33"/>
+      <c r="GZ45" s="28"/>
+      <c r="HA45" s="33"/>
+      <c r="HG45" s="28"/>
+      <c r="HH45" s="33"/>
       <c r="HN45" s="28"/>
       <c r="HO45" s="47"/>
       <c r="HR45" s="54"/>
@@ -7911,16 +7945,16 @@
     </row>
     <row r="46" spans="1:256" ht="16">
       <c r="A46" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="20" t="s">
-        <v>103</v>
+      <c r="C46" s="83" t="s">
+        <v>134</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E46" s="21">
         <v>1</v>
@@ -7990,42 +8024,25 @@
       <c r="FY46" s="47"/>
       <c r="FZ46" s="30"/>
       <c r="GA46" s="30"/>
-      <c r="GB46" s="107"/>
-      <c r="GC46" s="108"/>
-      <c r="GD46" s="108"/>
-      <c r="GE46" s="108"/>
-      <c r="GF46" s="108"/>
-      <c r="GG46" s="108"/>
-      <c r="GH46" s="108"/>
-      <c r="GI46" s="108"/>
-      <c r="GJ46" s="108"/>
-      <c r="GK46" s="108"/>
-      <c r="GL46" s="108"/>
-      <c r="GM46" s="108"/>
-      <c r="GN46" s="108"/>
-      <c r="GO46" s="108"/>
-      <c r="GP46" s="108"/>
-      <c r="GQ46" s="108"/>
-      <c r="GR46" s="108"/>
-      <c r="GS46" s="108"/>
-      <c r="GT46" s="108"/>
-      <c r="GU46" s="108"/>
-      <c r="GV46" s="108"/>
-      <c r="GW46" s="108"/>
-      <c r="GX46" s="108"/>
-      <c r="GY46" s="108"/>
-      <c r="GZ46" s="108"/>
-      <c r="HA46" s="108"/>
-      <c r="HB46" s="108"/>
-      <c r="HC46" s="108"/>
-      <c r="HD46" s="108"/>
-      <c r="HE46" s="108"/>
-      <c r="HF46" s="108"/>
-      <c r="HG46" s="108"/>
-      <c r="HH46" s="108"/>
-      <c r="HI46" s="108"/>
-      <c r="HJ46" s="108"/>
-      <c r="HK46" s="109"/>
+      <c r="GB46" s="30"/>
+      <c r="GC46" s="30"/>
+      <c r="GD46" s="30"/>
+      <c r="GE46" s="30"/>
+      <c r="GF46" s="147"/>
+      <c r="GG46" s="148"/>
+      <c r="GH46" s="148"/>
+      <c r="GI46" s="148"/>
+      <c r="GJ46" s="148"/>
+      <c r="GK46" s="148"/>
+      <c r="GL46" s="148"/>
+      <c r="GM46" s="148"/>
+      <c r="GN46" s="148"/>
+      <c r="GO46" s="148"/>
+      <c r="GP46" s="148"/>
+      <c r="GQ46" s="148"/>
+      <c r="GR46" s="148"/>
+      <c r="GS46" s="148"/>
+      <c r="GT46" s="149"/>
       <c r="HN46" s="28"/>
       <c r="HO46" s="47"/>
       <c r="HR46" s="54"/>
@@ -8039,18 +8056,18 @@
       <c r="IP46" s="60"/>
       <c r="IV46" s="67"/>
     </row>
-    <row r="47" spans="1:256" ht="33" customHeight="1">
-      <c r="A47" s="18">
-        <v>7.1</v>
+    <row r="47" spans="1:256" ht="16">
+      <c r="A47" s="77" t="s">
+        <v>131</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>62</v>
+        <v>102</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>130</v>
       </c>
       <c r="E47" s="21">
         <v>1</v>
@@ -8100,8 +8117,6 @@
       <c r="EB47" s="33"/>
       <c r="EH47" s="28"/>
       <c r="EI47" s="33"/>
-      <c r="EK47" s="100"/>
-      <c r="EL47" s="101"/>
       <c r="EO47" s="28"/>
       <c r="EP47" s="33"/>
       <c r="ER47" s="30"/>
@@ -8122,19 +8137,42 @@
       <c r="FY47" s="47"/>
       <c r="FZ47" s="30"/>
       <c r="GA47" s="30"/>
-      <c r="GB47" s="30"/>
-      <c r="GC47" s="30"/>
-      <c r="GD47" s="30"/>
-      <c r="GE47" s="53"/>
-      <c r="GF47" s="33"/>
-      <c r="GL47" s="28"/>
-      <c r="GM47" s="33"/>
-      <c r="GS47" s="28"/>
-      <c r="GT47" s="33"/>
-      <c r="GZ47" s="28"/>
-      <c r="HA47" s="33"/>
-      <c r="HG47" s="28"/>
-      <c r="HH47" s="33"/>
+      <c r="GB47" s="137"/>
+      <c r="GC47" s="138"/>
+      <c r="GD47" s="138"/>
+      <c r="GE47" s="138"/>
+      <c r="GF47" s="138"/>
+      <c r="GG47" s="138"/>
+      <c r="GH47" s="138"/>
+      <c r="GI47" s="138"/>
+      <c r="GJ47" s="138"/>
+      <c r="GK47" s="138"/>
+      <c r="GL47" s="138"/>
+      <c r="GM47" s="138"/>
+      <c r="GN47" s="138"/>
+      <c r="GO47" s="138"/>
+      <c r="GP47" s="138"/>
+      <c r="GQ47" s="138"/>
+      <c r="GR47" s="138"/>
+      <c r="GS47" s="138"/>
+      <c r="GT47" s="138"/>
+      <c r="GU47" s="138"/>
+      <c r="GV47" s="138"/>
+      <c r="GW47" s="138"/>
+      <c r="GX47" s="138"/>
+      <c r="GY47" s="138"/>
+      <c r="GZ47" s="138"/>
+      <c r="HA47" s="138"/>
+      <c r="HB47" s="138"/>
+      <c r="HC47" s="138"/>
+      <c r="HD47" s="138"/>
+      <c r="HE47" s="138"/>
+      <c r="HF47" s="138"/>
+      <c r="HG47" s="138"/>
+      <c r="HH47" s="138"/>
+      <c r="HI47" s="138"/>
+      <c r="HJ47" s="138"/>
+      <c r="HK47" s="139"/>
       <c r="HN47" s="28"/>
       <c r="HO47" s="47"/>
       <c r="HR47" s="54"/>
@@ -8149,17 +8187,17 @@
       <c r="IV47" s="67"/>
     </row>
     <row r="48" spans="1:256" ht="16">
-      <c r="A48" s="18">
-        <v>7.2</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>104</v>
+      <c r="A48" s="77" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="82" t="s">
+        <v>115</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>62</v>
+        <v>132</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>133</v>
       </c>
       <c r="E48" s="21">
         <v>1</v>
@@ -8223,49 +8261,48 @@
       <c r="FS48" s="30"/>
       <c r="FT48" s="30"/>
       <c r="FU48" s="30"/>
-      <c r="FV48" s="100"/>
-      <c r="FW48" s="102"/>
-      <c r="FX48" s="101"/>
-      <c r="FY48" s="102"/>
-      <c r="FZ48" s="102"/>
-      <c r="GA48" s="102"/>
-      <c r="GB48" s="102"/>
-      <c r="GC48" s="102"/>
-      <c r="GD48" s="102"/>
-      <c r="GE48" s="101"/>
-      <c r="GF48" s="102"/>
-      <c r="GG48" s="102"/>
-      <c r="GH48" s="102"/>
-      <c r="GI48" s="102"/>
-      <c r="GJ48" s="102"/>
-      <c r="GK48" s="102"/>
-      <c r="GL48" s="101"/>
-      <c r="GM48" s="102"/>
-      <c r="GN48" s="102"/>
-      <c r="GO48" s="102"/>
-      <c r="GP48" s="102"/>
-      <c r="GQ48" s="102"/>
-      <c r="GR48" s="102"/>
-      <c r="GS48" s="101"/>
-      <c r="GT48" s="102"/>
-      <c r="GU48" s="102"/>
-      <c r="GV48" s="102"/>
-      <c r="GW48" s="102"/>
-      <c r="GX48" s="102"/>
-      <c r="GY48" s="102"/>
-      <c r="GZ48" s="101"/>
-      <c r="HA48" s="102"/>
-      <c r="HB48" s="102"/>
-      <c r="HC48" s="102"/>
-      <c r="HD48" s="102"/>
-      <c r="HE48" s="102"/>
-      <c r="HF48" s="102"/>
-      <c r="HG48" s="101"/>
-      <c r="HH48" s="100"/>
-      <c r="HI48" s="102"/>
-      <c r="HJ48" s="102"/>
-      <c r="HK48" s="102"/>
-      <c r="HL48" s="103"/>
+      <c r="FV48" s="30"/>
+      <c r="FW48" s="30"/>
+      <c r="FX48" s="53"/>
+      <c r="FY48" s="47"/>
+      <c r="FZ48" s="30"/>
+      <c r="GA48" s="30"/>
+      <c r="GB48" s="150"/>
+      <c r="GC48" s="150"/>
+      <c r="GD48" s="150"/>
+      <c r="GE48" s="150"/>
+      <c r="GF48" s="150"/>
+      <c r="GG48" s="150"/>
+      <c r="GH48" s="150"/>
+      <c r="GI48" s="150"/>
+      <c r="GJ48" s="150"/>
+      <c r="GK48" s="150"/>
+      <c r="GL48" s="150"/>
+      <c r="GM48" s="150"/>
+      <c r="GN48" s="150"/>
+      <c r="GO48" s="150"/>
+      <c r="GP48" s="150"/>
+      <c r="GQ48" s="150"/>
+      <c r="GR48" s="150"/>
+      <c r="GS48" s="150"/>
+      <c r="GT48" s="150"/>
+      <c r="GU48" s="150"/>
+      <c r="GV48" s="150"/>
+      <c r="GW48" s="150"/>
+      <c r="GX48" s="150"/>
+      <c r="GY48" s="150"/>
+      <c r="GZ48" s="150"/>
+      <c r="HA48" s="150"/>
+      <c r="HB48" s="150"/>
+      <c r="HC48" s="150"/>
+      <c r="HD48" s="150"/>
+      <c r="HE48" s="150"/>
+      <c r="HF48" s="150"/>
+      <c r="HG48" s="150"/>
+      <c r="HH48" s="150"/>
+      <c r="HI48" s="150"/>
+      <c r="HJ48" s="150"/>
+      <c r="HK48" s="150"/>
       <c r="HN48" s="28"/>
       <c r="HO48" s="47"/>
       <c r="HR48" s="54"/>
@@ -8279,18 +8316,18 @@
       <c r="IP48" s="60"/>
       <c r="IV48" s="67"/>
     </row>
-    <row r="49" spans="1:256" ht="16">
+    <row r="49" spans="1:256" ht="33" customHeight="1">
       <c r="A49" s="18">
-        <v>7.3</v>
-      </c>
-      <c r="B49" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" s="83" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="77" t="s">
-        <v>108</v>
+        <v>7.1</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
@@ -8340,6 +8377,8 @@
       <c r="EB49" s="33"/>
       <c r="EH49" s="28"/>
       <c r="EI49" s="33"/>
+      <c r="EK49" s="143"/>
+      <c r="EL49" s="144"/>
       <c r="EO49" s="28"/>
       <c r="EP49" s="33"/>
       <c r="ER49" s="30"/>
@@ -8354,49 +8393,26 @@
       <c r="FS49" s="30"/>
       <c r="FT49" s="30"/>
       <c r="FU49" s="30"/>
-      <c r="FV49" s="78"/>
-      <c r="FW49" s="78"/>
-      <c r="FX49" s="79"/>
-      <c r="FY49" s="78"/>
-      <c r="FZ49" s="78"/>
-      <c r="GA49" s="78"/>
-      <c r="GB49" s="78"/>
-      <c r="GC49" s="78"/>
-      <c r="GD49" s="78"/>
-      <c r="GE49" s="79"/>
-      <c r="GF49" s="78"/>
-      <c r="GG49" s="78"/>
-      <c r="GH49" s="78"/>
-      <c r="GI49" s="78"/>
-      <c r="GJ49" s="78"/>
-      <c r="GK49" s="78"/>
-      <c r="GL49" s="79"/>
-      <c r="GM49" s="78"/>
-      <c r="GN49" s="78"/>
-      <c r="GO49" s="78"/>
-      <c r="GP49" s="78"/>
-      <c r="GQ49" s="78"/>
-      <c r="GR49" s="78"/>
-      <c r="GS49" s="79"/>
-      <c r="GT49" s="78"/>
-      <c r="GU49" s="78"/>
-      <c r="GV49" s="78"/>
-      <c r="GW49" s="78"/>
-      <c r="GX49" s="78"/>
-      <c r="GY49" s="78"/>
-      <c r="GZ49" s="79"/>
-      <c r="HA49" s="78"/>
-      <c r="HB49" s="78"/>
-      <c r="HC49" s="78"/>
-      <c r="HD49" s="78"/>
-      <c r="HE49" s="78"/>
-      <c r="HF49" s="78"/>
-      <c r="HG49" s="79"/>
-      <c r="HH49" s="80"/>
-      <c r="HI49" s="78"/>
-      <c r="HJ49" s="78"/>
-      <c r="HK49" s="78"/>
-      <c r="HL49" s="81"/>
+      <c r="FV49" s="30"/>
+      <c r="FW49" s="30"/>
+      <c r="FX49" s="53"/>
+      <c r="FY49" s="47"/>
+      <c r="FZ49" s="30"/>
+      <c r="GA49" s="30"/>
+      <c r="GB49" s="30"/>
+      <c r="GC49" s="30"/>
+      <c r="GD49" s="30"/>
+      <c r="GE49" s="53"/>
+      <c r="GF49" s="33"/>
+      <c r="GL49" s="28"/>
+      <c r="GM49" s="33"/>
+      <c r="GS49" s="28"/>
+      <c r="GT49" s="33"/>
+      <c r="GZ49" s="28"/>
+      <c r="HA49" s="33"/>
+      <c r="HG49" s="28"/>
+      <c r="HH49" s="33"/>
+      <c r="HN49" s="28"/>
       <c r="HO49" s="47"/>
       <c r="HR49" s="54"/>
       <c r="HT49" s="54"/>
@@ -8409,18 +8425,18 @@
       <c r="IP49" s="60"/>
       <c r="IV49" s="67"/>
     </row>
-    <row r="50" spans="1:256" ht="32">
+    <row r="50" spans="1:256" ht="16">
       <c r="A50" s="18">
-        <v>8.1</v>
-      </c>
-      <c r="B50" s="82" t="s">
-        <v>124</v>
+        <v>7.2</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="77" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E50" s="21">
         <v>1</v>
@@ -8484,29 +8500,51 @@
       <c r="FS50" s="30"/>
       <c r="FT50" s="30"/>
       <c r="FU50" s="30"/>
-      <c r="FV50" s="30"/>
-      <c r="FW50" s="30"/>
-      <c r="FX50" s="53"/>
-      <c r="FY50" s="47"/>
-      <c r="FZ50" s="30"/>
-      <c r="GA50" s="30"/>
-      <c r="GB50" s="30"/>
-      <c r="GC50" s="30"/>
-      <c r="GD50" s="30"/>
-      <c r="GE50" s="53"/>
-      <c r="GF50" s="33"/>
-      <c r="GL50" s="28"/>
-      <c r="GM50" s="33"/>
-      <c r="GS50" s="28"/>
-      <c r="GT50" s="33"/>
-      <c r="GZ50" s="28"/>
-      <c r="HA50" s="33"/>
-      <c r="HG50" s="28"/>
-      <c r="HH50" s="33"/>
-      <c r="HL50" s="89"/>
-      <c r="HM50" s="90"/>
-      <c r="HN50" s="91"/>
-      <c r="HO50" s="30"/>
+      <c r="FV50" s="143"/>
+      <c r="FW50" s="145"/>
+      <c r="FX50" s="144"/>
+      <c r="FY50" s="145"/>
+      <c r="FZ50" s="145"/>
+      <c r="GA50" s="145"/>
+      <c r="GB50" s="145"/>
+      <c r="GC50" s="145"/>
+      <c r="GD50" s="145"/>
+      <c r="GE50" s="144"/>
+      <c r="GF50" s="145"/>
+      <c r="GG50" s="145"/>
+      <c r="GH50" s="145"/>
+      <c r="GI50" s="145"/>
+      <c r="GJ50" s="145"/>
+      <c r="GK50" s="145"/>
+      <c r="GL50" s="144"/>
+      <c r="GM50" s="145"/>
+      <c r="GN50" s="145"/>
+      <c r="GO50" s="145"/>
+      <c r="GP50" s="145"/>
+      <c r="GQ50" s="145"/>
+      <c r="GR50" s="145"/>
+      <c r="GS50" s="144"/>
+      <c r="GT50" s="145"/>
+      <c r="GU50" s="145"/>
+      <c r="GV50" s="145"/>
+      <c r="GW50" s="145"/>
+      <c r="GX50" s="145"/>
+      <c r="GY50" s="145"/>
+      <c r="GZ50" s="144"/>
+      <c r="HA50" s="145"/>
+      <c r="HB50" s="145"/>
+      <c r="HC50" s="145"/>
+      <c r="HD50" s="145"/>
+      <c r="HE50" s="145"/>
+      <c r="HF50" s="145"/>
+      <c r="HG50" s="144"/>
+      <c r="HH50" s="143"/>
+      <c r="HI50" s="145"/>
+      <c r="HJ50" s="145"/>
+      <c r="HK50" s="145"/>
+      <c r="HL50" s="146"/>
+      <c r="HN50" s="28"/>
+      <c r="HO50" s="47"/>
       <c r="HR50" s="54"/>
       <c r="HT50" s="54"/>
       <c r="HU50" s="28"/>
@@ -8518,18 +8556,18 @@
       <c r="IP50" s="60"/>
       <c r="IV50" s="67"/>
     </row>
-    <row r="51" spans="1:256" ht="32">
+    <row r="51" spans="1:256" ht="16">
       <c r="A51" s="18">
-        <v>8.1999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E51" s="21">
         <v>1</v>
@@ -8593,28 +8631,50 @@
       <c r="FS51" s="30"/>
       <c r="FT51" s="30"/>
       <c r="FU51" s="30"/>
-      <c r="FV51" s="30"/>
-      <c r="FW51" s="30"/>
-      <c r="FX51" s="53"/>
-      <c r="FY51" s="47"/>
-      <c r="FZ51" s="30"/>
-      <c r="GA51" s="30"/>
-      <c r="GB51" s="30"/>
-      <c r="GC51" s="30"/>
-      <c r="GD51" s="30"/>
-      <c r="GE51" s="53"/>
-      <c r="GF51" s="33"/>
-      <c r="GL51" s="28"/>
-      <c r="GM51" s="33"/>
-      <c r="GS51" s="28"/>
-      <c r="GT51" s="33"/>
-      <c r="GZ51" s="28"/>
-      <c r="HA51" s="33"/>
-      <c r="HG51" s="28"/>
-      <c r="HH51" s="33"/>
-      <c r="HN51" s="89"/>
-      <c r="HO51" s="97"/>
-      <c r="HP51" s="98"/>
+      <c r="FV51" s="78"/>
+      <c r="FW51" s="78"/>
+      <c r="FX51" s="79"/>
+      <c r="FY51" s="78"/>
+      <c r="FZ51" s="78"/>
+      <c r="GA51" s="78"/>
+      <c r="GB51" s="78"/>
+      <c r="GC51" s="78"/>
+      <c r="GD51" s="78"/>
+      <c r="GE51" s="79"/>
+      <c r="GF51" s="78"/>
+      <c r="GG51" s="78"/>
+      <c r="GH51" s="78"/>
+      <c r="GI51" s="78"/>
+      <c r="GJ51" s="78"/>
+      <c r="GK51" s="78"/>
+      <c r="GL51" s="79"/>
+      <c r="GM51" s="78"/>
+      <c r="GN51" s="78"/>
+      <c r="GO51" s="78"/>
+      <c r="GP51" s="78"/>
+      <c r="GQ51" s="78"/>
+      <c r="GR51" s="78"/>
+      <c r="GS51" s="79"/>
+      <c r="GT51" s="78"/>
+      <c r="GU51" s="78"/>
+      <c r="GV51" s="78"/>
+      <c r="GW51" s="78"/>
+      <c r="GX51" s="78"/>
+      <c r="GY51" s="78"/>
+      <c r="GZ51" s="79"/>
+      <c r="HA51" s="78"/>
+      <c r="HB51" s="78"/>
+      <c r="HC51" s="78"/>
+      <c r="HD51" s="78"/>
+      <c r="HE51" s="78"/>
+      <c r="HF51" s="78"/>
+      <c r="HG51" s="79"/>
+      <c r="HH51" s="80"/>
+      <c r="HI51" s="78"/>
+      <c r="HJ51" s="78"/>
+      <c r="HK51" s="78"/>
+      <c r="HL51" s="81"/>
+      <c r="HO51" s="47"/>
       <c r="HR51" s="54"/>
       <c r="HT51" s="54"/>
       <c r="HU51" s="28"/>
@@ -8626,18 +8686,18 @@
       <c r="IP51" s="60"/>
       <c r="IV51" s="67"/>
     </row>
-    <row r="52" spans="1:256" ht="16">
+    <row r="52" spans="1:256" ht="32">
       <c r="A52" s="18">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="B52" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="77" t="s">
         <v>124</v>
-      </c>
-      <c r="C52" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>129</v>
       </c>
       <c r="E52" s="21">
         <v>1</v>
@@ -8720,14 +8780,13 @@
       <c r="HA52" s="33"/>
       <c r="HG52" s="28"/>
       <c r="HH52" s="33"/>
-      <c r="HN52" s="28"/>
-      <c r="HO52" s="89"/>
-      <c r="HP52" s="90"/>
-      <c r="HQ52" s="90"/>
-      <c r="HR52" s="99"/>
-      <c r="HS52" s="90"/>
-      <c r="HT52" s="99"/>
-      <c r="HU52" s="91"/>
+      <c r="HL52" s="89"/>
+      <c r="HM52" s="90"/>
+      <c r="HN52" s="91"/>
+      <c r="HO52" s="30"/>
+      <c r="HR52" s="54"/>
+      <c r="HT52" s="54"/>
+      <c r="HU52" s="28"/>
       <c r="HV52" s="33"/>
       <c r="IC52" s="60"/>
       <c r="II52" s="67"/>
@@ -8736,12 +8795,22 @@
       <c r="IP52" s="60"/>
       <c r="IV52" s="67"/>
     </row>
-    <row r="53" spans="1:256">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
+    <row r="53" spans="1:256" ht="32">
+      <c r="A53" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B53" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="D53" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="21">
+        <v>1</v>
+      </c>
       <c r="L53" s="28"/>
       <c r="M53" s="33"/>
       <c r="O53" s="30"/>
@@ -8820,8 +8889,9 @@
       <c r="HA53" s="33"/>
       <c r="HG53" s="28"/>
       <c r="HH53" s="33"/>
-      <c r="HN53" s="28"/>
-      <c r="HO53" s="47"/>
+      <c r="HN53" s="89"/>
+      <c r="HO53" s="97"/>
+      <c r="HP53" s="98"/>
       <c r="HR53" s="54"/>
       <c r="HT53" s="54"/>
       <c r="HU53" s="28"/>
@@ -8833,12 +8903,22 @@
       <c r="IP53" s="60"/>
       <c r="IV53" s="67"/>
     </row>
-    <row r="54" spans="1:256">
-      <c r="A54" s="18"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+    <row r="54" spans="1:256" ht="16">
+      <c r="A54" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B54" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="21">
+        <v>1</v>
+      </c>
       <c r="L54" s="28"/>
       <c r="M54" s="33"/>
       <c r="O54" s="30"/>
@@ -8918,10 +8998,13 @@
       <c r="HG54" s="28"/>
       <c r="HH54" s="33"/>
       <c r="HN54" s="28"/>
-      <c r="HO54" s="47"/>
-      <c r="HR54" s="54"/>
-      <c r="HT54" s="54"/>
-      <c r="HU54" s="28"/>
+      <c r="HO54" s="89"/>
+      <c r="HP54" s="90"/>
+      <c r="HQ54" s="90"/>
+      <c r="HR54" s="99"/>
+      <c r="HS54" s="90"/>
+      <c r="HT54" s="99"/>
+      <c r="HU54" s="91"/>
       <c r="HV54" s="33"/>
       <c r="IC54" s="60"/>
       <c r="II54" s="67"/>
@@ -9809,272 +9892,531 @@
       <c r="C64" s="20"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="40"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="23"/>
-      <c r="AD64" s="23"/>
-      <c r="AE64" s="23"/>
-      <c r="AF64" s="23"/>
-      <c r="AG64" s="40"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="23"/>
-      <c r="AJ64" s="23"/>
-      <c r="AK64" s="23"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="40"/>
-      <c r="AO64" s="22"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="23"/>
-      <c r="AR64" s="23"/>
-      <c r="AS64" s="23"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="40"/>
-      <c r="AV64" s="22"/>
-      <c r="AW64" s="23"/>
-      <c r="AX64" s="23"/>
-      <c r="AY64" s="23"/>
-      <c r="AZ64" s="23"/>
-      <c r="BA64" s="23"/>
-      <c r="BB64" s="40"/>
-      <c r="BC64" s="22"/>
-      <c r="BD64" s="23"/>
-      <c r="BE64" s="23"/>
-      <c r="BF64" s="23"/>
-      <c r="BG64" s="23"/>
-      <c r="BH64" s="23"/>
-      <c r="BI64" s="40"/>
-      <c r="BJ64" s="48"/>
-      <c r="BK64" s="41"/>
-      <c r="BL64" s="41"/>
-      <c r="BM64" s="41"/>
-      <c r="BN64" s="41"/>
-      <c r="BO64" s="41"/>
-      <c r="BP64" s="55"/>
-      <c r="BQ64" s="48"/>
-      <c r="BR64" s="41"/>
-      <c r="BS64" s="41"/>
-      <c r="BT64" s="56"/>
-      <c r="BU64" s="23"/>
-      <c r="BV64" s="23"/>
-      <c r="BW64" s="40"/>
-      <c r="BX64" s="48"/>
-      <c r="BY64" s="23"/>
-      <c r="BZ64" s="23"/>
-      <c r="CA64" s="23"/>
-      <c r="CB64" s="23"/>
-      <c r="CC64" s="23"/>
-      <c r="CD64" s="40"/>
-      <c r="CE64" s="22"/>
-      <c r="CF64" s="23"/>
-      <c r="CG64" s="23"/>
-      <c r="CH64" s="23"/>
-      <c r="CI64" s="23"/>
-      <c r="CJ64" s="23"/>
-      <c r="CK64" s="40"/>
-      <c r="CL64" s="22"/>
-      <c r="CM64" s="23"/>
-      <c r="CN64" s="23"/>
-      <c r="CO64" s="23"/>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="23"/>
-      <c r="CR64" s="40"/>
-      <c r="CS64" s="22"/>
-      <c r="CT64" s="23"/>
-      <c r="CU64" s="23"/>
-      <c r="CV64" s="23"/>
-      <c r="CW64" s="23"/>
-      <c r="CX64" s="23"/>
-      <c r="CY64" s="40"/>
-      <c r="CZ64" s="22"/>
-      <c r="DA64" s="23"/>
-      <c r="DB64" s="23"/>
-      <c r="DC64" s="23"/>
-      <c r="DD64" s="23"/>
-      <c r="DE64" s="23"/>
-      <c r="DF64" s="23"/>
-      <c r="DG64" s="61"/>
-      <c r="DH64" s="62"/>
-      <c r="DI64" s="62"/>
-      <c r="DJ64" s="62"/>
-      <c r="DK64" s="62"/>
-      <c r="DL64" s="62"/>
-      <c r="DM64" s="63"/>
-      <c r="DN64" s="64"/>
-      <c r="DO64" s="62"/>
-      <c r="DP64" s="62"/>
-      <c r="DQ64" s="62"/>
-      <c r="DR64" s="62"/>
-      <c r="DS64" s="62"/>
-      <c r="DT64" s="68"/>
-      <c r="DU64" s="23"/>
-      <c r="DV64" s="23"/>
-      <c r="DW64" s="23"/>
-      <c r="DX64" s="23"/>
-      <c r="DY64" s="23"/>
-      <c r="DZ64" s="23"/>
-      <c r="EA64" s="40"/>
-      <c r="EB64" s="22"/>
-      <c r="EC64" s="23"/>
-      <c r="ED64" s="23"/>
-      <c r="EE64" s="23"/>
-      <c r="EF64" s="23"/>
-      <c r="EG64" s="23"/>
-      <c r="EH64" s="40"/>
-      <c r="EI64" s="22"/>
-      <c r="EJ64" s="23"/>
-      <c r="EK64" s="23"/>
-      <c r="EL64" s="23"/>
-      <c r="EM64" s="23"/>
-      <c r="EN64" s="23"/>
-      <c r="EO64" s="40"/>
-      <c r="EP64" s="22"/>
-      <c r="EQ64" s="23"/>
-      <c r="ER64" s="41"/>
-      <c r="ES64" s="23"/>
-      <c r="ET64" s="23"/>
-      <c r="EU64" s="23"/>
-      <c r="EV64" s="40"/>
-      <c r="EW64" s="22"/>
-      <c r="EX64" s="23"/>
-      <c r="EY64" s="23"/>
-      <c r="EZ64" s="23"/>
-      <c r="FA64" s="23"/>
-      <c r="FB64" s="23"/>
-      <c r="FC64" s="40"/>
-      <c r="FD64" s="22"/>
-      <c r="FE64" s="23"/>
-      <c r="FF64" s="23"/>
-      <c r="FG64" s="23"/>
-      <c r="FH64" s="23"/>
-      <c r="FI64" s="23"/>
-      <c r="FJ64" s="40"/>
-      <c r="FK64" s="22"/>
-      <c r="FL64" s="23"/>
-      <c r="FM64" s="23"/>
-      <c r="FN64" s="23"/>
-      <c r="FO64" s="23"/>
-      <c r="FP64" s="23"/>
-      <c r="FQ64" s="40"/>
-      <c r="FR64" s="48"/>
-      <c r="FS64" s="41"/>
-      <c r="FT64" s="41"/>
-      <c r="FU64" s="41"/>
-      <c r="FV64" s="41"/>
-      <c r="FW64" s="41"/>
-      <c r="FX64" s="55"/>
-      <c r="FY64" s="48"/>
-      <c r="FZ64" s="41"/>
-      <c r="GA64" s="41"/>
-      <c r="GB64" s="41"/>
-      <c r="GC64" s="41"/>
-      <c r="GD64" s="41"/>
-      <c r="GE64" s="55"/>
-      <c r="GF64" s="22"/>
-      <c r="GG64" s="23"/>
-      <c r="GH64" s="23"/>
-      <c r="GI64" s="23"/>
-      <c r="GJ64" s="23"/>
-      <c r="GK64" s="23"/>
-      <c r="GL64" s="40"/>
-      <c r="GM64" s="22"/>
-      <c r="GN64" s="23"/>
-      <c r="GO64" s="23"/>
-      <c r="GP64" s="23"/>
-      <c r="GQ64" s="23"/>
-      <c r="GR64" s="23"/>
-      <c r="GS64" s="40"/>
-      <c r="GT64" s="22"/>
-      <c r="GU64" s="23"/>
-      <c r="GV64" s="23"/>
-      <c r="GW64" s="23"/>
-      <c r="GX64" s="23"/>
-      <c r="GY64" s="23"/>
-      <c r="GZ64" s="40"/>
-      <c r="HA64" s="22"/>
-      <c r="HB64" s="23"/>
-      <c r="HC64" s="23"/>
-      <c r="HD64" s="23"/>
-      <c r="HE64" s="23"/>
-      <c r="HF64" s="23"/>
-      <c r="HG64" s="40"/>
-      <c r="HH64" s="22"/>
-      <c r="HI64" s="23"/>
-      <c r="HJ64" s="23"/>
-      <c r="HK64" s="23"/>
-      <c r="HL64" s="23"/>
-      <c r="HM64" s="23"/>
-      <c r="HN64" s="40"/>
-      <c r="HO64" s="48"/>
-      <c r="HP64" s="23"/>
-      <c r="HQ64" s="23"/>
-      <c r="HR64" s="56"/>
-      <c r="HS64" s="23"/>
-      <c r="HT64" s="56"/>
-      <c r="HU64" s="40"/>
-      <c r="HV64" s="22"/>
-      <c r="HW64" s="23"/>
-      <c r="HX64" s="23"/>
-      <c r="HY64" s="23"/>
-      <c r="HZ64" s="23"/>
-      <c r="IA64" s="23"/>
-      <c r="IB64" s="23"/>
-      <c r="IC64" s="61"/>
-      <c r="ID64" s="62"/>
-      <c r="IE64" s="62"/>
-      <c r="IF64" s="62"/>
-      <c r="IG64" s="62"/>
-      <c r="IH64" s="62"/>
-      <c r="II64" s="68"/>
-      <c r="IJ64" s="61"/>
-      <c r="IK64" s="62"/>
-      <c r="IL64" s="62"/>
-      <c r="IM64" s="62"/>
-      <c r="IN64" s="62"/>
-      <c r="IO64" s="68"/>
-      <c r="IP64" s="61"/>
-      <c r="IQ64" s="62"/>
-      <c r="IR64" s="62"/>
-      <c r="IS64" s="62"/>
-      <c r="IT64" s="62"/>
-      <c r="IU64" s="62"/>
-      <c r="IV64" s="68"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="33"/>
+      <c r="O64" s="30"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="33"/>
+      <c r="Z64" s="28"/>
+      <c r="AA64" s="33"/>
+      <c r="AG64" s="28"/>
+      <c r="AH64" s="33"/>
+      <c r="AN64" s="28"/>
+      <c r="AO64" s="33"/>
+      <c r="AU64" s="28"/>
+      <c r="AV64" s="33"/>
+      <c r="BB64" s="28"/>
+      <c r="BC64" s="33"/>
+      <c r="BI64" s="28"/>
+      <c r="BJ64" s="47"/>
+      <c r="BK64" s="30"/>
+      <c r="BL64" s="30"/>
+      <c r="BM64" s="30"/>
+      <c r="BN64" s="30"/>
+      <c r="BO64" s="30"/>
+      <c r="BP64" s="53"/>
+      <c r="BQ64" s="47"/>
+      <c r="BR64" s="30"/>
+      <c r="BS64" s="30"/>
+      <c r="BT64" s="54"/>
+      <c r="BW64" s="28"/>
+      <c r="BX64" s="47"/>
+      <c r="CD64" s="28"/>
+      <c r="CE64" s="33"/>
+      <c r="CK64" s="28"/>
+      <c r="CL64" s="33"/>
+      <c r="CR64" s="28"/>
+      <c r="CS64" s="33"/>
+      <c r="CY64" s="28"/>
+      <c r="CZ64" s="33"/>
+      <c r="DG64" s="60"/>
+      <c r="DM64" s="28"/>
+      <c r="DN64" s="33"/>
+      <c r="DT64" s="67"/>
+      <c r="EA64" s="28"/>
+      <c r="EB64" s="33"/>
+      <c r="EH64" s="28"/>
+      <c r="EI64" s="33"/>
+      <c r="EO64" s="28"/>
+      <c r="EP64" s="33"/>
+      <c r="ER64" s="30"/>
+      <c r="EV64" s="28"/>
+      <c r="EW64" s="33"/>
+      <c r="FC64" s="28"/>
+      <c r="FD64" s="33"/>
+      <c r="FJ64" s="28"/>
+      <c r="FK64" s="33"/>
+      <c r="FQ64" s="28"/>
+      <c r="FR64" s="47"/>
+      <c r="FS64" s="30"/>
+      <c r="FT64" s="30"/>
+      <c r="FU64" s="30"/>
+      <c r="FV64" s="30"/>
+      <c r="FW64" s="30"/>
+      <c r="FX64" s="53"/>
+      <c r="FY64" s="47"/>
+      <c r="FZ64" s="30"/>
+      <c r="GA64" s="30"/>
+      <c r="GB64" s="30"/>
+      <c r="GC64" s="30"/>
+      <c r="GD64" s="30"/>
+      <c r="GE64" s="53"/>
+      <c r="GF64" s="33"/>
+      <c r="GL64" s="28"/>
+      <c r="GM64" s="33"/>
+      <c r="GS64" s="28"/>
+      <c r="GT64" s="33"/>
+      <c r="GZ64" s="28"/>
+      <c r="HA64" s="33"/>
+      <c r="HG64" s="28"/>
+      <c r="HH64" s="33"/>
+      <c r="HN64" s="28"/>
+      <c r="HO64" s="47"/>
+      <c r="HR64" s="54"/>
+      <c r="HT64" s="54"/>
+      <c r="HU64" s="28"/>
+      <c r="HV64" s="33"/>
+      <c r="IC64" s="60"/>
+      <c r="II64" s="67"/>
+      <c r="IJ64" s="60"/>
+      <c r="IO64" s="67"/>
+      <c r="IP64" s="60"/>
+      <c r="IV64" s="67"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:256">
       <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="33"/>
+      <c r="O65" s="30"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="33"/>
+      <c r="Z65" s="28"/>
+      <c r="AA65" s="33"/>
+      <c r="AG65" s="28"/>
+      <c r="AH65" s="33"/>
+      <c r="AN65" s="28"/>
+      <c r="AO65" s="33"/>
+      <c r="AU65" s="28"/>
+      <c r="AV65" s="33"/>
+      <c r="BB65" s="28"/>
+      <c r="BC65" s="33"/>
+      <c r="BI65" s="28"/>
+      <c r="BJ65" s="47"/>
+      <c r="BK65" s="30"/>
+      <c r="BL65" s="30"/>
+      <c r="BM65" s="30"/>
+      <c r="BN65" s="30"/>
+      <c r="BO65" s="30"/>
+      <c r="BP65" s="53"/>
+      <c r="BQ65" s="47"/>
+      <c r="BR65" s="30"/>
+      <c r="BS65" s="30"/>
+      <c r="BT65" s="54"/>
+      <c r="BW65" s="28"/>
+      <c r="BX65" s="47"/>
+      <c r="CD65" s="28"/>
+      <c r="CE65" s="33"/>
+      <c r="CK65" s="28"/>
+      <c r="CL65" s="33"/>
+      <c r="CR65" s="28"/>
+      <c r="CS65" s="33"/>
+      <c r="CY65" s="28"/>
+      <c r="CZ65" s="33"/>
+      <c r="DG65" s="60"/>
+      <c r="DM65" s="28"/>
+      <c r="DN65" s="33"/>
+      <c r="DT65" s="67"/>
+      <c r="EA65" s="28"/>
+      <c r="EB65" s="33"/>
+      <c r="EH65" s="28"/>
+      <c r="EI65" s="33"/>
+      <c r="EO65" s="28"/>
+      <c r="EP65" s="33"/>
+      <c r="ER65" s="30"/>
+      <c r="EV65" s="28"/>
+      <c r="EW65" s="33"/>
+      <c r="FC65" s="28"/>
+      <c r="FD65" s="33"/>
+      <c r="FJ65" s="28"/>
+      <c r="FK65" s="33"/>
+      <c r="FQ65" s="28"/>
+      <c r="FR65" s="47"/>
+      <c r="FS65" s="30"/>
+      <c r="FT65" s="30"/>
+      <c r="FU65" s="30"/>
+      <c r="FV65" s="30"/>
+      <c r="FW65" s="30"/>
+      <c r="FX65" s="53"/>
+      <c r="FY65" s="47"/>
+      <c r="FZ65" s="30"/>
+      <c r="GA65" s="30"/>
+      <c r="GB65" s="30"/>
+      <c r="GC65" s="30"/>
+      <c r="GD65" s="30"/>
+      <c r="GE65" s="53"/>
+      <c r="GF65" s="33"/>
+      <c r="GL65" s="28"/>
+      <c r="GM65" s="33"/>
+      <c r="GS65" s="28"/>
+      <c r="GT65" s="33"/>
+      <c r="GZ65" s="28"/>
+      <c r="HA65" s="33"/>
+      <c r="HG65" s="28"/>
+      <c r="HH65" s="33"/>
+      <c r="HN65" s="28"/>
+      <c r="HO65" s="47"/>
+      <c r="HR65" s="54"/>
+      <c r="HT65" s="54"/>
+      <c r="HU65" s="28"/>
+      <c r="HV65" s="33"/>
+      <c r="IC65" s="60"/>
+      <c r="II65" s="67"/>
+      <c r="IJ65" s="60"/>
+      <c r="IO65" s="67"/>
+      <c r="IP65" s="60"/>
+      <c r="IV65" s="67"/>
+    </row>
+    <row r="66" spans="1:256">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="40"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="23"/>
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="23"/>
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="23"/>
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="23"/>
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="40"/>
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="23"/>
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="40"/>
+      <c r="BJ66" s="48"/>
+      <c r="BK66" s="41"/>
+      <c r="BL66" s="41"/>
+      <c r="BM66" s="41"/>
+      <c r="BN66" s="41"/>
+      <c r="BO66" s="41"/>
+      <c r="BP66" s="55"/>
+      <c r="BQ66" s="48"/>
+      <c r="BR66" s="41"/>
+      <c r="BS66" s="41"/>
+      <c r="BT66" s="56"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="23"/>
+      <c r="BW66" s="40"/>
+      <c r="BX66" s="48"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="23"/>
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="40"/>
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
+      <c r="CH66" s="23"/>
+      <c r="CI66" s="23"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="40"/>
+      <c r="CL66" s="22"/>
+      <c r="CM66" s="23"/>
+      <c r="CN66" s="23"/>
+      <c r="CO66" s="23"/>
+      <c r="CP66" s="23"/>
+      <c r="CQ66" s="23"/>
+      <c r="CR66" s="40"/>
+      <c r="CS66" s="22"/>
+      <c r="CT66" s="23"/>
+      <c r="CU66" s="23"/>
+      <c r="CV66" s="23"/>
+      <c r="CW66" s="23"/>
+      <c r="CX66" s="23"/>
+      <c r="CY66" s="40"/>
+      <c r="CZ66" s="22"/>
+      <c r="DA66" s="23"/>
+      <c r="DB66" s="23"/>
+      <c r="DC66" s="23"/>
+      <c r="DD66" s="23"/>
+      <c r="DE66" s="23"/>
+      <c r="DF66" s="23"/>
+      <c r="DG66" s="61"/>
+      <c r="DH66" s="62"/>
+      <c r="DI66" s="62"/>
+      <c r="DJ66" s="62"/>
+      <c r="DK66" s="62"/>
+      <c r="DL66" s="62"/>
+      <c r="DM66" s="63"/>
+      <c r="DN66" s="64"/>
+      <c r="DO66" s="62"/>
+      <c r="DP66" s="62"/>
+      <c r="DQ66" s="62"/>
+      <c r="DR66" s="62"/>
+      <c r="DS66" s="62"/>
+      <c r="DT66" s="68"/>
+      <c r="DU66" s="23"/>
+      <c r="DV66" s="23"/>
+      <c r="DW66" s="23"/>
+      <c r="DX66" s="23"/>
+      <c r="DY66" s="23"/>
+      <c r="DZ66" s="23"/>
+      <c r="EA66" s="40"/>
+      <c r="EB66" s="22"/>
+      <c r="EC66" s="23"/>
+      <c r="ED66" s="23"/>
+      <c r="EE66" s="23"/>
+      <c r="EF66" s="23"/>
+      <c r="EG66" s="23"/>
+      <c r="EH66" s="40"/>
+      <c r="EI66" s="22"/>
+      <c r="EJ66" s="23"/>
+      <c r="EK66" s="23"/>
+      <c r="EL66" s="23"/>
+      <c r="EM66" s="23"/>
+      <c r="EN66" s="23"/>
+      <c r="EO66" s="40"/>
+      <c r="EP66" s="22"/>
+      <c r="EQ66" s="23"/>
+      <c r="ER66" s="41"/>
+      <c r="ES66" s="23"/>
+      <c r="ET66" s="23"/>
+      <c r="EU66" s="23"/>
+      <c r="EV66" s="40"/>
+      <c r="EW66" s="22"/>
+      <c r="EX66" s="23"/>
+      <c r="EY66" s="23"/>
+      <c r="EZ66" s="23"/>
+      <c r="FA66" s="23"/>
+      <c r="FB66" s="23"/>
+      <c r="FC66" s="40"/>
+      <c r="FD66" s="22"/>
+      <c r="FE66" s="23"/>
+      <c r="FF66" s="23"/>
+      <c r="FG66" s="23"/>
+      <c r="FH66" s="23"/>
+      <c r="FI66" s="23"/>
+      <c r="FJ66" s="40"/>
+      <c r="FK66" s="22"/>
+      <c r="FL66" s="23"/>
+      <c r="FM66" s="23"/>
+      <c r="FN66" s="23"/>
+      <c r="FO66" s="23"/>
+      <c r="FP66" s="23"/>
+      <c r="FQ66" s="40"/>
+      <c r="FR66" s="48"/>
+      <c r="FS66" s="41"/>
+      <c r="FT66" s="41"/>
+      <c r="FU66" s="41"/>
+      <c r="FV66" s="41"/>
+      <c r="FW66" s="41"/>
+      <c r="FX66" s="55"/>
+      <c r="FY66" s="48"/>
+      <c r="FZ66" s="41"/>
+      <c r="GA66" s="41"/>
+      <c r="GB66" s="41"/>
+      <c r="GC66" s="41"/>
+      <c r="GD66" s="41"/>
+      <c r="GE66" s="55"/>
+      <c r="GF66" s="22"/>
+      <c r="GG66" s="23"/>
+      <c r="GH66" s="23"/>
+      <c r="GI66" s="23"/>
+      <c r="GJ66" s="23"/>
+      <c r="GK66" s="23"/>
+      <c r="GL66" s="40"/>
+      <c r="GM66" s="22"/>
+      <c r="GN66" s="23"/>
+      <c r="GO66" s="23"/>
+      <c r="GP66" s="23"/>
+      <c r="GQ66" s="23"/>
+      <c r="GR66" s="23"/>
+      <c r="GS66" s="40"/>
+      <c r="GT66" s="22"/>
+      <c r="GU66" s="23"/>
+      <c r="GV66" s="23"/>
+      <c r="GW66" s="23"/>
+      <c r="GX66" s="23"/>
+      <c r="GY66" s="23"/>
+      <c r="GZ66" s="40"/>
+      <c r="HA66" s="22"/>
+      <c r="HB66" s="23"/>
+      <c r="HC66" s="23"/>
+      <c r="HD66" s="23"/>
+      <c r="HE66" s="23"/>
+      <c r="HF66" s="23"/>
+      <c r="HG66" s="40"/>
+      <c r="HH66" s="22"/>
+      <c r="HI66" s="23"/>
+      <c r="HJ66" s="23"/>
+      <c r="HK66" s="23"/>
+      <c r="HL66" s="23"/>
+      <c r="HM66" s="23"/>
+      <c r="HN66" s="40"/>
+      <c r="HO66" s="48"/>
+      <c r="HP66" s="23"/>
+      <c r="HQ66" s="23"/>
+      <c r="HR66" s="56"/>
+      <c r="HS66" s="23"/>
+      <c r="HT66" s="56"/>
+      <c r="HU66" s="40"/>
+      <c r="HV66" s="22"/>
+      <c r="HW66" s="23"/>
+      <c r="HX66" s="23"/>
+      <c r="HY66" s="23"/>
+      <c r="HZ66" s="23"/>
+      <c r="IA66" s="23"/>
+      <c r="IB66" s="23"/>
+      <c r="IC66" s="61"/>
+      <c r="ID66" s="62"/>
+      <c r="IE66" s="62"/>
+      <c r="IF66" s="62"/>
+      <c r="IG66" s="62"/>
+      <c r="IH66" s="62"/>
+      <c r="II66" s="68"/>
+      <c r="IJ66" s="61"/>
+      <c r="IK66" s="62"/>
+      <c r="IL66" s="62"/>
+      <c r="IM66" s="62"/>
+      <c r="IN66" s="62"/>
+      <c r="IO66" s="68"/>
+      <c r="IP66" s="61"/>
+      <c r="IQ66" s="62"/>
+      <c r="IR66" s="62"/>
+      <c r="IS66" s="62"/>
+      <c r="IT66" s="62"/>
+      <c r="IU66" s="62"/>
+      <c r="IV66" s="68"/>
+    </row>
+    <row r="67" spans="1:256">
+      <c r="A67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:AO2"/>
-    <mergeCell ref="AP2:BS2"/>
-    <mergeCell ref="BT2:CX2"/>
-    <mergeCell ref="CY2:EC2"/>
-    <mergeCell ref="ED2:FE2"/>
-    <mergeCell ref="FF2:GJ2"/>
-    <mergeCell ref="GK2:HN2"/>
-    <mergeCell ref="HO2:IS2"/>
+    <mergeCell ref="EK49:EL49"/>
+    <mergeCell ref="FV50:FX50"/>
+    <mergeCell ref="FY50:GE50"/>
+    <mergeCell ref="GF50:GL50"/>
+    <mergeCell ref="GM50:GS50"/>
+    <mergeCell ref="GT50:GZ50"/>
+    <mergeCell ref="HA50:HG50"/>
+    <mergeCell ref="HH50:HL50"/>
+    <mergeCell ref="GF46:GI46"/>
+    <mergeCell ref="GJ46:GP46"/>
+    <mergeCell ref="GQ46:GT46"/>
+    <mergeCell ref="GB47:GE47"/>
+    <mergeCell ref="GF47:GL47"/>
+    <mergeCell ref="GM47:GS47"/>
+    <mergeCell ref="GT47:GZ47"/>
+    <mergeCell ref="HA47:HG47"/>
+    <mergeCell ref="HH47:HK47"/>
+    <mergeCell ref="EM38:EO38"/>
+    <mergeCell ref="EP38:EV38"/>
+    <mergeCell ref="FI39:FJ39"/>
+    <mergeCell ref="FK39:FO39"/>
+    <mergeCell ref="EU40:EV40"/>
+    <mergeCell ref="EW40:FC40"/>
+    <mergeCell ref="FK42:FQ42"/>
+    <mergeCell ref="FK43:FQ43"/>
+    <mergeCell ref="FV45:FX45"/>
+    <mergeCell ref="DY35:EA35"/>
+    <mergeCell ref="EB35:EE35"/>
+    <mergeCell ref="EM35:EO35"/>
+    <mergeCell ref="EP35:ES35"/>
+    <mergeCell ref="FD36:FJ36"/>
+    <mergeCell ref="FK36:FQ36"/>
+    <mergeCell ref="EM37:EO37"/>
+    <mergeCell ref="EP37:EV37"/>
+    <mergeCell ref="EW37:FB37"/>
+    <mergeCell ref="FK37:FN37"/>
+    <mergeCell ref="EI28:EL28"/>
+    <mergeCell ref="AY29:AZ29"/>
+    <mergeCell ref="EI30:EO30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BC31:BI31"/>
+    <mergeCell ref="BJ31:BP31"/>
+    <mergeCell ref="BQ31:BW31"/>
+    <mergeCell ref="EM31:EO31"/>
+    <mergeCell ref="BT33:BW33"/>
+    <mergeCell ref="T24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="AO25:AU25"/>
+    <mergeCell ref="AV26:BB26"/>
+    <mergeCell ref="BC26:BI26"/>
+    <mergeCell ref="BT27:BW27"/>
+    <mergeCell ref="DY28:DZ28"/>
+    <mergeCell ref="EF28:EH28"/>
+    <mergeCell ref="IC3:II3"/>
+    <mergeCell ref="IP3:IV3"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="EP21:EV21"/>
+    <mergeCell ref="EW21:FC21"/>
+    <mergeCell ref="FD21:FJ21"/>
+    <mergeCell ref="FK21:FQ21"/>
+    <mergeCell ref="FR21:FX21"/>
+    <mergeCell ref="FK3:FQ3"/>
+    <mergeCell ref="FR3:FX3"/>
+    <mergeCell ref="FY3:GE3"/>
+    <mergeCell ref="GF3:GL3"/>
+    <mergeCell ref="GM3:GS3"/>
+    <mergeCell ref="GT3:GZ3"/>
+    <mergeCell ref="HA3:HG3"/>
+    <mergeCell ref="HH3:HN3"/>
+    <mergeCell ref="HO3:HU3"/>
     <mergeCell ref="IT2:IV2"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:S3"/>
@@ -10099,80 +10441,15 @@
     <mergeCell ref="EP3:EV3"/>
     <mergeCell ref="EW3:FC3"/>
     <mergeCell ref="FD3:FJ3"/>
-    <mergeCell ref="IC3:II3"/>
-    <mergeCell ref="IP3:IV3"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="EP21:EV21"/>
-    <mergeCell ref="EW21:FC21"/>
-    <mergeCell ref="FD21:FJ21"/>
-    <mergeCell ref="FK21:FQ21"/>
-    <mergeCell ref="FR21:FX21"/>
-    <mergeCell ref="FK3:FQ3"/>
-    <mergeCell ref="FR3:FX3"/>
-    <mergeCell ref="FY3:GE3"/>
-    <mergeCell ref="GF3:GL3"/>
-    <mergeCell ref="GM3:GS3"/>
-    <mergeCell ref="GT3:GZ3"/>
-    <mergeCell ref="HA3:HG3"/>
-    <mergeCell ref="HH3:HN3"/>
-    <mergeCell ref="HO3:HU3"/>
-    <mergeCell ref="T24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="AO25:AU25"/>
-    <mergeCell ref="AV26:BB26"/>
-    <mergeCell ref="BC26:BI26"/>
-    <mergeCell ref="BT27:BW27"/>
-    <mergeCell ref="DY28:DZ28"/>
-    <mergeCell ref="EF28:EH28"/>
-    <mergeCell ref="EI28:EL28"/>
-    <mergeCell ref="AY29:AZ29"/>
-    <mergeCell ref="EI30:EO30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BC31:BI31"/>
-    <mergeCell ref="BJ31:BP31"/>
-    <mergeCell ref="BQ31:BW31"/>
-    <mergeCell ref="EM31:EO31"/>
-    <mergeCell ref="BT33:BW33"/>
-    <mergeCell ref="DY35:EA35"/>
-    <mergeCell ref="EB35:EE35"/>
-    <mergeCell ref="EM35:EO35"/>
-    <mergeCell ref="EP35:ES35"/>
-    <mergeCell ref="FD36:FJ36"/>
-    <mergeCell ref="FK36:FQ36"/>
-    <mergeCell ref="EM37:EO37"/>
-    <mergeCell ref="EP37:EV37"/>
-    <mergeCell ref="EW37:FB37"/>
-    <mergeCell ref="FK37:FN37"/>
-    <mergeCell ref="EM38:EO38"/>
-    <mergeCell ref="EP38:EV38"/>
-    <mergeCell ref="FI39:FJ39"/>
-    <mergeCell ref="FK39:FO39"/>
-    <mergeCell ref="EU40:EV40"/>
-    <mergeCell ref="EW40:FC40"/>
-    <mergeCell ref="FK41:FQ41"/>
-    <mergeCell ref="FK42:FQ42"/>
-    <mergeCell ref="FV44:FX44"/>
-    <mergeCell ref="EK47:EL47"/>
-    <mergeCell ref="FV48:FX48"/>
-    <mergeCell ref="FY48:GE48"/>
-    <mergeCell ref="GF48:GL48"/>
-    <mergeCell ref="GM48:GS48"/>
-    <mergeCell ref="GT48:GZ48"/>
-    <mergeCell ref="HA48:HG48"/>
-    <mergeCell ref="HH48:HL48"/>
-    <mergeCell ref="GF45:GI45"/>
-    <mergeCell ref="GJ45:GP45"/>
-    <mergeCell ref="GQ45:GT45"/>
-    <mergeCell ref="GB46:GE46"/>
-    <mergeCell ref="GF46:GL46"/>
-    <mergeCell ref="GM46:GS46"/>
-    <mergeCell ref="GT46:GZ46"/>
-    <mergeCell ref="HA46:HG46"/>
-    <mergeCell ref="HH46:HK46"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:AO2"/>
+    <mergeCell ref="AP2:BS2"/>
+    <mergeCell ref="BT2:CX2"/>
+    <mergeCell ref="CY2:EC2"/>
+    <mergeCell ref="ED2:FE2"/>
+    <mergeCell ref="FF2:GJ2"/>
+    <mergeCell ref="GK2:HN2"/>
+    <mergeCell ref="HO2:IS2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RewardProcessinApp Gantt chart.xlsx
+++ b/RewardProcessinApp Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrix/zzzzzzzzzzzzzzzzjbk/2022-RewardProcessingApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lihaixin/Desktop/code/2022-RewardProcessingApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB45D9FB-ABD9-2C46-A646-9794B3D0EE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F511B-0F39-B44F-AC21-6747779070B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="760" windowWidth="19240" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1080" windowWidth="19240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEP Gantt chart" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="132">
   <si>
     <t>Colour coding:</t>
   </si>
@@ -714,35 +714,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Chongqi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Chongqi,Haixin</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>Haixin,Yichen</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Unity-Pacman</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chongqi, Yichen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click button arrange and rearrenge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game grid</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.2</t>
+    <t>Click button rearrenge</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1308,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1607,6 +1587,132 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1616,19 +1722,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,132 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2043,13 +2017,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV67"/>
+  <dimension ref="A1:IV65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="15"/>
@@ -2078,277 +2052,277 @@
         <v>3</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102" t="s">
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="100"/>
-      <c r="X2" s="100"/>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="100"/>
-      <c r="AA2" s="100"/>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="100"/>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="100"/>
-      <c r="AM2" s="100"/>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="102" t="s">
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142"/>
+      <c r="AO2" s="143"/>
+      <c r="AP2" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="100"/>
-      <c r="AS2" s="100"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="100"/>
-      <c r="AV2" s="100"/>
-      <c r="AW2" s="100"/>
-      <c r="AX2" s="100"/>
-      <c r="AY2" s="100"/>
-      <c r="AZ2" s="100"/>
-      <c r="BA2" s="100"/>
-      <c r="BB2" s="100"/>
-      <c r="BC2" s="100"/>
-      <c r="BD2" s="100"/>
-      <c r="BE2" s="100"/>
-      <c r="BF2" s="100"/>
-      <c r="BG2" s="100"/>
-      <c r="BH2" s="100"/>
-      <c r="BI2" s="100"/>
-      <c r="BJ2" s="100"/>
-      <c r="BK2" s="100"/>
-      <c r="BL2" s="100"/>
-      <c r="BM2" s="100"/>
-      <c r="BN2" s="100"/>
-      <c r="BO2" s="100"/>
-      <c r="BP2" s="100"/>
-      <c r="BQ2" s="100"/>
-      <c r="BR2" s="100"/>
-      <c r="BS2" s="101"/>
-      <c r="BT2" s="102" t="s">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142"/>
+      <c r="AS2" s="142"/>
+      <c r="AT2" s="142"/>
+      <c r="AU2" s="142"/>
+      <c r="AV2" s="142"/>
+      <c r="AW2" s="142"/>
+      <c r="AX2" s="142"/>
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="142"/>
+      <c r="BH2" s="142"/>
+      <c r="BI2" s="142"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="142"/>
+      <c r="BL2" s="142"/>
+      <c r="BM2" s="142"/>
+      <c r="BN2" s="142"/>
+      <c r="BO2" s="142"/>
+      <c r="BP2" s="142"/>
+      <c r="BQ2" s="142"/>
+      <c r="BR2" s="142"/>
+      <c r="BS2" s="143"/>
+      <c r="BT2" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="BU2" s="100"/>
-      <c r="BV2" s="100"/>
-      <c r="BW2" s="100"/>
-      <c r="BX2" s="100"/>
-      <c r="BY2" s="100"/>
-      <c r="BZ2" s="100"/>
-      <c r="CA2" s="100"/>
-      <c r="CB2" s="100"/>
-      <c r="CC2" s="100"/>
-      <c r="CD2" s="100"/>
-      <c r="CE2" s="100"/>
-      <c r="CF2" s="100"/>
-      <c r="CG2" s="100"/>
-      <c r="CH2" s="100"/>
-      <c r="CI2" s="100"/>
-      <c r="CJ2" s="100"/>
-      <c r="CK2" s="100"/>
-      <c r="CL2" s="100"/>
-      <c r="CM2" s="100"/>
-      <c r="CN2" s="100"/>
-      <c r="CO2" s="100"/>
-      <c r="CP2" s="100"/>
-      <c r="CQ2" s="100"/>
-      <c r="CR2" s="100"/>
-      <c r="CS2" s="100"/>
-      <c r="CT2" s="100"/>
-      <c r="CU2" s="100"/>
-      <c r="CV2" s="100"/>
-      <c r="CW2" s="100"/>
-      <c r="CX2" s="101"/>
-      <c r="CY2" s="102" t="s">
+      <c r="BU2" s="142"/>
+      <c r="BV2" s="142"/>
+      <c r="BW2" s="142"/>
+      <c r="BX2" s="142"/>
+      <c r="BY2" s="142"/>
+      <c r="BZ2" s="142"/>
+      <c r="CA2" s="142"/>
+      <c r="CB2" s="142"/>
+      <c r="CC2" s="142"/>
+      <c r="CD2" s="142"/>
+      <c r="CE2" s="142"/>
+      <c r="CF2" s="142"/>
+      <c r="CG2" s="142"/>
+      <c r="CH2" s="142"/>
+      <c r="CI2" s="142"/>
+      <c r="CJ2" s="142"/>
+      <c r="CK2" s="142"/>
+      <c r="CL2" s="142"/>
+      <c r="CM2" s="142"/>
+      <c r="CN2" s="142"/>
+      <c r="CO2" s="142"/>
+      <c r="CP2" s="142"/>
+      <c r="CQ2" s="142"/>
+      <c r="CR2" s="142"/>
+      <c r="CS2" s="142"/>
+      <c r="CT2" s="142"/>
+      <c r="CU2" s="142"/>
+      <c r="CV2" s="142"/>
+      <c r="CW2" s="142"/>
+      <c r="CX2" s="143"/>
+      <c r="CY2" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="CZ2" s="100"/>
-      <c r="DA2" s="100"/>
-      <c r="DB2" s="100"/>
-      <c r="DC2" s="100"/>
-      <c r="DD2" s="100"/>
-      <c r="DE2" s="100"/>
-      <c r="DF2" s="100"/>
-      <c r="DG2" s="103"/>
-      <c r="DH2" s="103"/>
-      <c r="DI2" s="103"/>
-      <c r="DJ2" s="103"/>
-      <c r="DK2" s="103"/>
-      <c r="DL2" s="103"/>
-      <c r="DM2" s="103"/>
-      <c r="DN2" s="103"/>
-      <c r="DO2" s="103"/>
-      <c r="DP2" s="103"/>
-      <c r="DQ2" s="103"/>
-      <c r="DR2" s="103"/>
-      <c r="DS2" s="103"/>
-      <c r="DT2" s="103"/>
-      <c r="DU2" s="100"/>
-      <c r="DV2" s="100"/>
-      <c r="DW2" s="100"/>
-      <c r="DX2" s="100"/>
-      <c r="DY2" s="100"/>
-      <c r="DZ2" s="100"/>
-      <c r="EA2" s="100"/>
-      <c r="EB2" s="100"/>
-      <c r="EC2" s="101"/>
-      <c r="ED2" s="104" t="s">
+      <c r="CZ2" s="142"/>
+      <c r="DA2" s="142"/>
+      <c r="DB2" s="142"/>
+      <c r="DC2" s="142"/>
+      <c r="DD2" s="142"/>
+      <c r="DE2" s="142"/>
+      <c r="DF2" s="142"/>
+      <c r="DG2" s="138"/>
+      <c r="DH2" s="138"/>
+      <c r="DI2" s="138"/>
+      <c r="DJ2" s="138"/>
+      <c r="DK2" s="138"/>
+      <c r="DL2" s="138"/>
+      <c r="DM2" s="138"/>
+      <c r="DN2" s="138"/>
+      <c r="DO2" s="138"/>
+      <c r="DP2" s="138"/>
+      <c r="DQ2" s="138"/>
+      <c r="DR2" s="138"/>
+      <c r="DS2" s="138"/>
+      <c r="DT2" s="138"/>
+      <c r="DU2" s="142"/>
+      <c r="DV2" s="142"/>
+      <c r="DW2" s="142"/>
+      <c r="DX2" s="142"/>
+      <c r="DY2" s="142"/>
+      <c r="DZ2" s="142"/>
+      <c r="EA2" s="142"/>
+      <c r="EB2" s="142"/>
+      <c r="EC2" s="143"/>
+      <c r="ED2" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="EE2" s="103"/>
-      <c r="EF2" s="103"/>
-      <c r="EG2" s="103"/>
-      <c r="EH2" s="103"/>
-      <c r="EI2" s="100"/>
-      <c r="EJ2" s="100"/>
-      <c r="EK2" s="100"/>
-      <c r="EL2" s="100"/>
-      <c r="EM2" s="100"/>
-      <c r="EN2" s="100"/>
-      <c r="EO2" s="100"/>
-      <c r="EP2" s="100"/>
-      <c r="EQ2" s="100"/>
-      <c r="ER2" s="100"/>
-      <c r="ES2" s="100"/>
-      <c r="ET2" s="100"/>
-      <c r="EU2" s="100"/>
-      <c r="EV2" s="100"/>
-      <c r="EW2" s="100"/>
-      <c r="EX2" s="100"/>
-      <c r="EY2" s="100"/>
-      <c r="EZ2" s="100"/>
-      <c r="FA2" s="100"/>
-      <c r="FB2" s="100"/>
-      <c r="FC2" s="100"/>
-      <c r="FD2" s="100"/>
-      <c r="FE2" s="101"/>
-      <c r="FF2" s="104" t="s">
+      <c r="EE2" s="138"/>
+      <c r="EF2" s="138"/>
+      <c r="EG2" s="138"/>
+      <c r="EH2" s="138"/>
+      <c r="EI2" s="142"/>
+      <c r="EJ2" s="142"/>
+      <c r="EK2" s="142"/>
+      <c r="EL2" s="142"/>
+      <c r="EM2" s="142"/>
+      <c r="EN2" s="142"/>
+      <c r="EO2" s="142"/>
+      <c r="EP2" s="142"/>
+      <c r="EQ2" s="142"/>
+      <c r="ER2" s="142"/>
+      <c r="ES2" s="142"/>
+      <c r="ET2" s="142"/>
+      <c r="EU2" s="142"/>
+      <c r="EV2" s="142"/>
+      <c r="EW2" s="142"/>
+      <c r="EX2" s="142"/>
+      <c r="EY2" s="142"/>
+      <c r="EZ2" s="142"/>
+      <c r="FA2" s="142"/>
+      <c r="FB2" s="142"/>
+      <c r="FC2" s="142"/>
+      <c r="FD2" s="142"/>
+      <c r="FE2" s="143"/>
+      <c r="FF2" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="FG2" s="103"/>
-      <c r="FH2" s="103"/>
-      <c r="FI2" s="103"/>
-      <c r="FJ2" s="103"/>
-      <c r="FK2" s="100"/>
-      <c r="FL2" s="100"/>
-      <c r="FM2" s="100"/>
-      <c r="FN2" s="100"/>
-      <c r="FO2" s="100"/>
-      <c r="FP2" s="100"/>
-      <c r="FQ2" s="100"/>
-      <c r="FR2" s="100"/>
-      <c r="FS2" s="100"/>
-      <c r="FT2" s="100"/>
-      <c r="FU2" s="100"/>
-      <c r="FV2" s="100"/>
-      <c r="FW2" s="100"/>
-      <c r="FX2" s="100"/>
-      <c r="FY2" s="100"/>
-      <c r="FZ2" s="100"/>
-      <c r="GA2" s="100"/>
-      <c r="GB2" s="100"/>
-      <c r="GC2" s="100"/>
-      <c r="GD2" s="100"/>
-      <c r="GE2" s="100"/>
-      <c r="GF2" s="100"/>
-      <c r="GG2" s="100"/>
-      <c r="GH2" s="100"/>
-      <c r="GI2" s="100"/>
-      <c r="GJ2" s="101"/>
-      <c r="GK2" s="102" t="s">
+      <c r="FG2" s="138"/>
+      <c r="FH2" s="138"/>
+      <c r="FI2" s="138"/>
+      <c r="FJ2" s="138"/>
+      <c r="FK2" s="142"/>
+      <c r="FL2" s="142"/>
+      <c r="FM2" s="142"/>
+      <c r="FN2" s="142"/>
+      <c r="FO2" s="142"/>
+      <c r="FP2" s="142"/>
+      <c r="FQ2" s="142"/>
+      <c r="FR2" s="142"/>
+      <c r="FS2" s="142"/>
+      <c r="FT2" s="142"/>
+      <c r="FU2" s="142"/>
+      <c r="FV2" s="142"/>
+      <c r="FW2" s="142"/>
+      <c r="FX2" s="142"/>
+      <c r="FY2" s="142"/>
+      <c r="FZ2" s="142"/>
+      <c r="GA2" s="142"/>
+      <c r="GB2" s="142"/>
+      <c r="GC2" s="142"/>
+      <c r="GD2" s="142"/>
+      <c r="GE2" s="142"/>
+      <c r="GF2" s="142"/>
+      <c r="GG2" s="142"/>
+      <c r="GH2" s="142"/>
+      <c r="GI2" s="142"/>
+      <c r="GJ2" s="143"/>
+      <c r="GK2" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="GL2" s="100"/>
-      <c r="GM2" s="100"/>
-      <c r="GN2" s="100"/>
-      <c r="GO2" s="100"/>
-      <c r="GP2" s="100"/>
-      <c r="GQ2" s="100"/>
-      <c r="GR2" s="100"/>
-      <c r="GS2" s="100"/>
-      <c r="GT2" s="100"/>
-      <c r="GU2" s="100"/>
-      <c r="GV2" s="100"/>
-      <c r="GW2" s="100"/>
-      <c r="GX2" s="100"/>
-      <c r="GY2" s="100"/>
-      <c r="GZ2" s="100"/>
-      <c r="HA2" s="100"/>
-      <c r="HB2" s="100"/>
-      <c r="HC2" s="100"/>
-      <c r="HD2" s="100"/>
-      <c r="HE2" s="100"/>
-      <c r="HF2" s="100"/>
-      <c r="HG2" s="100"/>
-      <c r="HH2" s="100"/>
-      <c r="HI2" s="100"/>
-      <c r="HJ2" s="100"/>
-      <c r="HK2" s="100"/>
-      <c r="HL2" s="100"/>
-      <c r="HM2" s="100"/>
-      <c r="HN2" s="101"/>
-      <c r="HO2" s="102" t="s">
+      <c r="GL2" s="142"/>
+      <c r="GM2" s="142"/>
+      <c r="GN2" s="142"/>
+      <c r="GO2" s="142"/>
+      <c r="GP2" s="142"/>
+      <c r="GQ2" s="142"/>
+      <c r="GR2" s="142"/>
+      <c r="GS2" s="142"/>
+      <c r="GT2" s="142"/>
+      <c r="GU2" s="142"/>
+      <c r="GV2" s="142"/>
+      <c r="GW2" s="142"/>
+      <c r="GX2" s="142"/>
+      <c r="GY2" s="142"/>
+      <c r="GZ2" s="142"/>
+      <c r="HA2" s="142"/>
+      <c r="HB2" s="142"/>
+      <c r="HC2" s="142"/>
+      <c r="HD2" s="142"/>
+      <c r="HE2" s="142"/>
+      <c r="HF2" s="142"/>
+      <c r="HG2" s="142"/>
+      <c r="HH2" s="142"/>
+      <c r="HI2" s="142"/>
+      <c r="HJ2" s="142"/>
+      <c r="HK2" s="142"/>
+      <c r="HL2" s="142"/>
+      <c r="HM2" s="142"/>
+      <c r="HN2" s="143"/>
+      <c r="HO2" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="HP2" s="100"/>
-      <c r="HQ2" s="100"/>
-      <c r="HR2" s="100"/>
-      <c r="HS2" s="100"/>
-      <c r="HT2" s="100"/>
-      <c r="HU2" s="100"/>
-      <c r="HV2" s="100"/>
-      <c r="HW2" s="100"/>
-      <c r="HX2" s="100"/>
-      <c r="HY2" s="100"/>
-      <c r="HZ2" s="100"/>
-      <c r="IA2" s="100"/>
-      <c r="IB2" s="100"/>
-      <c r="IC2" s="103"/>
-      <c r="ID2" s="103"/>
-      <c r="IE2" s="103"/>
-      <c r="IF2" s="103"/>
-      <c r="IG2" s="103"/>
-      <c r="IH2" s="103"/>
-      <c r="II2" s="103"/>
-      <c r="IJ2" s="103"/>
-      <c r="IK2" s="103"/>
-      <c r="IL2" s="103"/>
-      <c r="IM2" s="103"/>
-      <c r="IN2" s="103"/>
-      <c r="IO2" s="103"/>
-      <c r="IP2" s="103"/>
-      <c r="IQ2" s="103"/>
-      <c r="IR2" s="103"/>
-      <c r="IS2" s="105"/>
-      <c r="IT2" s="104" t="s">
+      <c r="HP2" s="142"/>
+      <c r="HQ2" s="142"/>
+      <c r="HR2" s="142"/>
+      <c r="HS2" s="142"/>
+      <c r="HT2" s="142"/>
+      <c r="HU2" s="142"/>
+      <c r="HV2" s="142"/>
+      <c r="HW2" s="142"/>
+      <c r="HX2" s="142"/>
+      <c r="HY2" s="142"/>
+      <c r="HZ2" s="142"/>
+      <c r="IA2" s="142"/>
+      <c r="IB2" s="142"/>
+      <c r="IC2" s="138"/>
+      <c r="ID2" s="138"/>
+      <c r="IE2" s="138"/>
+      <c r="IF2" s="138"/>
+      <c r="IG2" s="138"/>
+      <c r="IH2" s="138"/>
+      <c r="II2" s="138"/>
+      <c r="IJ2" s="138"/>
+      <c r="IK2" s="138"/>
+      <c r="IL2" s="138"/>
+      <c r="IM2" s="138"/>
+      <c r="IN2" s="138"/>
+      <c r="IO2" s="138"/>
+      <c r="IP2" s="138"/>
+      <c r="IQ2" s="138"/>
+      <c r="IR2" s="138"/>
+      <c r="IS2" s="139"/>
+      <c r="IT2" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="IU2" s="103"/>
-      <c r="IV2" s="105"/>
+      <c r="IU2" s="138"/>
+      <c r="IV2" s="139"/>
     </row>
     <row r="3" spans="1:256" s="1" customFormat="1">
       <c r="B3" s="2"/>
@@ -2356,306 +2330,306 @@
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="104" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="104" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="104" t="s">
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="104" t="s">
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="138"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="103"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="104" t="s">
+      <c r="AI3" s="138"/>
+      <c r="AJ3" s="138"/>
+      <c r="AK3" s="138"/>
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="AP3" s="103"/>
-      <c r="AQ3" s="103"/>
-      <c r="AR3" s="103"/>
-      <c r="AS3" s="103"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="105"/>
-      <c r="AV3" s="104" t="s">
+      <c r="AP3" s="138"/>
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138"/>
+      <c r="AS3" s="138"/>
+      <c r="AT3" s="138"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
-      <c r="AZ3" s="103"/>
-      <c r="BA3" s="103"/>
-      <c r="BB3" s="105"/>
-      <c r="BC3" s="104" t="s">
+      <c r="AW3" s="138"/>
+      <c r="AX3" s="138"/>
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="138"/>
+      <c r="BA3" s="138"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="BD3" s="103"/>
-      <c r="BE3" s="103"/>
-      <c r="BF3" s="103"/>
-      <c r="BG3" s="103"/>
-      <c r="BH3" s="103"/>
-      <c r="BI3" s="105"/>
-      <c r="BJ3" s="104" t="s">
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138"/>
+      <c r="BH3" s="138"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="103"/>
-      <c r="BM3" s="103"/>
-      <c r="BN3" s="103"/>
-      <c r="BO3" s="103"/>
-      <c r="BP3" s="105"/>
-      <c r="BQ3" s="104" t="s">
+      <c r="BK3" s="138"/>
+      <c r="BL3" s="138"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="138"/>
+      <c r="BO3" s="138"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="BR3" s="103"/>
-      <c r="BS3" s="103"/>
-      <c r="BT3" s="103"/>
-      <c r="BU3" s="103"/>
-      <c r="BV3" s="103"/>
-      <c r="BW3" s="105"/>
-      <c r="BX3" s="104" t="s">
+      <c r="BR3" s="138"/>
+      <c r="BS3" s="138"/>
+      <c r="BT3" s="138"/>
+      <c r="BU3" s="138"/>
+      <c r="BV3" s="138"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="BY3" s="103"/>
-      <c r="BZ3" s="103"/>
-      <c r="CA3" s="103"/>
-      <c r="CB3" s="103"/>
-      <c r="CC3" s="103"/>
-      <c r="CD3" s="105"/>
-      <c r="CE3" s="104" t="s">
+      <c r="BY3" s="138"/>
+      <c r="BZ3" s="138"/>
+      <c r="CA3" s="138"/>
+      <c r="CB3" s="138"/>
+      <c r="CC3" s="138"/>
+      <c r="CD3" s="139"/>
+      <c r="CE3" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="CF3" s="103"/>
-      <c r="CG3" s="103"/>
-      <c r="CH3" s="103"/>
-      <c r="CI3" s="103"/>
-      <c r="CJ3" s="103"/>
-      <c r="CK3" s="105"/>
-      <c r="CL3" s="102" t="s">
+      <c r="CF3" s="138"/>
+      <c r="CG3" s="138"/>
+      <c r="CH3" s="138"/>
+      <c r="CI3" s="138"/>
+      <c r="CJ3" s="138"/>
+      <c r="CK3" s="139"/>
+      <c r="CL3" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="CM3" s="100"/>
-      <c r="CN3" s="100"/>
-      <c r="CO3" s="100"/>
-      <c r="CP3" s="100"/>
-      <c r="CQ3" s="100"/>
-      <c r="CR3" s="101"/>
-      <c r="CS3" s="102" t="s">
+      <c r="CM3" s="142"/>
+      <c r="CN3" s="142"/>
+      <c r="CO3" s="142"/>
+      <c r="CP3" s="142"/>
+      <c r="CQ3" s="142"/>
+      <c r="CR3" s="143"/>
+      <c r="CS3" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="CT3" s="100"/>
-      <c r="CU3" s="100"/>
-      <c r="CV3" s="100"/>
-      <c r="CW3" s="100"/>
-      <c r="CX3" s="100"/>
-      <c r="CY3" s="101"/>
-      <c r="CZ3" s="102" t="s">
+      <c r="CT3" s="142"/>
+      <c r="CU3" s="142"/>
+      <c r="CV3" s="142"/>
+      <c r="CW3" s="142"/>
+      <c r="CX3" s="142"/>
+      <c r="CY3" s="143"/>
+      <c r="CZ3" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="DA3" s="100"/>
-      <c r="DB3" s="100"/>
-      <c r="DC3" s="100"/>
-      <c r="DD3" s="100"/>
-      <c r="DE3" s="100"/>
-      <c r="DF3" s="100"/>
-      <c r="DG3" s="106" t="s">
+      <c r="DA3" s="142"/>
+      <c r="DB3" s="142"/>
+      <c r="DC3" s="142"/>
+      <c r="DD3" s="142"/>
+      <c r="DE3" s="142"/>
+      <c r="DF3" s="142"/>
+      <c r="DG3" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="DH3" s="107"/>
-      <c r="DI3" s="107"/>
-      <c r="DJ3" s="107"/>
-      <c r="DK3" s="107"/>
-      <c r="DL3" s="107"/>
-      <c r="DM3" s="108"/>
-      <c r="DN3" s="109" t="s">
+      <c r="DH3" s="125"/>
+      <c r="DI3" s="125"/>
+      <c r="DJ3" s="125"/>
+      <c r="DK3" s="125"/>
+      <c r="DL3" s="125"/>
+      <c r="DM3" s="148"/>
+      <c r="DN3" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="DO3" s="107"/>
-      <c r="DP3" s="107"/>
-      <c r="DQ3" s="107"/>
-      <c r="DR3" s="107"/>
-      <c r="DS3" s="107"/>
-      <c r="DT3" s="110"/>
-      <c r="DU3" s="100" t="s">
+      <c r="DO3" s="125"/>
+      <c r="DP3" s="125"/>
+      <c r="DQ3" s="125"/>
+      <c r="DR3" s="125"/>
+      <c r="DS3" s="125"/>
+      <c r="DT3" s="126"/>
+      <c r="DU3" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="DV3" s="100"/>
-      <c r="DW3" s="100"/>
-      <c r="DX3" s="100"/>
-      <c r="DY3" s="100"/>
-      <c r="DZ3" s="100"/>
-      <c r="EA3" s="101"/>
-      <c r="EB3" s="102" t="s">
+      <c r="DV3" s="142"/>
+      <c r="DW3" s="142"/>
+      <c r="DX3" s="142"/>
+      <c r="DY3" s="142"/>
+      <c r="DZ3" s="142"/>
+      <c r="EA3" s="143"/>
+      <c r="EB3" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="EC3" s="100"/>
-      <c r="ED3" s="100"/>
-      <c r="EE3" s="100"/>
-      <c r="EF3" s="100"/>
-      <c r="EG3" s="100"/>
-      <c r="EH3" s="101"/>
-      <c r="EI3" s="102" t="s">
+      <c r="EC3" s="142"/>
+      <c r="ED3" s="142"/>
+      <c r="EE3" s="142"/>
+      <c r="EF3" s="142"/>
+      <c r="EG3" s="142"/>
+      <c r="EH3" s="143"/>
+      <c r="EI3" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="EJ3" s="100"/>
-      <c r="EK3" s="100"/>
-      <c r="EL3" s="100"/>
-      <c r="EM3" s="100"/>
-      <c r="EN3" s="100"/>
-      <c r="EO3" s="101"/>
-      <c r="EP3" s="102" t="s">
+      <c r="EJ3" s="142"/>
+      <c r="EK3" s="142"/>
+      <c r="EL3" s="142"/>
+      <c r="EM3" s="142"/>
+      <c r="EN3" s="142"/>
+      <c r="EO3" s="143"/>
+      <c r="EP3" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="EQ3" s="100"/>
-      <c r="ER3" s="100"/>
-      <c r="ES3" s="100"/>
-      <c r="ET3" s="100"/>
-      <c r="EU3" s="100"/>
-      <c r="EV3" s="101"/>
-      <c r="EW3" s="102" t="s">
+      <c r="EQ3" s="142"/>
+      <c r="ER3" s="142"/>
+      <c r="ES3" s="142"/>
+      <c r="ET3" s="142"/>
+      <c r="EU3" s="142"/>
+      <c r="EV3" s="143"/>
+      <c r="EW3" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="EX3" s="100"/>
-      <c r="EY3" s="100"/>
-      <c r="EZ3" s="100"/>
-      <c r="FA3" s="100"/>
-      <c r="FB3" s="100"/>
-      <c r="FC3" s="101"/>
-      <c r="FD3" s="111" t="s">
+      <c r="EX3" s="142"/>
+      <c r="EY3" s="142"/>
+      <c r="EZ3" s="142"/>
+      <c r="FA3" s="142"/>
+      <c r="FB3" s="142"/>
+      <c r="FC3" s="143"/>
+      <c r="FD3" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="FE3" s="112"/>
-      <c r="FF3" s="103"/>
-      <c r="FG3" s="103"/>
-      <c r="FH3" s="103"/>
-      <c r="FI3" s="103"/>
-      <c r="FJ3" s="105"/>
-      <c r="FK3" s="104" t="s">
+      <c r="FE3" s="146"/>
+      <c r="FF3" s="138"/>
+      <c r="FG3" s="138"/>
+      <c r="FH3" s="138"/>
+      <c r="FI3" s="138"/>
+      <c r="FJ3" s="139"/>
+      <c r="FK3" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="FL3" s="103"/>
-      <c r="FM3" s="103"/>
-      <c r="FN3" s="103"/>
-      <c r="FO3" s="103"/>
-      <c r="FP3" s="103"/>
-      <c r="FQ3" s="105"/>
-      <c r="FR3" s="104" t="s">
+      <c r="FL3" s="138"/>
+      <c r="FM3" s="138"/>
+      <c r="FN3" s="138"/>
+      <c r="FO3" s="138"/>
+      <c r="FP3" s="138"/>
+      <c r="FQ3" s="139"/>
+      <c r="FR3" s="137" t="s">
         <v>38</v>
       </c>
-      <c r="FS3" s="103"/>
-      <c r="FT3" s="103"/>
-      <c r="FU3" s="103"/>
-      <c r="FV3" s="103"/>
-      <c r="FW3" s="103"/>
-      <c r="FX3" s="105"/>
-      <c r="FY3" s="104" t="s">
+      <c r="FS3" s="138"/>
+      <c r="FT3" s="138"/>
+      <c r="FU3" s="138"/>
+      <c r="FV3" s="138"/>
+      <c r="FW3" s="138"/>
+      <c r="FX3" s="139"/>
+      <c r="FY3" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="FZ3" s="103"/>
-      <c r="GA3" s="103"/>
-      <c r="GB3" s="103"/>
-      <c r="GC3" s="103"/>
-      <c r="GD3" s="103"/>
-      <c r="GE3" s="105"/>
-      <c r="GF3" s="123" t="s">
+      <c r="FZ3" s="138"/>
+      <c r="GA3" s="138"/>
+      <c r="GB3" s="138"/>
+      <c r="GC3" s="138"/>
+      <c r="GD3" s="138"/>
+      <c r="GE3" s="139"/>
+      <c r="GF3" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="GG3" s="124"/>
-      <c r="GH3" s="124"/>
-      <c r="GI3" s="124"/>
-      <c r="GJ3" s="124"/>
-      <c r="GK3" s="100"/>
-      <c r="GL3" s="101"/>
-      <c r="GM3" s="102" t="s">
+      <c r="GG3" s="141"/>
+      <c r="GH3" s="141"/>
+      <c r="GI3" s="141"/>
+      <c r="GJ3" s="141"/>
+      <c r="GK3" s="142"/>
+      <c r="GL3" s="143"/>
+      <c r="GM3" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="GN3" s="100"/>
-      <c r="GO3" s="100"/>
-      <c r="GP3" s="100"/>
-      <c r="GQ3" s="100"/>
-      <c r="GR3" s="100"/>
-      <c r="GS3" s="101"/>
-      <c r="GT3" s="102" t="s">
+      <c r="GN3" s="142"/>
+      <c r="GO3" s="142"/>
+      <c r="GP3" s="142"/>
+      <c r="GQ3" s="142"/>
+      <c r="GR3" s="142"/>
+      <c r="GS3" s="143"/>
+      <c r="GT3" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="GU3" s="100"/>
-      <c r="GV3" s="100"/>
-      <c r="GW3" s="100"/>
-      <c r="GX3" s="100"/>
-      <c r="GY3" s="100"/>
-      <c r="GZ3" s="101"/>
-      <c r="HA3" s="104" t="s">
+      <c r="GU3" s="142"/>
+      <c r="GV3" s="142"/>
+      <c r="GW3" s="142"/>
+      <c r="GX3" s="142"/>
+      <c r="GY3" s="142"/>
+      <c r="GZ3" s="143"/>
+      <c r="HA3" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="HB3" s="103"/>
-      <c r="HC3" s="103"/>
-      <c r="HD3" s="103"/>
-      <c r="HE3" s="103"/>
-      <c r="HF3" s="103"/>
-      <c r="HG3" s="105"/>
-      <c r="HH3" s="104" t="s">
+      <c r="HB3" s="138"/>
+      <c r="HC3" s="138"/>
+      <c r="HD3" s="138"/>
+      <c r="HE3" s="138"/>
+      <c r="HF3" s="138"/>
+      <c r="HG3" s="139"/>
+      <c r="HH3" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="HI3" s="103"/>
-      <c r="HJ3" s="103"/>
-      <c r="HK3" s="103"/>
-      <c r="HL3" s="103"/>
-      <c r="HM3" s="103"/>
-      <c r="HN3" s="105"/>
-      <c r="HO3" s="111" t="s">
+      <c r="HI3" s="138"/>
+      <c r="HJ3" s="138"/>
+      <c r="HK3" s="138"/>
+      <c r="HL3" s="138"/>
+      <c r="HM3" s="138"/>
+      <c r="HN3" s="139"/>
+      <c r="HO3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="HP3" s="112"/>
-      <c r="HQ3" s="112"/>
-      <c r="HR3" s="112"/>
-      <c r="HS3" s="112"/>
-      <c r="HT3" s="112"/>
-      <c r="HU3" s="125"/>
+      <c r="HP3" s="146"/>
+      <c r="HQ3" s="146"/>
+      <c r="HR3" s="146"/>
+      <c r="HS3" s="146"/>
+      <c r="HT3" s="146"/>
+      <c r="HU3" s="147"/>
       <c r="HV3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="IC3" s="106" t="s">
+      <c r="IC3" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="ID3" s="107"/>
-      <c r="IE3" s="107"/>
-      <c r="IF3" s="107"/>
-      <c r="IG3" s="107"/>
-      <c r="IH3" s="107"/>
-      <c r="II3" s="110"/>
+      <c r="ID3" s="125"/>
+      <c r="IE3" s="125"/>
+      <c r="IF3" s="125"/>
+      <c r="IG3" s="125"/>
+      <c r="IH3" s="125"/>
+      <c r="II3" s="126"/>
       <c r="IJ3" s="73" t="s">
         <v>48</v>
       </c>
@@ -2664,15 +2638,15 @@
       <c r="IM3" s="74"/>
       <c r="IN3" s="74"/>
       <c r="IO3" s="76"/>
-      <c r="IP3" s="106" t="s">
+      <c r="IP3" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="IQ3" s="107"/>
-      <c r="IR3" s="107"/>
-      <c r="IS3" s="107"/>
-      <c r="IT3" s="107"/>
-      <c r="IU3" s="107"/>
-      <c r="IV3" s="110"/>
+      <c r="IQ3" s="125"/>
+      <c r="IR3" s="125"/>
+      <c r="IS3" s="125"/>
+      <c r="IT3" s="125"/>
+      <c r="IU3" s="125"/>
+      <c r="IV3" s="126"/>
     </row>
     <row r="4" spans="1:256" s="2" customFormat="1">
       <c r="C4" s="10"/>
@@ -3867,8 +3841,8 @@
         <v>1</v>
       </c>
       <c r="L9" s="28"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="114"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
       <c r="O9" s="30"/>
       <c r="S9" s="28"/>
       <c r="T9" s="33"/>
@@ -4728,13 +4702,13 @@
       <c r="M17" s="33"/>
       <c r="O17" s="30"/>
       <c r="S17" s="28"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="116"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="116"/>
-      <c r="Y17" s="116"/>
-      <c r="Z17" s="116"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="130"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
       <c r="AA17" s="33"/>
       <c r="AG17" s="28"/>
       <c r="AH17" s="33"/>
@@ -4838,11 +4812,11 @@
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="33"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="119"/>
+      <c r="O18" s="131"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="133"/>
       <c r="T18" s="33"/>
       <c r="Z18" s="28"/>
       <c r="AA18" s="33"/>
@@ -5072,11 +5046,11 @@
       <c r="AO20" s="33"/>
       <c r="AU20" s="28"/>
       <c r="AV20" s="33"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="120"/>
-      <c r="BA20" s="120"/>
-      <c r="BB20" s="121"/>
+      <c r="AX20" s="134"/>
+      <c r="AY20" s="134"/>
+      <c r="AZ20" s="134"/>
+      <c r="BA20" s="134"/>
+      <c r="BB20" s="135"/>
       <c r="BC20" s="33"/>
       <c r="BI20" s="28"/>
       <c r="BJ20" s="47"/>
@@ -5206,41 +5180,41 @@
       <c r="EB21" s="33"/>
       <c r="EH21" s="28"/>
       <c r="EI21" s="33"/>
-      <c r="EP21" s="122"/>
-      <c r="EQ21" s="120"/>
-      <c r="ER21" s="120"/>
-      <c r="ES21" s="120"/>
-      <c r="ET21" s="120"/>
-      <c r="EU21" s="120"/>
-      <c r="EV21" s="120"/>
-      <c r="EW21" s="120"/>
-      <c r="EX21" s="120"/>
-      <c r="EY21" s="120"/>
-      <c r="EZ21" s="120"/>
-      <c r="FA21" s="120"/>
-      <c r="FB21" s="120"/>
-      <c r="FC21" s="120"/>
-      <c r="FD21" s="120"/>
-      <c r="FE21" s="120"/>
-      <c r="FF21" s="120"/>
-      <c r="FG21" s="120"/>
-      <c r="FH21" s="120"/>
-      <c r="FI21" s="120"/>
-      <c r="FJ21" s="120"/>
-      <c r="FK21" s="120"/>
-      <c r="FL21" s="120"/>
-      <c r="FM21" s="120"/>
-      <c r="FN21" s="120"/>
-      <c r="FO21" s="120"/>
-      <c r="FP21" s="120"/>
-      <c r="FQ21" s="120"/>
-      <c r="FR21" s="120"/>
-      <c r="FS21" s="120"/>
-      <c r="FT21" s="120"/>
-      <c r="FU21" s="120"/>
-      <c r="FV21" s="120"/>
-      <c r="FW21" s="120"/>
-      <c r="FX21" s="121"/>
+      <c r="EP21" s="136"/>
+      <c r="EQ21" s="134"/>
+      <c r="ER21" s="134"/>
+      <c r="ES21" s="134"/>
+      <c r="ET21" s="134"/>
+      <c r="EU21" s="134"/>
+      <c r="EV21" s="134"/>
+      <c r="EW21" s="134"/>
+      <c r="EX21" s="134"/>
+      <c r="EY21" s="134"/>
+      <c r="EZ21" s="134"/>
+      <c r="FA21" s="134"/>
+      <c r="FB21" s="134"/>
+      <c r="FC21" s="134"/>
+      <c r="FD21" s="134"/>
+      <c r="FE21" s="134"/>
+      <c r="FF21" s="134"/>
+      <c r="FG21" s="134"/>
+      <c r="FH21" s="134"/>
+      <c r="FI21" s="134"/>
+      <c r="FJ21" s="134"/>
+      <c r="FK21" s="134"/>
+      <c r="FL21" s="134"/>
+      <c r="FM21" s="134"/>
+      <c r="FN21" s="134"/>
+      <c r="FO21" s="134"/>
+      <c r="FP21" s="134"/>
+      <c r="FQ21" s="134"/>
+      <c r="FR21" s="134"/>
+      <c r="FS21" s="134"/>
+      <c r="FT21" s="134"/>
+      <c r="FU21" s="134"/>
+      <c r="FV21" s="134"/>
+      <c r="FW21" s="134"/>
+      <c r="FX21" s="135"/>
       <c r="FY21" s="30"/>
       <c r="FZ21" s="30"/>
       <c r="GA21" s="30"/>
@@ -5506,20 +5480,20 @@
       <c r="M24" s="33"/>
       <c r="O24" s="30"/>
       <c r="S24" s="28"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="127"/>
-      <c r="V24" s="127"/>
-      <c r="W24" s="127"/>
-      <c r="X24" s="127"/>
-      <c r="Y24" s="127"/>
-      <c r="Z24" s="127"/>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="127"/>
-      <c r="AC24" s="127"/>
-      <c r="AD24" s="127"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
+      <c r="T24" s="123"/>
+      <c r="U24" s="116"/>
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="116"/>
+      <c r="Y24" s="116"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="123"/>
+      <c r="AB24" s="116"/>
+      <c r="AC24" s="116"/>
+      <c r="AD24" s="116"/>
+      <c r="AE24" s="116"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
       <c r="AH24" s="33"/>
       <c r="AN24" s="28"/>
       <c r="AO24" s="33"/>
@@ -5627,20 +5601,20 @@
       <c r="Z25" s="28"/>
       <c r="AA25" s="33"/>
       <c r="AG25" s="28"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
-      <c r="AJ25" s="127"/>
-      <c r="AK25" s="127"/>
-      <c r="AL25" s="127"/>
-      <c r="AM25" s="127"/>
-      <c r="AN25" s="127"/>
-      <c r="AO25" s="126"/>
-      <c r="AP25" s="127"/>
-      <c r="AQ25" s="127"/>
-      <c r="AR25" s="127"/>
-      <c r="AS25" s="127"/>
-      <c r="AT25" s="127"/>
-      <c r="AU25" s="127"/>
+      <c r="AH25" s="123"/>
+      <c r="AI25" s="116"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="116"/>
+      <c r="AL25" s="116"/>
+      <c r="AM25" s="116"/>
+      <c r="AN25" s="116"/>
+      <c r="AO25" s="123"/>
+      <c r="AP25" s="116"/>
+      <c r="AQ25" s="116"/>
+      <c r="AR25" s="116"/>
+      <c r="AS25" s="116"/>
+      <c r="AT25" s="116"/>
+      <c r="AU25" s="116"/>
       <c r="AV25" s="33"/>
       <c r="BB25" s="28"/>
       <c r="BC25" s="33"/>
@@ -5748,20 +5722,20 @@
       <c r="AN26" s="28"/>
       <c r="AO26" s="33"/>
       <c r="AU26" s="28"/>
-      <c r="AV26" s="126"/>
-      <c r="AW26" s="127"/>
-      <c r="AX26" s="127"/>
-      <c r="AY26" s="127"/>
-      <c r="AZ26" s="127"/>
-      <c r="BA26" s="127"/>
-      <c r="BB26" s="127"/>
-      <c r="BC26" s="126"/>
-      <c r="BD26" s="127"/>
-      <c r="BE26" s="127"/>
-      <c r="BF26" s="127"/>
-      <c r="BG26" s="127"/>
-      <c r="BH26" s="127"/>
-      <c r="BI26" s="127"/>
+      <c r="AV26" s="123"/>
+      <c r="AW26" s="116"/>
+      <c r="AX26" s="116"/>
+      <c r="AY26" s="116"/>
+      <c r="AZ26" s="116"/>
+      <c r="BA26" s="116"/>
+      <c r="BB26" s="116"/>
+      <c r="BC26" s="123"/>
+      <c r="BD26" s="116"/>
+      <c r="BE26" s="116"/>
+      <c r="BF26" s="116"/>
+      <c r="BG26" s="116"/>
+      <c r="BH26" s="116"/>
+      <c r="BI26" s="116"/>
       <c r="BJ26" s="47"/>
       <c r="BK26" s="30"/>
       <c r="BL26" s="30"/>
@@ -5879,10 +5853,10 @@
       <c r="BQ27" s="47"/>
       <c r="BR27" s="30"/>
       <c r="BS27" s="30"/>
-      <c r="BT27" s="126"/>
-      <c r="BU27" s="127"/>
-      <c r="BV27" s="127"/>
-      <c r="BW27" s="127"/>
+      <c r="BT27" s="123"/>
+      <c r="BU27" s="116"/>
+      <c r="BV27" s="116"/>
+      <c r="BW27" s="116"/>
       <c r="BX27" s="47"/>
       <c r="CD27" s="28"/>
       <c r="CE27" s="33"/>
@@ -6004,17 +5978,17 @@
       <c r="DM28" s="28"/>
       <c r="DN28" s="33"/>
       <c r="DT28" s="67"/>
-      <c r="DY28" s="126"/>
-      <c r="DZ28" s="128"/>
+      <c r="DY28" s="123"/>
+      <c r="DZ28" s="117"/>
       <c r="EA28" s="28"/>
       <c r="EB28" s="33"/>
-      <c r="EF28" s="126"/>
-      <c r="EG28" s="127"/>
-      <c r="EH28" s="127"/>
-      <c r="EI28" s="127"/>
-      <c r="EJ28" s="127"/>
-      <c r="EK28" s="127"/>
-      <c r="EL28" s="128"/>
+      <c r="EF28" s="123"/>
+      <c r="EG28" s="116"/>
+      <c r="EH28" s="116"/>
+      <c r="EI28" s="116"/>
+      <c r="EJ28" s="116"/>
+      <c r="EK28" s="116"/>
+      <c r="EL28" s="117"/>
       <c r="EO28" s="28"/>
       <c r="EP28" s="33"/>
       <c r="ER28" s="30"/>
@@ -6090,8 +6064,8 @@
       <c r="AO29" s="33"/>
       <c r="AU29" s="28"/>
       <c r="AV29" s="33"/>
-      <c r="AY29" s="129"/>
-      <c r="AZ29" s="130"/>
+      <c r="AY29" s="113"/>
+      <c r="AZ29" s="115"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="33"/>
       <c r="BI29" s="28"/>
@@ -6180,8 +6154,8 @@
       <c r="C30" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>77</v>
+      <c r="D30" s="77" t="s">
+        <v>126</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
@@ -6229,13 +6203,13 @@
       <c r="EA30" s="28"/>
       <c r="EB30" s="33"/>
       <c r="EH30" s="44"/>
-      <c r="EI30" s="129"/>
-      <c r="EJ30" s="131"/>
-      <c r="EK30" s="131"/>
-      <c r="EL30" s="131"/>
-      <c r="EM30" s="131"/>
-      <c r="EN30" s="131"/>
-      <c r="EO30" s="131"/>
+      <c r="EI30" s="113"/>
+      <c r="EJ30" s="114"/>
+      <c r="EK30" s="114"/>
+      <c r="EL30" s="114"/>
+      <c r="EM30" s="114"/>
+      <c r="EN30" s="114"/>
+      <c r="EO30" s="114"/>
       <c r="EP30" s="33"/>
       <c r="ER30" s="30"/>
       <c r="EV30" s="28"/>
@@ -6310,30 +6284,30 @@
       <c r="AO31" s="33"/>
       <c r="AU31" s="28"/>
       <c r="AV31" s="33"/>
-      <c r="AZ31" s="129"/>
-      <c r="BA31" s="131"/>
-      <c r="BB31" s="130"/>
-      <c r="BC31" s="131"/>
-      <c r="BD31" s="131"/>
-      <c r="BE31" s="131"/>
-      <c r="BF31" s="131"/>
-      <c r="BG31" s="131"/>
-      <c r="BH31" s="131"/>
-      <c r="BI31" s="130"/>
-      <c r="BJ31" s="131"/>
-      <c r="BK31" s="131"/>
-      <c r="BL31" s="131"/>
-      <c r="BM31" s="131"/>
-      <c r="BN31" s="131"/>
-      <c r="BO31" s="131"/>
-      <c r="BP31" s="130"/>
-      <c r="BQ31" s="131"/>
-      <c r="BR31" s="131"/>
-      <c r="BS31" s="131"/>
-      <c r="BT31" s="132"/>
-      <c r="BU31" s="132"/>
-      <c r="BV31" s="132"/>
-      <c r="BW31" s="133"/>
+      <c r="AZ31" s="113"/>
+      <c r="BA31" s="114"/>
+      <c r="BB31" s="115"/>
+      <c r="BC31" s="114"/>
+      <c r="BD31" s="114"/>
+      <c r="BE31" s="114"/>
+      <c r="BF31" s="114"/>
+      <c r="BG31" s="114"/>
+      <c r="BH31" s="114"/>
+      <c r="BI31" s="115"/>
+      <c r="BJ31" s="114"/>
+      <c r="BK31" s="114"/>
+      <c r="BL31" s="114"/>
+      <c r="BM31" s="114"/>
+      <c r="BN31" s="114"/>
+      <c r="BO31" s="114"/>
+      <c r="BP31" s="115"/>
+      <c r="BQ31" s="114"/>
+      <c r="BR31" s="114"/>
+      <c r="BS31" s="114"/>
+      <c r="BT31" s="118"/>
+      <c r="BU31" s="118"/>
+      <c r="BV31" s="118"/>
+      <c r="BW31" s="119"/>
       <c r="BX31" s="96"/>
       <c r="CD31" s="28"/>
       <c r="CK31" s="28"/>
@@ -6348,9 +6322,9 @@
       <c r="DT31" s="67"/>
       <c r="EA31" s="28"/>
       <c r="EI31" s="33"/>
-      <c r="EM31" s="134"/>
-      <c r="EN31" s="135"/>
-      <c r="EO31" s="135"/>
+      <c r="EM31" s="120"/>
+      <c r="EN31" s="121"/>
+      <c r="EO31" s="121"/>
       <c r="EP31" s="33"/>
       <c r="ER31" s="30"/>
       <c r="EV31" s="28"/>
@@ -6551,10 +6525,10 @@
       <c r="BQ33" s="47"/>
       <c r="BR33" s="30"/>
       <c r="BS33" s="30"/>
-      <c r="BT33" s="134"/>
-      <c r="BU33" s="135"/>
-      <c r="BV33" s="135"/>
-      <c r="BW33" s="136"/>
+      <c r="BT33" s="120"/>
+      <c r="BU33" s="121"/>
+      <c r="BV33" s="121"/>
+      <c r="BW33" s="122"/>
       <c r="BX33" s="57"/>
       <c r="CD33" s="28"/>
       <c r="CK33" s="28"/>
@@ -6773,22 +6747,22 @@
       <c r="DM35" s="28"/>
       <c r="DN35" s="33"/>
       <c r="DT35" s="67"/>
-      <c r="DY35" s="129"/>
-      <c r="DZ35" s="131"/>
-      <c r="EA35" s="130"/>
-      <c r="EB35" s="129"/>
-      <c r="EC35" s="131"/>
-      <c r="ED35" s="131"/>
-      <c r="EE35" s="130"/>
+      <c r="DY35" s="113"/>
+      <c r="DZ35" s="114"/>
+      <c r="EA35" s="115"/>
+      <c r="EB35" s="113"/>
+      <c r="EC35" s="114"/>
+      <c r="ED35" s="114"/>
+      <c r="EE35" s="115"/>
       <c r="EH35" s="28"/>
       <c r="EI35" s="33"/>
-      <c r="EM35" s="129"/>
-      <c r="EN35" s="131"/>
-      <c r="EO35" s="130"/>
-      <c r="EP35" s="131"/>
-      <c r="EQ35" s="131"/>
-      <c r="ER35" s="131"/>
-      <c r="ES35" s="130"/>
+      <c r="EM35" s="113"/>
+      <c r="EN35" s="114"/>
+      <c r="EO35" s="115"/>
+      <c r="EP35" s="114"/>
+      <c r="EQ35" s="114"/>
+      <c r="ER35" s="114"/>
+      <c r="ES35" s="115"/>
       <c r="EV35" s="28"/>
       <c r="EW35" s="33"/>
       <c r="FC35" s="28"/>
@@ -6891,20 +6865,20 @@
       <c r="ER36" s="30"/>
       <c r="EW36" s="33"/>
       <c r="FC36" s="70"/>
-      <c r="FD36" s="131"/>
-      <c r="FE36" s="131"/>
-      <c r="FF36" s="131"/>
-      <c r="FG36" s="131"/>
-      <c r="FH36" s="131"/>
-      <c r="FI36" s="131"/>
-      <c r="FJ36" s="130"/>
-      <c r="FK36" s="131"/>
-      <c r="FL36" s="131"/>
-      <c r="FM36" s="131"/>
-      <c r="FN36" s="131"/>
-      <c r="FO36" s="131"/>
-      <c r="FP36" s="131"/>
-      <c r="FQ36" s="130"/>
+      <c r="FD36" s="114"/>
+      <c r="FE36" s="114"/>
+      <c r="FF36" s="114"/>
+      <c r="FG36" s="114"/>
+      <c r="FH36" s="114"/>
+      <c r="FI36" s="114"/>
+      <c r="FJ36" s="115"/>
+      <c r="FK36" s="114"/>
+      <c r="FL36" s="114"/>
+      <c r="FM36" s="114"/>
+      <c r="FN36" s="114"/>
+      <c r="FO36" s="114"/>
+      <c r="FP36" s="114"/>
+      <c r="FQ36" s="115"/>
       <c r="FR36" s="45"/>
       <c r="FS36" s="30"/>
       <c r="FT36" s="30"/>
@@ -6998,29 +6972,29 @@
       <c r="DT37" s="67"/>
       <c r="EA37" s="28"/>
       <c r="EH37" s="28"/>
-      <c r="EM37" s="137"/>
-      <c r="EN37" s="138"/>
-      <c r="EO37" s="138"/>
-      <c r="EP37" s="138"/>
-      <c r="EQ37" s="138"/>
-      <c r="ER37" s="138"/>
-      <c r="ES37" s="138"/>
-      <c r="ET37" s="138"/>
-      <c r="EU37" s="138"/>
-      <c r="EV37" s="138"/>
-      <c r="EW37" s="138"/>
-      <c r="EX37" s="138"/>
-      <c r="EY37" s="138"/>
-      <c r="EZ37" s="138"/>
-      <c r="FA37" s="138"/>
-      <c r="FB37" s="139"/>
+      <c r="EM37" s="107"/>
+      <c r="EN37" s="108"/>
+      <c r="EO37" s="108"/>
+      <c r="EP37" s="108"/>
+      <c r="EQ37" s="108"/>
+      <c r="ER37" s="108"/>
+      <c r="ES37" s="108"/>
+      <c r="ET37" s="108"/>
+      <c r="EU37" s="108"/>
+      <c r="EV37" s="108"/>
+      <c r="EW37" s="108"/>
+      <c r="EX37" s="108"/>
+      <c r="EY37" s="108"/>
+      <c r="EZ37" s="108"/>
+      <c r="FA37" s="108"/>
+      <c r="FB37" s="109"/>
       <c r="FC37" s="28"/>
       <c r="FD37" s="33"/>
       <c r="FJ37" s="28"/>
-      <c r="FK37" s="137"/>
-      <c r="FL37" s="138"/>
-      <c r="FM37" s="138"/>
-      <c r="FN37" s="139"/>
+      <c r="FK37" s="107"/>
+      <c r="FL37" s="108"/>
+      <c r="FM37" s="108"/>
+      <c r="FN37" s="109"/>
       <c r="FQ37" s="28"/>
       <c r="FR37" s="47"/>
       <c r="FS37" s="30"/>
@@ -7117,16 +7091,16 @@
       <c r="EA38" s="28"/>
       <c r="EB38" s="33"/>
       <c r="EI38" s="33"/>
-      <c r="EM38" s="140"/>
-      <c r="EN38" s="141"/>
-      <c r="EO38" s="141"/>
-      <c r="EP38" s="141"/>
-      <c r="EQ38" s="141"/>
-      <c r="ER38" s="141"/>
-      <c r="ES38" s="141"/>
-      <c r="ET38" s="141"/>
-      <c r="EU38" s="141"/>
-      <c r="EV38" s="141"/>
+      <c r="EM38" s="110"/>
+      <c r="EN38" s="111"/>
+      <c r="EO38" s="111"/>
+      <c r="EP38" s="111"/>
+      <c r="EQ38" s="111"/>
+      <c r="ER38" s="111"/>
+      <c r="ES38" s="111"/>
+      <c r="ET38" s="111"/>
+      <c r="EU38" s="111"/>
+      <c r="EV38" s="111"/>
       <c r="EW38" s="94"/>
       <c r="FC38" s="28"/>
       <c r="FD38" s="33"/>
@@ -7180,7 +7154,7 @@
         <v>97</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="21">
         <v>1</v>
@@ -7237,13 +7211,13 @@
       <c r="EW39" s="33"/>
       <c r="FC39" s="28"/>
       <c r="FD39" s="33"/>
-      <c r="FI39" s="137"/>
-      <c r="FJ39" s="138"/>
-      <c r="FK39" s="138"/>
-      <c r="FL39" s="138"/>
-      <c r="FM39" s="138"/>
-      <c r="FN39" s="138"/>
-      <c r="FO39" s="139"/>
+      <c r="FI39" s="107"/>
+      <c r="FJ39" s="108"/>
+      <c r="FK39" s="108"/>
+      <c r="FL39" s="108"/>
+      <c r="FM39" s="108"/>
+      <c r="FN39" s="108"/>
+      <c r="FO39" s="109"/>
       <c r="FR39" s="47"/>
       <c r="FS39" s="30"/>
       <c r="FT39" s="30"/>
@@ -7344,15 +7318,15 @@
       <c r="EO40" s="28"/>
       <c r="EP40" s="33"/>
       <c r="ER40" s="30"/>
-      <c r="EU40" s="137"/>
-      <c r="EV40" s="138"/>
-      <c r="EW40" s="138"/>
-      <c r="EX40" s="138"/>
-      <c r="EY40" s="138"/>
-      <c r="EZ40" s="138"/>
-      <c r="FA40" s="138"/>
-      <c r="FB40" s="138"/>
-      <c r="FC40" s="138"/>
+      <c r="EU40" s="107"/>
+      <c r="EV40" s="108"/>
+      <c r="EW40" s="108"/>
+      <c r="EX40" s="108"/>
+      <c r="EY40" s="108"/>
+      <c r="EZ40" s="108"/>
+      <c r="FA40" s="108"/>
+      <c r="FB40" s="108"/>
+      <c r="FC40" s="108"/>
       <c r="FD40" s="86"/>
       <c r="FJ40" s="28"/>
       <c r="FQ40" s="28"/>
@@ -7396,14 +7370,14 @@
       <c r="A41" s="18">
         <v>6.5</v>
       </c>
-      <c r="B41" s="82" t="s">
-        <v>115</v>
+      <c r="B41" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="C41" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="77" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>98</v>
       </c>
       <c r="E41" s="21">
         <v>1</v>
@@ -7456,18 +7430,18 @@
       <c r="EO41" s="28"/>
       <c r="EP41" s="33"/>
       <c r="ER41" s="30"/>
-      <c r="EU41" s="150"/>
-      <c r="EV41" s="150"/>
-      <c r="EW41" s="150"/>
-      <c r="EX41" s="150"/>
-      <c r="EY41" s="150"/>
-      <c r="EZ41" s="150"/>
-      <c r="FA41" s="150"/>
-      <c r="FB41" s="150"/>
-      <c r="FC41" s="150"/>
-      <c r="FD41" s="150"/>
+      <c r="EV41" s="28"/>
+      <c r="EW41" s="33"/>
+      <c r="FC41" s="28"/>
+      <c r="FD41" s="33"/>
       <c r="FJ41" s="28"/>
-      <c r="FQ41" s="151"/>
+      <c r="FK41" s="112"/>
+      <c r="FL41" s="112"/>
+      <c r="FM41" s="112"/>
+      <c r="FN41" s="112"/>
+      <c r="FO41" s="112"/>
+      <c r="FP41" s="112"/>
+      <c r="FQ41" s="112"/>
       <c r="FR41" s="47"/>
       <c r="FS41" s="30"/>
       <c r="FT41" s="30"/>
@@ -7511,11 +7485,11 @@
       <c r="B42" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="83" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>98</v>
+      <c r="C42" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>112</v>
       </c>
       <c r="E42" s="21">
         <v>1</v>
@@ -7573,13 +7547,13 @@
       <c r="FC42" s="28"/>
       <c r="FD42" s="33"/>
       <c r="FJ42" s="28"/>
-      <c r="FK42" s="142"/>
-      <c r="FL42" s="142"/>
-      <c r="FM42" s="142"/>
-      <c r="FN42" s="142"/>
-      <c r="FO42" s="142"/>
-      <c r="FP42" s="142"/>
-      <c r="FQ42" s="142"/>
+      <c r="FK42" s="112"/>
+      <c r="FL42" s="112"/>
+      <c r="FM42" s="112"/>
+      <c r="FN42" s="112"/>
+      <c r="FO42" s="112"/>
+      <c r="FP42" s="112"/>
+      <c r="FQ42" s="112"/>
       <c r="FR42" s="47"/>
       <c r="FS42" s="30"/>
       <c r="FT42" s="30"/>
@@ -7620,14 +7594,14 @@
       <c r="A43" s="18">
         <v>6.7</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>99</v>
+      <c r="B43" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E43" s="21">
         <v>1</v>
@@ -7685,20 +7659,13 @@
       <c r="FC43" s="28"/>
       <c r="FD43" s="33"/>
       <c r="FJ43" s="28"/>
-      <c r="FK43" s="142"/>
-      <c r="FL43" s="142"/>
-      <c r="FM43" s="142"/>
-      <c r="FN43" s="142"/>
-      <c r="FO43" s="142"/>
-      <c r="FP43" s="142"/>
-      <c r="FQ43" s="142"/>
       <c r="FR43" s="47"/>
       <c r="FS43" s="30"/>
       <c r="FT43" s="30"/>
       <c r="FU43" s="30"/>
       <c r="FV43" s="30"/>
       <c r="FW43" s="30"/>
-      <c r="FX43" s="53"/>
+      <c r="FX43" s="30"/>
       <c r="FY43" s="47"/>
       <c r="FZ43" s="30"/>
       <c r="GA43" s="30"/>
@@ -7709,10 +7676,13 @@
       <c r="GF43" s="33"/>
       <c r="GL43" s="28"/>
       <c r="GM43" s="33"/>
-      <c r="GS43" s="28"/>
-      <c r="GT43" s="33"/>
-      <c r="GZ43" s="28"/>
-      <c r="HA43" s="33"/>
+      <c r="GT43" s="92"/>
+      <c r="GU43" s="87"/>
+      <c r="GV43" s="87"/>
+      <c r="GW43" s="87"/>
+      <c r="GX43" s="87"/>
+      <c r="GY43" s="87"/>
+      <c r="GZ43" s="93"/>
       <c r="HG43" s="28"/>
       <c r="HH43" s="33"/>
       <c r="HN43" s="28"/>
@@ -7732,14 +7702,14 @@
       <c r="A44" s="18">
         <v>6.8</v>
       </c>
-      <c r="B44" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="83" t="s">
-        <v>116</v>
+      <c r="B44" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="E44" s="21">
         <v>1</v>
@@ -7797,14 +7767,16 @@
       <c r="FC44" s="28"/>
       <c r="FD44" s="33"/>
       <c r="FJ44" s="28"/>
+      <c r="FK44" s="33"/>
+      <c r="FQ44" s="28"/>
       <c r="FR44" s="47"/>
       <c r="FS44" s="30"/>
       <c r="FT44" s="30"/>
       <c r="FU44" s="30"/>
-      <c r="FV44" s="30"/>
-      <c r="FW44" s="30"/>
-      <c r="FX44" s="30"/>
-      <c r="FY44" s="47"/>
+      <c r="FV44" s="107"/>
+      <c r="FW44" s="108"/>
+      <c r="FX44" s="108"/>
+      <c r="FY44" s="71"/>
       <c r="FZ44" s="30"/>
       <c r="GA44" s="30"/>
       <c r="GB44" s="30"/>
@@ -7814,13 +7786,10 @@
       <c r="GF44" s="33"/>
       <c r="GL44" s="28"/>
       <c r="GM44" s="33"/>
-      <c r="GT44" s="92"/>
-      <c r="GU44" s="87"/>
-      <c r="GV44" s="87"/>
-      <c r="GW44" s="87"/>
-      <c r="GX44" s="87"/>
-      <c r="GY44" s="87"/>
-      <c r="GZ44" s="93"/>
+      <c r="GS44" s="28"/>
+      <c r="GT44" s="33"/>
+      <c r="GZ44" s="28"/>
+      <c r="HA44" s="33"/>
       <c r="HG44" s="28"/>
       <c r="HH44" s="33"/>
       <c r="HN44" s="28"/>
@@ -7837,17 +7806,17 @@
       <c r="IV44" s="67"/>
     </row>
     <row r="45" spans="1:256" ht="16">
-      <c r="A45" s="18">
+      <c r="A45" s="77">
         <v>6.9</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="20" t="s">
-        <v>101</v>
+      <c r="C45" s="83" t="s">
+        <v>131</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E45" s="21">
         <v>1</v>
@@ -7911,25 +7880,31 @@
       <c r="FS45" s="30"/>
       <c r="FT45" s="30"/>
       <c r="FU45" s="30"/>
-      <c r="FV45" s="137"/>
-      <c r="FW45" s="138"/>
-      <c r="FX45" s="138"/>
-      <c r="FY45" s="71"/>
+      <c r="FV45" s="30"/>
+      <c r="FW45" s="30"/>
+      <c r="FX45" s="53"/>
+      <c r="FY45" s="47"/>
       <c r="FZ45" s="30"/>
       <c r="GA45" s="30"/>
       <c r="GB45" s="30"/>
       <c r="GC45" s="30"/>
       <c r="GD45" s="30"/>
-      <c r="GE45" s="53"/>
-      <c r="GF45" s="33"/>
-      <c r="GL45" s="28"/>
-      <c r="GM45" s="33"/>
-      <c r="GS45" s="28"/>
-      <c r="GT45" s="33"/>
-      <c r="GZ45" s="28"/>
-      <c r="HA45" s="33"/>
-      <c r="HG45" s="28"/>
-      <c r="HH45" s="33"/>
+      <c r="GE45" s="30"/>
+      <c r="GF45" s="104"/>
+      <c r="GG45" s="105"/>
+      <c r="GH45" s="105"/>
+      <c r="GI45" s="105"/>
+      <c r="GJ45" s="105"/>
+      <c r="GK45" s="105"/>
+      <c r="GL45" s="105"/>
+      <c r="GM45" s="105"/>
+      <c r="GN45" s="105"/>
+      <c r="GO45" s="105"/>
+      <c r="GP45" s="105"/>
+      <c r="GQ45" s="105"/>
+      <c r="GR45" s="105"/>
+      <c r="GS45" s="105"/>
+      <c r="GT45" s="106"/>
       <c r="HN45" s="28"/>
       <c r="HO45" s="47"/>
       <c r="HR45" s="54"/>
@@ -7950,11 +7925,11 @@
       <c r="B46" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="83" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>100</v>
+      <c r="C46" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="E46" s="21">
         <v>1</v>
@@ -8024,25 +7999,42 @@
       <c r="FY46" s="47"/>
       <c r="FZ46" s="30"/>
       <c r="GA46" s="30"/>
-      <c r="GB46" s="30"/>
-      <c r="GC46" s="30"/>
-      <c r="GD46" s="30"/>
-      <c r="GE46" s="30"/>
-      <c r="GF46" s="147"/>
-      <c r="GG46" s="148"/>
-      <c r="GH46" s="148"/>
-      <c r="GI46" s="148"/>
-      <c r="GJ46" s="148"/>
-      <c r="GK46" s="148"/>
-      <c r="GL46" s="148"/>
-      <c r="GM46" s="148"/>
-      <c r="GN46" s="148"/>
-      <c r="GO46" s="148"/>
-      <c r="GP46" s="148"/>
-      <c r="GQ46" s="148"/>
-      <c r="GR46" s="148"/>
-      <c r="GS46" s="148"/>
-      <c r="GT46" s="149"/>
+      <c r="GB46" s="107"/>
+      <c r="GC46" s="108"/>
+      <c r="GD46" s="108"/>
+      <c r="GE46" s="108"/>
+      <c r="GF46" s="108"/>
+      <c r="GG46" s="108"/>
+      <c r="GH46" s="108"/>
+      <c r="GI46" s="108"/>
+      <c r="GJ46" s="108"/>
+      <c r="GK46" s="108"/>
+      <c r="GL46" s="108"/>
+      <c r="GM46" s="108"/>
+      <c r="GN46" s="108"/>
+      <c r="GO46" s="108"/>
+      <c r="GP46" s="108"/>
+      <c r="GQ46" s="108"/>
+      <c r="GR46" s="108"/>
+      <c r="GS46" s="108"/>
+      <c r="GT46" s="108"/>
+      <c r="GU46" s="108"/>
+      <c r="GV46" s="108"/>
+      <c r="GW46" s="108"/>
+      <c r="GX46" s="108"/>
+      <c r="GY46" s="108"/>
+      <c r="GZ46" s="108"/>
+      <c r="HA46" s="108"/>
+      <c r="HB46" s="108"/>
+      <c r="HC46" s="108"/>
+      <c r="HD46" s="108"/>
+      <c r="HE46" s="108"/>
+      <c r="HF46" s="108"/>
+      <c r="HG46" s="108"/>
+      <c r="HH46" s="108"/>
+      <c r="HI46" s="108"/>
+      <c r="HJ46" s="108"/>
+      <c r="HK46" s="109"/>
       <c r="HN46" s="28"/>
       <c r="HO46" s="47"/>
       <c r="HR46" s="54"/>
@@ -8056,18 +8048,18 @@
       <c r="IP46" s="60"/>
       <c r="IV46" s="67"/>
     </row>
-    <row r="47" spans="1:256" ht="16">
-      <c r="A47" s="77" t="s">
-        <v>131</v>
+    <row r="47" spans="1:256" ht="33" customHeight="1">
+      <c r="A47" s="18">
+        <v>7.1</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="77" t="s">
-        <v>130</v>
+        <v>104</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E47" s="21">
         <v>1</v>
@@ -8117,6 +8109,8 @@
       <c r="EB47" s="33"/>
       <c r="EH47" s="28"/>
       <c r="EI47" s="33"/>
+      <c r="EK47" s="100"/>
+      <c r="EL47" s="101"/>
       <c r="EO47" s="28"/>
       <c r="EP47" s="33"/>
       <c r="ER47" s="30"/>
@@ -8137,42 +8131,19 @@
       <c r="FY47" s="47"/>
       <c r="FZ47" s="30"/>
       <c r="GA47" s="30"/>
-      <c r="GB47" s="137"/>
-      <c r="GC47" s="138"/>
-      <c r="GD47" s="138"/>
-      <c r="GE47" s="138"/>
-      <c r="GF47" s="138"/>
-      <c r="GG47" s="138"/>
-      <c r="GH47" s="138"/>
-      <c r="GI47" s="138"/>
-      <c r="GJ47" s="138"/>
-      <c r="GK47" s="138"/>
-      <c r="GL47" s="138"/>
-      <c r="GM47" s="138"/>
-      <c r="GN47" s="138"/>
-      <c r="GO47" s="138"/>
-      <c r="GP47" s="138"/>
-      <c r="GQ47" s="138"/>
-      <c r="GR47" s="138"/>
-      <c r="GS47" s="138"/>
-      <c r="GT47" s="138"/>
-      <c r="GU47" s="138"/>
-      <c r="GV47" s="138"/>
-      <c r="GW47" s="138"/>
-      <c r="GX47" s="138"/>
-      <c r="GY47" s="138"/>
-      <c r="GZ47" s="138"/>
-      <c r="HA47" s="138"/>
-      <c r="HB47" s="138"/>
-      <c r="HC47" s="138"/>
-      <c r="HD47" s="138"/>
-      <c r="HE47" s="138"/>
-      <c r="HF47" s="138"/>
-      <c r="HG47" s="138"/>
-      <c r="HH47" s="138"/>
-      <c r="HI47" s="138"/>
-      <c r="HJ47" s="138"/>
-      <c r="HK47" s="139"/>
+      <c r="GB47" s="30"/>
+      <c r="GC47" s="30"/>
+      <c r="GD47" s="30"/>
+      <c r="GE47" s="53"/>
+      <c r="GF47" s="33"/>
+      <c r="GL47" s="28"/>
+      <c r="GM47" s="33"/>
+      <c r="GS47" s="28"/>
+      <c r="GT47" s="33"/>
+      <c r="GZ47" s="28"/>
+      <c r="HA47" s="33"/>
+      <c r="HG47" s="28"/>
+      <c r="HH47" s="33"/>
       <c r="HN47" s="28"/>
       <c r="HO47" s="47"/>
       <c r="HR47" s="54"/>
@@ -8187,17 +8158,17 @@
       <c r="IV47" s="67"/>
     </row>
     <row r="48" spans="1:256" ht="16">
-      <c r="A48" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="82" t="s">
-        <v>115</v>
+      <c r="A48" s="18">
+        <v>7.2</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="C48" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="77" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="E48" s="21">
         <v>1</v>
@@ -8261,48 +8232,49 @@
       <c r="FS48" s="30"/>
       <c r="FT48" s="30"/>
       <c r="FU48" s="30"/>
-      <c r="FV48" s="30"/>
-      <c r="FW48" s="30"/>
-      <c r="FX48" s="53"/>
-      <c r="FY48" s="47"/>
-      <c r="FZ48" s="30"/>
-      <c r="GA48" s="30"/>
-      <c r="GB48" s="150"/>
-      <c r="GC48" s="150"/>
-      <c r="GD48" s="150"/>
-      <c r="GE48" s="150"/>
-      <c r="GF48" s="150"/>
-      <c r="GG48" s="150"/>
-      <c r="GH48" s="150"/>
-      <c r="GI48" s="150"/>
-      <c r="GJ48" s="150"/>
-      <c r="GK48" s="150"/>
-      <c r="GL48" s="150"/>
-      <c r="GM48" s="150"/>
-      <c r="GN48" s="150"/>
-      <c r="GO48" s="150"/>
-      <c r="GP48" s="150"/>
-      <c r="GQ48" s="150"/>
-      <c r="GR48" s="150"/>
-      <c r="GS48" s="150"/>
-      <c r="GT48" s="150"/>
-      <c r="GU48" s="150"/>
-      <c r="GV48" s="150"/>
-      <c r="GW48" s="150"/>
-      <c r="GX48" s="150"/>
-      <c r="GY48" s="150"/>
-      <c r="GZ48" s="150"/>
-      <c r="HA48" s="150"/>
-      <c r="HB48" s="150"/>
-      <c r="HC48" s="150"/>
-      <c r="HD48" s="150"/>
-      <c r="HE48" s="150"/>
-      <c r="HF48" s="150"/>
-      <c r="HG48" s="150"/>
-      <c r="HH48" s="150"/>
-      <c r="HI48" s="150"/>
-      <c r="HJ48" s="150"/>
-      <c r="HK48" s="150"/>
+      <c r="FV48" s="100"/>
+      <c r="FW48" s="102"/>
+      <c r="FX48" s="101"/>
+      <c r="FY48" s="102"/>
+      <c r="FZ48" s="102"/>
+      <c r="GA48" s="102"/>
+      <c r="GB48" s="102"/>
+      <c r="GC48" s="102"/>
+      <c r="GD48" s="102"/>
+      <c r="GE48" s="101"/>
+      <c r="GF48" s="102"/>
+      <c r="GG48" s="102"/>
+      <c r="GH48" s="102"/>
+      <c r="GI48" s="102"/>
+      <c r="GJ48" s="102"/>
+      <c r="GK48" s="102"/>
+      <c r="GL48" s="101"/>
+      <c r="GM48" s="102"/>
+      <c r="GN48" s="102"/>
+      <c r="GO48" s="102"/>
+      <c r="GP48" s="102"/>
+      <c r="GQ48" s="102"/>
+      <c r="GR48" s="102"/>
+      <c r="GS48" s="101"/>
+      <c r="GT48" s="102"/>
+      <c r="GU48" s="102"/>
+      <c r="GV48" s="102"/>
+      <c r="GW48" s="102"/>
+      <c r="GX48" s="102"/>
+      <c r="GY48" s="102"/>
+      <c r="GZ48" s="101"/>
+      <c r="HA48" s="102"/>
+      <c r="HB48" s="102"/>
+      <c r="HC48" s="102"/>
+      <c r="HD48" s="102"/>
+      <c r="HE48" s="102"/>
+      <c r="HF48" s="102"/>
+      <c r="HG48" s="101"/>
+      <c r="HH48" s="100"/>
+      <c r="HI48" s="102"/>
+      <c r="HJ48" s="102"/>
+      <c r="HK48" s="102"/>
+      <c r="HL48" s="103"/>
       <c r="HN48" s="28"/>
       <c r="HO48" s="47"/>
       <c r="HR48" s="54"/>
@@ -8316,18 +8288,18 @@
       <c r="IP48" s="60"/>
       <c r="IV48" s="67"/>
     </row>
-    <row r="49" spans="1:256" ht="33" customHeight="1">
+    <row r="49" spans="1:256" ht="16">
       <c r="A49" s="18">
-        <v>7.1</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>62</v>
+        <v>7.3</v>
+      </c>
+      <c r="B49" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="77" t="s">
+        <v>107</v>
       </c>
       <c r="E49" s="21">
         <v>1</v>
@@ -8377,8 +8349,6 @@
       <c r="EB49" s="33"/>
       <c r="EH49" s="28"/>
       <c r="EI49" s="33"/>
-      <c r="EK49" s="143"/>
-      <c r="EL49" s="144"/>
       <c r="EO49" s="28"/>
       <c r="EP49" s="33"/>
       <c r="ER49" s="30"/>
@@ -8393,26 +8363,49 @@
       <c r="FS49" s="30"/>
       <c r="FT49" s="30"/>
       <c r="FU49" s="30"/>
-      <c r="FV49" s="30"/>
-      <c r="FW49" s="30"/>
-      <c r="FX49" s="53"/>
-      <c r="FY49" s="47"/>
-      <c r="FZ49" s="30"/>
-      <c r="GA49" s="30"/>
-      <c r="GB49" s="30"/>
-      <c r="GC49" s="30"/>
-      <c r="GD49" s="30"/>
-      <c r="GE49" s="53"/>
-      <c r="GF49" s="33"/>
-      <c r="GL49" s="28"/>
-      <c r="GM49" s="33"/>
-      <c r="GS49" s="28"/>
-      <c r="GT49" s="33"/>
-      <c r="GZ49" s="28"/>
-      <c r="HA49" s="33"/>
-      <c r="HG49" s="28"/>
-      <c r="HH49" s="33"/>
-      <c r="HN49" s="28"/>
+      <c r="FV49" s="78"/>
+      <c r="FW49" s="78"/>
+      <c r="FX49" s="79"/>
+      <c r="FY49" s="78"/>
+      <c r="FZ49" s="78"/>
+      <c r="GA49" s="78"/>
+      <c r="GB49" s="78"/>
+      <c r="GC49" s="78"/>
+      <c r="GD49" s="78"/>
+      <c r="GE49" s="79"/>
+      <c r="GF49" s="78"/>
+      <c r="GG49" s="78"/>
+      <c r="GH49" s="78"/>
+      <c r="GI49" s="78"/>
+      <c r="GJ49" s="78"/>
+      <c r="GK49" s="78"/>
+      <c r="GL49" s="79"/>
+      <c r="GM49" s="78"/>
+      <c r="GN49" s="78"/>
+      <c r="GO49" s="78"/>
+      <c r="GP49" s="78"/>
+      <c r="GQ49" s="78"/>
+      <c r="GR49" s="78"/>
+      <c r="GS49" s="79"/>
+      <c r="GT49" s="78"/>
+      <c r="GU49" s="78"/>
+      <c r="GV49" s="78"/>
+      <c r="GW49" s="78"/>
+      <c r="GX49" s="78"/>
+      <c r="GY49" s="78"/>
+      <c r="GZ49" s="79"/>
+      <c r="HA49" s="78"/>
+      <c r="HB49" s="78"/>
+      <c r="HC49" s="78"/>
+      <c r="HD49" s="78"/>
+      <c r="HE49" s="78"/>
+      <c r="HF49" s="78"/>
+      <c r="HG49" s="79"/>
+      <c r="HH49" s="80"/>
+      <c r="HI49" s="78"/>
+      <c r="HJ49" s="78"/>
+      <c r="HK49" s="78"/>
+      <c r="HL49" s="81"/>
       <c r="HO49" s="47"/>
       <c r="HR49" s="54"/>
       <c r="HT49" s="54"/>
@@ -8425,18 +8418,18 @@
       <c r="IP49" s="60"/>
       <c r="IV49" s="67"/>
     </row>
-    <row r="50" spans="1:256" ht="16">
+    <row r="50" spans="1:256" ht="32">
       <c r="A50" s="18">
-        <v>7.2</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>103</v>
+        <v>8.1</v>
+      </c>
+      <c r="B50" s="82" t="s">
+        <v>123</v>
       </c>
       <c r="C50" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>62</v>
+        <v>122</v>
+      </c>
+      <c r="D50" s="77" t="s">
+        <v>124</v>
       </c>
       <c r="E50" s="21">
         <v>1</v>
@@ -8500,51 +8493,29 @@
       <c r="FS50" s="30"/>
       <c r="FT50" s="30"/>
       <c r="FU50" s="30"/>
-      <c r="FV50" s="143"/>
-      <c r="FW50" s="145"/>
-      <c r="FX50" s="144"/>
-      <c r="FY50" s="145"/>
-      <c r="FZ50" s="145"/>
-      <c r="GA50" s="145"/>
-      <c r="GB50" s="145"/>
-      <c r="GC50" s="145"/>
-      <c r="GD50" s="145"/>
-      <c r="GE50" s="144"/>
-      <c r="GF50" s="145"/>
-      <c r="GG50" s="145"/>
-      <c r="GH50" s="145"/>
-      <c r="GI50" s="145"/>
-      <c r="GJ50" s="145"/>
-      <c r="GK50" s="145"/>
-      <c r="GL50" s="144"/>
-      <c r="GM50" s="145"/>
-      <c r="GN50" s="145"/>
-      <c r="GO50" s="145"/>
-      <c r="GP50" s="145"/>
-      <c r="GQ50" s="145"/>
-      <c r="GR50" s="145"/>
-      <c r="GS50" s="144"/>
-      <c r="GT50" s="145"/>
-      <c r="GU50" s="145"/>
-      <c r="GV50" s="145"/>
-      <c r="GW50" s="145"/>
-      <c r="GX50" s="145"/>
-      <c r="GY50" s="145"/>
-      <c r="GZ50" s="144"/>
-      <c r="HA50" s="145"/>
-      <c r="HB50" s="145"/>
-      <c r="HC50" s="145"/>
-      <c r="HD50" s="145"/>
-      <c r="HE50" s="145"/>
-      <c r="HF50" s="145"/>
-      <c r="HG50" s="144"/>
-      <c r="HH50" s="143"/>
-      <c r="HI50" s="145"/>
-      <c r="HJ50" s="145"/>
-      <c r="HK50" s="145"/>
-      <c r="HL50" s="146"/>
-      <c r="HN50" s="28"/>
-      <c r="HO50" s="47"/>
+      <c r="FV50" s="30"/>
+      <c r="FW50" s="30"/>
+      <c r="FX50" s="53"/>
+      <c r="FY50" s="47"/>
+      <c r="FZ50" s="30"/>
+      <c r="GA50" s="30"/>
+      <c r="GB50" s="30"/>
+      <c r="GC50" s="30"/>
+      <c r="GD50" s="30"/>
+      <c r="GE50" s="53"/>
+      <c r="GF50" s="33"/>
+      <c r="GL50" s="28"/>
+      <c r="GM50" s="33"/>
+      <c r="GS50" s="28"/>
+      <c r="GT50" s="33"/>
+      <c r="GZ50" s="28"/>
+      <c r="HA50" s="33"/>
+      <c r="HG50" s="28"/>
+      <c r="HH50" s="33"/>
+      <c r="HL50" s="89"/>
+      <c r="HM50" s="90"/>
+      <c r="HN50" s="91"/>
+      <c r="HO50" s="30"/>
       <c r="HR50" s="54"/>
       <c r="HT50" s="54"/>
       <c r="HU50" s="28"/>
@@ -8556,18 +8527,18 @@
       <c r="IP50" s="60"/>
       <c r="IV50" s="67"/>
     </row>
-    <row r="51" spans="1:256" ht="16">
+    <row r="51" spans="1:256" ht="32">
       <c r="A51" s="18">
-        <v>7.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B51" s="82" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E51" s="21">
         <v>1</v>
@@ -8631,50 +8602,28 @@
       <c r="FS51" s="30"/>
       <c r="FT51" s="30"/>
       <c r="FU51" s="30"/>
-      <c r="FV51" s="78"/>
-      <c r="FW51" s="78"/>
-      <c r="FX51" s="79"/>
-      <c r="FY51" s="78"/>
-      <c r="FZ51" s="78"/>
-      <c r="GA51" s="78"/>
-      <c r="GB51" s="78"/>
-      <c r="GC51" s="78"/>
-      <c r="GD51" s="78"/>
-      <c r="GE51" s="79"/>
-      <c r="GF51" s="78"/>
-      <c r="GG51" s="78"/>
-      <c r="GH51" s="78"/>
-      <c r="GI51" s="78"/>
-      <c r="GJ51" s="78"/>
-      <c r="GK51" s="78"/>
-      <c r="GL51" s="79"/>
-      <c r="GM51" s="78"/>
-      <c r="GN51" s="78"/>
-      <c r="GO51" s="78"/>
-      <c r="GP51" s="78"/>
-      <c r="GQ51" s="78"/>
-      <c r="GR51" s="78"/>
-      <c r="GS51" s="79"/>
-      <c r="GT51" s="78"/>
-      <c r="GU51" s="78"/>
-      <c r="GV51" s="78"/>
-      <c r="GW51" s="78"/>
-      <c r="GX51" s="78"/>
-      <c r="GY51" s="78"/>
-      <c r="GZ51" s="79"/>
-      <c r="HA51" s="78"/>
-      <c r="HB51" s="78"/>
-      <c r="HC51" s="78"/>
-      <c r="HD51" s="78"/>
-      <c r="HE51" s="78"/>
-      <c r="HF51" s="78"/>
-      <c r="HG51" s="79"/>
-      <c r="HH51" s="80"/>
-      <c r="HI51" s="78"/>
-      <c r="HJ51" s="78"/>
-      <c r="HK51" s="78"/>
-      <c r="HL51" s="81"/>
-      <c r="HO51" s="47"/>
+      <c r="FV51" s="30"/>
+      <c r="FW51" s="30"/>
+      <c r="FX51" s="53"/>
+      <c r="FY51" s="47"/>
+      <c r="FZ51" s="30"/>
+      <c r="GA51" s="30"/>
+      <c r="GB51" s="30"/>
+      <c r="GC51" s="30"/>
+      <c r="GD51" s="30"/>
+      <c r="GE51" s="53"/>
+      <c r="GF51" s="33"/>
+      <c r="GL51" s="28"/>
+      <c r="GM51" s="33"/>
+      <c r="GS51" s="28"/>
+      <c r="GT51" s="33"/>
+      <c r="GZ51" s="28"/>
+      <c r="HA51" s="33"/>
+      <c r="HG51" s="28"/>
+      <c r="HH51" s="33"/>
+      <c r="HN51" s="89"/>
+      <c r="HO51" s="97"/>
+      <c r="HP51" s="98"/>
       <c r="HR51" s="54"/>
       <c r="HT51" s="54"/>
       <c r="HU51" s="28"/>
@@ -8686,18 +8635,18 @@
       <c r="IP51" s="60"/>
       <c r="IV51" s="67"/>
     </row>
-    <row r="52" spans="1:256" ht="32">
+    <row r="52" spans="1:256" ht="16">
       <c r="A52" s="18">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="B52" s="82" t="s">
         <v>123</v>
       </c>
       <c r="C52" s="83" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E52" s="21">
         <v>1</v>
@@ -8780,13 +8729,14 @@
       <c r="HA52" s="33"/>
       <c r="HG52" s="28"/>
       <c r="HH52" s="33"/>
-      <c r="HL52" s="89"/>
-      <c r="HM52" s="90"/>
-      <c r="HN52" s="91"/>
-      <c r="HO52" s="30"/>
-      <c r="HR52" s="54"/>
-      <c r="HT52" s="54"/>
-      <c r="HU52" s="28"/>
+      <c r="HN52" s="28"/>
+      <c r="HO52" s="89"/>
+      <c r="HP52" s="90"/>
+      <c r="HQ52" s="90"/>
+      <c r="HR52" s="99"/>
+      <c r="HS52" s="90"/>
+      <c r="HT52" s="99"/>
+      <c r="HU52" s="91"/>
       <c r="HV52" s="33"/>
       <c r="IC52" s="60"/>
       <c r="II52" s="67"/>
@@ -8795,22 +8745,12 @@
       <c r="IP52" s="60"/>
       <c r="IV52" s="67"/>
     </row>
-    <row r="53" spans="1:256" ht="32">
-      <c r="A53" s="18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B53" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="83" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="21">
-        <v>1</v>
-      </c>
+    <row r="53" spans="1:256">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
       <c r="L53" s="28"/>
       <c r="M53" s="33"/>
       <c r="O53" s="30"/>
@@ -8889,9 +8829,8 @@
       <c r="HA53" s="33"/>
       <c r="HG53" s="28"/>
       <c r="HH53" s="33"/>
-      <c r="HN53" s="89"/>
-      <c r="HO53" s="97"/>
-      <c r="HP53" s="98"/>
+      <c r="HN53" s="28"/>
+      <c r="HO53" s="47"/>
       <c r="HR53" s="54"/>
       <c r="HT53" s="54"/>
       <c r="HU53" s="28"/>
@@ -8903,22 +8842,12 @@
       <c r="IP53" s="60"/>
       <c r="IV53" s="67"/>
     </row>
-    <row r="54" spans="1:256" ht="16">
-      <c r="A54" s="18">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B54" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="83" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="21">
-        <v>1</v>
-      </c>
+    <row r="54" spans="1:256">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="L54" s="28"/>
       <c r="M54" s="33"/>
       <c r="O54" s="30"/>
@@ -8998,13 +8927,10 @@
       <c r="HG54" s="28"/>
       <c r="HH54" s="33"/>
       <c r="HN54" s="28"/>
-      <c r="HO54" s="89"/>
-      <c r="HP54" s="90"/>
-      <c r="HQ54" s="90"/>
-      <c r="HR54" s="99"/>
-      <c r="HS54" s="90"/>
-      <c r="HT54" s="99"/>
-      <c r="HU54" s="91"/>
+      <c r="HO54" s="47"/>
+      <c r="HR54" s="54"/>
+      <c r="HT54" s="54"/>
+      <c r="HU54" s="28"/>
       <c r="HV54" s="33"/>
       <c r="IC54" s="60"/>
       <c r="II54" s="67"/>
@@ -9892,531 +9818,272 @@
       <c r="C64" s="20"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="33"/>
-      <c r="O64" s="30"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="33"/>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="33"/>
-      <c r="AG64" s="28"/>
-      <c r="AH64" s="33"/>
-      <c r="AN64" s="28"/>
-      <c r="AO64" s="33"/>
-      <c r="AU64" s="28"/>
-      <c r="AV64" s="33"/>
-      <c r="BB64" s="28"/>
-      <c r="BC64" s="33"/>
-      <c r="BI64" s="28"/>
-      <c r="BJ64" s="47"/>
-      <c r="BK64" s="30"/>
-      <c r="BL64" s="30"/>
-      <c r="BM64" s="30"/>
-      <c r="BN64" s="30"/>
-      <c r="BO64" s="30"/>
-      <c r="BP64" s="53"/>
-      <c r="BQ64" s="47"/>
-      <c r="BR64" s="30"/>
-      <c r="BS64" s="30"/>
-      <c r="BT64" s="54"/>
-      <c r="BW64" s="28"/>
-      <c r="BX64" s="47"/>
-      <c r="CD64" s="28"/>
-      <c r="CE64" s="33"/>
-      <c r="CK64" s="28"/>
-      <c r="CL64" s="33"/>
-      <c r="CR64" s="28"/>
-      <c r="CS64" s="33"/>
-      <c r="CY64" s="28"/>
-      <c r="CZ64" s="33"/>
-      <c r="DG64" s="60"/>
-      <c r="DM64" s="28"/>
-      <c r="DN64" s="33"/>
-      <c r="DT64" s="67"/>
-      <c r="EA64" s="28"/>
-      <c r="EB64" s="33"/>
-      <c r="EH64" s="28"/>
-      <c r="EI64" s="33"/>
-      <c r="EO64" s="28"/>
-      <c r="EP64" s="33"/>
-      <c r="ER64" s="30"/>
-      <c r="EV64" s="28"/>
-      <c r="EW64" s="33"/>
-      <c r="FC64" s="28"/>
-      <c r="FD64" s="33"/>
-      <c r="FJ64" s="28"/>
-      <c r="FK64" s="33"/>
-      <c r="FQ64" s="28"/>
-      <c r="FR64" s="47"/>
-      <c r="FS64" s="30"/>
-      <c r="FT64" s="30"/>
-      <c r="FU64" s="30"/>
-      <c r="FV64" s="30"/>
-      <c r="FW64" s="30"/>
-      <c r="FX64" s="53"/>
-      <c r="FY64" s="47"/>
-      <c r="FZ64" s="30"/>
-      <c r="GA64" s="30"/>
-      <c r="GB64" s="30"/>
-      <c r="GC64" s="30"/>
-      <c r="GD64" s="30"/>
-      <c r="GE64" s="53"/>
-      <c r="GF64" s="33"/>
-      <c r="GL64" s="28"/>
-      <c r="GM64" s="33"/>
-      <c r="GS64" s="28"/>
-      <c r="GT64" s="33"/>
-      <c r="GZ64" s="28"/>
-      <c r="HA64" s="33"/>
-      <c r="HG64" s="28"/>
-      <c r="HH64" s="33"/>
-      <c r="HN64" s="28"/>
-      <c r="HO64" s="47"/>
-      <c r="HR64" s="54"/>
-      <c r="HT64" s="54"/>
-      <c r="HU64" s="28"/>
-      <c r="HV64" s="33"/>
-      <c r="IC64" s="60"/>
-      <c r="II64" s="67"/>
-      <c r="IJ64" s="60"/>
-      <c r="IO64" s="67"/>
-      <c r="IP64" s="60"/>
-      <c r="IV64" s="67"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="40"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="40"/>
+      <c r="AO64" s="22"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="23"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="40"/>
+      <c r="AV64" s="22"/>
+      <c r="AW64" s="23"/>
+      <c r="AX64" s="23"/>
+      <c r="AY64" s="23"/>
+      <c r="AZ64" s="23"/>
+      <c r="BA64" s="23"/>
+      <c r="BB64" s="40"/>
+      <c r="BC64" s="22"/>
+      <c r="BD64" s="23"/>
+      <c r="BE64" s="23"/>
+      <c r="BF64" s="23"/>
+      <c r="BG64" s="23"/>
+      <c r="BH64" s="23"/>
+      <c r="BI64" s="40"/>
+      <c r="BJ64" s="48"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="41"/>
+      <c r="BM64" s="41"/>
+      <c r="BN64" s="41"/>
+      <c r="BO64" s="41"/>
+      <c r="BP64" s="55"/>
+      <c r="BQ64" s="48"/>
+      <c r="BR64" s="41"/>
+      <c r="BS64" s="41"/>
+      <c r="BT64" s="56"/>
+      <c r="BU64" s="23"/>
+      <c r="BV64" s="23"/>
+      <c r="BW64" s="40"/>
+      <c r="BX64" s="48"/>
+      <c r="BY64" s="23"/>
+      <c r="BZ64" s="23"/>
+      <c r="CA64" s="23"/>
+      <c r="CB64" s="23"/>
+      <c r="CC64" s="23"/>
+      <c r="CD64" s="40"/>
+      <c r="CE64" s="22"/>
+      <c r="CF64" s="23"/>
+      <c r="CG64" s="23"/>
+      <c r="CH64" s="23"/>
+      <c r="CI64" s="23"/>
+      <c r="CJ64" s="23"/>
+      <c r="CK64" s="40"/>
+      <c r="CL64" s="22"/>
+      <c r="CM64" s="23"/>
+      <c r="CN64" s="23"/>
+      <c r="CO64" s="23"/>
+      <c r="CP64" s="23"/>
+      <c r="CQ64" s="23"/>
+      <c r="CR64" s="40"/>
+      <c r="CS64" s="22"/>
+      <c r="CT64" s="23"/>
+      <c r="CU64" s="23"/>
+      <c r="CV64" s="23"/>
+      <c r="CW64" s="23"/>
+      <c r="CX64" s="23"/>
+      <c r="CY64" s="40"/>
+      <c r="CZ64" s="22"/>
+      <c r="DA64" s="23"/>
+      <c r="DB64" s="23"/>
+      <c r="DC64" s="23"/>
+      <c r="DD64" s="23"/>
+      <c r="DE64" s="23"/>
+      <c r="DF64" s="23"/>
+      <c r="DG64" s="61"/>
+      <c r="DH64" s="62"/>
+      <c r="DI64" s="62"/>
+      <c r="DJ64" s="62"/>
+      <c r="DK64" s="62"/>
+      <c r="DL64" s="62"/>
+      <c r="DM64" s="63"/>
+      <c r="DN64" s="64"/>
+      <c r="DO64" s="62"/>
+      <c r="DP64" s="62"/>
+      <c r="DQ64" s="62"/>
+      <c r="DR64" s="62"/>
+      <c r="DS64" s="62"/>
+      <c r="DT64" s="68"/>
+      <c r="DU64" s="23"/>
+      <c r="DV64" s="23"/>
+      <c r="DW64" s="23"/>
+      <c r="DX64" s="23"/>
+      <c r="DY64" s="23"/>
+      <c r="DZ64" s="23"/>
+      <c r="EA64" s="40"/>
+      <c r="EB64" s="22"/>
+      <c r="EC64" s="23"/>
+      <c r="ED64" s="23"/>
+      <c r="EE64" s="23"/>
+      <c r="EF64" s="23"/>
+      <c r="EG64" s="23"/>
+      <c r="EH64" s="40"/>
+      <c r="EI64" s="22"/>
+      <c r="EJ64" s="23"/>
+      <c r="EK64" s="23"/>
+      <c r="EL64" s="23"/>
+      <c r="EM64" s="23"/>
+      <c r="EN64" s="23"/>
+      <c r="EO64" s="40"/>
+      <c r="EP64" s="22"/>
+      <c r="EQ64" s="23"/>
+      <c r="ER64" s="41"/>
+      <c r="ES64" s="23"/>
+      <c r="ET64" s="23"/>
+      <c r="EU64" s="23"/>
+      <c r="EV64" s="40"/>
+      <c r="EW64" s="22"/>
+      <c r="EX64" s="23"/>
+      <c r="EY64" s="23"/>
+      <c r="EZ64" s="23"/>
+      <c r="FA64" s="23"/>
+      <c r="FB64" s="23"/>
+      <c r="FC64" s="40"/>
+      <c r="FD64" s="22"/>
+      <c r="FE64" s="23"/>
+      <c r="FF64" s="23"/>
+      <c r="FG64" s="23"/>
+      <c r="FH64" s="23"/>
+      <c r="FI64" s="23"/>
+      <c r="FJ64" s="40"/>
+      <c r="FK64" s="22"/>
+      <c r="FL64" s="23"/>
+      <c r="FM64" s="23"/>
+      <c r="FN64" s="23"/>
+      <c r="FO64" s="23"/>
+      <c r="FP64" s="23"/>
+      <c r="FQ64" s="40"/>
+      <c r="FR64" s="48"/>
+      <c r="FS64" s="41"/>
+      <c r="FT64" s="41"/>
+      <c r="FU64" s="41"/>
+      <c r="FV64" s="41"/>
+      <c r="FW64" s="41"/>
+      <c r="FX64" s="55"/>
+      <c r="FY64" s="48"/>
+      <c r="FZ64" s="41"/>
+      <c r="GA64" s="41"/>
+      <c r="GB64" s="41"/>
+      <c r="GC64" s="41"/>
+      <c r="GD64" s="41"/>
+      <c r="GE64" s="55"/>
+      <c r="GF64" s="22"/>
+      <c r="GG64" s="23"/>
+      <c r="GH64" s="23"/>
+      <c r="GI64" s="23"/>
+      <c r="GJ64" s="23"/>
+      <c r="GK64" s="23"/>
+      <c r="GL64" s="40"/>
+      <c r="GM64" s="22"/>
+      <c r="GN64" s="23"/>
+      <c r="GO64" s="23"/>
+      <c r="GP64" s="23"/>
+      <c r="GQ64" s="23"/>
+      <c r="GR64" s="23"/>
+      <c r="GS64" s="40"/>
+      <c r="GT64" s="22"/>
+      <c r="GU64" s="23"/>
+      <c r="GV64" s="23"/>
+      <c r="GW64" s="23"/>
+      <c r="GX64" s="23"/>
+      <c r="GY64" s="23"/>
+      <c r="GZ64" s="40"/>
+      <c r="HA64" s="22"/>
+      <c r="HB64" s="23"/>
+      <c r="HC64" s="23"/>
+      <c r="HD64" s="23"/>
+      <c r="HE64" s="23"/>
+      <c r="HF64" s="23"/>
+      <c r="HG64" s="40"/>
+      <c r="HH64" s="22"/>
+      <c r="HI64" s="23"/>
+      <c r="HJ64" s="23"/>
+      <c r="HK64" s="23"/>
+      <c r="HL64" s="23"/>
+      <c r="HM64" s="23"/>
+      <c r="HN64" s="40"/>
+      <c r="HO64" s="48"/>
+      <c r="HP64" s="23"/>
+      <c r="HQ64" s="23"/>
+      <c r="HR64" s="56"/>
+      <c r="HS64" s="23"/>
+      <c r="HT64" s="56"/>
+      <c r="HU64" s="40"/>
+      <c r="HV64" s="22"/>
+      <c r="HW64" s="23"/>
+      <c r="HX64" s="23"/>
+      <c r="HY64" s="23"/>
+      <c r="HZ64" s="23"/>
+      <c r="IA64" s="23"/>
+      <c r="IB64" s="23"/>
+      <c r="IC64" s="61"/>
+      <c r="ID64" s="62"/>
+      <c r="IE64" s="62"/>
+      <c r="IF64" s="62"/>
+      <c r="IG64" s="62"/>
+      <c r="IH64" s="62"/>
+      <c r="II64" s="68"/>
+      <c r="IJ64" s="61"/>
+      <c r="IK64" s="62"/>
+      <c r="IL64" s="62"/>
+      <c r="IM64" s="62"/>
+      <c r="IN64" s="62"/>
+      <c r="IO64" s="68"/>
+      <c r="IP64" s="61"/>
+      <c r="IQ64" s="62"/>
+      <c r="IR64" s="62"/>
+      <c r="IS64" s="62"/>
+      <c r="IT64" s="62"/>
+      <c r="IU64" s="62"/>
+      <c r="IV64" s="68"/>
     </row>
-    <row r="65" spans="1:256">
+    <row r="65" spans="1:1">
       <c r="A65" s="18"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="33"/>
-      <c r="O65" s="30"/>
-      <c r="S65" s="28"/>
-      <c r="T65" s="33"/>
-      <c r="Z65" s="28"/>
-      <c r="AA65" s="33"/>
-      <c r="AG65" s="28"/>
-      <c r="AH65" s="33"/>
-      <c r="AN65" s="28"/>
-      <c r="AO65" s="33"/>
-      <c r="AU65" s="28"/>
-      <c r="AV65" s="33"/>
-      <c r="BB65" s="28"/>
-      <c r="BC65" s="33"/>
-      <c r="BI65" s="28"/>
-      <c r="BJ65" s="47"/>
-      <c r="BK65" s="30"/>
-      <c r="BL65" s="30"/>
-      <c r="BM65" s="30"/>
-      <c r="BN65" s="30"/>
-      <c r="BO65" s="30"/>
-      <c r="BP65" s="53"/>
-      <c r="BQ65" s="47"/>
-      <c r="BR65" s="30"/>
-      <c r="BS65" s="30"/>
-      <c r="BT65" s="54"/>
-      <c r="BW65" s="28"/>
-      <c r="BX65" s="47"/>
-      <c r="CD65" s="28"/>
-      <c r="CE65" s="33"/>
-      <c r="CK65" s="28"/>
-      <c r="CL65" s="33"/>
-      <c r="CR65" s="28"/>
-      <c r="CS65" s="33"/>
-      <c r="CY65" s="28"/>
-      <c r="CZ65" s="33"/>
-      <c r="DG65" s="60"/>
-      <c r="DM65" s="28"/>
-      <c r="DN65" s="33"/>
-      <c r="DT65" s="67"/>
-      <c r="EA65" s="28"/>
-      <c r="EB65" s="33"/>
-      <c r="EH65" s="28"/>
-      <c r="EI65" s="33"/>
-      <c r="EO65" s="28"/>
-      <c r="EP65" s="33"/>
-      <c r="ER65" s="30"/>
-      <c r="EV65" s="28"/>
-      <c r="EW65" s="33"/>
-      <c r="FC65" s="28"/>
-      <c r="FD65" s="33"/>
-      <c r="FJ65" s="28"/>
-      <c r="FK65" s="33"/>
-      <c r="FQ65" s="28"/>
-      <c r="FR65" s="47"/>
-      <c r="FS65" s="30"/>
-      <c r="FT65" s="30"/>
-      <c r="FU65" s="30"/>
-      <c r="FV65" s="30"/>
-      <c r="FW65" s="30"/>
-      <c r="FX65" s="53"/>
-      <c r="FY65" s="47"/>
-      <c r="FZ65" s="30"/>
-      <c r="GA65" s="30"/>
-      <c r="GB65" s="30"/>
-      <c r="GC65" s="30"/>
-      <c r="GD65" s="30"/>
-      <c r="GE65" s="53"/>
-      <c r="GF65" s="33"/>
-      <c r="GL65" s="28"/>
-      <c r="GM65" s="33"/>
-      <c r="GS65" s="28"/>
-      <c r="GT65" s="33"/>
-      <c r="GZ65" s="28"/>
-      <c r="HA65" s="33"/>
-      <c r="HG65" s="28"/>
-      <c r="HH65" s="33"/>
-      <c r="HN65" s="28"/>
-      <c r="HO65" s="47"/>
-      <c r="HR65" s="54"/>
-      <c r="HT65" s="54"/>
-      <c r="HU65" s="28"/>
-      <c r="HV65" s="33"/>
-      <c r="IC65" s="60"/>
-      <c r="II65" s="67"/>
-      <c r="IJ65" s="60"/>
-      <c r="IO65" s="67"/>
-      <c r="IP65" s="60"/>
-      <c r="IV65" s="67"/>
-    </row>
-    <row r="66" spans="1:256">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="23"/>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="40"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="23"/>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="23"/>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="23"/>
-      <c r="AU66" s="40"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="23"/>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="40"/>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="23"/>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="40"/>
-      <c r="BJ66" s="48"/>
-      <c r="BK66" s="41"/>
-      <c r="BL66" s="41"/>
-      <c r="BM66" s="41"/>
-      <c r="BN66" s="41"/>
-      <c r="BO66" s="41"/>
-      <c r="BP66" s="55"/>
-      <c r="BQ66" s="48"/>
-      <c r="BR66" s="41"/>
-      <c r="BS66" s="41"/>
-      <c r="BT66" s="56"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="23"/>
-      <c r="BW66" s="40"/>
-      <c r="BX66" s="48"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="23"/>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="40"/>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="23"/>
-      <c r="CI66" s="23"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="40"/>
-      <c r="CL66" s="22"/>
-      <c r="CM66" s="23"/>
-      <c r="CN66" s="23"/>
-      <c r="CO66" s="23"/>
-      <c r="CP66" s="23"/>
-      <c r="CQ66" s="23"/>
-      <c r="CR66" s="40"/>
-      <c r="CS66" s="22"/>
-      <c r="CT66" s="23"/>
-      <c r="CU66" s="23"/>
-      <c r="CV66" s="23"/>
-      <c r="CW66" s="23"/>
-      <c r="CX66" s="23"/>
-      <c r="CY66" s="40"/>
-      <c r="CZ66" s="22"/>
-      <c r="DA66" s="23"/>
-      <c r="DB66" s="23"/>
-      <c r="DC66" s="23"/>
-      <c r="DD66" s="23"/>
-      <c r="DE66" s="23"/>
-      <c r="DF66" s="23"/>
-      <c r="DG66" s="61"/>
-      <c r="DH66" s="62"/>
-      <c r="DI66" s="62"/>
-      <c r="DJ66" s="62"/>
-      <c r="DK66" s="62"/>
-      <c r="DL66" s="62"/>
-      <c r="DM66" s="63"/>
-      <c r="DN66" s="64"/>
-      <c r="DO66" s="62"/>
-      <c r="DP66" s="62"/>
-      <c r="DQ66" s="62"/>
-      <c r="DR66" s="62"/>
-      <c r="DS66" s="62"/>
-      <c r="DT66" s="68"/>
-      <c r="DU66" s="23"/>
-      <c r="DV66" s="23"/>
-      <c r="DW66" s="23"/>
-      <c r="DX66" s="23"/>
-      <c r="DY66" s="23"/>
-      <c r="DZ66" s="23"/>
-      <c r="EA66" s="40"/>
-      <c r="EB66" s="22"/>
-      <c r="EC66" s="23"/>
-      <c r="ED66" s="23"/>
-      <c r="EE66" s="23"/>
-      <c r="EF66" s="23"/>
-      <c r="EG66" s="23"/>
-      <c r="EH66" s="40"/>
-      <c r="EI66" s="22"/>
-      <c r="EJ66" s="23"/>
-      <c r="EK66" s="23"/>
-      <c r="EL66" s="23"/>
-      <c r="EM66" s="23"/>
-      <c r="EN66" s="23"/>
-      <c r="EO66" s="40"/>
-      <c r="EP66" s="22"/>
-      <c r="EQ66" s="23"/>
-      <c r="ER66" s="41"/>
-      <c r="ES66" s="23"/>
-      <c r="ET66" s="23"/>
-      <c r="EU66" s="23"/>
-      <c r="EV66" s="40"/>
-      <c r="EW66" s="22"/>
-      <c r="EX66" s="23"/>
-      <c r="EY66" s="23"/>
-      <c r="EZ66" s="23"/>
-      <c r="FA66" s="23"/>
-      <c r="FB66" s="23"/>
-      <c r="FC66" s="40"/>
-      <c r="FD66" s="22"/>
-      <c r="FE66" s="23"/>
-      <c r="FF66" s="23"/>
-      <c r="FG66" s="23"/>
-      <c r="FH66" s="23"/>
-      <c r="FI66" s="23"/>
-      <c r="FJ66" s="40"/>
-      <c r="FK66" s="22"/>
-      <c r="FL66" s="23"/>
-      <c r="FM66" s="23"/>
-      <c r="FN66" s="23"/>
-      <c r="FO66" s="23"/>
-      <c r="FP66" s="23"/>
-      <c r="FQ66" s="40"/>
-      <c r="FR66" s="48"/>
-      <c r="FS66" s="41"/>
-      <c r="FT66" s="41"/>
-      <c r="FU66" s="41"/>
-      <c r="FV66" s="41"/>
-      <c r="FW66" s="41"/>
-      <c r="FX66" s="55"/>
-      <c r="FY66" s="48"/>
-      <c r="FZ66" s="41"/>
-      <c r="GA66" s="41"/>
-      <c r="GB66" s="41"/>
-      <c r="GC66" s="41"/>
-      <c r="GD66" s="41"/>
-      <c r="GE66" s="55"/>
-      <c r="GF66" s="22"/>
-      <c r="GG66" s="23"/>
-      <c r="GH66" s="23"/>
-      <c r="GI66" s="23"/>
-      <c r="GJ66" s="23"/>
-      <c r="GK66" s="23"/>
-      <c r="GL66" s="40"/>
-      <c r="GM66" s="22"/>
-      <c r="GN66" s="23"/>
-      <c r="GO66" s="23"/>
-      <c r="GP66" s="23"/>
-      <c r="GQ66" s="23"/>
-      <c r="GR66" s="23"/>
-      <c r="GS66" s="40"/>
-      <c r="GT66" s="22"/>
-      <c r="GU66" s="23"/>
-      <c r="GV66" s="23"/>
-      <c r="GW66" s="23"/>
-      <c r="GX66" s="23"/>
-      <c r="GY66" s="23"/>
-      <c r="GZ66" s="40"/>
-      <c r="HA66" s="22"/>
-      <c r="HB66" s="23"/>
-      <c r="HC66" s="23"/>
-      <c r="HD66" s="23"/>
-      <c r="HE66" s="23"/>
-      <c r="HF66" s="23"/>
-      <c r="HG66" s="40"/>
-      <c r="HH66" s="22"/>
-      <c r="HI66" s="23"/>
-      <c r="HJ66" s="23"/>
-      <c r="HK66" s="23"/>
-      <c r="HL66" s="23"/>
-      <c r="HM66" s="23"/>
-      <c r="HN66" s="40"/>
-      <c r="HO66" s="48"/>
-      <c r="HP66" s="23"/>
-      <c r="HQ66" s="23"/>
-      <c r="HR66" s="56"/>
-      <c r="HS66" s="23"/>
-      <c r="HT66" s="56"/>
-      <c r="HU66" s="40"/>
-      <c r="HV66" s="22"/>
-      <c r="HW66" s="23"/>
-      <c r="HX66" s="23"/>
-      <c r="HY66" s="23"/>
-      <c r="HZ66" s="23"/>
-      <c r="IA66" s="23"/>
-      <c r="IB66" s="23"/>
-      <c r="IC66" s="61"/>
-      <c r="ID66" s="62"/>
-      <c r="IE66" s="62"/>
-      <c r="IF66" s="62"/>
-      <c r="IG66" s="62"/>
-      <c r="IH66" s="62"/>
-      <c r="II66" s="68"/>
-      <c r="IJ66" s="61"/>
-      <c r="IK66" s="62"/>
-      <c r="IL66" s="62"/>
-      <c r="IM66" s="62"/>
-      <c r="IN66" s="62"/>
-      <c r="IO66" s="68"/>
-      <c r="IP66" s="61"/>
-      <c r="IQ66" s="62"/>
-      <c r="IR66" s="62"/>
-      <c r="IS66" s="62"/>
-      <c r="IT66" s="62"/>
-      <c r="IU66" s="62"/>
-      <c r="IV66" s="68"/>
-    </row>
-    <row r="67" spans="1:256">
-      <c r="A67" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="EK49:EL49"/>
-    <mergeCell ref="FV50:FX50"/>
-    <mergeCell ref="FY50:GE50"/>
-    <mergeCell ref="GF50:GL50"/>
-    <mergeCell ref="GM50:GS50"/>
-    <mergeCell ref="GT50:GZ50"/>
-    <mergeCell ref="HA50:HG50"/>
-    <mergeCell ref="HH50:HL50"/>
-    <mergeCell ref="GF46:GI46"/>
-    <mergeCell ref="GJ46:GP46"/>
-    <mergeCell ref="GQ46:GT46"/>
-    <mergeCell ref="GB47:GE47"/>
-    <mergeCell ref="GF47:GL47"/>
-    <mergeCell ref="GM47:GS47"/>
-    <mergeCell ref="GT47:GZ47"/>
-    <mergeCell ref="HA47:HG47"/>
-    <mergeCell ref="HH47:HK47"/>
-    <mergeCell ref="EM38:EO38"/>
-    <mergeCell ref="EP38:EV38"/>
-    <mergeCell ref="FI39:FJ39"/>
-    <mergeCell ref="FK39:FO39"/>
-    <mergeCell ref="EU40:EV40"/>
-    <mergeCell ref="EW40:FC40"/>
-    <mergeCell ref="FK42:FQ42"/>
-    <mergeCell ref="FK43:FQ43"/>
-    <mergeCell ref="FV45:FX45"/>
-    <mergeCell ref="DY35:EA35"/>
-    <mergeCell ref="EB35:EE35"/>
-    <mergeCell ref="EM35:EO35"/>
-    <mergeCell ref="EP35:ES35"/>
-    <mergeCell ref="FD36:FJ36"/>
-    <mergeCell ref="FK36:FQ36"/>
-    <mergeCell ref="EM37:EO37"/>
-    <mergeCell ref="EP37:EV37"/>
-    <mergeCell ref="EW37:FB37"/>
-    <mergeCell ref="FK37:FN37"/>
-    <mergeCell ref="EI28:EL28"/>
-    <mergeCell ref="AY29:AZ29"/>
-    <mergeCell ref="EI30:EO30"/>
-    <mergeCell ref="AZ31:BB31"/>
-    <mergeCell ref="BC31:BI31"/>
-    <mergeCell ref="BJ31:BP31"/>
-    <mergeCell ref="BQ31:BW31"/>
-    <mergeCell ref="EM31:EO31"/>
-    <mergeCell ref="BT33:BW33"/>
-    <mergeCell ref="T24:Z24"/>
-    <mergeCell ref="AA24:AG24"/>
-    <mergeCell ref="AH25:AN25"/>
-    <mergeCell ref="AO25:AU25"/>
-    <mergeCell ref="AV26:BB26"/>
-    <mergeCell ref="BC26:BI26"/>
-    <mergeCell ref="BT27:BW27"/>
-    <mergeCell ref="DY28:DZ28"/>
-    <mergeCell ref="EF28:EH28"/>
-    <mergeCell ref="IC3:II3"/>
-    <mergeCell ref="IP3:IV3"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="AX20:BB20"/>
-    <mergeCell ref="EP21:EV21"/>
-    <mergeCell ref="EW21:FC21"/>
-    <mergeCell ref="FD21:FJ21"/>
-    <mergeCell ref="FK21:FQ21"/>
-    <mergeCell ref="FR21:FX21"/>
-    <mergeCell ref="FK3:FQ3"/>
-    <mergeCell ref="FR3:FX3"/>
-    <mergeCell ref="FY3:GE3"/>
-    <mergeCell ref="GF3:GL3"/>
-    <mergeCell ref="GM3:GS3"/>
-    <mergeCell ref="GT3:GZ3"/>
-    <mergeCell ref="HA3:HG3"/>
-    <mergeCell ref="HH3:HN3"/>
-    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:AO2"/>
+    <mergeCell ref="AP2:BS2"/>
+    <mergeCell ref="BT2:CX2"/>
+    <mergeCell ref="CY2:EC2"/>
+    <mergeCell ref="ED2:FE2"/>
+    <mergeCell ref="FF2:GJ2"/>
+    <mergeCell ref="GK2:HN2"/>
+    <mergeCell ref="HO2:IS2"/>
     <mergeCell ref="IT2:IV2"/>
     <mergeCell ref="F3:L3"/>
     <mergeCell ref="M3:S3"/>
@@ -10441,15 +10108,80 @@
     <mergeCell ref="EP3:EV3"/>
     <mergeCell ref="EW3:FC3"/>
     <mergeCell ref="FD3:FJ3"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:AO2"/>
-    <mergeCell ref="AP2:BS2"/>
-    <mergeCell ref="BT2:CX2"/>
-    <mergeCell ref="CY2:EC2"/>
-    <mergeCell ref="ED2:FE2"/>
-    <mergeCell ref="FF2:GJ2"/>
-    <mergeCell ref="GK2:HN2"/>
-    <mergeCell ref="HO2:IS2"/>
+    <mergeCell ref="IC3:II3"/>
+    <mergeCell ref="IP3:IV3"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="AX20:BB20"/>
+    <mergeCell ref="EP21:EV21"/>
+    <mergeCell ref="EW21:FC21"/>
+    <mergeCell ref="FD21:FJ21"/>
+    <mergeCell ref="FK21:FQ21"/>
+    <mergeCell ref="FR21:FX21"/>
+    <mergeCell ref="FK3:FQ3"/>
+    <mergeCell ref="FR3:FX3"/>
+    <mergeCell ref="FY3:GE3"/>
+    <mergeCell ref="GF3:GL3"/>
+    <mergeCell ref="GM3:GS3"/>
+    <mergeCell ref="GT3:GZ3"/>
+    <mergeCell ref="HA3:HG3"/>
+    <mergeCell ref="HH3:HN3"/>
+    <mergeCell ref="HO3:HU3"/>
+    <mergeCell ref="T24:Z24"/>
+    <mergeCell ref="AA24:AG24"/>
+    <mergeCell ref="AH25:AN25"/>
+    <mergeCell ref="AO25:AU25"/>
+    <mergeCell ref="AV26:BB26"/>
+    <mergeCell ref="BC26:BI26"/>
+    <mergeCell ref="BT27:BW27"/>
+    <mergeCell ref="DY28:DZ28"/>
+    <mergeCell ref="EF28:EH28"/>
+    <mergeCell ref="EI28:EL28"/>
+    <mergeCell ref="AY29:AZ29"/>
+    <mergeCell ref="EI30:EO30"/>
+    <mergeCell ref="AZ31:BB31"/>
+    <mergeCell ref="BC31:BI31"/>
+    <mergeCell ref="BJ31:BP31"/>
+    <mergeCell ref="BQ31:BW31"/>
+    <mergeCell ref="EM31:EO31"/>
+    <mergeCell ref="BT33:BW33"/>
+    <mergeCell ref="DY35:EA35"/>
+    <mergeCell ref="EB35:EE35"/>
+    <mergeCell ref="EM35:EO35"/>
+    <mergeCell ref="EP35:ES35"/>
+    <mergeCell ref="FD36:FJ36"/>
+    <mergeCell ref="FK36:FQ36"/>
+    <mergeCell ref="EM37:EO37"/>
+    <mergeCell ref="EP37:EV37"/>
+    <mergeCell ref="EW37:FB37"/>
+    <mergeCell ref="FK37:FN37"/>
+    <mergeCell ref="EM38:EO38"/>
+    <mergeCell ref="EP38:EV38"/>
+    <mergeCell ref="FI39:FJ39"/>
+    <mergeCell ref="FK39:FO39"/>
+    <mergeCell ref="EU40:EV40"/>
+    <mergeCell ref="EW40:FC40"/>
+    <mergeCell ref="FK41:FQ41"/>
+    <mergeCell ref="FK42:FQ42"/>
+    <mergeCell ref="FV44:FX44"/>
+    <mergeCell ref="EK47:EL47"/>
+    <mergeCell ref="FV48:FX48"/>
+    <mergeCell ref="FY48:GE48"/>
+    <mergeCell ref="GF48:GL48"/>
+    <mergeCell ref="GM48:GS48"/>
+    <mergeCell ref="GT48:GZ48"/>
+    <mergeCell ref="HA48:HG48"/>
+    <mergeCell ref="HH48:HL48"/>
+    <mergeCell ref="GF45:GI45"/>
+    <mergeCell ref="GJ45:GP45"/>
+    <mergeCell ref="GQ45:GT45"/>
+    <mergeCell ref="GB46:GE46"/>
+    <mergeCell ref="GF46:GL46"/>
+    <mergeCell ref="GM46:GS46"/>
+    <mergeCell ref="GT46:GZ46"/>
+    <mergeCell ref="HA46:HG46"/>
+    <mergeCell ref="HH46:HK46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
